--- a/SSubmit.xlsx
+++ b/SSubmit.xlsx
@@ -391,4524 +391,4524 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>2.099453934300119e-05</v>
+        <v>7.14662117677945e-05</v>
       </c>
       <c r="B2">
-        <v>0.00239619340553298</v>
+        <v>0.0003581183293682573</v>
       </c>
       <c r="C2">
-        <v>0.9972838410866954</v>
+        <v>0.999357865245277</v>
       </c>
       <c r="D2">
-        <v>0.0002673994721945881</v>
+        <v>0.0001094533264898348</v>
       </c>
       <c r="E2">
-        <v>3.157149623391134e-05</v>
+        <v>0.0001030968870973114</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2.050319020059406e-07</v>
+        <v>3.025543855851137e-06</v>
       </c>
       <c r="B3">
-        <v>0.006539201436355841</v>
+        <v>0.000880816363591948</v>
       </c>
       <c r="C3">
-        <v>0.0001512144313504886</v>
+        <v>0.001082625508436596</v>
       </c>
       <c r="D3">
-        <v>0.9933091106591506</v>
+        <v>0.9980298003486924</v>
       </c>
       <c r="E3">
-        <v>2.684412415294035e-07</v>
+        <v>3.732235423593475e-06</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>1.549854661032945e-05</v>
+        <v>7.06780194538485e-05</v>
       </c>
       <c r="B4">
-        <v>0.0004122685684730597</v>
+        <v>0.0004877516246265794</v>
       </c>
       <c r="C4">
-        <v>0.9993410758360676</v>
+        <v>0.999028065335665</v>
       </c>
       <c r="D4">
-        <v>0.0002078504023947407</v>
+        <v>0.0003041963552398421</v>
       </c>
       <c r="E4">
-        <v>2.330664645434264e-05</v>
+        <v>0.000109308665014531</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>8.109168544320353e-06</v>
+        <v>5.830937233046024e-05</v>
       </c>
       <c r="B5">
-        <v>0.0001805126948901332</v>
+        <v>0.000536755967390619</v>
       </c>
       <c r="C5">
-        <v>0.06448617741286093</v>
+        <v>0.01441550139726282</v>
       </c>
       <c r="D5">
-        <v>0.9353167040144492</v>
+        <v>0.9849736084499017</v>
       </c>
       <c r="E5">
-        <v>8.496709255472668e-06</v>
+        <v>1.582481311413919e-05</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>1.541705013649836e-05</v>
+        <v>6.991716924678315e-05</v>
       </c>
       <c r="B6">
-        <v>0.0004108124422330077</v>
+        <v>0.0004838151616816133</v>
       </c>
       <c r="C6">
-        <v>0.9940862105972242</v>
+        <v>0.989805228657714</v>
       </c>
       <c r="D6">
-        <v>0.005464375817992268</v>
+        <v>0.009532739463103363</v>
       </c>
       <c r="E6">
-        <v>2.31840924142373e-05</v>
+        <v>0.0001082995482540572</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>3.491825199369195e-05</v>
+        <v>0.0001422838238825023</v>
       </c>
       <c r="B7">
-        <v>0.002067696324508137</v>
+        <v>0.003447271332637009</v>
       </c>
       <c r="C7">
-        <v>0.9968884694142041</v>
+        <v>0.9067836657747171</v>
       </c>
       <c r="D7">
-        <v>0.0009572482311709445</v>
+        <v>0.0005165057822607588</v>
       </c>
       <c r="E7">
-        <v>5.166777812340073e-05</v>
+        <v>0.08911027328650274</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>5.698827708098009e-05</v>
+        <v>0.0008102249530549646</v>
       </c>
       <c r="B8">
-        <v>0.0006627556464772392</v>
+        <v>0.007467405839755745</v>
       </c>
       <c r="C8">
-        <v>0.9987771328548948</v>
+        <v>0.9168903583564966</v>
       </c>
       <c r="D8">
-        <v>0.0004475238254400176</v>
+        <v>0.0005364154717197437</v>
       </c>
       <c r="E8">
-        <v>5.559939610668657e-05</v>
+        <v>0.07429559537897308</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>2.258882000474898e-05</v>
+        <v>7.49351786777889e-05</v>
       </c>
       <c r="B9">
-        <v>0.02459634028119333</v>
+        <v>0.003285798143664077</v>
       </c>
       <c r="C9">
-        <v>0.9751993596847081</v>
+        <v>0.9963879204095025</v>
       </c>
       <c r="D9">
-        <v>0.0001477422455896281</v>
+        <v>0.0001147661863489208</v>
       </c>
       <c r="E9">
-        <v>3.39689685044781e-05</v>
+        <v>0.0001365800818067305</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>7.513978554523047e-06</v>
+        <v>8.618003760686885e-05</v>
       </c>
       <c r="B10">
-        <v>0.006724976752314876</v>
+        <v>0.003049993550429922</v>
       </c>
       <c r="C10">
-        <v>0.9931554401086184</v>
+        <v>0.9964505319344874</v>
       </c>
       <c r="D10">
-        <v>0.0001007696724996247</v>
+        <v>0.0003112600436388224</v>
       </c>
       <c r="E10">
-        <v>1.129948801257685e-05</v>
+        <v>0.0001020344338371846</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>1.071059824677787e-05</v>
+        <v>3.662571491008794e-05</v>
       </c>
       <c r="B11">
-        <v>3.75380871389768e-05</v>
+        <v>4.762792025325003e-05</v>
       </c>
       <c r="C11">
-        <v>0.9999035147466875</v>
+        <v>0.9998491752295422</v>
       </c>
       <c r="D11">
-        <v>4.337306650906873e-05</v>
+        <v>4.955798972928627e-05</v>
       </c>
       <c r="E11">
-        <v>4.863501417946406e-06</v>
+        <v>1.701314556454984e-05</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>1.296692630216124e-05</v>
+        <v>6.517449001001666e-05</v>
       </c>
       <c r="B12">
-        <v>0.8294478453135644</v>
+        <v>0.7227035602544498</v>
       </c>
       <c r="C12">
-        <v>0.1703372643774751</v>
+        <v>0.2769080991160284</v>
       </c>
       <c r="D12">
-        <v>0.0001813173579205714</v>
+        <v>0.0002440092285759076</v>
       </c>
       <c r="E12">
-        <v>2.060602473782256e-05</v>
+        <v>7.915691093573288e-05</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>5.513859284897613e-06</v>
+        <v>1.727612457418655e-05</v>
       </c>
       <c r="B13">
-        <v>0.02257346898847326</v>
+        <v>0.0145011997150678</v>
       </c>
       <c r="C13">
-        <v>0.9773741227479966</v>
+        <v>0.9853870224237662</v>
       </c>
       <c r="D13">
-        <v>3.840958627100577e-05</v>
+        <v>4.480795197851419e-05</v>
       </c>
       <c r="E13">
-        <v>8.484817974200438e-06</v>
+        <v>4.969378461311007e-05</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>4.312660230276064e-05</v>
+        <v>8.348343864647975e-05</v>
       </c>
       <c r="B14">
-        <v>0.0008911367681472653</v>
+        <v>0.002345024385350569</v>
       </c>
       <c r="C14">
-        <v>0.9988272742714636</v>
+        <v>0.9969325268140056</v>
       </c>
       <c r="D14">
-        <v>0.0002073217829915776</v>
+        <v>0.0002761143951010135</v>
       </c>
       <c r="E14">
-        <v>3.11405750949314e-05</v>
+        <v>0.0003628509668961499</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>9.270414759427847e-05</v>
+        <v>0.0002074688965951403</v>
       </c>
       <c r="B15">
-        <v>0.08133856955121466</v>
+        <v>0.005481503113105603</v>
       </c>
       <c r="C15">
-        <v>0.9177827563281682</v>
+        <v>0.9243649832345798</v>
       </c>
       <c r="D15">
-        <v>0.0006729547152408461</v>
+        <v>0.0004476724407996087</v>
       </c>
       <c r="E15">
-        <v>0.0001130152577820481</v>
+        <v>0.06949837231491973</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>1.297335449956288e-06</v>
+        <v>3.14483307325505e-06</v>
       </c>
       <c r="B16">
-        <v>2.269281144353944e-05</v>
+        <v>9.150195694082753e-06</v>
       </c>
       <c r="C16">
-        <v>0.004134434115140043</v>
+        <v>0.001612713147603872</v>
       </c>
       <c r="D16">
-        <v>0.9958396248106038</v>
+        <v>0.9983719623166541</v>
       </c>
       <c r="E16">
-        <v>1.950927362741531e-06</v>
+        <v>3.029506974485004e-06</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>1.646476267050306e-05</v>
+        <v>3.662550094623839e-05</v>
       </c>
       <c r="B17">
-        <v>7.110284219692151e-05</v>
+        <v>5.3254917679577e-05</v>
       </c>
       <c r="C17">
-        <v>0.9998382812016461</v>
+        <v>0.9998433342083082</v>
       </c>
       <c r="D17">
-        <v>6.667482337679831e-05</v>
+        <v>4.15870585585702e-05</v>
       </c>
       <c r="E17">
-        <v>7.476370110160047e-06</v>
+        <v>2.519831450773584e-05</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>6.412753367625791e-06</v>
+        <v>0.0007085175832449703</v>
       </c>
       <c r="B18">
-        <v>0.9791910646521038</v>
+        <v>0.200523735274252</v>
       </c>
       <c r="C18">
-        <v>0.02072804183047883</v>
+        <v>0.7965612796309582</v>
       </c>
       <c r="D18">
-        <v>6.688009667612796e-05</v>
+        <v>0.001500786714284481</v>
       </c>
       <c r="E18">
-        <v>7.600667373390516e-06</v>
+        <v>0.0007056807972603341</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>2.193410279849308e-05</v>
+        <v>7.32010968275742e-05</v>
       </c>
       <c r="B19">
-        <v>0.0007193068652374562</v>
+        <v>0.0003924021746199389</v>
       </c>
       <c r="C19">
-        <v>0.9989464082893188</v>
+        <v>0.9992342970105971</v>
       </c>
       <c r="D19">
-        <v>0.0002793663350053037</v>
+        <v>0.0001335976232550154</v>
       </c>
       <c r="E19">
-        <v>3.29844076396799e-05</v>
+        <v>0.0001665020947004685</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>2.45760023327257e-05</v>
+        <v>8.618003760686885e-05</v>
       </c>
       <c r="B20">
-        <v>0.02748690326485025</v>
+        <v>0.003049993550429922</v>
       </c>
       <c r="C20">
-        <v>0.9721219756421985</v>
+        <v>0.9964505319344874</v>
       </c>
       <c r="D20">
-        <v>0.0003295878060402562</v>
+        <v>0.0003112600436388224</v>
       </c>
       <c r="E20">
-        <v>3.695728457842553e-05</v>
+        <v>0.0001020344338371846</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>4.538630515441446e-05</v>
+        <v>0.0001930349803548801</v>
       </c>
       <c r="B21">
-        <v>0.00319923261056539</v>
+        <v>0.01660868242767737</v>
       </c>
       <c r="C21">
-        <v>0.9824835589161218</v>
+        <v>0.9735610208207474</v>
       </c>
       <c r="D21">
-        <v>0.01419969780306405</v>
+        <v>0.008792033814074941</v>
       </c>
       <c r="E21">
-        <v>7.2124365094475e-05</v>
+        <v>0.0008452279571455319</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>3.16755224242409e-05</v>
+        <v>0.0003801321597905515</v>
       </c>
       <c r="B22">
-        <v>0.002630645110288622</v>
+        <v>0.0005963942031808076</v>
       </c>
       <c r="C22">
-        <v>0.9969743685233718</v>
+        <v>0.9745903961882657</v>
       </c>
       <c r="D22">
-        <v>0.0003266796555770072</v>
+        <v>0.0006603674578879202</v>
       </c>
       <c r="E22">
-        <v>3.663118833852391e-05</v>
+        <v>0.0237727099908751</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>6.398651950387866e-05</v>
+        <v>0.0001732917297389391</v>
       </c>
       <c r="B23">
-        <v>0.0003777852860243319</v>
+        <v>0.003332273011712614</v>
       </c>
       <c r="C23">
-        <v>0.9992108925927091</v>
+        <v>0.9954577859958148</v>
       </c>
       <c r="D23">
-        <v>0.0003011326340054255</v>
+        <v>0.0004213534256193996</v>
       </c>
       <c r="E23">
-        <v>4.62029677572415e-05</v>
+        <v>0.0006152958371141858</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>1.473256836535026e-05</v>
+        <v>0.0001156178027242152</v>
       </c>
       <c r="B24">
-        <v>6.48147491841178e-05</v>
+        <v>0.0001936913977747907</v>
       </c>
       <c r="C24">
-        <v>0.9998846666827984</v>
+        <v>0.9995068469833054</v>
       </c>
       <c r="D24">
-        <v>2.90961896634928e-05</v>
+        <v>5.566867062263437e-05</v>
       </c>
       <c r="E24">
-        <v>6.689809988571721e-06</v>
+        <v>0.0001281751455729933</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>3.317257445702569e-05</v>
+        <v>0.0002776979888564159</v>
       </c>
       <c r="B25">
-        <v>0.0004474976335734369</v>
+        <v>0.0009170638835224617</v>
       </c>
       <c r="C25">
-        <v>0.9993785571686897</v>
+        <v>0.9983528393461469</v>
       </c>
       <c r="D25">
-        <v>0.0001144566865867605</v>
+        <v>0.0002301124499706215</v>
       </c>
       <c r="E25">
-        <v>2.631593669282595e-05</v>
+        <v>0.0002222863315035625</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>0.0001218762762381597</v>
+        <v>0.0001927171333639207</v>
       </c>
       <c r="B26">
-        <v>0.1957455437301222</v>
+        <v>0.04051246247118556</v>
       </c>
       <c r="C26">
-        <v>0.8032346611064772</v>
+        <v>0.891328060382348</v>
       </c>
       <c r="D26">
-        <v>0.0008062874051725489</v>
+        <v>0.0004144893698428512</v>
       </c>
       <c r="E26">
-        <v>9.163148199003917e-05</v>
+        <v>0.06755227064325964</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>2.732665037260157e-06</v>
+        <v>2.416696418750434e-05</v>
       </c>
       <c r="B27">
-        <v>0.0002395424789255073</v>
+        <v>0.0004364896967275037</v>
       </c>
       <c r="C27">
-        <v>0.9997181019716225</v>
+        <v>0.9909597702827614</v>
       </c>
       <c r="D27">
-        <v>3.557941938519008e-05</v>
+        <v>5.003783762365313e-05</v>
       </c>
       <c r="E27">
-        <v>4.043465029585066e-06</v>
+        <v>0.00852953521870029</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>9.721508457075721e-06</v>
+        <v>3.662580073824526e-05</v>
       </c>
       <c r="B28">
-        <v>0.0001313062461684836</v>
+        <v>5.325535358893616e-05</v>
       </c>
       <c r="C28">
-        <v>0.9998151901715598</v>
+        <v>0.9998515182612768</v>
       </c>
       <c r="D28">
-        <v>3.936770133302939e-05</v>
+        <v>4.158739896258988e-05</v>
       </c>
       <c r="E28">
-        <v>4.414372481928309e-06</v>
+        <v>1.701318543290295e-05</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>1.975750257418241e-05</v>
+        <v>8.640223217019783e-05</v>
       </c>
       <c r="B29">
-        <v>0.00216010121473803</v>
+        <v>0.0004542313620905518</v>
       </c>
       <c r="C29">
-        <v>0.997525462942679</v>
+        <v>0.9990196407092143</v>
       </c>
       <c r="D29">
-        <v>0.0002649670942449513</v>
+        <v>0.0003120625530296116</v>
       </c>
       <c r="E29">
-        <v>2.971124576354361e-05</v>
+        <v>0.0001276631434953118</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>2.172983125026175e-05</v>
+        <v>3.553729918149238e-05</v>
       </c>
       <c r="B30">
-        <v>0.0002542312814005899</v>
+        <v>0.0004816674520189209</v>
       </c>
       <c r="C30">
-        <v>0.9985231155417585</v>
+        <v>0.9988962976833187</v>
       </c>
       <c r="D30">
-        <v>0.001179367429305861</v>
+        <v>0.0005160842478203842</v>
       </c>
       <c r="E30">
-        <v>2.155591628468163e-05</v>
+        <v>7.041331766063534e-05</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>1.161366016031219e-05</v>
+        <v>3.662568579932308e-05</v>
       </c>
       <c r="B31">
-        <v>3.885994632202826e-05</v>
+        <v>4.762788239773812e-05</v>
       </c>
       <c r="C31">
-        <v>0.9998972227691731</v>
+        <v>0.9998483805317648</v>
       </c>
       <c r="D31">
-        <v>4.703005779331498e-05</v>
+        <v>4.955795033972106e-05</v>
       </c>
       <c r="E31">
-        <v>5.273566551169829e-06</v>
+        <v>1.780794969821462e-05</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>0.0002636432316313758</v>
+        <v>0.0001996081434577148</v>
       </c>
       <c r="B32">
-        <v>0.06614678874330038</v>
+        <v>0.008510536949858524</v>
       </c>
       <c r="C32">
-        <v>0.9254085183777906</v>
+        <v>0.9885840658710006</v>
       </c>
       <c r="D32">
-        <v>0.007762088451203731</v>
+        <v>0.002139174915016941</v>
       </c>
       <c r="E32">
-        <v>0.000418961196073902</v>
+        <v>0.0005666141206661558</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>3.314882946271749e-05</v>
+        <v>0.0001251216463557024</v>
       </c>
       <c r="B33">
-        <v>0.02799904036567186</v>
+        <v>0.109255774129242</v>
       </c>
       <c r="C33">
-        <v>0.9718821777797186</v>
+        <v>0.8904098304572541</v>
       </c>
       <c r="D33">
-        <v>6.972662605378625e-05</v>
+        <v>0.0001020232497844781</v>
       </c>
       <c r="E33">
-        <v>1.590639909294171e-05</v>
+        <v>0.0001072505173637607</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>5.353278887496876e-06</v>
+        <v>5.706867072794254e-05</v>
       </c>
       <c r="B34">
-        <v>0.06267385945310794</v>
+        <v>0.06039987603610669</v>
       </c>
       <c r="C34">
-        <v>0.9372752585718201</v>
+        <v>0.9392308852537788</v>
       </c>
       <c r="D34">
-        <v>3.729098198520371e-05</v>
+        <v>0.0001480152708134597</v>
       </c>
       <c r="E34">
-        <v>8.237714199553545e-06</v>
+        <v>0.0001641547685728243</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>2.574819841356072e-06</v>
+        <v>1.603722624792757e-05</v>
       </c>
       <c r="B35">
-        <v>0.0002386410440052978</v>
+        <v>0.000179750305985419</v>
       </c>
       <c r="C35">
-        <v>0.9997478575153089</v>
+        <v>0.9997878370495529</v>
       </c>
       <c r="D35">
-        <v>8.884005912210654e-06</v>
+        <v>1.114245968389401e-05</v>
       </c>
       <c r="E35">
-        <v>2.042614932655841e-06</v>
+        <v>5.232958529510012e-06</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>1.84489275479699e-05</v>
+        <v>8.640223217019783e-05</v>
       </c>
       <c r="B36">
-        <v>0.00206755315094498</v>
+        <v>0.0004542313620905518</v>
       </c>
       <c r="C36">
-        <v>0.9976388366593809</v>
+        <v>0.9990196407092143</v>
       </c>
       <c r="D36">
-        <v>0.0002474178457508567</v>
+        <v>0.0003120625530296116</v>
       </c>
       <c r="E36">
-        <v>2.774341637529694e-05</v>
+        <v>0.0001276631434953118</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>2.363729588348945e-05</v>
+        <v>0.0001327090323177548</v>
       </c>
       <c r="B37">
-        <v>0.0003838506602215468</v>
+        <v>0.0005543043600057569</v>
       </c>
       <c r="C37">
-        <v>0.999264247425108</v>
+        <v>0.9617048286613123</v>
       </c>
       <c r="D37">
-        <v>0.0002951670020297576</v>
+        <v>0.0003174267021942879</v>
       </c>
       <c r="E37">
-        <v>3.30976167572234e-05</v>
+        <v>0.0372907312441699</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>1.306216465753874e-05</v>
+        <v>3.143911328733332e-05</v>
       </c>
       <c r="B38">
-        <v>0.001103616258287532</v>
+        <v>0.0002251447092847759</v>
       </c>
       <c r="C38">
-        <v>0.9988244944248963</v>
+        <v>0.9996960158712168</v>
       </c>
       <c r="D38">
-        <v>5.289584422740083e-05</v>
+        <v>3.569808498262017e-05</v>
       </c>
       <c r="E38">
-        <v>5.931307931608827e-06</v>
+        <v>1.170222122856194e-05</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>1.254606198654722e-05</v>
+        <v>4.972322691725613e-05</v>
       </c>
       <c r="B39">
-        <v>0.002197771760116648</v>
+        <v>0.002159403777964254</v>
       </c>
       <c r="C39">
-        <v>0.9957231877161964</v>
+        <v>0.9872357513903965</v>
       </c>
       <c r="D39">
-        <v>0.002046557241604077</v>
+        <v>0.01033706876215907</v>
       </c>
       <c r="E39">
-        <v>1.99372200961733e-05</v>
+        <v>0.0002180528425627239</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>1.688140732522245e-05</v>
+        <v>8.304372130640965e-05</v>
       </c>
       <c r="B40">
-        <v>6.865116812220209e-05</v>
+        <v>0.0001670595894390557</v>
       </c>
       <c r="C40">
-        <v>0.9998734618088522</v>
+        <v>0.999640090633352</v>
       </c>
       <c r="D40">
-        <v>3.334005430285836e-05</v>
+        <v>4.764813225130259e-05</v>
       </c>
       <c r="E40">
-        <v>7.665561397361702e-06</v>
+        <v>6.215792365128672e-05</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>2.03229021298444e-05</v>
+        <v>8.640171685714934e-05</v>
       </c>
       <c r="B41">
-        <v>0.00244517935271818</v>
+        <v>0.0004542286530014229</v>
       </c>
       <c r="C41">
-        <v>0.9972313866084437</v>
+        <v>0.9990136824388829</v>
       </c>
       <c r="D41">
-        <v>0.0002725496455713986</v>
+        <v>0.0003120606918519379</v>
       </c>
       <c r="E41">
-        <v>3.056149113690488e-05</v>
+        <v>0.0001336264994067292</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>2.82900066733445e-05</v>
+        <v>5.03907045339921e-05</v>
       </c>
       <c r="B42">
-        <v>0.002349478778235168</v>
+        <v>7.906554651156654e-05</v>
       </c>
       <c r="C42">
-        <v>0.9972977514461011</v>
+        <v>0.9966313864748853</v>
       </c>
       <c r="D42">
-        <v>0.0002917637635945288</v>
+        <v>8.754664897460987e-05</v>
       </c>
       <c r="E42">
-        <v>3.271600539589887e-05</v>
+        <v>0.003151610625094692</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>5.619945537081253e-06</v>
+        <v>5.978076507056664e-05</v>
       </c>
       <c r="B43">
-        <v>7.019236887025725e-05</v>
+        <v>0.0005503005967025481</v>
       </c>
       <c r="C43">
-        <v>0.05084815550823455</v>
+        <v>0.02022211064957865</v>
       </c>
       <c r="D43">
-        <v>0.9490701436521658</v>
+        <v>0.9791535617800874</v>
       </c>
       <c r="E43">
-        <v>5.888525192094489e-06</v>
+        <v>1.424620856071877e-05</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>3.08178096889458e-05</v>
+        <v>0.000103459898444277</v>
       </c>
       <c r="B44">
-        <v>0.6601164701436555</v>
+        <v>0.7577759742212832</v>
       </c>
       <c r="C44">
-        <v>0.3388962772784467</v>
+        <v>0.2409131373071608</v>
       </c>
       <c r="D44">
-        <v>0.0009074615162588589</v>
+        <v>0.001015108138339947</v>
       </c>
       <c r="E44">
-        <v>4.897325195023912e-05</v>
+        <v>0.0001923204347715996</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>4.701907686978499e-05</v>
+        <v>0.0001213361311094122</v>
       </c>
       <c r="B45">
-        <v>0.01843517364002691</v>
+        <v>0.002241707775416257</v>
       </c>
       <c r="C45">
-        <v>0.981147858922846</v>
+        <v>0.9972619021408398</v>
       </c>
       <c r="D45">
-        <v>0.0003326479375284665</v>
+        <v>0.0003115134903657227</v>
       </c>
       <c r="E45">
-        <v>3.730042272912337e-05</v>
+        <v>6.354046226883384e-05</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>9.309669960178904e-06</v>
+        <v>0.000190113178993499</v>
       </c>
       <c r="B46">
-        <v>0.002571291715566604</v>
+        <v>0.00700645270883428</v>
       </c>
       <c r="C46">
-        <v>0.9973402215074879</v>
+        <v>0.9914338949858718</v>
       </c>
       <c r="D46">
-        <v>6.485123268732863e-05</v>
+        <v>0.0004930840917616199</v>
       </c>
       <c r="E46">
-        <v>1.4325874297945e-05</v>
+        <v>0.000876455034538744</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>1.161823952505063e-05</v>
+        <v>3.143912970806128e-05</v>
       </c>
       <c r="B47">
-        <v>0.0008919906894891809</v>
+        <v>0.0002251448268784235</v>
       </c>
       <c r="C47">
-        <v>0.9990440668228786</v>
+        <v>0.9996965380149597</v>
       </c>
       <c r="D47">
-        <v>4.70486021441341e-05</v>
+        <v>3.569810362781969e-05</v>
       </c>
       <c r="E47">
-        <v>5.275645963205056e-06</v>
+        <v>1.117992482618557e-05</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>7.984358473997439e-07</v>
+        <v>9.070184170229543e-06</v>
       </c>
       <c r="B48">
-        <v>1.50143078920353e-05</v>
+        <v>0.000219753623557312</v>
       </c>
       <c r="C48">
-        <v>0.001316970419578894</v>
+        <v>0.03011674850923065</v>
       </c>
       <c r="D48">
-        <v>2.188830365176786e-05</v>
+        <v>3.292575671822167e-05</v>
       </c>
       <c r="E48">
-        <v>0.9986453285330301</v>
+        <v>0.9696215019263237</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>4.990381505409333e-06</v>
+        <v>8.639616244778757e-05</v>
       </c>
       <c r="B49">
-        <v>0.0001134735019732008</v>
+        <v>0.0004541994525182109</v>
       </c>
       <c r="C49">
-        <v>0.9998071057915092</v>
+        <v>0.9989494599772004</v>
       </c>
       <c r="D49">
-        <v>6.692581117969442e-05</v>
+        <v>0.0003120406307595053</v>
       </c>
       <c r="E49">
-        <v>7.504513832371095e-06</v>
+        <v>0.000197903777074111</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>1.911472301223818e-07</v>
+        <v>1.618156667759523e-06</v>
       </c>
       <c r="B50">
-        <v>9.597347833132153e-06</v>
+        <v>5.223039185305993e-05</v>
       </c>
       <c r="C50">
-        <v>0.001475542071910954</v>
+        <v>0.0009395238931837368</v>
       </c>
       <c r="D50">
-        <v>0.9985143656768035</v>
+        <v>0.9990022351069838</v>
       </c>
       <c r="E50">
-        <v>3.03756222614728e-07</v>
+        <v>4.392451311353845e-06</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>1.911472301223818e-07</v>
+        <v>1.618156667759523e-06</v>
       </c>
       <c r="B51">
-        <v>9.597347833132153e-06</v>
+        <v>5.223039185305993e-05</v>
       </c>
       <c r="C51">
-        <v>0.001475542071910954</v>
+        <v>0.0009395238931837368</v>
       </c>
       <c r="D51">
-        <v>0.9985143656768035</v>
+        <v>0.9990022351069838</v>
       </c>
       <c r="E51">
-        <v>3.03756222614728e-07</v>
+        <v>4.392451311353845e-06</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>5.48210030298057e-05</v>
+        <v>0.000205894013023588</v>
       </c>
       <c r="B52">
-        <v>0.001357872133196798</v>
+        <v>0.00571242274346699</v>
       </c>
       <c r="C52">
-        <v>0.9980333995221641</v>
+        <v>0.9805573246241444</v>
       </c>
       <c r="D52">
-        <v>0.0004727898955941068</v>
+        <v>0.000471056602408268</v>
       </c>
       <c r="E52">
-        <v>8.111744601528088e-05</v>
+        <v>0.01305330201695669</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>1.491382278964395e-06</v>
+        <v>1.541848566326205e-05</v>
       </c>
       <c r="B53">
-        <v>0.0001752483568190862</v>
+        <v>0.001167537133750349</v>
       </c>
       <c r="C53">
-        <v>0.999707482335861</v>
+        <v>0.998513865400247</v>
       </c>
       <c r="D53">
-        <v>0.0001134079370098706</v>
+        <v>0.0002792116841380768</v>
       </c>
       <c r="E53">
-        <v>2.369988030915884e-06</v>
+        <v>2.396729620098421e-05</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>2.540099234966089e-05</v>
+        <v>7.021422951157847e-05</v>
       </c>
       <c r="B54">
-        <v>0.02694981465199594</v>
+        <v>0.002364632456821087</v>
       </c>
       <c r="C54">
-        <v>0.9726630636644903</v>
+        <v>0.9973398131483574</v>
       </c>
       <c r="D54">
-        <v>0.0003235227902146079</v>
+        <v>0.0001075358662067246</v>
       </c>
       <c r="E54">
-        <v>3.819790094952808e-05</v>
+        <v>0.0001178042991033477</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>1.024631211257071e-05</v>
+        <v>7.771081497956417e-05</v>
       </c>
       <c r="B55">
-        <v>0.0009358213909812725</v>
+        <v>0.003482911749358261</v>
       </c>
       <c r="C55">
-        <v>0.9987364968953721</v>
+        <v>0.9947323336679138</v>
       </c>
       <c r="D55">
-        <v>0.0003016682067818692</v>
+        <v>0.0009924358540106014</v>
       </c>
       <c r="E55">
-        <v>1.576719475234529e-05</v>
+        <v>0.000714607913737883</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>9.767196195611861e-05</v>
+        <v>0.0001733002446707005</v>
       </c>
       <c r="B56">
-        <v>0.0006256114806930629</v>
+        <v>0.003287637621704069</v>
       </c>
       <c r="C56">
-        <v>0.9975074504236108</v>
+        <v>0.9955066992078403</v>
       </c>
       <c r="D56">
-        <v>0.001698739801880915</v>
+        <v>0.0004544309126716217</v>
       </c>
       <c r="E56">
-        <v>7.052633185918978e-05</v>
+        <v>0.0005779320131132864</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>4.326235195122672e-07</v>
+        <v>3.130104631327856e-06</v>
       </c>
       <c r="B57">
-        <v>0.002948177670184403</v>
+        <v>0.001166150728476727</v>
       </c>
       <c r="C57">
-        <v>0.003361462263705556</v>
+        <v>0.002233297453768417</v>
       </c>
       <c r="D57">
-        <v>0.9936893610234452</v>
+        <v>0.9965947738949359</v>
       </c>
       <c r="E57">
-        <v>5.664191452963658e-07</v>
+        <v>2.647818187992687e-06</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>1.011752624005348e-05</v>
+        <v>2.842390262394439e-05</v>
       </c>
       <c r="B58">
-        <v>0.9403473068539332</v>
+        <v>0.9588958738847686</v>
       </c>
       <c r="C58">
-        <v>0.0596163898523289</v>
+        <v>0.04102816146044783</v>
       </c>
       <c r="D58">
-        <v>2.128162532927479e-05</v>
+        <v>2.317663651106681e-05</v>
       </c>
       <c r="E58">
-        <v>4.904142168154209e-06</v>
+        <v>2.436411564829327e-05</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>1.52305925890854e-06</v>
+        <v>1.193676331239528e-05</v>
       </c>
       <c r="B59">
-        <v>0.0003545200691156358</v>
+        <v>0.0002881523652078856</v>
       </c>
       <c r="C59">
-        <v>0.9996212408136387</v>
+        <v>0.9996433574606287</v>
       </c>
       <c r="D59">
-        <v>2.042568814963524e-05</v>
+        <v>4.307652398037625e-05</v>
       </c>
       <c r="E59">
-        <v>2.290369837177906e-06</v>
+        <v>1.347688687010645e-05</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>2.675305135569406e-05</v>
+        <v>8.946636161263967e-05</v>
       </c>
       <c r="B60">
-        <v>0.00357974081072749</v>
+        <v>0.0005705249959091789</v>
       </c>
       <c r="C60">
-        <v>0.9960125315644072</v>
+        <v>0.9989994885583467</v>
       </c>
       <c r="D60">
-        <v>0.0003407434521535287</v>
+        <v>0.0001370212670466285</v>
       </c>
       <c r="E60">
-        <v>4.023112135601593e-05</v>
+        <v>0.0002034988170849757</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>6.79432591109346e-06</v>
+        <v>7.205870854809e-05</v>
       </c>
       <c r="B61">
-        <v>0.001784493824282271</v>
+        <v>0.0008512022481547175</v>
       </c>
       <c r="C61">
-        <v>0.9981513773077558</v>
+        <v>0.3580883641118555</v>
       </c>
       <c r="D61">
-        <v>4.931381075504656e-05</v>
+        <v>0.0001698179408195325</v>
       </c>
       <c r="E61">
-        <v>8.020731295462794e-06</v>
+        <v>0.640818556990622</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>1.194583892331087e-05</v>
+        <v>4.087989353723859e-05</v>
       </c>
       <c r="B62">
-        <v>0.009687293624374914</v>
+        <v>0.05836125220190067</v>
       </c>
       <c r="C62">
-        <v>0.990244589462674</v>
+        <v>0.9415249198828451</v>
       </c>
       <c r="D62">
-        <v>5.04388872659507e-05</v>
+        <v>5.73388848740501e-05</v>
       </c>
       <c r="E62">
-        <v>5.732186761764538e-06</v>
+        <v>1.560913684263191e-05</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>0.0001105765154358639</v>
+        <v>0.0002546509172125336</v>
       </c>
       <c r="B63">
-        <v>0.1637032721666842</v>
+        <v>0.03423263084742861</v>
       </c>
       <c r="C63">
-        <v>0.8356184612615782</v>
+        <v>0.9129202434514992</v>
       </c>
       <c r="D63">
-        <v>0.0004845541885557392</v>
+        <v>0.0005078533439333515</v>
       </c>
       <c r="E63">
-        <v>8.313586774577065e-05</v>
+        <v>0.05208462143992636</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>1.516736433734166e-07</v>
+        <v>1.311643812705251e-06</v>
       </c>
       <c r="B64">
-        <v>2.062829680008294e-05</v>
+        <v>3.478453458744352e-05</v>
       </c>
       <c r="C64">
-        <v>0.0002532317248680395</v>
+        <v>0.0004480505316296877</v>
       </c>
       <c r="D64">
-        <v>0.9997257472768021</v>
+        <v>0.9995136502610913</v>
       </c>
       <c r="E64">
-        <v>2.410278869948833e-07</v>
+        <v>2.203028878600912e-06</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>1.439381459460634e-06</v>
+        <v>6.512009258290769e-06</v>
       </c>
       <c r="B65">
-        <v>0.0001172245471647632</v>
+        <v>3.186484214466522e-05</v>
       </c>
       <c r="C65">
-        <v>0.003131931535728697</v>
+        <v>0.003361530855128156</v>
       </c>
       <c r="D65">
-        <v>0.9967483308905792</v>
+        <v>0.9965950238491387</v>
       </c>
       <c r="E65">
-        <v>1.073645068201885e-06</v>
+        <v>5.068444330247361e-06</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>3.831048395292986e-05</v>
+        <v>8.178303312645141e-05</v>
       </c>
       <c r="B66">
-        <v>0.01963268105346247</v>
+        <v>0.04923635239366195</v>
       </c>
       <c r="C66">
-        <v>0.9802300413892702</v>
+        <v>0.9505322963383318</v>
       </c>
       <c r="D66">
-        <v>8.05838647041787e-05</v>
+        <v>7.946627514797133e-05</v>
       </c>
       <c r="E66">
-        <v>1.838320861025918e-05</v>
+        <v>7.010195973168418e-05</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>2.176398248965673e-05</v>
+        <v>8.640171685714934e-05</v>
       </c>
       <c r="B67">
-        <v>0.00255458206292571</v>
+        <v>0.0004542286530014229</v>
       </c>
       <c r="C67">
-        <v>0.997099049455208</v>
+        <v>0.9990136824388829</v>
       </c>
       <c r="D67">
-        <v>0.0002918759179117044</v>
+        <v>0.0003120606918519379</v>
       </c>
       <c r="E67">
-        <v>3.272858146497847e-05</v>
+        <v>0.0001336264994067292</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>9.309669960178904e-06</v>
+        <v>0.0001036969918269221</v>
       </c>
       <c r="B68">
-        <v>0.002571291715566604</v>
+        <v>0.004081954574590924</v>
       </c>
       <c r="C68">
-        <v>0.9973402215074879</v>
+        <v>0.9950673350579792</v>
       </c>
       <c r="D68">
-        <v>6.485123268732863e-05</v>
+        <v>0.0002689520910864283</v>
       </c>
       <c r="E68">
-        <v>1.4325874297945e-05</v>
+        <v>0.0004780612845169274</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>1.784202019381507e-05</v>
+        <v>7.382796400760814e-05</v>
       </c>
       <c r="B69">
-        <v>0.0002820790941916341</v>
+        <v>0.0006480793590366596</v>
       </c>
       <c r="C69">
-        <v>0.9995275175813122</v>
+        <v>0.9939410205529057</v>
       </c>
       <c r="D69">
-        <v>0.0001475783980738395</v>
+        <v>0.000163743424241217</v>
       </c>
       <c r="E69">
-        <v>2.498290622837338e-05</v>
+        <v>0.005173328699808749</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>2.533573764038262e-05</v>
+        <v>9.963758183007103e-05</v>
       </c>
       <c r="B70">
-        <v>0.0002549937238314491</v>
+        <v>0.002798789351242563</v>
       </c>
       <c r="C70">
-        <v>0.9995612189505552</v>
+        <v>0.9922126341120237</v>
       </c>
       <c r="D70">
-        <v>0.0001217960613761292</v>
+        <v>0.0003295428540364506</v>
       </c>
       <c r="E70">
-        <v>3.665552659654479e-05</v>
+        <v>0.004559396100867331</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>1.25801699628114e-05</v>
+        <v>6.001883163225244e-05</v>
       </c>
       <c r="B71">
-        <v>0.0003480193011367087</v>
+        <v>0.0003007553245527268</v>
       </c>
       <c r="C71">
-        <v>0.9995382018847495</v>
+        <v>0.9994130740770384</v>
       </c>
       <c r="D71">
-        <v>8.228063970646502e-05</v>
+        <v>9.192121160035688e-05</v>
       </c>
       <c r="E71">
-        <v>1.891800444458279e-05</v>
+        <v>0.0001342305551763771</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>6.619707773474862e-07</v>
+        <v>3.26549024690673e-06</v>
       </c>
       <c r="B72">
-        <v>0.01468645481935894</v>
+        <v>0.002036788748426108</v>
       </c>
       <c r="C72">
-        <v>0.0007840955282086826</v>
+        <v>0.00154061368305443</v>
       </c>
       <c r="D72">
-        <v>0.9845279209860065</v>
+        <v>0.9964153991304213</v>
       </c>
       <c r="E72">
-        <v>8.666956487688183e-07</v>
+        <v>3.932947851635373e-06</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>4.562662582233168e-05</v>
+        <v>8.033154358259136e-05</v>
       </c>
       <c r="B73">
-        <v>0.0008352466382152676</v>
+        <v>0.0009614652643382851</v>
       </c>
       <c r="C73">
-        <v>0.9990012599497218</v>
+        <v>0.998769786517135</v>
       </c>
       <c r="D73">
-        <v>9.597294168072676e-05</v>
+        <v>7.805590354572905e-05</v>
       </c>
       <c r="E73">
-        <v>2.189384455974783e-05</v>
+        <v>0.0001103607713982996</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>5.372303055093314e-05</v>
+        <v>0.0001305582982987294</v>
       </c>
       <c r="B74">
-        <v>0.7812584412155322</v>
+        <v>0.8204248141537119</v>
       </c>
       <c r="C74">
-        <v>0.2175714686103085</v>
+        <v>0.1783090543667253</v>
       </c>
       <c r="D74">
-        <v>0.001041595132112162</v>
+        <v>0.0009745197214664101</v>
       </c>
       <c r="E74">
-        <v>7.477201149628027e-05</v>
+        <v>0.0001610534597977338</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>5.48210030298057e-05</v>
+        <v>0.000205894013023588</v>
       </c>
       <c r="B75">
-        <v>0.001357872133196798</v>
+        <v>0.00571242274346699</v>
       </c>
       <c r="C75">
-        <v>0.9980333995221641</v>
+        <v>0.9805573246241444</v>
       </c>
       <c r="D75">
-        <v>0.0004727898955941068</v>
+        <v>0.000471056602408268</v>
       </c>
       <c r="E75">
-        <v>8.111744601528088e-05</v>
+        <v>0.01305330201695669</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>1.519311755427747e-06</v>
+        <v>8.537110197394957e-06</v>
       </c>
       <c r="B76">
-        <v>2.904101733196647e-05</v>
+        <v>3.412011989926804e-05</v>
       </c>
       <c r="C76">
-        <v>0.9999478040398828</v>
+        <v>0.9999165899813274</v>
       </c>
       <c r="D76">
-        <v>1.935089667189321e-05</v>
+        <v>1.306400880087695e-05</v>
       </c>
       <c r="E76">
-        <v>2.284734357870766e-06</v>
+        <v>2.768877977532575e-05</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>1.587004279431415e-06</v>
+        <v>8.535888029448623e-06</v>
       </c>
       <c r="B77">
-        <v>0.001683771665053549</v>
+        <v>0.0001906500729122102</v>
       </c>
       <c r="C77">
-        <v>0.9982920417299533</v>
+        <v>0.9997734424785989</v>
       </c>
       <c r="D77">
-        <v>2.021307063505447e-05</v>
+        <v>1.306213856464503e-05</v>
       </c>
       <c r="E77">
-        <v>2.386530078735592e-06</v>
+        <v>1.430942189502344e-05</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>4.480616324819954e-05</v>
+        <v>1.795837455782427e-05</v>
       </c>
       <c r="B78">
-        <v>0.0003838425343457587</v>
+        <v>3.404712256344787e-05</v>
       </c>
       <c r="C78">
-        <v>0.9992430936327734</v>
+        <v>0.04416561214651325</v>
       </c>
       <c r="D78">
-        <v>0.0002951607535309431</v>
+        <v>1.94973494965974e-05</v>
       </c>
       <c r="E78">
-        <v>3.309691610160258e-05</v>
+        <v>0.9557628850068692</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>4.312660230276064e-05</v>
+        <v>8.35006595978335e-05</v>
       </c>
       <c r="B79">
-        <v>0.0008911367681472653</v>
+        <v>0.002345508116633301</v>
       </c>
       <c r="C79">
-        <v>0.9988272742714636</v>
+        <v>0.9971381739079148</v>
       </c>
       <c r="D79">
-        <v>0.0002073217829915776</v>
+        <v>0.0002761713519375215</v>
       </c>
       <c r="E79">
-        <v>3.11405750949314e-05</v>
+        <v>0.0001566459639163444</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>1.81442553727822e-05</v>
+        <v>3.66254578303054e-05</v>
       </c>
       <c r="B80">
-        <v>8.104592211431787e-05</v>
+        <v>5.325485498731608e-05</v>
       </c>
       <c r="C80">
-        <v>0.9998190948158804</v>
+        <v>0.9998421571820001</v>
       </c>
       <c r="D80">
-        <v>7.347600730687082e-05</v>
+        <v>4.158700960183832e-05</v>
       </c>
       <c r="E80">
-        <v>8.238999325705735e-06</v>
+        <v>2.637549558013907e-05</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>9.94967529575945e-06</v>
+        <v>3.143896079128266e-05</v>
       </c>
       <c r="B81">
-        <v>0.0001858557924472936</v>
+        <v>0.000223152218860049</v>
       </c>
       <c r="C81">
-        <v>0.9997593848795006</v>
+        <v>0.9996911668256064</v>
       </c>
       <c r="D81">
-        <v>4.029167357448383e-05</v>
+        <v>4.253983027549542e-05</v>
       </c>
       <c r="E81">
-        <v>4.517979182310374e-06</v>
+        <v>1.170216446670276e-05</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>3.317257445702569e-05</v>
+        <v>0.0001353872922271782</v>
       </c>
       <c r="B82">
-        <v>0.0004474976335734369</v>
+        <v>0.0004471000906443104</v>
       </c>
       <c r="C82">
-        <v>0.9993785571686897</v>
+        <v>0.9991969526977611</v>
       </c>
       <c r="D82">
-        <v>0.0001144566865867605</v>
+        <v>0.0001121877102444294</v>
       </c>
       <c r="E82">
-        <v>2.631593669282595e-05</v>
+        <v>0.000108372209122986</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>1.497792214263895e-06</v>
+        <v>2.385734512063039e-05</v>
       </c>
       <c r="B83">
-        <v>0.9991625746827829</v>
+        <v>0.9901936383841309</v>
       </c>
       <c r="C83">
-        <v>0.0008073671036913939</v>
+        <v>0.00970214846040025</v>
       </c>
       <c r="D83">
-        <v>2.709780846993004e-05</v>
+        <v>6.203572869799287e-05</v>
       </c>
       <c r="E83">
-        <v>1.462612841751732e-06</v>
+        <v>1.832008164980611e-05</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>1.720771066745767e-05</v>
+        <v>3.592682735692729e-05</v>
       </c>
       <c r="B84">
-        <v>0.0001758133805859094</v>
+        <v>0.0004813124418748431</v>
       </c>
       <c r="C84">
-        <v>0.9996506557045302</v>
+        <v>0.9993299096415976</v>
       </c>
       <c r="D84">
-        <v>0.0001392532156679227</v>
+        <v>8.562020287249667e-05</v>
       </c>
       <c r="E84">
-        <v>1.706998854831293e-05</v>
+        <v>6.723088629772247e-05</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>1.655191578493545e-05</v>
+        <v>0.0001397880296552199</v>
       </c>
       <c r="B85">
-        <v>0.9642134837543102</v>
+        <v>0.6782737028080833</v>
       </c>
       <c r="C85">
-        <v>0.03525634581614234</v>
+        <v>0.3198408376680454</v>
       </c>
       <c r="D85">
-        <v>0.0004873155042310378</v>
+        <v>0.001498090414940598</v>
       </c>
       <c r="E85">
-        <v>2.630300953171057e-05</v>
+        <v>0.0002475810792755946</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>7.766061572692205e-07</v>
+        <v>4.216828412590209e-06</v>
       </c>
       <c r="B86">
-        <v>0.0001002421995457887</v>
+        <v>2.453920302360617e-05</v>
       </c>
       <c r="C86">
-        <v>0.003966091617088178</v>
+        <v>0.003668559292432166</v>
       </c>
       <c r="D86">
-        <v>0.9959319250423366</v>
+        <v>0.9962990774384446</v>
       </c>
       <c r="E86">
-        <v>9.645348722947146e-07</v>
+        <v>3.607237686689587e-06</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>1.623907622051692e-05</v>
+        <v>8.618043007916086e-05</v>
       </c>
       <c r="B87">
-        <v>0.003426935240327338</v>
+        <v>0.003050007440397867</v>
       </c>
       <c r="C87">
-        <v>0.9963146238157837</v>
+        <v>0.9964550698673447</v>
       </c>
       <c r="D87">
-        <v>0.0002177816160325474</v>
+        <v>0.0003112614611474035</v>
       </c>
       <c r="E87">
-        <v>2.442025163601229e-05</v>
+        <v>9.748080103069587e-05</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>2.16062334105443e-05</v>
+        <v>6.133054682774751e-05</v>
       </c>
       <c r="B88">
-        <v>0.005136051481958277</v>
+        <v>0.002786945338175199</v>
       </c>
       <c r="C88">
-        <v>0.9946685352905428</v>
+        <v>0.9969280074628371</v>
       </c>
       <c r="D88">
-        <v>0.0001413156349971516</v>
+        <v>0.0001119329578956668</v>
       </c>
       <c r="E88">
-        <v>3.249135909130628e-05</v>
+        <v>0.0001117836942646553</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>1.925709889986138e-06</v>
+        <v>8.866353012194127e-06</v>
       </c>
       <c r="B89">
-        <v>0.01126966773748388</v>
+        <v>0.01429037570274345</v>
       </c>
       <c r="C89">
-        <v>0.9887148331706523</v>
+        <v>0.9856679314194438</v>
       </c>
       <c r="D89">
-        <v>1.105211602081121e-05</v>
+        <v>1.600328978122325e-05</v>
       </c>
       <c r="E89">
-        <v>2.521265952448474e-06</v>
+        <v>1.682323501931324e-05</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>6.085776297630695e-05</v>
+        <v>7.216230428394416e-05</v>
       </c>
       <c r="B90">
-        <v>0.000359312673529797</v>
+        <v>0.001387628246256391</v>
       </c>
       <c r="C90">
-        <v>0.9992494776723578</v>
+        <v>0.9981085269932582</v>
       </c>
       <c r="D90">
-        <v>0.0002864081154409766</v>
+        <v>0.0001754603878467552</v>
       </c>
       <c r="E90">
-        <v>4.394377569484323e-05</v>
+        <v>0.0002562220683547194</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>3.439388632788306e-05</v>
+        <v>8.066429605531825e-05</v>
       </c>
       <c r="B91">
-        <v>8.104460512409731e-05</v>
+        <v>5.325295732095407e-05</v>
       </c>
       <c r="C91">
-        <v>0.9998028478297786</v>
+        <v>0.9998065291283803</v>
       </c>
       <c r="D91">
-        <v>7.347481332720418e-05</v>
+        <v>4.158552770372336e-05</v>
       </c>
       <c r="E91">
-        <v>8.238865442578045e-06</v>
+        <v>1.796809053961294e-05</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>2.93788035100626e-05</v>
+        <v>0.0001556587513504107</v>
       </c>
       <c r="B92">
-        <v>0.0004122628459907271</v>
+        <v>0.0004877240080442162</v>
       </c>
       <c r="C92">
-        <v>0.9993272045102192</v>
+        <v>0.9989715001917335</v>
       </c>
       <c r="D92">
-        <v>0.0002078475173330447</v>
+        <v>0.000304179131588961</v>
       </c>
       <c r="E92">
-        <v>2.330632294708851e-05</v>
+        <v>8.093791728289602e-05</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>0.0001612614463775892</v>
+        <v>0.0009253536229768207</v>
       </c>
       <c r="B93">
-        <v>0.1368742142926777</v>
+        <v>0.0782090436495161</v>
       </c>
       <c r="C93">
-        <v>0.8588417118338213</v>
+        <v>0.9181358448519185</v>
       </c>
       <c r="D93">
-        <v>0.003911678342852208</v>
+        <v>0.002019177807179448</v>
       </c>
       <c r="E93">
-        <v>0.0002111340842713009</v>
+        <v>0.0007105800684091914</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>5.746118216293988e-05</v>
+        <v>0.4844924843377225</v>
       </c>
       <c r="B94">
-        <v>0.007578405116326804</v>
+        <v>0.02728739355927187</v>
       </c>
       <c r="C94">
-        <v>0.9918113458944893</v>
+        <v>0.4877233895780533</v>
       </c>
       <c r="D94">
-        <v>0.000496376513408836</v>
+        <v>0.0003827062202987178</v>
       </c>
       <c r="E94">
-        <v>5.641129361181874e-05</v>
+        <v>0.0001140263046536025</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>8.357833315363586e-07</v>
+        <v>1.536649025433307e-05</v>
       </c>
       <c r="B95">
-        <v>6.993304278181695e-06</v>
+        <v>4.171427718906733e-05</v>
       </c>
       <c r="C95">
-        <v>0.005824191867442856</v>
+        <v>0.02241337443790123</v>
       </c>
       <c r="D95">
-        <v>3.646895438829964e-06</v>
+        <v>1.546974794925245e-05</v>
       </c>
       <c r="E95">
-        <v>0.9941643321495086</v>
+        <v>0.9775140750467063</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>1.362621254070033e-05</v>
+        <v>5.205288019815478e-05</v>
       </c>
       <c r="B96">
-        <v>6.173219964488629e-05</v>
+        <v>7.214305730595769e-05</v>
       </c>
       <c r="C96">
-        <v>0.9998660487773241</v>
+        <v>0.9998157759152629</v>
       </c>
       <c r="D96">
-        <v>5.240537795959249e-05</v>
+        <v>2.506287591040351e-05</v>
       </c>
       <c r="E96">
-        <v>6.187432530472514e-06</v>
+        <v>3.496527132243854e-05</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>5.287205341900857e-05</v>
+        <v>7.771286927346111e-05</v>
       </c>
       <c r="B97">
-        <v>0.002696240813251632</v>
+        <v>0.0001012301947421681</v>
       </c>
       <c r="C97">
-        <v>0.9969811278453328</v>
+        <v>0.9971175006983208</v>
       </c>
       <c r="D97">
-        <v>0.0002307043502541645</v>
+        <v>0.0001231353222804681</v>
       </c>
       <c r="E97">
-        <v>3.905493774226904e-05</v>
+        <v>0.002580420915383267</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>4.346844375060517e-05</v>
+        <v>0.0001238300154533857</v>
       </c>
       <c r="B98">
-        <v>0.885472504807537</v>
+        <v>0.437507928016604</v>
       </c>
       <c r="C98">
-        <v>0.1131351679359408</v>
+        <v>0.56082185399296</v>
       </c>
       <c r="D98">
-        <v>0.001279782162965329</v>
+        <v>0.001327070420051065</v>
       </c>
       <c r="E98">
-        <v>6.907664980638683e-05</v>
+        <v>0.0002193175549314143</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>4.317499870708298e-05</v>
+        <v>0.0001055311238091439</v>
       </c>
       <c r="B99">
-        <v>0.01648040351181807</v>
+        <v>0.002246357612715136</v>
       </c>
       <c r="C99">
-        <v>0.9832932021304842</v>
+        <v>0.9974549518591569</v>
       </c>
       <c r="D99">
-        <v>0.0001489684589238678</v>
+        <v>0.0001148890894147678</v>
       </c>
       <c r="E99">
-        <v>3.425090006687134e-05</v>
+        <v>7.827031490404915e-05</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>2.028824627471237e-05</v>
+        <v>5.20534714166738e-05</v>
       </c>
       <c r="B100">
-        <v>0.0003682464633167453</v>
+        <v>7.214387670944395e-05</v>
       </c>
       <c r="C100">
-        <v>0.99952422568765</v>
+        <v>0.9998271318594523</v>
       </c>
       <c r="D100">
-        <v>7.802705344481229e-05</v>
+        <v>2.506316057546574e-05</v>
       </c>
       <c r="E100">
-        <v>9.212549313423616e-06</v>
+        <v>2.360763184653459e-05</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>4.289209883111309e-05</v>
+        <v>0.0001181227551634562</v>
       </c>
       <c r="B101">
-        <v>0.8320915434662156</v>
+        <v>0.4173434177001333</v>
       </c>
       <c r="C101">
-        <v>0.1665345900426203</v>
+        <v>0.5810633437782409</v>
       </c>
       <c r="D101">
-        <v>0.001262813624779019</v>
+        <v>0.001265906442298444</v>
       </c>
       <c r="E101">
-        <v>6.816076755396801e-05</v>
+        <v>0.0002092093241639254</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>4.319445558213202e-05</v>
+        <v>0.0001037441662550243</v>
       </c>
       <c r="B102">
-        <v>0.0154928381287272</v>
+        <v>0.002966217152811214</v>
       </c>
       <c r="C102">
-        <v>0.9841587570312044</v>
+        <v>0.9966786190818746</v>
       </c>
       <c r="D102">
-        <v>0.0002481545666078077</v>
+        <v>0.0001147996696713513</v>
       </c>
       <c r="E102">
-        <v>5.705581787863948e-05</v>
+        <v>0.0001366199293878185</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>6.094736936901653e-06</v>
+        <v>8.640171685714934e-05</v>
       </c>
       <c r="B103">
-        <v>0.0005867947520208506</v>
+        <v>0.0004542286530014229</v>
       </c>
       <c r="C103">
-        <v>0.9993162089936762</v>
+        <v>0.9990136824388829</v>
       </c>
       <c r="D103">
-        <v>8.173627867666023e-05</v>
+        <v>0.0003120606918519379</v>
       </c>
       <c r="E103">
-        <v>9.165238689279299e-06</v>
+        <v>0.0001336264994067292</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>7.240420226030517e-07</v>
+        <v>2.756142217528603e-05</v>
       </c>
       <c r="B104">
-        <v>0.999762855637414</v>
+        <v>0.9922782362000747</v>
       </c>
       <c r="C104">
-        <v>0.0002226140362097335</v>
+        <v>0.007612897234097251</v>
       </c>
       <c r="D104">
-        <v>1.30992482574231e-05</v>
+        <v>6.014069714409609e-05</v>
       </c>
       <c r="E104">
-        <v>7.070360962902814e-07</v>
+        <v>2.116444650831604e-05</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>4.311246905535498e-05</v>
+        <v>0.0001056414845445015</v>
       </c>
       <c r="B105">
-        <v>0.01645653521019004</v>
+        <v>0.0005878914248050704</v>
       </c>
       <c r="C105">
-        <v>0.9818691145029935</v>
+        <v>0.9984980551447075</v>
       </c>
       <c r="D105">
-        <v>0.00159703652271867</v>
+        <v>0.0007300597786982409</v>
       </c>
       <c r="E105">
-        <v>3.420129504274431e-05</v>
+        <v>7.835216724483441e-05</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>6.871854303529042e-05</v>
+        <v>0.0001013085465590674</v>
       </c>
       <c r="B106">
-        <v>0.0003777814342988543</v>
+        <v>0.003628196409962703</v>
       </c>
       <c r="C106">
-        <v>0.9992007050968092</v>
+        <v>0.8191752848552354</v>
       </c>
       <c r="D106">
-        <v>0.0003011295637952258</v>
+        <v>0.0002407643030496594</v>
       </c>
       <c r="E106">
-        <v>5.166536206123763e-05</v>
+        <v>0.176854445885193</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>0.0002653313226769338</v>
+        <v>0.07498605799642352</v>
       </c>
       <c r="B107">
-        <v>0.009053431883433801</v>
+        <v>0.09245454969717488</v>
       </c>
       <c r="C107">
-        <v>0.9905741460378008</v>
+        <v>0.6982175062650351</v>
       </c>
       <c r="D107">
-        <v>9.140775647255567e-05</v>
+        <v>0.001297257380201461</v>
       </c>
       <c r="E107">
-        <v>1.568299961597762e-05</v>
+        <v>0.1330446286611651</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>1.393797586474917e-05</v>
+        <v>1.882337770061208e-05</v>
       </c>
       <c r="B108">
-        <v>0.0003707566587787325</v>
+        <v>0.0001299008252548501</v>
       </c>
       <c r="C108">
-        <v>0.9994074238491841</v>
+        <v>0.9997411487556039</v>
       </c>
       <c r="D108">
-        <v>0.0001869216491645421</v>
+        <v>8.10153274536519e-05</v>
       </c>
       <c r="E108">
-        <v>2.095986700794032e-05</v>
+        <v>2.911171398714347e-05</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>2.733163928457758e-06</v>
+        <v>2.424445549889994e-05</v>
       </c>
       <c r="B109">
-        <v>5.702040426052839e-05</v>
+        <v>0.0004046381265410242</v>
       </c>
       <c r="C109">
-        <v>0.9999006163136128</v>
+        <v>0.994137280355758</v>
       </c>
       <c r="D109">
-        <v>3.558591497060029e-05</v>
+        <v>5.98193665893331e-05</v>
       </c>
       <c r="E109">
-        <v>4.044203228040991e-06</v>
+        <v>0.005374017695612692</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>5.65035622851698e-05</v>
+        <v>2.475218982639113e-05</v>
       </c>
       <c r="B110">
-        <v>0.9957490977807629</v>
+        <v>0.9803438432683169</v>
       </c>
       <c r="C110">
-        <v>0.004093296826641822</v>
+        <v>0.01954322868384106</v>
       </c>
       <c r="D110">
-        <v>9.424510477278172e-05</v>
+        <v>6.80729070108305e-05</v>
       </c>
       <c r="E110">
-        <v>6.856725537322931e-06</v>
+        <v>2.010295100504594e-05</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>7.926570397859167e-05</v>
+        <v>0.0005805517139370485</v>
       </c>
       <c r="B111">
-        <v>0.0468005858783542</v>
+        <v>0.03151623632282465</v>
       </c>
       <c r="C111">
-        <v>0.9523984981441722</v>
+        <v>0.9660673046772748</v>
       </c>
       <c r="D111">
-        <v>0.0006178704042231552</v>
+        <v>0.001174648011357691</v>
       </c>
       <c r="E111">
-        <v>0.0001037798692717527</v>
+        <v>0.0006612592746058658</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>1.817279660308088e-05</v>
+        <v>3.385822102929539e-05</v>
       </c>
       <c r="B112">
-        <v>7.730482580799096e-05</v>
+        <v>4.491656705661031e-05</v>
       </c>
       <c r="C112">
-        <v>0.9998226788318251</v>
+        <v>0.9998583976144325</v>
       </c>
       <c r="D112">
-        <v>7.359158634844004e-05</v>
+        <v>3.844490271139712e-05</v>
       </c>
       <c r="E112">
-        <v>8.251959415406546e-06</v>
+        <v>2.438269477059266e-05</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>6.398651950387866e-05</v>
+        <v>0.0001732917297389391</v>
       </c>
       <c r="B113">
-        <v>0.0003777852860243319</v>
+        <v>0.003332273011712614</v>
       </c>
       <c r="C113">
-        <v>0.9992108925927091</v>
+        <v>0.9954577859958148</v>
       </c>
       <c r="D113">
-        <v>0.0003011326340054255</v>
+        <v>0.0004213534256193996</v>
       </c>
       <c r="E113">
-        <v>4.62029677572415e-05</v>
+        <v>0.0006152958371141858</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>2.82900066733445e-05</v>
+        <v>5.048199766073548e-05</v>
       </c>
       <c r="B114">
-        <v>0.002349478778235168</v>
+        <v>7.920879001303095e-05</v>
       </c>
       <c r="C114">
-        <v>0.9972977514461011</v>
+        <v>0.9984369892407775</v>
       </c>
       <c r="D114">
-        <v>0.0002917637635945288</v>
+        <v>8.770525773776772e-05</v>
       </c>
       <c r="E114">
-        <v>3.271600539589887e-05</v>
+        <v>0.001345614713810798</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>1.022830606112656e-05</v>
+        <v>0.0001129993400466886</v>
       </c>
       <c r="B115">
-        <v>0.0001996779552662409</v>
+        <v>0.001181415788503139</v>
       </c>
       <c r="C115">
-        <v>0.9997652487728753</v>
+        <v>0.9986141103394902</v>
       </c>
       <c r="D115">
-        <v>2.020046509953641e-05</v>
+        <v>5.440791031670984e-05</v>
       </c>
       <c r="E115">
-        <v>4.644500697843283e-06</v>
+        <v>3.706662164336386e-05</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>2.125738742962365e-05</v>
+        <v>7.37865015127076e-05</v>
       </c>
       <c r="B116">
-        <v>0.0003452028624452657</v>
+        <v>0.000308194391773839</v>
       </c>
       <c r="C116">
-        <v>0.9993383262783559</v>
+        <v>0.9787078040690871</v>
       </c>
       <c r="D116">
-        <v>0.0002654482707969046</v>
+        <v>0.0001764899150613354</v>
       </c>
       <c r="E116">
-        <v>2.97652009719497e-05</v>
+        <v>0.02073372512256492</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>9.767196195611861e-05</v>
+        <v>0.0001733002446707005</v>
       </c>
       <c r="B117">
-        <v>0.0006256114806930629</v>
+        <v>0.003287637621704069</v>
       </c>
       <c r="C117">
-        <v>0.9975074504236108</v>
+        <v>0.9955066992078403</v>
       </c>
       <c r="D117">
-        <v>0.001698739801880915</v>
+        <v>0.0004544309126716217</v>
       </c>
       <c r="E117">
-        <v>7.052633185918978e-05</v>
+        <v>0.0005779320131132864</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>1.679787057462206e-05</v>
+        <v>3.143896079128266e-05</v>
       </c>
       <c r="B118">
-        <v>0.000112565298963823</v>
+        <v>0.000223152218860049</v>
       </c>
       <c r="C118">
-        <v>0.9997724655819898</v>
+        <v>0.9996911668256064</v>
       </c>
       <c r="D118">
-        <v>9.147128145921323e-05</v>
+        <v>4.253983027549542e-05</v>
       </c>
       <c r="E118">
-        <v>6.699967012200902e-06</v>
+        <v>1.170216446670276e-05</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>1.226154313531759e-05</v>
+        <v>7.067836427560999e-05</v>
       </c>
       <c r="B119">
-        <v>0.0002853274998385532</v>
+        <v>0.0004877540042543007</v>
       </c>
       <c r="C119">
-        <v>0.9995195330268072</v>
+        <v>0.9990329393632603</v>
       </c>
       <c r="D119">
-        <v>0.0001644390754006357</v>
+        <v>0.0003041978393437242</v>
       </c>
       <c r="E119">
-        <v>1.843885481810635e-05</v>
+        <v>0.0001044304288662046</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>8.96762913830203e-06</v>
+        <v>2.76631258175542e-05</v>
       </c>
       <c r="B120">
-        <v>0.01427057673221895</v>
+        <v>0.01207284559678585</v>
       </c>
       <c r="C120">
-        <v>0.985507324866397</v>
+        <v>0.310504064182152</v>
       </c>
       <c r="D120">
-        <v>0.0002025444470362634</v>
+        <v>0.0002405014302334112</v>
       </c>
       <c r="E120">
-        <v>1.058632520972304e-05</v>
+        <v>0.6771549256650112</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>3.632559719508131e-05</v>
+        <v>0.0001118070275070883</v>
       </c>
       <c r="B121">
-        <v>0.002999648717304237</v>
+        <v>0.00292297541478235</v>
       </c>
       <c r="C121">
-        <v>0.9964881296942559</v>
+        <v>0.996521887286654</v>
       </c>
       <c r="D121">
-        <v>0.0004279132899937547</v>
+        <v>0.0003476862268130152</v>
       </c>
       <c r="E121">
-        <v>4.798270125096179e-05</v>
+        <v>9.564404424332977e-05</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>1.75913121147078e-05</v>
+        <v>0.0002488459980174228</v>
       </c>
       <c r="B122">
-        <v>0.0007810524237510765</v>
+        <v>0.001181255279247864</v>
       </c>
       <c r="C122">
-        <v>0.9991788147147735</v>
+        <v>0.9984784368461127</v>
       </c>
       <c r="D122">
-        <v>1.832764773596041e-05</v>
+        <v>5.440051836101483e-05</v>
       </c>
       <c r="E122">
-        <v>4.213901624544653e-06</v>
+        <v>3.706135826082039e-05</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123">
-        <v>3.070359973211666e-05</v>
+        <v>6.517472027165969e-05</v>
       </c>
       <c r="B123">
-        <v>0.7058412765003328</v>
+        <v>0.7227061135680114</v>
       </c>
       <c r="C123">
-        <v>0.293649897747219</v>
+        <v>0.2769090774330642</v>
       </c>
       <c r="D123">
-        <v>0.0004293303942932311</v>
+        <v>0.000244010090661148</v>
       </c>
       <c r="E123">
-        <v>4.879175842271482e-05</v>
+        <v>7.562418799153947e-05</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124">
-        <v>1.665001012339961e-05</v>
+        <v>7.49395546244804e-05</v>
       </c>
       <c r="B124">
-        <v>0.004177124315322713</v>
+        <v>0.003285990022535509</v>
       </c>
       <c r="C124">
-        <v>0.9956722880207248</v>
+        <v>0.9964461059039605</v>
       </c>
       <c r="D124">
-        <v>0.0001088994415911915</v>
+        <v>0.0001147728882841441</v>
       </c>
       <c r="E124">
-        <v>2.503821223782814e-05</v>
+        <v>7.819163059526421e-05</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>4.789241850587059e-07</v>
+        <v>8.025552284602679e-05</v>
       </c>
       <c r="B125">
-        <v>2.501289563610186e-05</v>
+        <v>0.005310347082595712</v>
       </c>
       <c r="C125">
-        <v>0.001263348282643207</v>
+        <v>0.2238964095553973</v>
       </c>
       <c r="D125">
-        <v>4.219712093551956e-06</v>
+        <v>0.0002075457617519387</v>
       </c>
       <c r="E125">
-        <v>0.9987069401854424</v>
+        <v>0.770505442077409</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>2.315574458132202e-05</v>
+        <v>9.775884069560395e-05</v>
       </c>
       <c r="B126">
-        <v>0.003142487733157338</v>
+        <v>0.0005509749963284776</v>
       </c>
       <c r="C126">
-        <v>0.9940520224673171</v>
+        <v>0.9983851457312717</v>
       </c>
       <c r="D126">
-        <v>0.002753574917595507</v>
+        <v>0.0008824937483630868</v>
       </c>
       <c r="E126">
-        <v>2.875913734854914e-05</v>
+        <v>8.36266833412973e-05</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>1.994950136890524e-06</v>
+        <v>1.262049142847758e-05</v>
       </c>
       <c r="B127">
-        <v>0.001192188702024642</v>
+        <v>0.0001810935917362542</v>
       </c>
       <c r="C127">
-        <v>0.9987925623004098</v>
+        <v>0.9997757262169679</v>
       </c>
       <c r="D127">
-        <v>1.077634498206926e-05</v>
+        <v>1.395373894119654e-05</v>
       </c>
       <c r="E127">
-        <v>2.477702446097115e-06</v>
+        <v>1.660596092567039e-05</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>6.472718793073836e-06</v>
+        <v>3.185255717271506e-05</v>
       </c>
       <c r="B128">
-        <v>5.922765667648457e-05</v>
+        <v>3.770907845011666e-05</v>
       </c>
       <c r="C128">
-        <v>0.01470041293549804</v>
+        <v>0.00688391356584122</v>
       </c>
       <c r="D128">
-        <v>0.9852274657747222</v>
+        <v>0.9930390833529837</v>
       </c>
       <c r="E128">
-        <v>6.420914310418513e-06</v>
+        <v>7.441445552025357e-06</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
-        <v>6.348270030866306e-05</v>
+        <v>0.0001349094441320358</v>
       </c>
       <c r="B129">
-        <v>0.7714928704376957</v>
+        <v>0.7565321194358565</v>
       </c>
       <c r="C129">
-        <v>0.2279679219735211</v>
+        <v>0.2428330691263493</v>
       </c>
       <c r="D129">
-        <v>0.0003873693145497441</v>
+        <v>0.0002437076880783804</v>
       </c>
       <c r="E129">
-        <v>8.835557392455815e-05</v>
+        <v>0.0002561943055837545</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
-        <v>1.387203019349046e-05</v>
+        <v>1.874772466267313e-05</v>
       </c>
       <c r="B130">
-        <v>0.0003696428663111422</v>
+        <v>0.0001297311309446483</v>
       </c>
       <c r="C130">
-        <v>0.9946788611033287</v>
+        <v>0.9972663543421004</v>
       </c>
       <c r="D130">
-        <v>0.004916763301970076</v>
+        <v>0.002556127152465956</v>
       </c>
       <c r="E130">
-        <v>2.086069819657599e-05</v>
+        <v>2.903964982610281e-05</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131">
-        <v>2.617995058873048e-06</v>
+        <v>7.312267133615112e-06</v>
       </c>
       <c r="B131">
-        <v>0.99301884045785</v>
+        <v>0.991913781743978</v>
       </c>
       <c r="C131">
-        <v>0.00695610204130971</v>
+        <v>0.0080400035835163</v>
       </c>
       <c r="D131">
-        <v>1.82369737556185e-05</v>
+        <v>1.896534799631247e-05</v>
       </c>
       <c r="E131">
-        <v>4.202532026133459e-06</v>
+        <v>1.993705737550159e-05</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132">
-        <v>4.364598708448222e-05</v>
+        <v>0.0001415719736659761</v>
       </c>
       <c r="B132">
-        <v>0.003927448159989909</v>
+        <v>0.01143627412659525</v>
       </c>
       <c r="C132">
-        <v>0.9953799302726075</v>
+        <v>0.9878360332295028</v>
       </c>
       <c r="D132">
-        <v>0.0005796167925364463</v>
+        <v>0.0002678368605906433</v>
       </c>
       <c r="E132">
-        <v>6.935878778146704e-05</v>
+        <v>0.0003182838096453501</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133">
-        <v>5.553346403057602e-07</v>
+        <v>1.280277639941891e-07</v>
       </c>
       <c r="B133">
-        <v>1.868022967517949e-05</v>
+        <v>6.258675417931426e-06</v>
       </c>
       <c r="C133">
-        <v>0.001436513732067215</v>
+        <v>0.0001636573411716033</v>
       </c>
       <c r="D133">
-        <v>0.998543368209257</v>
+        <v>0.999829736182126</v>
       </c>
       <c r="E133">
-        <v>8.824943605951555e-07</v>
+        <v>2.197735205623532e-07</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134">
-        <v>4.416800496827132e-05</v>
+        <v>0.0002289421357696497</v>
       </c>
       <c r="B134">
-        <v>0.01223558986898239</v>
+        <v>0.01971215761404482</v>
       </c>
       <c r="C134">
-        <v>0.4612097162734056</v>
+        <v>0.6660513443044348</v>
       </c>
       <c r="D134">
-        <v>0.5264403375148845</v>
+        <v>0.3130006566459655</v>
       </c>
       <c r="E134">
-        <v>7.018833775933274e-05</v>
+        <v>0.001006899299785349</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135">
-        <v>1.978170458824799e-05</v>
+        <v>5.205341400702685e-05</v>
       </c>
       <c r="B135">
-        <v>0.0003752008341323199</v>
+        <v>7.214379714213791e-05</v>
       </c>
       <c r="C135">
-        <v>0.9995569669071633</v>
+        <v>0.9998260291525418</v>
       </c>
       <c r="D135">
-        <v>3.90680168110094e-05</v>
+        <v>2.506313293336693e-05</v>
       </c>
       <c r="E135">
-        <v>8.982537305353967e-06</v>
+        <v>2.471050337540559e-05</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136">
-        <v>4.294388498443279e-05</v>
+        <v>0.0002289421357696497</v>
       </c>
       <c r="B136">
-        <v>0.01189647946353317</v>
+        <v>0.01971215761404482</v>
       </c>
       <c r="C136">
-        <v>0.4761423344408224</v>
+        <v>0.6660513443044348</v>
       </c>
       <c r="D136">
-        <v>0.5118499991486029</v>
+        <v>0.3130006566459655</v>
       </c>
       <c r="E136">
-        <v>6.824306205703807e-05</v>
+        <v>0.001006899299785349</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137">
-        <v>0.0001418087648079332</v>
+        <v>0.0001238723508453512</v>
       </c>
       <c r="B137">
-        <v>0.01862329757828976</v>
+        <v>0.005360646430839484</v>
       </c>
       <c r="C137">
-        <v>0.980021701314591</v>
+        <v>0.993591315898248</v>
       </c>
       <c r="D137">
-        <v>0.0009878409484975143</v>
+        <v>0.0003828565550522173</v>
       </c>
       <c r="E137">
-        <v>0.0002253513938137595</v>
+        <v>0.0005413087650148681</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138">
-        <v>1.503793993230211e-05</v>
+        <v>7.93669919032103e-05</v>
       </c>
       <c r="B138">
-        <v>0.003022217701722996</v>
+        <v>0.002808873378845239</v>
       </c>
       <c r="C138">
-        <v>0.9967384571459423</v>
+        <v>0.9967354244934408</v>
       </c>
       <c r="D138">
-        <v>0.0002016732242514766</v>
+        <v>0.0002866530817260442</v>
       </c>
       <c r="E138">
-        <v>2.261398815100614e-05</v>
+        <v>8.968205408470705e-05</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139">
-        <v>1.516587861855543e-07</v>
+        <v>1.311294485208217e-06</v>
       </c>
       <c r="B139">
-        <v>7.396991716130571e-06</v>
+        <v>3.583213521886991e-05</v>
       </c>
       <c r="C139">
-        <v>0.0003643911784563079</v>
+        <v>0.0007130992875839438</v>
       </c>
       <c r="D139">
-        <v>0.9996278191667646</v>
+        <v>0.9992474517715968</v>
       </c>
       <c r="E139">
-        <v>2.410042771143695e-07</v>
+        <v>2.305511115544492e-06</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140">
-        <v>9.421556949977129e-05</v>
+        <v>0.0001010158900393287</v>
       </c>
       <c r="B140">
-        <v>0.5849041102985232</v>
+        <v>0.3424387976162111</v>
       </c>
       <c r="C140">
-        <v>0.4120780934777167</v>
+        <v>0.6559992114681451</v>
       </c>
       <c r="D140">
-        <v>0.002773860642704717</v>
+        <v>0.001290062279313189</v>
       </c>
       <c r="E140">
-        <v>0.0001497200115556103</v>
+        <v>0.0001709127462910448</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141">
-        <v>0.0001218964075725249</v>
+        <v>0.0002735512266314241</v>
       </c>
       <c r="B141">
-        <v>0.05935241111304524</v>
+        <v>0.01445450202892897</v>
       </c>
       <c r="C141">
-        <v>0.9394828529311884</v>
+        <v>0.9834106646609209</v>
       </c>
       <c r="D141">
-        <v>0.00084913131454161</v>
+        <v>0.0007094918871376361</v>
       </c>
       <c r="E141">
-        <v>0.0001937082336522957</v>
+        <v>0.001151790196381303</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142">
-        <v>7.776280512336692e-07</v>
+        <v>1.449312422413765e-05</v>
       </c>
       <c r="B142">
-        <v>2.526370376945995e-05</v>
+        <v>0.0004872942428593811</v>
       </c>
       <c r="C142">
-        <v>0.05678990787291655</v>
+        <v>0.9066968049426052</v>
       </c>
       <c r="D142">
-        <v>6.851536411078776e-06</v>
+        <v>4.466361751750726e-05</v>
       </c>
       <c r="E142">
-        <v>0.9431771992588517</v>
+        <v>0.09275674407279373</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <v>6.112428107896554e-06</v>
+        <v>2.421932987879886e-05</v>
       </c>
       <c r="B143">
-        <v>0.01908047535736836</v>
+        <v>0.02114211814343727</v>
       </c>
       <c r="C143">
-        <v>0.9807240464164235</v>
+        <v>0.9783854012167957</v>
       </c>
       <c r="D143">
-        <v>0.0001799598925090345</v>
+        <v>0.0003093022681354076</v>
       </c>
       <c r="E143">
-        <v>9.405905591015043e-06</v>
+        <v>0.0001389590417527768</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <v>0.0001916177520795525</v>
+        <v>0.0001099724414809154</v>
       </c>
       <c r="B144">
-        <v>0.3767851312771888</v>
+        <v>0.6918589629657909</v>
       </c>
       <c r="C144">
-        <v>0.6226221479823039</v>
+        <v>0.3078305131839107</v>
       </c>
       <c r="D144">
-        <v>0.0003567776959782326</v>
+        <v>0.0001235456114856823</v>
       </c>
       <c r="E144">
-        <v>4.432529244944852e-05</v>
+        <v>7.700579733178454e-05</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
-        <v>3.747817320284809e-05</v>
+        <v>4.270533875784855e-05</v>
       </c>
       <c r="B145">
-        <v>0.001069392380101401</v>
+        <v>0.001012638119758073</v>
       </c>
       <c r="C145">
-        <v>0.9987169016191726</v>
+        <v>0.9988317095204623</v>
       </c>
       <c r="D145">
-        <v>0.0001582440015513204</v>
+        <v>5.436745129855798e-05</v>
       </c>
       <c r="E145">
-        <v>1.798382597217727e-05</v>
+        <v>5.857956972321335e-05</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146">
-        <v>1.089500160081238e-06</v>
+        <v>0.0004015716856785854</v>
       </c>
       <c r="B146">
-        <v>6.737574290512785e-06</v>
+        <v>0.002201573005307918</v>
       </c>
       <c r="C146">
-        <v>0.003364855675139392</v>
+        <v>0.4915592846216437</v>
       </c>
       <c r="D146">
-        <v>8.555746978702695e-06</v>
+        <v>0.0002875603620282004</v>
       </c>
       <c r="E146">
-        <v>0.9966187615034316</v>
+        <v>0.5055500103253416</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147">
-        <v>3.849026978170995e-05</v>
+        <v>0.002796534851001823</v>
       </c>
       <c r="B147">
-        <v>0.02550302096580997</v>
+        <v>0.0004328278725085557</v>
       </c>
       <c r="C147">
-        <v>0.9739611936439424</v>
+        <v>0.9966916974602246</v>
       </c>
       <c r="D147">
-        <v>0.0004743968350773805</v>
+        <v>4.547497208883496e-05</v>
       </c>
       <c r="E147">
-        <v>2.289828538842211e-05</v>
+        <v>3.346484417583595e-05</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148">
-        <v>1.989535373222408e-06</v>
+        <v>2.532505499264635e-05</v>
       </c>
       <c r="B148">
-        <v>4.425087336852316e-05</v>
+        <v>0.0006441913194100295</v>
       </c>
       <c r="C148">
-        <v>0.9999336574736621</v>
+        <v>0.989386944766899</v>
       </c>
       <c r="D148">
-        <v>1.715824536948353e-05</v>
+        <v>5.794017118541394e-05</v>
       </c>
       <c r="E148">
-        <v>2.943872226218046e-06</v>
+        <v>0.009885598687512926</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149">
-        <v>7.979466342504437e-07</v>
+        <v>7.348250712125255e-06</v>
       </c>
       <c r="B149">
-        <v>1.483105282521841e-05</v>
+        <v>0.0003093035936218252</v>
       </c>
       <c r="C149">
-        <v>0.001943897335141588</v>
+        <v>0.02125735157939553</v>
       </c>
       <c r="D149">
-        <v>7.029515812410107e-06</v>
+        <v>2.473452795476689e-05</v>
       </c>
       <c r="E149">
-        <v>0.9980334441495864</v>
+        <v>0.9784012620483161</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150">
-        <v>5.02001385216043e-05</v>
+        <v>9.725882672340035e-05</v>
       </c>
       <c r="B150">
-        <v>0.0009897834468174211</v>
+        <v>0.009158126756161331</v>
       </c>
       <c r="C150">
-        <v>0.9964273379863555</v>
+        <v>0.9895262989234181</v>
       </c>
       <c r="D150">
-        <v>0.002480079203209618</v>
+        <v>0.0007399806141074988</v>
       </c>
       <c r="E150">
-        <v>5.25992250958047e-05</v>
+        <v>0.0004783348795896673</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151">
-        <v>5.100907137158739e-05</v>
+        <v>0.0001988632489766499</v>
       </c>
       <c r="B151">
-        <v>0.0005932193743116871</v>
+        <v>0.001832815172035679</v>
       </c>
       <c r="C151">
-        <v>0.9989054359830181</v>
+        <v>0.9796014016894999</v>
       </c>
       <c r="D151">
-        <v>0.0004005696596146876</v>
+        <v>0.0001316588968351533</v>
       </c>
       <c r="E151">
-        <v>4.976591168378516e-05</v>
+        <v>0.01823526099265281</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152">
-        <v>2.923924486381179e-06</v>
+        <v>3.649439906755958e-05</v>
       </c>
       <c r="B152">
-        <v>0.9981308310498983</v>
+        <v>0.9632235350530495</v>
       </c>
       <c r="C152">
-        <v>0.001810490619617767</v>
+        <v>0.03663231346328732</v>
       </c>
       <c r="D152">
-        <v>5.289915714472789e-05</v>
+        <v>7.963299527213551e-05</v>
       </c>
       <c r="E152">
-        <v>2.855248853189701e-06</v>
+        <v>2.802408932334014e-05</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153">
-        <v>7.784712150551136e-07</v>
+        <v>1.225316057396783e-05</v>
       </c>
       <c r="B153">
-        <v>2.5291096609752e-05</v>
+        <v>0.0004612382335243476</v>
       </c>
       <c r="C153">
-        <v>0.05685148383544208</v>
+        <v>0.6505036374649721</v>
       </c>
       <c r="D153">
-        <v>6.858965370996009e-06</v>
+        <v>3.16874335249424e-05</v>
       </c>
       <c r="E153">
-        <v>0.9431155876313625</v>
+        <v>0.3489911837074044</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154">
-        <v>3.330684408620205e-05</v>
+        <v>2.604003598629711e-05</v>
       </c>
       <c r="B154">
-        <v>0.0007240431122043462</v>
+        <v>0.0003018075272194817</v>
       </c>
       <c r="C154">
-        <v>0.9990902387315537</v>
+        <v>0.9996179911199105</v>
       </c>
       <c r="D154">
-        <v>0.0001364290900636926</v>
+        <v>2.123284957643712e-05</v>
       </c>
       <c r="E154">
-        <v>1.598222209195569e-05</v>
+        <v>3.292846730740329e-05</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155">
-        <v>1.298514709842236e-06</v>
+        <v>5.342594164621473e-06</v>
       </c>
       <c r="B155">
-        <v>0.0001027350497483619</v>
+        <v>1.738143411978452e-05</v>
       </c>
       <c r="C155">
-        <v>0.003149184551340186</v>
+        <v>0.002650932547024499</v>
       </c>
       <c r="D155">
-        <v>0.9967448291834734</v>
+        <v>0.9973211967520677</v>
       </c>
       <c r="E155">
-        <v>1.952700728588705e-06</v>
+        <v>5.146672623488711e-06</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156">
-        <v>4.11461917792098e-06</v>
+        <v>1.941067459443735e-05</v>
       </c>
       <c r="B156">
-        <v>0.009357634499824871</v>
+        <v>0.01694443147573013</v>
       </c>
       <c r="C156">
-        <v>0.9905107781106428</v>
+        <v>0.9826986061081924</v>
       </c>
       <c r="D156">
-        <v>0.0001211411262273456</v>
+        <v>0.0002478914861865516</v>
       </c>
       <c r="E156">
-        <v>6.33164412690703e-06</v>
+        <v>8.966025529643573e-05</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157">
-        <v>3.245337770274089e-05</v>
+        <v>7.051440233696893e-05</v>
       </c>
       <c r="B157">
-        <v>0.002827402798393254</v>
+        <v>0.002827155952530807</v>
       </c>
       <c r="C157">
-        <v>0.9963983601283715</v>
+        <v>0.9967153506756459</v>
       </c>
       <c r="D157">
-        <v>0.0006989158324515968</v>
+        <v>0.0003034921514294606</v>
       </c>
       <c r="E157">
-        <v>4.286786308102573e-05</v>
+        <v>8.348681805688403e-05</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158">
-        <v>9.925269461959216e-05</v>
+        <v>0.0002799867939074804</v>
       </c>
       <c r="B158">
-        <v>0.000438028288435141</v>
+        <v>0.001863654657654938</v>
       </c>
       <c r="C158">
-        <v>0.9989595039279349</v>
+        <v>0.6464630131246083</v>
       </c>
       <c r="D158">
-        <v>0.0004476055407672633</v>
+        <v>0.0002434228648147157</v>
       </c>
       <c r="E158">
-        <v>5.560954824292876e-05</v>
+        <v>0.3511499225590145</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159">
-        <v>5.059111217555186e-05</v>
+        <v>0.0002714163620014593</v>
       </c>
       <c r="B159">
-        <v>0.0004166400754401909</v>
+        <v>0.0004393297053236715</v>
       </c>
       <c r="C159">
-        <v>0.9992746471485394</v>
+        <v>0.7676210867119039</v>
       </c>
       <c r="D159">
-        <v>0.0002207515862983307</v>
+        <v>0.0002732401895274469</v>
       </c>
       <c r="E159">
-        <v>3.737007754682688e-05</v>
+        <v>0.2313949270312435</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160">
-        <v>0.0001285792900413673</v>
+        <v>0.0001214928990306368</v>
       </c>
       <c r="B160">
-        <v>0.568283506535926</v>
+        <v>0.6158261599401503</v>
       </c>
       <c r="C160">
-        <v>0.4298342679673564</v>
+        <v>0.3835720446778143</v>
       </c>
       <c r="D160">
-        <v>0.001574688838587431</v>
+        <v>0.0003775292068194444</v>
       </c>
       <c r="E160">
-        <v>0.0001789573680889395</v>
+        <v>0.0001027732761855986</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161">
-        <v>4.101307032023371e-05</v>
+        <v>9.724815703349766e-05</v>
       </c>
       <c r="B161">
-        <v>0.003211431170662499</v>
+        <v>0.002881490008204083</v>
       </c>
       <c r="C161">
-        <v>0.9964577589600369</v>
+        <v>0.9967649600650996</v>
       </c>
       <c r="D161">
-        <v>0.0002356223861004802</v>
+        <v>0.0001282363870333752</v>
       </c>
       <c r="E161">
-        <v>5.417441288004288e-05</v>
+        <v>0.0001280653826293438</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162">
-        <v>2.040832432215917e-05</v>
+        <v>2.850498446317291e-05</v>
       </c>
       <c r="B162">
-        <v>0.004851294642034047</v>
+        <v>0.001295306134926791</v>
       </c>
       <c r="C162">
-        <v>0.9949641263780089</v>
+        <v>0.998572210683385</v>
       </c>
       <c r="D162">
-        <v>0.0001334807069799714</v>
+        <v>5.2023785711453e-05</v>
       </c>
       <c r="E162">
-        <v>3.068994865525748e-05</v>
+        <v>5.195441151371675e-05</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163">
-        <v>4.210633304111434e-05</v>
+        <v>4.578524360155043e-05</v>
       </c>
       <c r="B163">
-        <v>0.8155749350496129</v>
+        <v>0.844033974740459</v>
       </c>
       <c r="C163">
-        <v>0.1840728638162956</v>
+        <v>0.1558099894831421</v>
       </c>
       <c r="D163">
-        <v>0.0002514909734940667</v>
+        <v>5.062718238809101e-05</v>
       </c>
       <c r="E163">
-        <v>5.860382755644304e-05</v>
+        <v>5.962335040948501e-05</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164">
-        <v>1.86284800368439e-05</v>
+        <v>7.514483896288824e-05</v>
       </c>
       <c r="B164">
-        <v>0.002182050454625713</v>
+        <v>0.0004551565423906897</v>
       </c>
       <c r="C164">
-        <v>0.9976494680086703</v>
+        <v>0.9991757028522563</v>
       </c>
       <c r="D164">
-        <v>0.0001218396300464681</v>
+        <v>0.0001150872893578712</v>
       </c>
       <c r="E164">
-        <v>2.801342662099278e-05</v>
+        <v>0.0001789084770320653</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165">
-        <v>2.456610094178149e-06</v>
+        <v>5.148089010868824e-06</v>
       </c>
       <c r="B165">
-        <v>0.002302342702181678</v>
+        <v>0.002715032251268568</v>
       </c>
       <c r="C165">
-        <v>0.003847242177139926</v>
+        <v>0.004392669812472909</v>
       </c>
       <c r="D165">
-        <v>0.9938473902440244</v>
+        <v>0.9928839844865311</v>
       </c>
       <c r="E165">
-        <v>5.68266560258502e-07</v>
+        <v>3.165360716338128e-06</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166">
-        <v>1.64664194670846e-06</v>
+        <v>9.117799198907175e-06</v>
       </c>
       <c r="B166">
-        <v>0.001792982795649044</v>
+        <v>0.0002651520019832931</v>
       </c>
       <c r="C166">
-        <v>0.9981921244828275</v>
+        <v>0.9996951729611867</v>
       </c>
       <c r="D166">
-        <v>1.076986663480601e-05</v>
+        <v>1.395261466994994e-05</v>
       </c>
       <c r="E166">
-        <v>2.476212941363591e-06</v>
+        <v>1.660462296138213e-05</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167">
-        <v>2.363729588348945e-05</v>
+        <v>0.0001327090323177548</v>
       </c>
       <c r="B167">
-        <v>0.0003838506602215468</v>
+        <v>0.0005543043600057569</v>
       </c>
       <c r="C167">
-        <v>0.999264247425108</v>
+        <v>0.9617048286613123</v>
       </c>
       <c r="D167">
-        <v>0.0002951670020297576</v>
+        <v>0.0003174267021942879</v>
       </c>
       <c r="E167">
-        <v>3.30976167572234e-05</v>
+        <v>0.0372907312441699</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168">
-        <v>1.541705013649836e-05</v>
+        <v>6.957436566330472e-05</v>
       </c>
       <c r="B168">
-        <v>0.0004108124422330077</v>
+        <v>0.0004814430180014211</v>
       </c>
       <c r="C168">
-        <v>0.9940862105972242</v>
+        <v>0.9849522178309742</v>
       </c>
       <c r="D168">
-        <v>0.005464375817992268</v>
+        <v>0.01438899622933164</v>
       </c>
       <c r="E168">
-        <v>2.31840924142373e-05</v>
+        <v>0.0001077685560295357</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169">
-        <v>6.884695284942497e-06</v>
+        <v>0.0005250923597654551</v>
       </c>
       <c r="B169">
-        <v>0.9689579480176653</v>
+        <v>0.6790718230158789</v>
       </c>
       <c r="C169">
-        <v>0.03097944995473674</v>
+        <v>0.3188611197182026</v>
       </c>
       <c r="D169">
-        <v>4.755775875902181e-05</v>
+        <v>0.00103134518358797</v>
       </c>
       <c r="E169">
-        <v>8.159573554115488e-06</v>
+        <v>0.0005106197225653235</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170">
-        <v>0.0002120353091290109</v>
+        <v>0.006052578229688887</v>
       </c>
       <c r="B170">
-        <v>0.002269143492951927</v>
+        <v>0.009903505410522139</v>
       </c>
       <c r="C170">
-        <v>0.99739604408039</v>
+        <v>0.9667590587615884</v>
       </c>
       <c r="D170">
-        <v>0.0001102478686238336</v>
+        <v>0.0001129239436050098</v>
       </c>
       <c r="E170">
-        <v>1.252924890484069e-05</v>
+        <v>0.01717193365459578</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171">
-        <v>0.0006089083010597773</v>
+        <v>0.9976728649118102</v>
       </c>
       <c r="B171">
-        <v>0.01442951713013278</v>
+        <v>0.0002102697686302683</v>
       </c>
       <c r="C171">
-        <v>0.9836511105908691</v>
+        <v>0.002114843821078613</v>
       </c>
       <c r="D171">
-        <v>0.001211393828906566</v>
+        <v>1.538757703068565e-06</v>
       </c>
       <c r="E171">
-        <v>9.907014903171928e-05</v>
+        <v>4.827407782694277e-07</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172">
-        <v>4.735583254882726e-05</v>
+        <v>3.884936839791887e-05</v>
       </c>
       <c r="B172">
-        <v>0.3025227612550209</v>
+        <v>0.7318413090681065</v>
       </c>
       <c r="C172">
-        <v>0.6969808768603784</v>
+        <v>0.2679713401081922</v>
       </c>
       <c r="D172">
-        <v>0.000399387063555281</v>
+        <v>9.597392664946923e-05</v>
       </c>
       <c r="E172">
-        <v>4.961898849667558e-05</v>
+        <v>5.252752865370875e-05</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173">
-        <v>2.508720417434782e-05</v>
+        <v>0.0001348010664677068</v>
       </c>
       <c r="B173">
-        <v>0.02562620108286312</v>
+        <v>0.0251513067547806</v>
       </c>
       <c r="C173">
-        <v>0.9741465199044267</v>
+        <v>0.9741864981036119</v>
       </c>
       <c r="D173">
-        <v>0.0001640829348104241</v>
+        <v>0.0002064531584129211</v>
       </c>
       <c r="E173">
-        <v>3.810887372558125e-05</v>
+        <v>0.0003209409167267804</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174">
-        <v>3.504540081785869e-05</v>
+        <v>0.0005040952773284719</v>
       </c>
       <c r="B174">
-        <v>0.02237708347979777</v>
+        <v>0.06971763461061209</v>
       </c>
       <c r="C174">
-        <v>0.9771382453170572</v>
+        <v>0.9287651865394621</v>
       </c>
       <c r="D174">
-        <v>0.0004037420602683576</v>
+        <v>0.00074763423351712</v>
       </c>
       <c r="E174">
-        <v>4.588374205868207e-05</v>
+        <v>0.0002654493390801923</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175">
-        <v>1.542697818759481e-05</v>
+        <v>7.98764829466606e-05</v>
       </c>
       <c r="B175">
-        <v>0.000483520354273534</v>
+        <v>0.0003831222408348867</v>
       </c>
       <c r="C175">
-        <v>0.9992709630442885</v>
+        <v>0.9990655386019283</v>
       </c>
       <c r="D175">
-        <v>0.0002068906010767102</v>
+        <v>0.0002884932318213755</v>
       </c>
       <c r="E175">
-        <v>2.319902217395627e-05</v>
+        <v>0.0001829694424690819</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176">
-        <v>3.011293357521645e-06</v>
+        <v>2.233985379320045e-05</v>
       </c>
       <c r="B176">
-        <v>4.225646457180039e-05</v>
+        <v>6.318922816891555e-05</v>
       </c>
       <c r="C176">
-        <v>0.9999310392409734</v>
+        <v>0.9998592457682016</v>
       </c>
       <c r="D176">
-        <v>2.130412996934972e-05</v>
+        <v>4.361878594612788e-05</v>
       </c>
       <c r="E176">
-        <v>2.388871127947183e-06</v>
+        <v>1.160636388974479e-05</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177">
-        <v>2.642064684280123e-05</v>
+        <v>4.145765843730531e-05</v>
       </c>
       <c r="B177">
-        <v>0.0003707520306808418</v>
+        <v>0.0001298988663454757</v>
       </c>
       <c r="C177">
-        <v>0.9993949484012568</v>
+        <v>0.999726072621141</v>
       </c>
       <c r="D177">
-        <v>0.000186919315850575</v>
+        <v>8.101410573943947e-05</v>
       </c>
       <c r="E177">
-        <v>2.095960536917005e-05</v>
+        <v>2.155674833718444e-05</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178">
-        <v>8.430745918124487e-07</v>
+        <v>3.741179773375665e-06</v>
       </c>
       <c r="B178">
-        <v>3.277389737094207e-05</v>
+        <v>5.403308534808158e-06</v>
       </c>
       <c r="C178">
-        <v>0.003373861469276148</v>
+        <v>0.003215394374976136</v>
       </c>
       <c r="D178">
-        <v>5.553756754929333e-06</v>
+        <v>3.408506987169087e-06</v>
       </c>
       <c r="E178">
-        <v>0.9965869678020064</v>
+        <v>0.9967720526297288</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179">
-        <v>2.765538533470826e-05</v>
+        <v>8.252293297503167e-05</v>
       </c>
       <c r="B179">
-        <v>0.001020127300115587</v>
+        <v>0.001999376551510691</v>
       </c>
       <c r="C179">
-        <v>0.9981531520860717</v>
+        <v>0.8964433506940513</v>
       </c>
       <c r="D179">
-        <v>0.0007581441562075546</v>
+        <v>0.0002995672374248204</v>
       </c>
       <c r="E179">
-        <v>4.092107227042721e-05</v>
+        <v>0.101175182584038</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180">
-        <v>7.699950473755791e-06</v>
+        <v>3.121764706450391e-05</v>
       </c>
       <c r="B180">
-        <v>0.0007692922479430607</v>
+        <v>0.0005836565053871876</v>
       </c>
       <c r="C180">
-        <v>0.9990261507584735</v>
+        <v>0.9992885712893045</v>
       </c>
       <c r="D180">
-        <v>0.0001867757618811169</v>
+        <v>8.117455962057521e-05</v>
       </c>
       <c r="E180">
-        <v>1.008128122827458e-05</v>
+        <v>1.537999862324373e-05</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181">
-        <v>1.360533010440648e-05</v>
+        <v>6.338886748745958e-05</v>
       </c>
       <c r="B181">
-        <v>0.8995915006567446</v>
+        <v>0.6688701509546462</v>
       </c>
       <c r="C181">
-        <v>0.1001925953004921</v>
+        <v>0.3308567254016092</v>
       </c>
       <c r="D181">
-        <v>0.0001806781865478614</v>
+        <v>0.0001006359409386879</v>
       </c>
       <c r="E181">
-        <v>2.16205261111814e-05</v>
+        <v>0.0001090988353186704</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182">
-        <v>7.333732376226341e-05</v>
+        <v>0.000101015082090083</v>
       </c>
       <c r="B182">
-        <v>0.7923804033576778</v>
+        <v>0.3424360587088163</v>
       </c>
       <c r="C182">
-        <v>0.205270546481234</v>
+        <v>0.6559939646295748</v>
       </c>
       <c r="D182">
-        <v>0.002159170900367268</v>
+        <v>0.001290051961086571</v>
       </c>
       <c r="E182">
-        <v>0.000116541936958416</v>
+        <v>0.0001789096184319936</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183">
-        <v>1.084016705092294e-05</v>
+        <v>3.662550094623839e-05</v>
       </c>
       <c r="B183">
-        <v>4.566925819688323e-05</v>
+        <v>5.3254917679577e-05</v>
       </c>
       <c r="C183">
-        <v>0.999894670476916</v>
+        <v>0.9998433342083082</v>
       </c>
       <c r="D183">
-        <v>4.389776141687882e-05</v>
+        <v>4.15870585585702e-05</v>
       </c>
       <c r="E183">
-        <v>4.922336419331203e-06</v>
+        <v>2.519831450773584e-05</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184">
-        <v>0.0003054636801265687</v>
+        <v>0.2272994312537585</v>
       </c>
       <c r="B184">
-        <v>0.3766870175135771</v>
+        <v>0.09230832793665797</v>
       </c>
       <c r="C184">
-        <v>0.6216159496508347</v>
+        <v>0.6782804713518561</v>
       </c>
       <c r="D184">
-        <v>0.001209845448067547</v>
+        <v>0.001057786726024624</v>
       </c>
       <c r="E184">
-        <v>0.0001817237073942149</v>
+        <v>0.001053982731702671</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185">
-        <v>3.159198964380917e-05</v>
+        <v>0.0001902788377851671</v>
       </c>
       <c r="B185">
-        <v>0.0004735679119355729</v>
+        <v>0.0004541809165788728</v>
       </c>
       <c r="C185">
-        <v>0.9992462728030996</v>
+        <v>0.9989086927184789</v>
       </c>
       <c r="D185">
-        <v>0.0002235052429152854</v>
+        <v>0.0003120278963403622</v>
       </c>
       <c r="E185">
-        <v>2.506205240548688e-05</v>
+        <v>0.000134819630816579</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186">
-        <v>5.691803422196977e-05</v>
+        <v>0.0001258462011520026</v>
       </c>
       <c r="B186">
-        <v>0.8689921041915236</v>
+        <v>0.8639993229387956</v>
       </c>
       <c r="C186">
-        <v>0.130464036622549</v>
+        <v>0.1353308153282536</v>
       </c>
       <c r="D186">
-        <v>0.0003964914650275484</v>
+        <v>0.0003263990435865957</v>
       </c>
       <c r="E186">
-        <v>9.044968667791815e-05</v>
+        <v>0.0002176164882119307</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187">
-        <v>2.700277076281185e-05</v>
+        <v>7.305351997858584e-05</v>
       </c>
       <c r="B187">
-        <v>0.008231751293204857</v>
+        <v>0.002446616837634885</v>
       </c>
       <c r="C187">
-        <v>0.9913567152543482</v>
+        <v>0.9972197937402268</v>
       </c>
       <c r="D187">
-        <v>0.0003439240333784415</v>
+        <v>0.0001333282841723136</v>
       </c>
       <c r="E187">
-        <v>4.060664830578834e-05</v>
+        <v>0.0001272076179874579</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188">
-        <v>1.658691614333212e-05</v>
+        <v>8.568761305686445e-05</v>
       </c>
       <c r="B188">
-        <v>0.000472142559291431</v>
+        <v>0.0004517014483981875</v>
       </c>
       <c r="C188">
-        <v>0.9945127763826167</v>
+        <v>0.9922924764486073</v>
       </c>
       <c r="D188">
-        <v>0.00497355081016146</v>
+        <v>0.006973549540528809</v>
       </c>
       <c r="E188">
-        <v>2.49433317871767e-05</v>
+        <v>0.0001965849494086366</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189">
-        <v>4.022633099693136e-05</v>
+        <v>0.0001367875154076832</v>
       </c>
       <c r="B189">
-        <v>0.00747441330852349</v>
+        <v>0.009011220016837006</v>
       </c>
       <c r="C189">
-        <v>0.9921471116882723</v>
+        <v>0.9900343908856668</v>
       </c>
       <c r="D189">
-        <v>0.0002743241343236036</v>
+        <v>0.0002348858402602263</v>
       </c>
       <c r="E189">
-        <v>6.392453788346508e-05</v>
+        <v>0.0005827157418282931</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190">
-        <v>2.286065827506409e-05</v>
+        <v>0.0001023533109195376</v>
       </c>
       <c r="B190">
-        <v>0.0003493859340902545</v>
+        <v>0.0004371168182088866</v>
       </c>
       <c r="C190">
-        <v>0.8360467192012455</v>
+        <v>0.5369259932307647</v>
       </c>
       <c r="D190">
-        <v>0.1635466564486853</v>
+        <v>0.4624403375719495</v>
       </c>
       <c r="E190">
-        <v>3.437775770376804e-05</v>
+        <v>9.419906815713033e-05</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191">
-        <v>2.993095753919337e-05</v>
+        <v>0.0002036503146560957</v>
       </c>
       <c r="B191">
-        <v>0.0001091822753715478</v>
+        <v>0.0002104824405612865</v>
       </c>
       <c r="C191">
-        <v>0.9997026559411852</v>
+        <v>0.995690871010081</v>
       </c>
       <c r="D191">
-        <v>0.0001455757123873147</v>
+        <v>5.358685970585089e-05</v>
       </c>
       <c r="E191">
-        <v>1.265511351696973e-05</v>
+        <v>0.003841409374995923</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192">
-        <v>2.021176936529703e-06</v>
+        <v>3.558762603233134e-06</v>
       </c>
       <c r="B192">
-        <v>1.737123436769265e-05</v>
+        <v>4.610722897486333e-06</v>
       </c>
       <c r="C192">
-        <v>0.8929671134370633</v>
+        <v>0.05181840667683814</v>
       </c>
       <c r="D192">
-        <v>1.331450997713897e-05</v>
+        <v>3.242310697048181e-06</v>
       </c>
       <c r="E192">
-        <v>0.107000179641655</v>
+        <v>0.9481701815269642</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193">
-        <v>4.678152756723065e-05</v>
+        <v>0.0001326144742853256</v>
       </c>
       <c r="B193">
-        <v>0.3671163197695037</v>
+        <v>0.316070311163858</v>
       </c>
       <c r="C193">
-        <v>0.6324366282857137</v>
+        <v>0.683181136045707</v>
       </c>
       <c r="D193">
-        <v>0.0003259288738256223</v>
+        <v>0.0003752535897557404</v>
       </c>
       <c r="E193">
-        <v>7.434154338972474e-05</v>
+        <v>0.000240684726394038</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194">
-        <v>5.073913119273833e-05</v>
+        <v>0.0001970378910867015</v>
       </c>
       <c r="B194">
-        <v>0.003049635992268329</v>
+        <v>0.0005704937480698158</v>
       </c>
       <c r="C194">
-        <v>0.9965184567867434</v>
+        <v>0.9989447730318302</v>
       </c>
       <c r="D194">
-        <v>0.0003409165330147902</v>
+        <v>0.0001370137623473206</v>
       </c>
       <c r="E194">
-        <v>4.025155678064345e-05</v>
+        <v>0.0001506815666661414</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195">
-        <v>6.129459357854222e-05</v>
+        <v>0.0001202385441440523</v>
       </c>
       <c r="B195">
-        <v>0.8012846084580951</v>
+        <v>0.5834164968058426</v>
       </c>
       <c r="C195">
-        <v>0.1967520791719821</v>
+        <v>0.4149617269322561</v>
       </c>
       <c r="D195">
-        <v>0.001804613203962137</v>
+        <v>0.00128858108189159</v>
       </c>
       <c r="E195">
-        <v>9.740457238225423e-05</v>
+        <v>0.0002129566358659892</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196">
-        <v>1.359528737253464e-05</v>
+        <v>3.66254578303054e-05</v>
       </c>
       <c r="B196">
-        <v>5.964118342039622e-05</v>
+        <v>5.325485498731608e-05</v>
       </c>
       <c r="C196">
-        <v>0.9998655353897771</v>
+        <v>0.9998421571820001</v>
       </c>
       <c r="D196">
-        <v>5.505474949508453e-05</v>
+        <v>4.158700960183832e-05</v>
       </c>
       <c r="E196">
-        <v>6.173389934927552e-06</v>
+        <v>2.637549558013907e-05</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197">
-        <v>1.7786352680277e-05</v>
+        <v>0.0001482520525886925</v>
       </c>
       <c r="B197">
-        <v>0.0006872900202502664</v>
+        <v>0.003591870368311371</v>
       </c>
       <c r="C197">
-        <v>0.9987810108467469</v>
+        <v>0.8352508473240891</v>
       </c>
       <c r="D197">
-        <v>0.0004875947010535777</v>
+        <v>0.0005381711026920363</v>
       </c>
       <c r="E197">
-        <v>2.63180792691204e-05</v>
+        <v>0.160470859152319</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198">
-        <v>6.265707072398837e-05</v>
+        <v>4.497949872845889e-05</v>
       </c>
       <c r="B198">
-        <v>0.2112121777258415</v>
+        <v>0.04416200907648475</v>
       </c>
       <c r="C198">
-        <v>0.7881380693782017</v>
+        <v>0.9556164218407295</v>
       </c>
       <c r="D198">
-        <v>0.0005570299559675123</v>
+        <v>0.0001515446429247834</v>
       </c>
       <c r="E198">
-        <v>3.006586926550043e-05</v>
+        <v>2.504494113276884e-05</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199">
-        <v>1.213415311275318e-05</v>
+        <v>5.205279516971857e-05</v>
       </c>
       <c r="B199">
-        <v>5.338323034118723e-05</v>
+        <v>7.214293946019552e-05</v>
       </c>
       <c r="C199">
-        <v>0.9999050082717952</v>
+        <v>0.9998141427151113</v>
       </c>
       <c r="D199">
-        <v>2.396443115817407e-05</v>
+        <v>2.50628349701686e-05</v>
       </c>
       <c r="E199">
-        <v>5.509913593034605e-06</v>
+        <v>3.659871528854596e-05</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200">
-        <v>9.337255006272124e-07</v>
+        <v>8.650344859234029e-06</v>
       </c>
       <c r="B200">
-        <v>0.0001067548933059123</v>
+        <v>3.520858394676399e-05</v>
       </c>
       <c r="C200">
-        <v>0.9997788022425205</v>
+        <v>0.9998245011747581</v>
       </c>
       <c r="D200">
-        <v>0.0001121050063579633</v>
+        <v>0.0001191416005658782</v>
       </c>
       <c r="E200">
-        <v>1.40413231483387e-06</v>
+        <v>1.249829587053695e-05</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201">
-        <v>2.924314139724188e-05</v>
+        <v>0.000175918536369567</v>
       </c>
       <c r="B201">
-        <v>0.000483513673774344</v>
+        <v>0.0003831036338440057</v>
       </c>
       <c r="C201">
-        <v>0.9992571567405827</v>
+        <v>0.9990170172649107</v>
       </c>
       <c r="D201">
-        <v>0.0002068877425983015</v>
+        <v>0.0002884792206511494</v>
       </c>
       <c r="E201">
-        <v>2.319870164753482e-05</v>
+        <v>0.0001354813442244771</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202">
-        <v>6.398651950387866e-05</v>
+        <v>0.0001732917297389391</v>
       </c>
       <c r="B202">
-        <v>0.0003777852860243319</v>
+        <v>0.003332273011712614</v>
       </c>
       <c r="C202">
-        <v>0.9992108925927091</v>
+        <v>0.9954577859958148</v>
       </c>
       <c r="D202">
-        <v>0.0003011326340054255</v>
+        <v>0.0004213534256193996</v>
       </c>
       <c r="E202">
-        <v>4.62029677572415e-05</v>
+        <v>0.0006152958371141858</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203">
-        <v>0.0001041965082001238</v>
+        <v>0.0001772103032696144</v>
       </c>
       <c r="B203">
-        <v>0.01774094219298269</v>
+        <v>0.007282734526838393</v>
       </c>
       <c r="C203">
-        <v>0.9812634466812853</v>
+        <v>0.9913060465774943</v>
       </c>
       <c r="D203">
-        <v>0.0007258336791096644</v>
+        <v>0.0004596187486901522</v>
       </c>
       <c r="E203">
-        <v>0.0001655809384224404</v>
+        <v>0.0007743898437072809</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204">
-        <v>2.82900066733445e-05</v>
+        <v>5.03907045339921e-05</v>
       </c>
       <c r="B204">
-        <v>0.002349478778235168</v>
+        <v>7.906554651156654e-05</v>
       </c>
       <c r="C204">
-        <v>0.9972977514461011</v>
+        <v>0.9966313864748853</v>
       </c>
       <c r="D204">
-        <v>0.0002917637635945288</v>
+        <v>8.754664897460987e-05</v>
       </c>
       <c r="E204">
-        <v>3.271600539589887e-05</v>
+        <v>0.003151610625094692</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205">
-        <v>1.296692630216124e-05</v>
+        <v>6.517449001001666e-05</v>
       </c>
       <c r="B205">
-        <v>0.8294478453135644</v>
+        <v>0.7227035602544498</v>
       </c>
       <c r="C205">
-        <v>0.1703372643774751</v>
+        <v>0.2769080991160284</v>
       </c>
       <c r="D205">
-        <v>0.0001813173579205714</v>
+        <v>0.0002440092285759076</v>
       </c>
       <c r="E205">
-        <v>2.060602473782256e-05</v>
+        <v>7.915691093573288e-05</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206">
-        <v>9.767196195611861e-05</v>
+        <v>0.0001733002446707005</v>
       </c>
       <c r="B206">
-        <v>0.0006256114806930629</v>
+        <v>0.003287637621704069</v>
       </c>
       <c r="C206">
-        <v>0.9975074504236108</v>
+        <v>0.9955066992078403</v>
       </c>
       <c r="D206">
-        <v>0.001698739801880915</v>
+        <v>0.0004544309126716217</v>
       </c>
       <c r="E206">
-        <v>7.052633185918978e-05</v>
+        <v>0.0005779320131132864</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207">
-        <v>1.90536999507619e-05</v>
+        <v>7.936665174174766e-05</v>
       </c>
       <c r="B207">
-        <v>0.004793096497569391</v>
+        <v>0.002808861340207337</v>
       </c>
       <c r="C207">
-        <v>0.9949036685072261</v>
+        <v>0.9967311525540393</v>
       </c>
       <c r="D207">
-        <v>0.00025552842479017</v>
+        <v>0.0002866518531506729</v>
       </c>
       <c r="E207">
-        <v>2.865287046358044e-05</v>
+        <v>9.396760086093039e-05</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208">
-        <v>3.144960424279807e-06</v>
+        <v>2.30936784455792e-05</v>
       </c>
       <c r="B208">
-        <v>0.001855583918558952</v>
+        <v>0.000246105516578354</v>
       </c>
       <c r="C208">
-        <v>0.9981165264210033</v>
+        <v>0.9996852443093555</v>
       </c>
       <c r="D208">
-        <v>2.224979026369627e-05</v>
+        <v>3.783845726735604e-05</v>
       </c>
       <c r="E208">
-        <v>2.494909749437971e-06</v>
+        <v>7.718038353602781e-06</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209">
-        <v>1.610571433258305e-05</v>
+        <v>0.0001231673775504327</v>
       </c>
       <c r="B209">
-        <v>0.005930695820584866</v>
+        <v>0.006384643552081393</v>
       </c>
       <c r="C209">
-        <v>0.9938099370895394</v>
+        <v>0.9925326222042036</v>
       </c>
       <c r="D209">
-        <v>0.0002184776356260447</v>
+        <v>0.0003194511543894191</v>
       </c>
       <c r="E209">
-        <v>2.47837399171089e-05</v>
+        <v>0.0006401157117750485</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210">
-        <v>7.98574411146676e-07</v>
+        <v>1.249888248092659e-06</v>
       </c>
       <c r="B210">
-        <v>2.140375737248101e-05</v>
+        <v>3.061887457521849e-05</v>
       </c>
       <c r="C210">
-        <v>0.001137268132770092</v>
+        <v>0.003929949392564427</v>
       </c>
       <c r="D210">
-        <v>2.189210223543347e-05</v>
+        <v>4.537230513657991e-06</v>
       </c>
       <c r="E210">
-        <v>0.9988186374332109</v>
+        <v>0.9960336446140984</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211">
-        <v>2.874522292033478e-05</v>
+        <v>0.0001552992901467096</v>
       </c>
       <c r="B211">
-        <v>0.003280232315031152</v>
+        <v>0.0028270119578084</v>
       </c>
       <c r="C211">
-        <v>0.996464853664348</v>
+        <v>0.9966645852588638</v>
       </c>
       <c r="D211">
-        <v>0.0002033650967824515</v>
+        <v>0.0003034766937508494</v>
       </c>
       <c r="E211">
-        <v>2.280370091783715e-05</v>
+        <v>4.962679943002197e-05</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212">
-        <v>4.11461917792098e-06</v>
+        <v>1.941068932537978e-05</v>
       </c>
       <c r="B212">
-        <v>0.009357634499824871</v>
+        <v>0.0169444443350176</v>
       </c>
       <c r="C212">
-        <v>0.9905107781106428</v>
+        <v>0.982699351887353</v>
       </c>
       <c r="D212">
-        <v>0.0001211411262273456</v>
+        <v>0.0002478916743137182</v>
       </c>
       <c r="E212">
-        <v>6.33164412690703e-06</v>
+        <v>8.890141399034486e-05</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213">
-        <v>7.979029446367209e-07</v>
+        <v>7.424352848513302e-06</v>
       </c>
       <c r="B213">
-        <v>1.483024078724344e-05</v>
+        <v>0.0003125068953584256</v>
       </c>
       <c r="C213">
-        <v>0.001998543452722728</v>
+        <v>0.01112100628622104</v>
       </c>
       <c r="D213">
-        <v>7.02913092848765e-06</v>
+        <v>2.499069101910027e-05</v>
       </c>
       <c r="E213">
-        <v>0.9979787992726172</v>
+        <v>0.9885340717745524</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214">
-        <v>6.44982115880571e-05</v>
+        <v>8.349142919066623e-05</v>
       </c>
       <c r="B214">
-        <v>0.001348385107952396</v>
+        <v>0.002249534713448963</v>
       </c>
       <c r="C214">
-        <v>0.9982304830759923</v>
+        <v>0.9970279473373534</v>
       </c>
       <c r="D214">
-        <v>0.0003100611574343306</v>
+        <v>0.000276140823148425</v>
       </c>
       <c r="E214">
-        <v>4.657244703272387e-05</v>
+        <v>0.000362885696858537</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215">
-        <v>1.541705013649836e-05</v>
+        <v>6.957436566330472e-05</v>
       </c>
       <c r="B215">
-        <v>0.0004108124422330077</v>
+        <v>0.0004814430180014211</v>
       </c>
       <c r="C215">
-        <v>0.9940862105972242</v>
+        <v>0.9849522178309742</v>
       </c>
       <c r="D215">
-        <v>0.005464375817992268</v>
+        <v>0.01438899622933164</v>
       </c>
       <c r="E215">
-        <v>2.31840924142373e-05</v>
+        <v>0.0001077685560295357</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216">
-        <v>3.872170167391964e-06</v>
+        <v>9.93681345557249e-06</v>
       </c>
       <c r="B216">
-        <v>9.047757388552699e-05</v>
+        <v>6.403362412219743e-05</v>
       </c>
       <c r="C216">
-        <v>0.9998757576371817</v>
+        <v>0.9999133293199597</v>
       </c>
       <c r="D216">
-        <v>2.83617825212289e-05</v>
+        <v>9.39425725513073e-06</v>
       </c>
       <c r="E216">
-        <v>1.530836243696659e-06</v>
+        <v>3.305985208072907e-06</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217">
-        <v>6.592747507852256e-05</v>
+        <v>0.0003096479721736257</v>
       </c>
       <c r="B217">
-        <v>0.02014480270687621</v>
+        <v>0.0242388037239271</v>
       </c>
       <c r="C217">
-        <v>0.9777432019766971</v>
+        <v>0.9710563503574549</v>
       </c>
       <c r="D217">
-        <v>0.001941301056166029</v>
+        <v>0.003038145033007195</v>
       </c>
       <c r="E217">
-        <v>0.0001047667851820666</v>
+        <v>0.001357052913437145</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218">
-        <v>4.686728677351237e-05</v>
+        <v>0.0001214648970481703</v>
       </c>
       <c r="B218">
-        <v>0.01837565999220748</v>
+        <v>0.0005945223835011212</v>
       </c>
       <c r="C218">
-        <v>0.9779804524598043</v>
+        <v>0.9983202296467749</v>
       </c>
       <c r="D218">
-        <v>0.003559840254179594</v>
+        <v>0.0009052628778966105</v>
       </c>
       <c r="E218">
-        <v>3.718000703545193e-05</v>
+        <v>5.852019477947952e-05</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219">
-        <v>8.109799371490201e-06</v>
+        <v>5.829962458690224e-05</v>
       </c>
       <c r="B219">
-        <v>0.0001027348938630753</v>
+        <v>0.0005366662363694434</v>
       </c>
       <c r="C219">
-        <v>0.06449119391147842</v>
+        <v>0.0145821932861693</v>
       </c>
       <c r="D219">
-        <v>0.935389464025057</v>
+        <v>0.9848089476112958</v>
       </c>
       <c r="E219">
-        <v>8.497370230148844e-06</v>
+        <v>1.389324157856159e-05</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220">
-        <v>3.269571040604699e-05</v>
+        <v>0.0001224841470739506</v>
       </c>
       <c r="B220">
-        <v>0.0002820757672591619</v>
+        <v>0.0003703776957794065</v>
       </c>
       <c r="C220">
-        <v>0.999515728829066</v>
+        <v>0.9991483360083605</v>
       </c>
       <c r="D220">
-        <v>0.0001475766574862708</v>
+        <v>0.0001945496681486291</v>
       </c>
       <c r="E220">
-        <v>2.192303578247765e-05</v>
+        <v>0.0001642524806375569</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221">
-        <v>1.549854661032945e-05</v>
+        <v>0.0001449446035013066</v>
       </c>
       <c r="B221">
-        <v>0.0004122685684730597</v>
+        <v>0.001000268066152894</v>
       </c>
       <c r="C221">
-        <v>0.9993410758360676</v>
+        <v>0.9980067822267831</v>
       </c>
       <c r="D221">
-        <v>0.0002078504023947407</v>
+        <v>0.0006238377990426368</v>
       </c>
       <c r="E221">
-        <v>2.330664645434264e-05</v>
+        <v>0.000224167304520099</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222">
-        <v>1.914187394540065e-05</v>
+        <v>7.051440233696893e-05</v>
       </c>
       <c r="B222">
-        <v>0.00473329185299166</v>
+        <v>0.002827155952530807</v>
       </c>
       <c r="C222">
-        <v>0.9949620698841489</v>
+        <v>0.9967153506756459</v>
       </c>
       <c r="D222">
-        <v>0.000256710922783511</v>
+        <v>0.0003034921514294606</v>
       </c>
       <c r="E222">
-        <v>2.878546613020526e-05</v>
+        <v>8.348681805688403e-05</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223">
-        <v>2.949658732920966e-06</v>
+        <v>6.453858137667882e-06</v>
       </c>
       <c r="B223">
-        <v>0.0001504372733875464</v>
+        <v>0.0001891136090780996</v>
       </c>
       <c r="C223">
-        <v>0.9998276531096636</v>
+        <v>0.9997936631075975</v>
       </c>
       <c r="D223">
-        <v>1.688959207156505e-05</v>
+        <v>7.252332018242476e-06</v>
       </c>
       <c r="E223">
-        <v>2.070366144612516e-06</v>
+        <v>3.517093168288195e-06</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224">
-        <v>2.461722469661249e-05</v>
+        <v>0.0001397895768783092</v>
       </c>
       <c r="B224">
-        <v>0.9277862026126901</v>
+        <v>0.6782812101800408</v>
       </c>
       <c r="C224">
-        <v>0.0714252889897771</v>
+        <v>0.3198443777789559</v>
       </c>
       <c r="D224">
-        <v>0.000724771405417421</v>
+        <v>0.001498106996332334</v>
       </c>
       <c r="E224">
-        <v>3.911976741861995e-05</v>
+        <v>0.0002365154677925727</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225">
-        <v>1.198740368045763e-05</v>
+        <v>0.0001213364752178567</v>
       </c>
       <c r="B225">
-        <v>0.001046944557484996</v>
+        <v>0.002241714132884296</v>
       </c>
       <c r="C225">
-        <v>0.9988467505696162</v>
+        <v>0.9972647303688275</v>
       </c>
       <c r="D225">
-        <v>8.48078136810008e-05</v>
+        <v>0.0003115143738158675</v>
       </c>
       <c r="E225">
-        <v>9.509655537134829e-06</v>
+        <v>6.070464925461924e-05</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226">
-        <v>0.0004597238250429721</v>
+        <v>0.0002043998779129897</v>
       </c>
       <c r="B226">
-        <v>0.01229653462601426</v>
+        <v>0.007287127203181656</v>
       </c>
       <c r="C226">
-        <v>0.9847017646359766</v>
+        <v>0.9909024927715482</v>
       </c>
       <c r="D226">
-        <v>0.002210022538351369</v>
+        <v>0.0006760352659604546</v>
       </c>
       <c r="E226">
-        <v>0.000331954374614932</v>
+        <v>0.0009299448813964667</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227">
-        <v>3.831048395292986e-05</v>
+        <v>8.178303312645141e-05</v>
       </c>
       <c r="B227">
-        <v>0.01963268105346247</v>
+        <v>0.04923635239366195</v>
       </c>
       <c r="C227">
-        <v>0.9802300413892702</v>
+        <v>0.9505322963383318</v>
       </c>
       <c r="D227">
-        <v>8.05838647041787e-05</v>
+        <v>7.946627514797133e-05</v>
       </c>
       <c r="E227">
-        <v>1.838320861025918e-05</v>
+        <v>7.010195973168418e-05</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228">
-        <v>0.0002517697530390037</v>
+        <v>0.0001394161251108122</v>
       </c>
       <c r="B228">
-        <v>0.04155304351596548</v>
+        <v>0.007621025630553572</v>
       </c>
       <c r="C228">
-        <v>0.9503825801393162</v>
+        <v>0.9900633398784686</v>
       </c>
       <c r="D228">
-        <v>0.007412513798794949</v>
+        <v>0.001780467251869421</v>
       </c>
       <c r="E228">
-        <v>0.0004000927928843469</v>
+        <v>0.0003957511139974108</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229">
-        <v>3.03788012894753e-05</v>
+        <v>0.0002392474127645659</v>
       </c>
       <c r="B229">
-        <v>0.0009405949047515245</v>
+        <v>0.003095684394007369</v>
       </c>
       <c r="C229">
-        <v>0.9984970905128635</v>
+        <v>0.854610790414697</v>
       </c>
       <c r="D229">
-        <v>0.0005022973520597898</v>
+        <v>0.0001751080801438577</v>
       </c>
       <c r="E229">
-        <v>2.963842903584776e-05</v>
+        <v>0.1418791696983875</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230">
-        <v>2.533573764038262e-05</v>
+        <v>9.918810911494412e-05</v>
       </c>
       <c r="B230">
-        <v>0.0002549937238314491</v>
+        <v>0.002786163799461138</v>
       </c>
       <c r="C230">
-        <v>0.9995612189505552</v>
+        <v>0.9877366874014919</v>
       </c>
       <c r="D230">
-        <v>0.0001217960613761292</v>
+        <v>0.0003280562611401365</v>
       </c>
       <c r="E230">
-        <v>3.665552659654479e-05</v>
+        <v>0.009049904428791963</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231">
-        <v>9.076687227761629e-06</v>
+        <v>3.662580073824526e-05</v>
       </c>
       <c r="B231">
-        <v>0.0001256673917831261</v>
+        <v>5.325535358893616e-05</v>
       </c>
       <c r="C231">
-        <v>0.9998243778831869</v>
+        <v>0.9998515182612768</v>
       </c>
       <c r="D231">
-        <v>3.675646772860267e-05</v>
+        <v>4.158739896258988e-05</v>
       </c>
       <c r="E231">
-        <v>4.121570073432167e-06</v>
+        <v>1.701318543290295e-05</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232">
-        <v>4.216288471668735e-05</v>
+        <v>3.815000934266243e-05</v>
       </c>
       <c r="B232">
-        <v>0.2413015745389266</v>
+        <v>0.2716876030784521</v>
       </c>
       <c r="C232">
-        <v>0.7579996943113537</v>
+        <v>0.7280491559602517</v>
       </c>
       <c r="D232">
-        <v>0.0005895663074652615</v>
+        <v>0.000154487560675548</v>
       </c>
       <c r="E232">
-        <v>6.70019575375556e-05</v>
+        <v>7.060339127813617e-05</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233">
-        <v>2.34217000747171e-05</v>
+        <v>0.0002029604491142738</v>
       </c>
       <c r="B233">
-        <v>8.241369497390412e-05</v>
+        <v>0.000209769431189575</v>
       </c>
       <c r="C233">
-        <v>0.9998257633127133</v>
+        <v>0.9923179676910933</v>
       </c>
       <c r="D233">
-        <v>5.849835903555292e-05</v>
+        <v>5.340533419204092e-05</v>
       </c>
       <c r="E233">
-        <v>9.902933202782899e-06</v>
+        <v>0.007215897094411198</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234">
-        <v>3.692675778825062e-06</v>
+        <v>9.500805335281384e-06</v>
       </c>
       <c r="B234">
-        <v>0.001278077595299363</v>
+        <v>0.001487899679088512</v>
       </c>
       <c r="C234">
-        <v>0.9986836855034863</v>
+        <v>0.9984534521368504</v>
       </c>
       <c r="D234">
-        <v>3.282839434901516e-05</v>
+        <v>3.201005330728873e-05</v>
       </c>
       <c r="E234">
-        <v>1.715831086840348e-06</v>
+        <v>1.713732541818311e-05</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235">
-        <v>2.451316571003161e-05</v>
+        <v>0.000106475704020773</v>
       </c>
       <c r="B235">
-        <v>0.0004291825256908929</v>
+        <v>0.0007783569944632332</v>
       </c>
       <c r="C235">
-        <v>0.9991171402120419</v>
+        <v>0.9847109623777488</v>
       </c>
       <c r="D235">
-        <v>0.0003948400618544852</v>
+        <v>0.0001981712078556961</v>
       </c>
       <c r="E235">
-        <v>3.432403470244855e-05</v>
+        <v>0.01420603371591147</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236">
-        <v>1.87234257423683e-07</v>
+        <v>2.494835495019404e-07</v>
       </c>
       <c r="B236">
-        <v>9.453303963770331e-06</v>
+        <v>4.931619594525101e-06</v>
       </c>
       <c r="C236">
-        <v>0.0008896992002474916</v>
+        <v>0.000120711092879602</v>
       </c>
       <c r="D236">
-        <v>0.9991003627234982</v>
+        <v>0.9998734305862715</v>
       </c>
       <c r="E236">
-        <v>2.975380325557336e-07</v>
+        <v>6.772177045676924e-07</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237">
-        <v>4.044922668840471e-06</v>
+        <v>2.761930240466289e-05</v>
       </c>
       <c r="B237">
-        <v>0.008756068579510664</v>
+        <v>0.02773729263858512</v>
       </c>
       <c r="C237">
-        <v>0.9912054851413523</v>
+        <v>0.9720615382756521</v>
       </c>
       <c r="D237">
-        <v>2.8176962483231e-05</v>
+        <v>8.536393230153586e-05</v>
       </c>
       <c r="E237">
-        <v>6.224393984596554e-06</v>
+        <v>8.8185851056671e-05</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238">
-        <v>4.145706540175553e-07</v>
+        <v>5.253645443909077e-05</v>
       </c>
       <c r="B238">
-        <v>2.258503306946484e-05</v>
+        <v>0.003366120651997991</v>
       </c>
       <c r="C238">
-        <v>0.001590972344072196</v>
+        <v>0.09834503555019977</v>
       </c>
       <c r="D238">
-        <v>3.575359905815193e-06</v>
+        <v>0.0001090956547952858</v>
       </c>
       <c r="E238">
-        <v>0.9983824526922985</v>
+        <v>0.8981272116885677</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239">
-        <v>3.904921235971102e-05</v>
+        <v>7.25555179942921e-07</v>
       </c>
       <c r="B239">
-        <v>0.0002601594008252003</v>
+        <v>3.12714473051968e-06</v>
       </c>
       <c r="C239">
-        <v>0.6672394718838529</v>
+        <v>0.003806124414879254</v>
       </c>
       <c r="D239">
-        <v>0.3324097391619515</v>
+        <v>0.9961893239373087</v>
       </c>
       <c r="E239">
-        <v>5.158034101074839e-05</v>
+        <v>6.989479017834451e-07</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240">
-        <v>6.048175856420309e-06</v>
+        <v>3.662571491008794e-05</v>
       </c>
       <c r="B240">
-        <v>1.727122884124289e-05</v>
+        <v>4.762792025325003e-05</v>
       </c>
       <c r="C240">
-        <v>0.9999494418511341</v>
+        <v>0.9998491752295422</v>
       </c>
       <c r="D240">
-        <v>2.449236985973024e-05</v>
+        <v>4.955798972928627e-05</v>
       </c>
       <c r="E240">
-        <v>2.746374308506862e-06</v>
+        <v>1.701314556454984e-05</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241">
-        <v>0.0001218964075725249</v>
+        <v>0.0003459635525662109</v>
       </c>
       <c r="B241">
-        <v>0.05935241111304524</v>
+        <v>0.01952589071819955</v>
       </c>
       <c r="C241">
-        <v>0.9394828529311884</v>
+        <v>0.9777190194614824</v>
       </c>
       <c r="D241">
-        <v>0.00084913131454161</v>
+        <v>0.0008973029907914322</v>
       </c>
       <c r="E241">
-        <v>0.0001937082336522957</v>
+        <v>0.001511823276960114</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242">
-        <v>6.43343398391015e-06</v>
+        <v>0.0007085175832449703</v>
       </c>
       <c r="B242">
-        <v>0.9790851893136918</v>
+        <v>0.200523735274252</v>
       </c>
       <c r="C242">
-        <v>0.0208336562937723</v>
+        <v>0.7965612796309582</v>
       </c>
       <c r="D242">
-        <v>6.709577963430976e-05</v>
+        <v>0.001500786714284481</v>
       </c>
       <c r="E242">
-        <v>7.625178917253682e-06</v>
+        <v>0.0007056807972603341</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243">
-        <v>0.0001475904874332032</v>
+        <v>0.0001204830941233964</v>
       </c>
       <c r="B243">
-        <v>0.3893957964605265</v>
+        <v>0.6518248493044383</v>
       </c>
       <c r="C243">
-        <v>0.6073896756661574</v>
+        <v>0.3468343624693954</v>
       </c>
       <c r="D243">
-        <v>0.002861520127959636</v>
+        <v>0.001071680192773935</v>
       </c>
       <c r="E243">
-        <v>0.0002054172579232017</v>
+        <v>0.0001486249392689721</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244">
-        <v>2.719667636047011e-05</v>
+        <v>0.0004244067422076315</v>
       </c>
       <c r="B244">
-        <v>0.003178799301109776</v>
+        <v>0.04268580653164503</v>
       </c>
       <c r="C244">
-        <v>0.9964450758566695</v>
+        <v>0.9559162130073622</v>
       </c>
       <c r="D244">
-        <v>0.0003133204897069533</v>
+        <v>0.0007500872187384913</v>
       </c>
       <c r="E244">
-        <v>3.560767615308198e-05</v>
+        <v>0.0002234865000466654</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245">
-        <v>1.298372014117871e-06</v>
+        <v>7.025107174866385e-06</v>
       </c>
       <c r="B245">
-        <v>3.368246158422518e-05</v>
+        <v>3.829691320139852e-05</v>
       </c>
       <c r="C245">
-        <v>0.9998684429086109</v>
+        <v>0.9996981707686999</v>
       </c>
       <c r="D245">
-        <v>9.46237716475472e-05</v>
+        <v>0.0002458829193350254</v>
       </c>
       <c r="E245">
-        <v>1.952486143383915e-06</v>
+        <v>1.062429158923726e-05</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246">
-        <v>4.346844375060517e-05</v>
+        <v>0.0001824321262226755</v>
       </c>
       <c r="B246">
-        <v>0.885472504807537</v>
+        <v>0.6445569860838143</v>
       </c>
       <c r="C246">
-        <v>0.1131351679359408</v>
+        <v>0.3529823712510372</v>
       </c>
       <c r="D246">
-        <v>0.001279782162965329</v>
+        <v>0.001955101737577275</v>
       </c>
       <c r="E246">
-        <v>6.907664980638683e-05</v>
+        <v>0.0003231088013483928</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247">
-        <v>1.445232881910678e-05</v>
+        <v>3.803015846700979e-05</v>
       </c>
       <c r="B247">
-        <v>0.0034791971530197</v>
+        <v>0.0008136010586278956</v>
       </c>
       <c r="C247">
-        <v>0.9954697739702797</v>
+        <v>0.9986650731414991</v>
       </c>
       <c r="D247">
-        <v>0.00101484319915556</v>
+        <v>0.0004405903502949323</v>
       </c>
       <c r="E247">
-        <v>2.173334872602412e-05</v>
+        <v>4.270529111121537e-05</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248">
-        <v>4.373356953099681e-05</v>
+        <v>0.004559085940231356</v>
       </c>
       <c r="B248">
-        <v>0.09371885597923252</v>
+        <v>0.0009690535096197705</v>
       </c>
       <c r="C248">
-        <v>0.9056723717842781</v>
+        <v>0.9943119805255086</v>
       </c>
       <c r="D248">
-        <v>0.0005390210848041441</v>
+        <v>7.413614237932687e-05</v>
       </c>
       <c r="E248">
-        <v>2.601758215399751e-05</v>
+        <v>8.574388226113453e-05</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249">
-        <v>3.804994141254685e-06</v>
+        <v>1.715843647156773e-05</v>
       </c>
       <c r="B249">
-        <v>0.0002340618622831043</v>
+        <v>0.0001692367326228225</v>
       </c>
       <c r="C249">
-        <v>0.9996993937990669</v>
+        <v>0.9997639504265641</v>
       </c>
       <c r="D249">
-        <v>5.775759610133027e-05</v>
+        <v>4.137113994204076e-05</v>
       </c>
       <c r="E249">
-        <v>4.981748407430368e-06</v>
+        <v>8.283264399167757e-06</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250">
-        <v>1.614145331267013e-05</v>
+        <v>3.662580073824526e-05</v>
       </c>
       <c r="B250">
-        <v>0.0002724508078890635</v>
+        <v>5.325535358893616e-05</v>
       </c>
       <c r="C250">
-        <v>0.9996387126109241</v>
+        <v>0.9998515182612768</v>
       </c>
       <c r="D250">
-        <v>6.536556707223015e-05</v>
+        <v>4.158739896258988e-05</v>
       </c>
       <c r="E250">
-        <v>7.329560801844443e-06</v>
+        <v>1.701318543290295e-05</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251">
-        <v>3.341721418090718e-05</v>
+        <v>2.15844690350814e-05</v>
       </c>
       <c r="B251">
-        <v>6.950751125796292e-05</v>
+        <v>0.0003263220996924517</v>
       </c>
       <c r="C251">
-        <v>0.9996896603655372</v>
+        <v>0.9995461707980648</v>
       </c>
       <c r="D251">
-        <v>0.0001933707639906587</v>
+        <v>8.666031985360752e-05</v>
       </c>
       <c r="E251">
-        <v>1.40441450335126e-05</v>
+        <v>1.926231335365913e-05</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252">
-        <v>3.319194822812657e-06</v>
+        <v>6.333681262348187e-05</v>
       </c>
       <c r="B252">
-        <v>0.002354088353977508</v>
+        <v>0.0166378484087507</v>
       </c>
       <c r="C252">
-        <v>0.9976340684286154</v>
+        <v>0.9831898947862981</v>
       </c>
       <c r="D252">
-        <v>6.981732385760949e-06</v>
+        <v>5.164436085238336e-05</v>
       </c>
       <c r="E252">
-        <v>1.54229019859241e-06</v>
+        <v>5.727563147520514e-05</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253">
-        <v>3.276899726205845e-05</v>
+        <v>6.517449001001666e-05</v>
       </c>
       <c r="B253">
-        <v>0.7150686615393728</v>
+        <v>0.7227035602544498</v>
       </c>
       <c r="C253">
-        <v>0.2843882845570355</v>
+        <v>0.2769080991160284</v>
       </c>
       <c r="D253">
-        <v>0.000458210979750272</v>
+        <v>0.0002440092285759076</v>
       </c>
       <c r="E253">
-        <v>5.20739265791209e-05</v>
+        <v>7.915691093573288e-05</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254">
-        <v>2.812952331931051e-06</v>
+        <v>1.203028186348574e-05</v>
       </c>
       <c r="B254">
-        <v>0.0432244425125194</v>
+        <v>0.03603388701545266</v>
       </c>
       <c r="C254">
-        <v>0.9566854441903569</v>
+        <v>0.9638138004995973</v>
       </c>
       <c r="D254">
-        <v>8.283022103331579e-05</v>
+        <v>0.0001179379130067703</v>
       </c>
       <c r="E254">
-        <v>4.470123758505966e-06</v>
+        <v>2.234429007988237e-05</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255">
-        <v>3.360643796145385e-05</v>
+        <v>0.0001747937059061219</v>
       </c>
       <c r="B255">
-        <v>0.004174889425898825</v>
+        <v>0.002808692989171293</v>
       </c>
       <c r="C255">
-        <v>0.9955270870644826</v>
+        <v>0.9966714127869721</v>
       </c>
       <c r="D255">
-        <v>0.0002377569493019931</v>
+        <v>0.0002866346724747275</v>
       </c>
       <c r="E255">
-        <v>2.666012235531199e-05</v>
+        <v>5.846584547570545e-05</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256">
-        <v>1.656689769554941e-05</v>
+        <v>8.589171921024197e-05</v>
       </c>
       <c r="B256">
-        <v>0.0008048924063800776</v>
+        <v>0.0004527773920710078</v>
       </c>
       <c r="C256">
-        <v>0.9941817105153021</v>
+        <v>0.9946560969670001</v>
       </c>
       <c r="D256">
-        <v>0.004971895152283854</v>
+        <v>0.004608289821534566</v>
       </c>
       <c r="E256">
-        <v>2.493502833852535e-05</v>
+        <v>0.0001969441001840941</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257">
-        <v>3.366963227755637e-05</v>
+        <v>1.921544370536174e-05</v>
       </c>
       <c r="B257">
-        <v>0.01161095921720965</v>
+        <v>0.01153200380085707</v>
       </c>
       <c r="C257">
-        <v>0.9880398871944502</v>
+        <v>0.9883614109335689</v>
       </c>
       <c r="D257">
-        <v>0.0002993276507870506</v>
+        <v>7.714882839736071e-05</v>
       </c>
       <c r="E257">
-        <v>1.615630527532654e-05</v>
+        <v>1.02209934713767e-05</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258">
-        <v>2.608113583629667e-05</v>
+        <v>6.630032861643387e-05</v>
       </c>
       <c r="B258">
-        <v>0.0002470916827990542</v>
+        <v>0.001207973803224893</v>
       </c>
       <c r="C258">
-        <v>0.9996606057320109</v>
+        <v>0.9986011399725049</v>
       </c>
       <c r="D258">
-        <v>5.370646882081607e-05</v>
+        <v>3.57918372790332e-05</v>
       </c>
       <c r="E258">
-        <v>1.251498053274999e-05</v>
+        <v>8.879405837466764e-05</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259">
-        <v>7.944203530571425e-06</v>
+        <v>4.581693035729479e-05</v>
       </c>
       <c r="B259">
-        <v>0.1337032770895067</v>
+        <v>0.04869843443738536</v>
       </c>
       <c r="C259">
-        <v>0.86604266367456</v>
+        <v>0.9505018586139914</v>
       </c>
       <c r="D259">
-        <v>0.000233890360458326</v>
+        <v>0.0004910141761033202</v>
       </c>
       <c r="E259">
-        <v>1.222467194466152e-05</v>
+        <v>0.0002628758421626132</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260">
-        <v>1.687208300065864e-05</v>
+        <v>3.66256278075683e-05</v>
       </c>
       <c r="B260">
-        <v>7.054975734732916e-05</v>
+        <v>4.921116995889089e-05</v>
       </c>
       <c r="C260">
-        <v>0.9998365925462452</v>
+        <v>0.9998467974088597</v>
       </c>
       <c r="D260">
-        <v>6.832428602708954e-05</v>
+        <v>4.955787187149744e-05</v>
       </c>
       <c r="E260">
-        <v>7.6613273793645e-06</v>
+        <v>1.780792150176643e-05</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261">
-        <v>5.036044631788688e-05</v>
+        <v>1.200303995746702e-05</v>
       </c>
       <c r="B261">
-        <v>0.000309082182485211</v>
+        <v>6.653640918132045e-05</v>
       </c>
       <c r="C261">
-        <v>0.9991959482114222</v>
+        <v>0.07380554643476954</v>
       </c>
       <c r="D261">
-        <v>0.0003954760652795609</v>
+        <v>8.595223813590291e-06</v>
       </c>
       <c r="E261">
-        <v>4.913309449518741e-05</v>
+        <v>0.9261073188922785</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262">
-        <v>2.321371151240986e-05</v>
+        <v>0.0001193700874970857</v>
       </c>
       <c r="B262">
-        <v>0.003150354479537812</v>
+        <v>0.002241625697436534</v>
       </c>
       <c r="C262">
-        <v>0.9965404825071884</v>
+        <v>0.9972253883529676</v>
       </c>
       <c r="D262">
-        <v>0.0002571181702286731</v>
+        <v>0.0003115020845981083</v>
       </c>
       <c r="E262">
-        <v>2.883113153241027e-05</v>
+        <v>0.00010211377750095</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263">
-        <v>2.282352958880837e-05</v>
+        <v>7.936665174174766e-05</v>
       </c>
       <c r="B263">
-        <v>0.02431029360371444</v>
+        <v>0.002808861340207337</v>
       </c>
       <c r="C263">
-        <v>0.9753264754803326</v>
+        <v>0.9967311525540393</v>
       </c>
       <c r="D263">
-        <v>0.0003060854626162422</v>
+        <v>0.0002866518531506729</v>
       </c>
       <c r="E263">
-        <v>3.432192374813121e-05</v>
+        <v>9.396760086093039e-05</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264">
-        <v>1.139268799532719e-05</v>
+        <v>8.204072802782498e-05</v>
       </c>
       <c r="B264">
-        <v>0.001040522776358004</v>
+        <v>0.003676973605915203</v>
       </c>
       <c r="C264">
-        <v>0.9985951338887584</v>
+        <v>0.9944388283534837</v>
       </c>
       <c r="D264">
-        <v>0.0003354193899441357</v>
+        <v>0.001047732674086062</v>
       </c>
       <c r="E264">
-        <v>1.753125694411059e-05</v>
+        <v>0.0007544246384871702</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265">
-        <v>2.986151538330244e-05</v>
+        <v>6.985782012678334e-05</v>
       </c>
       <c r="B265">
-        <v>0.4840426951851907</v>
+        <v>0.692782558370503</v>
       </c>
       <c r="C265">
-        <v>0.5154624342404561</v>
+        <v>0.3067510676814656</v>
       </c>
       <c r="D265">
-        <v>0.0004175554751091978</v>
+        <v>0.0003116711334125761</v>
       </c>
       <c r="E265">
-        <v>4.745358386085994e-05</v>
+        <v>8.484499449232934e-05</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266">
-        <v>0.0001804335275341256</v>
+        <v>0.2483964776577412</v>
       </c>
       <c r="B266">
-        <v>0.5868757841846497</v>
+        <v>0.05022107907084589</v>
       </c>
       <c r="C266">
-        <v>0.4121218000101731</v>
+        <v>0.696284467686886</v>
       </c>
       <c r="D266">
-        <v>0.0007146403849894067</v>
+        <v>0.001155966362996722</v>
       </c>
       <c r="E266">
-        <v>0.0001073418926535925</v>
+        <v>0.003942009221530197</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267">
-        <v>8.747404127895107e-06</v>
+        <v>5.637492118955193e-05</v>
       </c>
       <c r="B267">
-        <v>0.0006357096474690574</v>
+        <v>0.002000273236653873</v>
       </c>
       <c r="C267">
-        <v>0.9992811478135121</v>
+        <v>0.997509213670119</v>
       </c>
       <c r="D267">
-        <v>6.09344845665531e-05</v>
+        <v>0.000174239916903798</v>
       </c>
       <c r="E267">
-        <v>1.346065032440121e-05</v>
+        <v>0.0002598982551335765</v>
       </c>
     </row>
   </sheetData>

--- a/SSubmit.xlsx
+++ b/SSubmit.xlsx
@@ -391,4524 +391,4524 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>7.14662117677945e-05</v>
+        <v>7.484363424752016e-06</v>
       </c>
       <c r="B2">
-        <v>0.0003581183293682573</v>
+        <v>0.0005846086377812397</v>
       </c>
       <c r="C2">
-        <v>0.999357865245277</v>
+        <v>0.999323636380821</v>
       </c>
       <c r="D2">
-        <v>0.0001094533264898348</v>
+        <v>6.838484884202053e-05</v>
       </c>
       <c r="E2">
-        <v>0.0001030968870973114</v>
+        <v>1.588576913119169e-05</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>3.025543855851137e-06</v>
+        <v>2.519792866844191e-07</v>
       </c>
       <c r="B3">
-        <v>0.000880816363591948</v>
+        <v>0.0001276360719429127</v>
       </c>
       <c r="C3">
-        <v>0.001082625508436596</v>
+        <v>0.0004535719491525831</v>
       </c>
       <c r="D3">
-        <v>0.9980298003486924</v>
+        <v>0.9994179730447497</v>
       </c>
       <c r="E3">
-        <v>3.732235423593475e-06</v>
+        <v>5.66954868589141e-07</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>7.06780194538485e-05</v>
+        <v>6.757478193127483e-06</v>
       </c>
       <c r="B4">
-        <v>0.0004877516246265794</v>
+        <v>0.0009565551037456319</v>
       </c>
       <c r="C4">
-        <v>0.999028065335665</v>
+        <v>0.9989314585497712</v>
       </c>
       <c r="D4">
-        <v>0.0003041963552398421</v>
+        <v>9.088593324101198e-05</v>
       </c>
       <c r="E4">
-        <v>0.000109308665014531</v>
+        <v>1.434293504910101e-05</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>5.830937233046024e-05</v>
+        <v>1.012966398998064e-07</v>
       </c>
       <c r="B5">
-        <v>0.000536755967390619</v>
+        <v>5.234819150952734e-06</v>
       </c>
       <c r="C5">
-        <v>0.01441550139726282</v>
+        <v>0.0006916817562536809</v>
       </c>
       <c r="D5">
-        <v>0.9849736084499017</v>
+        <v>0.9993027543533679</v>
       </c>
       <c r="E5">
-        <v>1.582481311413919e-05</v>
+        <v>2.277745875260787e-07</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>6.991716924678315e-05</v>
+        <v>7.565103442585441e-06</v>
       </c>
       <c r="B6">
-        <v>0.0004838151616816133</v>
+        <v>0.0003696483576444191</v>
       </c>
       <c r="C6">
-        <v>0.989805228657714</v>
+        <v>0.9880470498112086</v>
       </c>
       <c r="D6">
-        <v>0.009532739463103363</v>
+        <v>0.01155967958564402</v>
       </c>
       <c r="E6">
-        <v>0.0001082995482540572</v>
+        <v>1.605714206034529e-05</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>0.0001422838238825023</v>
+        <v>4.613365109681259e-06</v>
       </c>
       <c r="B7">
-        <v>0.003447271332637009</v>
+        <v>0.0001881364572359479</v>
       </c>
       <c r="C7">
-        <v>0.9067836657747171</v>
+        <v>0.9997392174828665</v>
       </c>
       <c r="D7">
-        <v>0.0005165057822607588</v>
+        <v>5.765912922823415e-05</v>
       </c>
       <c r="E7">
-        <v>0.08911027328650274</v>
+        <v>1.037356555957056e-05</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>0.0008102249530549646</v>
+        <v>4.183309131996966e-05</v>
       </c>
       <c r="B8">
-        <v>0.007467405839755745</v>
+        <v>0.03636865584204235</v>
       </c>
       <c r="C8">
-        <v>0.9168903583564966</v>
+        <v>0.9629904736234879</v>
       </c>
       <c r="D8">
-        <v>0.0005364154717197437</v>
+        <v>0.0005049719822444742</v>
       </c>
       <c r="E8">
-        <v>0.07429559537897308</v>
+        <v>9.406546090543222e-05</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>7.49351786777889e-05</v>
+        <v>9.606913936345441e-06</v>
       </c>
       <c r="B9">
-        <v>0.003285798143664077</v>
+        <v>0.01691356042167778</v>
       </c>
       <c r="C9">
-        <v>0.9963879204095025</v>
+        <v>0.9829682036426388</v>
       </c>
       <c r="D9">
-        <v>0.0001147661863489208</v>
+        <v>8.777865532325498e-05</v>
       </c>
       <c r="E9">
-        <v>0.0001365800818067305</v>
+        <v>2.085036642394033e-05</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>8.618003760686885e-05</v>
+        <v>9.673675458139689e-06</v>
       </c>
       <c r="B10">
-        <v>0.003049993550429922</v>
+        <v>0.01004050838029868</v>
       </c>
       <c r="C10">
-        <v>0.9964505319344874</v>
+        <v>0.989799164509505</v>
       </c>
       <c r="D10">
-        <v>0.0003112600436388224</v>
+        <v>0.0001301078592866002</v>
       </c>
       <c r="E10">
-        <v>0.0001020344338371846</v>
+        <v>2.05455754514675e-05</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>3.662571491008794e-05</v>
+        <v>6.962623849332106e-06</v>
       </c>
       <c r="B11">
-        <v>4.762792025325003e-05</v>
+        <v>0.0001365607701907094</v>
       </c>
       <c r="C11">
-        <v>0.9998491752295422</v>
+        <v>0.9997623287834607</v>
       </c>
       <c r="D11">
-        <v>4.955798972928627e-05</v>
+        <v>8.256862993756568e-05</v>
       </c>
       <c r="E11">
-        <v>1.701314556454984e-05</v>
+        <v>1.157919256166894e-05</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>6.517449001001666e-05</v>
+        <v>1.102513054906784e-05</v>
       </c>
       <c r="B12">
-        <v>0.7227035602544498</v>
+        <v>0.9576649185425056</v>
       </c>
       <c r="C12">
-        <v>0.2769080991160284</v>
+        <v>0.04215129809608697</v>
       </c>
       <c r="D12">
-        <v>0.0002440092285759076</v>
+        <v>0.0001479516226488102</v>
       </c>
       <c r="E12">
-        <v>7.915691093573288e-05</v>
+        <v>2.48066082092429e-05</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>1.727612457418655e-05</v>
+        <v>1.866184234273634e-06</v>
       </c>
       <c r="B13">
-        <v>0.0145011997150678</v>
+        <v>0.01356302809095314</v>
       </c>
       <c r="C13">
-        <v>0.9853870224237662</v>
+        <v>0.9864142068248691</v>
       </c>
       <c r="D13">
-        <v>4.480795197851419e-05</v>
+        <v>1.701310230153632e-05</v>
       </c>
       <c r="E13">
-        <v>4.969378461311007e-05</v>
+        <v>3.885797641795654e-06</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>8.348343864647975e-05</v>
+        <v>3.567943563980145e-05</v>
       </c>
       <c r="B14">
-        <v>0.002345024385350569</v>
+        <v>0.001702832134165961</v>
       </c>
       <c r="C14">
-        <v>0.9969325268140056</v>
+        <v>0.9979650307745606</v>
       </c>
       <c r="D14">
-        <v>0.0002761143951010135</v>
+        <v>0.0002496402608226632</v>
       </c>
       <c r="E14">
-        <v>0.0003628509668961499</v>
+        <v>4.681739481084082e-05</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>0.0002074688965951403</v>
+        <v>4.515753875120131e-05</v>
       </c>
       <c r="B15">
-        <v>0.005481503113105603</v>
+        <v>0.01961027174604484</v>
       </c>
       <c r="C15">
-        <v>0.9243649832345798</v>
+        <v>0.9796763505706263</v>
       </c>
       <c r="D15">
-        <v>0.0004476724407996087</v>
+        <v>0.0005643915668023949</v>
       </c>
       <c r="E15">
-        <v>0.06949837231491973</v>
+        <v>0.0001038285777750691</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>3.14483307325505e-06</v>
+        <v>3.493230693583818e-07</v>
       </c>
       <c r="B16">
-        <v>9.150195694082753e-06</v>
+        <v>3.684695859012395e-06</v>
       </c>
       <c r="C16">
-        <v>0.001612713147603872</v>
+        <v>0.002531549616248146</v>
       </c>
       <c r="D16">
-        <v>0.9983719623166541</v>
+        <v>0.9974636749169116</v>
       </c>
       <c r="E16">
-        <v>3.029506974485004e-06</v>
+        <v>7.414479117454631e-07</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>3.662550094623839e-05</v>
+        <v>6.204710278921548e-06</v>
       </c>
       <c r="B17">
-        <v>5.3254917679577e-05</v>
+        <v>0.0002934824902392488</v>
       </c>
       <c r="C17">
-        <v>0.9998433342083082</v>
+        <v>0.9996246079468557</v>
       </c>
       <c r="D17">
-        <v>4.15870585585702e-05</v>
+        <v>6.53861083332168e-05</v>
       </c>
       <c r="E17">
-        <v>2.519831450773584e-05</v>
+        <v>1.031874429291353e-05</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>0.0007085175832449703</v>
+        <v>3.414314866635142e-05</v>
       </c>
       <c r="B18">
-        <v>0.200523735274252</v>
+        <v>0.9607137608061093</v>
       </c>
       <c r="C18">
-        <v>0.7965612796309582</v>
+        <v>0.0389404145180454</v>
       </c>
       <c r="D18">
-        <v>0.001500786714284481</v>
+        <v>0.0002640408105358616</v>
       </c>
       <c r="E18">
-        <v>0.0007056807972603341</v>
+        <v>4.764071664299958e-05</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>7.32010968275742e-05</v>
+        <v>6.76147383991239e-06</v>
       </c>
       <c r="B19">
-        <v>0.0003924021746199389</v>
+        <v>8.589408120560228e-05</v>
       </c>
       <c r="C19">
-        <v>0.9992342970105971</v>
+        <v>0.9998308991300831</v>
       </c>
       <c r="D19">
-        <v>0.0001335976232550154</v>
+        <v>6.177978543405707e-05</v>
       </c>
       <c r="E19">
-        <v>0.0001665020947004685</v>
+        <v>1.466552943758887e-05</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>8.618003760686885e-05</v>
+        <v>1.844975752266074e-05</v>
       </c>
       <c r="B20">
-        <v>0.003049993550429922</v>
+        <v>0.02470041419754724</v>
       </c>
       <c r="C20">
-        <v>0.9964505319344874</v>
+        <v>0.9749938078879232</v>
       </c>
       <c r="D20">
-        <v>0.0003112600436388224</v>
+        <v>0.0002481433728077395</v>
       </c>
       <c r="E20">
-        <v>0.0001020344338371846</v>
+        <v>3.918478419949002e-05</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>0.0001930349803548801</v>
+        <v>4.108698402202797e-05</v>
       </c>
       <c r="B21">
-        <v>0.01660868242767737</v>
+        <v>0.01123994748640795</v>
       </c>
       <c r="C21">
-        <v>0.9735610208207474</v>
+        <v>0.9258445716637674</v>
       </c>
       <c r="D21">
-        <v>0.008792033814074941</v>
+        <v>0.06278200609412948</v>
       </c>
       <c r="E21">
-        <v>0.0008452279571455319</v>
+        <v>9.23877716730257e-05</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>0.0003801321597905515</v>
+        <v>1.170936055588199e-05</v>
       </c>
       <c r="B22">
-        <v>0.0005963942031808076</v>
+        <v>0.0009444028128144479</v>
       </c>
       <c r="C22">
-        <v>0.9745903961882657</v>
+        <v>0.9988723425968564</v>
       </c>
       <c r="D22">
-        <v>0.0006603674578879202</v>
+        <v>0.0001466761351017027</v>
       </c>
       <c r="E22">
-        <v>0.0237727099908751</v>
+        <v>2.486909467144508e-05</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>0.0001732917297389391</v>
+        <v>2.994264918916221e-05</v>
       </c>
       <c r="B23">
-        <v>0.003332273011712614</v>
+        <v>0.001631366589396792</v>
       </c>
       <c r="C23">
-        <v>0.9954577859958148</v>
+        <v>0.9980898996181996</v>
       </c>
       <c r="D23">
-        <v>0.0004213534256193996</v>
+        <v>0.0002095013729691818</v>
       </c>
       <c r="E23">
-        <v>0.0006152958371141858</v>
+        <v>3.928977024534884e-05</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>0.0001156178027242152</v>
+        <v>8.412296326171063e-06</v>
       </c>
       <c r="B24">
-        <v>0.0001936913977747907</v>
+        <v>0.0005926595769652643</v>
       </c>
       <c r="C24">
-        <v>0.9995068469833054</v>
+        <v>0.999324407580708</v>
       </c>
       <c r="D24">
-        <v>5.566867062263437e-05</v>
+        <v>6.022427077534429e-05</v>
       </c>
       <c r="E24">
-        <v>0.0001281751455729933</v>
+        <v>1.429627522510371e-05</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>0.0002776979888564159</v>
+        <v>9.06442010821951e-06</v>
       </c>
       <c r="B25">
-        <v>0.0009170638835224617</v>
+        <v>0.0001384433577302581</v>
       </c>
       <c r="C25">
-        <v>0.9983528393461469</v>
+        <v>0.9997760511008741</v>
       </c>
       <c r="D25">
-        <v>0.0002301124499706215</v>
+        <v>6.177639636148594e-05</v>
       </c>
       <c r="E25">
-        <v>0.0002222863315035625</v>
+        <v>1.466472492615833e-05</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>0.0001927171333639207</v>
+        <v>0.0001419978710987061</v>
       </c>
       <c r="B26">
-        <v>0.04051246247118556</v>
+        <v>0.1421004172307033</v>
       </c>
       <c r="C26">
-        <v>0.891328060382348</v>
+        <v>0.8565852011739162</v>
       </c>
       <c r="D26">
-        <v>0.0004144893698428512</v>
+        <v>0.0009935242792293551</v>
       </c>
       <c r="E26">
-        <v>0.06755227064325964</v>
+        <v>0.0001788594450525348</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>2.416696418750434e-05</v>
+        <v>4.160515150939271e-06</v>
       </c>
       <c r="B27">
-        <v>0.0004364896967275037</v>
+        <v>0.000366379031793975</v>
       </c>
       <c r="C27">
-        <v>0.9909597702827614</v>
+        <v>0.999506768544532</v>
       </c>
       <c r="D27">
-        <v>5.003783762365313e-05</v>
+        <v>0.0001133366167451121</v>
       </c>
       <c r="E27">
-        <v>0.00852953521870029</v>
+        <v>9.35529177807413e-06</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>3.662580073824526e-05</v>
+        <v>6.962398233770483e-06</v>
       </c>
       <c r="B28">
-        <v>5.325535358893616e-05</v>
+        <v>0.0001195595485143399</v>
       </c>
       <c r="C28">
-        <v>0.9998515182612768</v>
+        <v>0.9997299326718543</v>
       </c>
       <c r="D28">
-        <v>4.158739896258988e-05</v>
+        <v>0.0001319665640459721</v>
       </c>
       <c r="E28">
-        <v>1.701318543290295e-05</v>
+        <v>1.157881735167778e-05</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>8.640223217019783e-05</v>
+        <v>8.037198963389814e-06</v>
       </c>
       <c r="B29">
-        <v>0.0004542313620905518</v>
+        <v>0.0003241040516343059</v>
       </c>
       <c r="C29">
-        <v>0.9990196407092143</v>
+        <v>0.9995427018007643</v>
       </c>
       <c r="D29">
-        <v>0.0003120625530296116</v>
+        <v>0.0001080977707296606</v>
       </c>
       <c r="E29">
-        <v>0.0001276631434953118</v>
+        <v>1.705917790838624e-05</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>3.553729918149238e-05</v>
+        <v>8.339724586864041e-06</v>
       </c>
       <c r="B30">
-        <v>0.0004816674520189209</v>
+        <v>0.0003181207917538496</v>
       </c>
       <c r="C30">
-        <v>0.9988962976833187</v>
+        <v>0.992871017159314</v>
       </c>
       <c r="D30">
-        <v>0.0005160842478203842</v>
+        <v>0.00678482102740329</v>
       </c>
       <c r="E30">
-        <v>7.041331766063534e-05</v>
+        <v>1.77012969421691e-05</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>3.662568579932308e-05</v>
+        <v>6.204606222053907e-06</v>
       </c>
       <c r="B31">
-        <v>4.762788239773812e-05</v>
+        <v>0.0003102481930835574</v>
       </c>
       <c r="C31">
-        <v>0.9998483805317648</v>
+        <v>0.9996078436176857</v>
       </c>
       <c r="D31">
-        <v>4.955795033972106e-05</v>
+        <v>6.538501176733144e-05</v>
       </c>
       <c r="E31">
-        <v>1.780794969821462e-05</v>
+        <v>1.03185712411253e-05</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>0.0001996081434577148</v>
+        <v>3.24930651143569e-05</v>
       </c>
       <c r="B32">
-        <v>0.008510536949858524</v>
+        <v>0.004211049179220746</v>
       </c>
       <c r="C32">
-        <v>0.9885840658710006</v>
+        <v>0.9952473538388679</v>
       </c>
       <c r="D32">
-        <v>0.002139174915016941</v>
+        <v>0.0004360403432056421</v>
       </c>
       <c r="E32">
-        <v>0.0005666141206661558</v>
+        <v>7.306357359139625e-05</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>0.0001251216463557024</v>
+        <v>3.602328583148998e-06</v>
       </c>
       <c r="B33">
-        <v>0.109255774129242</v>
+        <v>0.01576204149113092</v>
       </c>
       <c r="C33">
-        <v>0.8904098304572541</v>
+        <v>0.9842021350689873</v>
       </c>
       <c r="D33">
-        <v>0.0001020232497844781</v>
+        <v>2.573145151111765e-05</v>
       </c>
       <c r="E33">
-        <v>0.0001072505173637607</v>
+        <v>6.489659787044692e-06</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>5.706867072794254e-05</v>
+        <v>1.47670470816963e-06</v>
       </c>
       <c r="B34">
-        <v>0.06039987603610669</v>
+        <v>0.003913639002692214</v>
       </c>
       <c r="C34">
-        <v>0.9392308852537788</v>
+        <v>0.9960683470700815</v>
       </c>
       <c r="D34">
-        <v>0.0001480152708134597</v>
+        <v>1.346240516227964e-05</v>
       </c>
       <c r="E34">
-        <v>0.0001641547685728243</v>
+        <v>3.074817355783488e-06</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>1.603722624792757e-05</v>
+        <v>2.052422650283751e-06</v>
       </c>
       <c r="B35">
-        <v>0.000179750305985419</v>
+        <v>0.002695227688861967</v>
       </c>
       <c r="C35">
-        <v>0.9997878370495529</v>
+        <v>0.9972854806853855</v>
       </c>
       <c r="D35">
-        <v>1.114245968389401e-05</v>
+        <v>1.39877977445295e-05</v>
       </c>
       <c r="E35">
-        <v>5.232958529510012e-06</v>
+        <v>3.251405357866839e-06</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>8.640223217019783e-05</v>
+        <v>6.565883715093028e-06</v>
       </c>
       <c r="B36">
-        <v>0.0004542313620905518</v>
+        <v>0.0005970141112039202</v>
       </c>
       <c r="C36">
-        <v>0.9990196407092143</v>
+        <v>0.9992941746862032</v>
       </c>
       <c r="D36">
-        <v>0.0003120625530296116</v>
+        <v>8.830904842654145e-05</v>
       </c>
       <c r="E36">
-        <v>0.0001276631434953118</v>
+        <v>1.393627045090679e-05</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>0.0001327090323177548</v>
+        <v>1.011984562145521e-05</v>
       </c>
       <c r="B37">
-        <v>0.0005543043600057569</v>
+        <v>0.0007423456442779511</v>
       </c>
       <c r="C37">
-        <v>0.9617048286613123</v>
+        <v>0.9990992896217606</v>
       </c>
       <c r="D37">
-        <v>0.0003174267021942879</v>
+        <v>0.0001267652350866681</v>
       </c>
       <c r="E37">
-        <v>0.0372907312441699</v>
+        <v>2.147965325335132e-05</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>3.143911328733332e-05</v>
+        <v>6.039443308414541e-06</v>
       </c>
       <c r="B38">
-        <v>0.0002251447092847759</v>
+        <v>0.002886494573444794</v>
       </c>
       <c r="C38">
-        <v>0.9996960158712168</v>
+        <v>0.9970337712591232</v>
       </c>
       <c r="D38">
-        <v>3.569808498262017e-05</v>
+        <v>6.364450178726991e-05</v>
       </c>
       <c r="E38">
-        <v>1.170222122856194e-05</v>
+        <v>1.00502223363849e-05</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>4.972322691725613e-05</v>
+        <v>9.748204397075656e-06</v>
       </c>
       <c r="B39">
-        <v>0.002159403777964254</v>
+        <v>0.000531608968455475</v>
       </c>
       <c r="C39">
-        <v>0.9872357513903965</v>
+        <v>0.9977946342073615</v>
       </c>
       <c r="D39">
-        <v>0.01033706876215907</v>
+        <v>0.00164160914419215</v>
       </c>
       <c r="E39">
-        <v>0.0002180528425627239</v>
+        <v>2.2399475594032e-05</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>8.304372130640965e-05</v>
+        <v>6.663349829792487e-06</v>
       </c>
       <c r="B40">
-        <v>0.0001670595894390557</v>
+        <v>4.163415561401697e-05</v>
       </c>
       <c r="C40">
-        <v>0.999640090633352</v>
+        <v>0.9998926750366242</v>
       </c>
       <c r="D40">
-        <v>4.764813225130259e-05</v>
+        <v>4.770342946334613e-05</v>
       </c>
       <c r="E40">
-        <v>6.215792365128672e-05</v>
+        <v>1.132402846907562e-05</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>8.640171685714934e-05</v>
+        <v>6.565883715093028e-06</v>
       </c>
       <c r="B41">
-        <v>0.0004542286530014229</v>
+        <v>0.0005970141112039202</v>
       </c>
       <c r="C41">
-        <v>0.9990136824388829</v>
+        <v>0.9992941746862032</v>
       </c>
       <c r="D41">
-        <v>0.0003120606918519379</v>
+        <v>8.830904842654145e-05</v>
       </c>
       <c r="E41">
-        <v>0.0001336264994067292</v>
+        <v>1.393627045090679e-05</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>5.03907045339921e-05</v>
+        <v>5.814173568750231e-06</v>
       </c>
       <c r="B42">
-        <v>7.906554651156654e-05</v>
+        <v>0.0004689343919605295</v>
       </c>
       <c r="C42">
-        <v>0.9966313864748853</v>
+        <v>0.9994400722535897</v>
       </c>
       <c r="D42">
-        <v>8.754664897460987e-05</v>
+        <v>7.283066430526549e-05</v>
       </c>
       <c r="E42">
-        <v>0.003151610625094692</v>
+        <v>1.2348516575897e-05</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>5.978076507056664e-05</v>
+        <v>2.04291380892799e-07</v>
       </c>
       <c r="B43">
-        <v>0.0005503005967025481</v>
+        <v>1.05573929612077e-05</v>
       </c>
       <c r="C43">
-        <v>0.02022211064957865</v>
+        <v>0.002606051894694253</v>
       </c>
       <c r="D43">
-        <v>0.9791535617800874</v>
+        <v>0.9973827270534558</v>
       </c>
       <c r="E43">
-        <v>1.424620856071877e-05</v>
+        <v>4.593675077871888e-07</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>0.000103459898444277</v>
+        <v>1.268146417755012e-05</v>
       </c>
       <c r="B44">
-        <v>0.7577759742212832</v>
+        <v>0.3420958836735674</v>
       </c>
       <c r="C44">
-        <v>0.2409131373071608</v>
+        <v>0.65769272271946</v>
       </c>
       <c r="D44">
-        <v>0.001015108138339947</v>
+        <v>0.0001701787742359144</v>
       </c>
       <c r="E44">
-        <v>0.0001923204347715996</v>
+        <v>2.853336855939834e-05</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>0.0001213361311094122</v>
+        <v>1.841396402324417e-06</v>
       </c>
       <c r="B45">
-        <v>0.002241707775416257</v>
+        <v>0.0001034305092063222</v>
       </c>
       <c r="C45">
-        <v>0.9972619021408398</v>
+        <v>0.9998733380179611</v>
       </c>
       <c r="D45">
-        <v>0.0003115134903657227</v>
+        <v>1.847297447388209e-05</v>
       </c>
       <c r="E45">
-        <v>6.354046226883384e-05</v>
+        <v>2.917101956386322e-06</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>0.000190113178993499</v>
+        <v>7.492534320170409e-06</v>
       </c>
       <c r="B46">
-        <v>0.00700645270883428</v>
+        <v>0.000737381438387601</v>
       </c>
       <c r="C46">
-        <v>0.9914338949858718</v>
+        <v>0.9991712289508691</v>
       </c>
       <c r="D46">
-        <v>0.0004930840917616199</v>
+        <v>6.830582455137195e-05</v>
       </c>
       <c r="E46">
-        <v>0.000876455034538744</v>
+        <v>1.559125187210597e-05</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>3.143912970806128e-05</v>
+        <v>5.153423866409078e-06</v>
       </c>
       <c r="B47">
-        <v>0.0002251448268784235</v>
+        <v>0.0002865366773915337</v>
       </c>
       <c r="C47">
-        <v>0.9996965380149597</v>
+        <v>0.9996454265946471</v>
       </c>
       <c r="D47">
-        <v>3.569810362781969e-05</v>
+        <v>5.430750447135727e-05</v>
       </c>
       <c r="E47">
-        <v>1.117992482618557e-05</v>
+        <v>8.57579962359811e-06</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>9.070184170229543e-06</v>
+        <v>4.396818362573084e-08</v>
       </c>
       <c r="B48">
-        <v>0.000219753623557312</v>
+        <v>2.426533607381046e-06</v>
       </c>
       <c r="C48">
-        <v>0.03011674850923065</v>
+        <v>0.0007048684056498392</v>
       </c>
       <c r="D48">
-        <v>3.292575671822167e-05</v>
+        <v>5.495266733358331e-07</v>
       </c>
       <c r="E48">
-        <v>0.9696215019263237</v>
+        <v>0.999292111565885</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>8.639616244778757e-05</v>
+        <v>3.851698418747481e-06</v>
       </c>
       <c r="B49">
-        <v>0.0004541994525182109</v>
+        <v>0.0001878783105195542</v>
       </c>
       <c r="C49">
-        <v>0.9989494599772004</v>
+        <v>0.9997482905351146</v>
       </c>
       <c r="D49">
-        <v>0.0003120406307595053</v>
+        <v>5.180411913231463e-05</v>
       </c>
       <c r="E49">
-        <v>0.000197903777074111</v>
+        <v>8.175336814997839e-06</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>1.618156667759523e-06</v>
+        <v>2.996091865093677e-07</v>
       </c>
       <c r="B50">
-        <v>5.223039185305993e-05</v>
+        <v>1.343345777370383e-05</v>
       </c>
       <c r="C50">
-        <v>0.0009395238931837368</v>
+        <v>0.002782713655315322</v>
       </c>
       <c r="D50">
-        <v>0.9990022351069838</v>
+        <v>0.9972028795795749</v>
       </c>
       <c r="E50">
-        <v>4.392451311353845e-06</v>
+        <v>6.736981497480622e-07</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>1.618156667759523e-06</v>
+        <v>2.996091865093677e-07</v>
       </c>
       <c r="B51">
-        <v>5.223039185305993e-05</v>
+        <v>1.343345777370383e-05</v>
       </c>
       <c r="C51">
-        <v>0.0009395238931837368</v>
+        <v>0.002782713655315322</v>
       </c>
       <c r="D51">
-        <v>0.9990022351069838</v>
+        <v>0.9972028795795749</v>
       </c>
       <c r="E51">
-        <v>4.392451311353845e-06</v>
+        <v>6.736981497480622e-07</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>0.000205894013023588</v>
+        <v>1.98571247180058e-05</v>
       </c>
       <c r="B52">
-        <v>0.00571242274346699</v>
+        <v>0.002318267831079045</v>
       </c>
       <c r="C52">
-        <v>0.9805573246241444</v>
+        <v>0.997368067331852</v>
       </c>
       <c r="D52">
-        <v>0.000471056602408268</v>
+        <v>0.0002481799062064186</v>
       </c>
       <c r="E52">
-        <v>0.01305330201695669</v>
+        <v>4.56278061446938e-05</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>1.541848566326205e-05</v>
+        <v>3.350854324701967e-06</v>
       </c>
       <c r="B53">
-        <v>0.001167537133750349</v>
+        <v>0.0002714786931188885</v>
       </c>
       <c r="C53">
-        <v>0.998513865400247</v>
+        <v>0.9964798514644745</v>
       </c>
       <c r="D53">
-        <v>0.0002792116841380768</v>
+        <v>0.003237784291349192</v>
       </c>
       <c r="E53">
-        <v>2.396729620098421e-05</v>
+        <v>7.53469673252634e-06</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>7.021422951157847e-05</v>
+        <v>7.244801751671757e-06</v>
       </c>
       <c r="B54">
-        <v>0.002364632456821087</v>
+        <v>0.00498823649522715</v>
       </c>
       <c r="C54">
-        <v>0.9973398131483574</v>
+        <v>0.9949229357593141</v>
       </c>
       <c r="D54">
-        <v>0.0001075358662067246</v>
+        <v>6.619596678589847e-05</v>
       </c>
       <c r="E54">
-        <v>0.0001178042991033477</v>
+        <v>1.538697692144001e-05</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>7.771081497956417e-05</v>
+        <v>3.341495177366384e-06</v>
       </c>
       <c r="B55">
-        <v>0.003482911749358261</v>
+        <v>0.0002123581039565885</v>
       </c>
       <c r="C55">
-        <v>0.9947323336679138</v>
+        <v>0.9997325059078124</v>
       </c>
       <c r="D55">
-        <v>0.0009924358540106014</v>
+        <v>4.484115914675754e-05</v>
       </c>
       <c r="E55">
-        <v>0.000714607913737883</v>
+        <v>6.953333907259524e-06</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>0.0001733002446707005</v>
+        <v>4.600963203046173e-06</v>
       </c>
       <c r="B56">
-        <v>0.003287637621704069</v>
+        <v>0.0002416529277386024</v>
       </c>
       <c r="C56">
-        <v>0.9955066992078403</v>
+        <v>0.9997155170636612</v>
       </c>
       <c r="D56">
-        <v>0.0004544309126716217</v>
+        <v>3.219181114968762e-05</v>
       </c>
       <c r="E56">
-        <v>0.0005779320131132864</v>
+        <v>6.037234247810611e-06</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>3.130104631327856e-06</v>
+        <v>2.578412723923439e-07</v>
       </c>
       <c r="B57">
-        <v>0.001166150728476727</v>
+        <v>4.206928334708728e-05</v>
       </c>
       <c r="C57">
-        <v>0.002233297453768417</v>
+        <v>0.001061376186784902</v>
       </c>
       <c r="D57">
-        <v>0.9965947738949359</v>
+        <v>0.9988957165442247</v>
       </c>
       <c r="E57">
-        <v>2.647818187992687e-06</v>
+        <v>5.801443707122668e-07</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>2.842390262394439e-05</v>
+        <v>6.484227056384209e-06</v>
       </c>
       <c r="B58">
-        <v>0.9588958738847686</v>
+        <v>0.19264924606456</v>
       </c>
       <c r="C58">
-        <v>0.04102816146044783</v>
+        <v>0.8072862546249782</v>
       </c>
       <c r="D58">
-        <v>2.317663651106681e-05</v>
+        <v>4.631686705896644e-05</v>
       </c>
       <c r="E58">
-        <v>2.436411564829327e-05</v>
+        <v>1.169821634657041e-05</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>1.193676331239528e-05</v>
+        <v>6.285655401627081e-07</v>
       </c>
       <c r="B59">
-        <v>0.0002881523652078856</v>
+        <v>0.000112567158709896</v>
       </c>
       <c r="C59">
-        <v>0.9996433574606287</v>
+        <v>0.9998636095569475</v>
       </c>
       <c r="D59">
-        <v>4.307652398037625e-05</v>
+        <v>2.185973079428789e-05</v>
       </c>
       <c r="E59">
-        <v>1.347688687010645e-05</v>
+        <v>1.334988008176247e-06</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>8.946636161263967e-05</v>
+        <v>8.939041397391078e-06</v>
       </c>
       <c r="B60">
-        <v>0.0005705249959091789</v>
+        <v>0.001158858998719142</v>
       </c>
       <c r="C60">
-        <v>0.9989994885583467</v>
+        <v>0.9987311370366947</v>
       </c>
       <c r="D60">
-        <v>0.0001370212670466285</v>
+        <v>8.167628428244133e-05</v>
       </c>
       <c r="E60">
-        <v>0.0002034988170849757</v>
+        <v>1.93886389064197e-05</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>7.205870854809e-05</v>
+        <v>1.114659225879972e-05</v>
       </c>
       <c r="B61">
-        <v>0.0008512022481547175</v>
+        <v>0.00112716907691892</v>
       </c>
       <c r="C61">
-        <v>0.3580883641118555</v>
+        <v>0.9986991614922962</v>
       </c>
       <c r="D61">
-        <v>0.0001698179408195325</v>
+        <v>0.0001393132319303842</v>
       </c>
       <c r="E61">
-        <v>0.640818556990622</v>
+        <v>2.320960659608208e-05</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>4.087989353723859e-05</v>
+        <v>1.761427266876559e-05</v>
       </c>
       <c r="B62">
-        <v>0.05836125220190067</v>
+        <v>0.02073723660275745</v>
       </c>
       <c r="C62">
-        <v>0.9415249198828451</v>
+        <v>0.9790288913715244</v>
       </c>
       <c r="D62">
-        <v>5.73388848740501e-05</v>
+        <v>0.0001852049845330321</v>
       </c>
       <c r="E62">
-        <v>1.560913684263191e-05</v>
+        <v>3.105276851620097e-05</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>0.0002546509172125336</v>
+        <v>2.227642598102068e-05</v>
       </c>
       <c r="B63">
-        <v>0.03423263084742861</v>
+        <v>0.008615617441761208</v>
       </c>
       <c r="C63">
-        <v>0.9129202434514992</v>
+        <v>0.9911775700850963</v>
       </c>
       <c r="D63">
-        <v>0.0005078533439333515</v>
+        <v>0.0001558626893160606</v>
       </c>
       <c r="E63">
-        <v>0.05208462143992636</v>
+        <v>2.867335784545845e-05</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>1.311643812705251e-06</v>
+        <v>2.090057154309037e-07</v>
       </c>
       <c r="B64">
-        <v>3.478453458744352e-05</v>
+        <v>1.806987558181902e-05</v>
       </c>
       <c r="C64">
-        <v>0.0004480505316296877</v>
+        <v>0.001039082000509072</v>
       </c>
       <c r="D64">
-        <v>0.9995136502610913</v>
+        <v>0.9989421691500814</v>
       </c>
       <c r="E64">
-        <v>2.203028878600912e-06</v>
+        <v>4.699681121699094e-07</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>6.512009258290769e-06</v>
+        <v>2.729796061873301e-07</v>
       </c>
       <c r="B65">
-        <v>3.186484214466522e-05</v>
+        <v>2.911377250629976e-05</v>
       </c>
       <c r="C65">
-        <v>0.003361530855128156</v>
+        <v>0.004111791366668063</v>
       </c>
       <c r="D65">
-        <v>0.9965950238491387</v>
+        <v>0.9958582421095373</v>
       </c>
       <c r="E65">
-        <v>5.068444330247361e-06</v>
+        <v>5.797716824285764e-07</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>8.178303312645141e-05</v>
+        <v>1.8540303129536e-05</v>
       </c>
       <c r="B66">
-        <v>0.04923635239366195</v>
+        <v>0.0818472848414729</v>
       </c>
       <c r="C66">
-        <v>0.9505322963383318</v>
+        <v>0.9179683406854017</v>
       </c>
       <c r="D66">
-        <v>7.946627514797133e-05</v>
+        <v>0.0001324334801691093</v>
       </c>
       <c r="E66">
-        <v>7.010195973168418e-05</v>
+        <v>3.34006898266315e-05</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>8.640171685714934e-05</v>
+        <v>7.482914984414866e-06</v>
       </c>
       <c r="B67">
-        <v>0.0004542286530014229</v>
+        <v>0.0007457531481993616</v>
       </c>
       <c r="C67">
-        <v>0.9990136824388829</v>
+        <v>0.9991302384145997</v>
       </c>
       <c r="D67">
-        <v>0.0003120606918519379</v>
+        <v>0.0001006428274401784</v>
       </c>
       <c r="E67">
-        <v>0.0001336264994067292</v>
+        <v>1.588269477636809e-05</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>0.0001036969918269221</v>
+        <v>4.875069587829827e-06</v>
       </c>
       <c r="B68">
-        <v>0.004081954574590924</v>
+        <v>0.0003188069344260925</v>
       </c>
       <c r="C68">
-        <v>0.9950673350579792</v>
+        <v>0.9996217297794627</v>
       </c>
       <c r="D68">
-        <v>0.0002689520910864283</v>
+        <v>4.444366001041676e-05</v>
       </c>
       <c r="E68">
-        <v>0.0004780612845169274</v>
+        <v>1.014455651317856e-05</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>7.382796400760814e-05</v>
+        <v>8.480101062376073e-06</v>
       </c>
       <c r="B69">
-        <v>0.0006480793590366596</v>
+        <v>0.0005766050902216339</v>
       </c>
       <c r="C69">
-        <v>0.9939410205529057</v>
+        <v>0.9992906904201106</v>
       </c>
       <c r="D69">
-        <v>0.000163743424241217</v>
+        <v>0.0001062251386969505</v>
       </c>
       <c r="E69">
-        <v>0.005173328699808749</v>
+        <v>1.799924990822356e-05</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>9.963758183007103e-05</v>
+        <v>7.163864159976722e-06</v>
       </c>
       <c r="B70">
-        <v>0.002798789351242563</v>
+        <v>0.0001428385930558588</v>
       </c>
       <c r="C70">
-        <v>0.9922126341120237</v>
+        <v>0.9997067455436445</v>
       </c>
       <c r="D70">
-        <v>0.0003295428540364506</v>
+        <v>5.012380059621004e-05</v>
       </c>
       <c r="E70">
-        <v>0.004559396100867331</v>
+        <v>9.312819854311989e-05</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>6.001883163225244e-05</v>
+        <v>3.851529925439204e-06</v>
       </c>
       <c r="B71">
-        <v>0.0003007553245527268</v>
+        <v>0.0002482255999947362</v>
       </c>
       <c r="C71">
-        <v>0.9994130740770384</v>
+        <v>0.9997045563486348</v>
       </c>
       <c r="D71">
-        <v>9.192121160035688e-05</v>
+        <v>3.519154226137883e-05</v>
       </c>
       <c r="E71">
-        <v>0.0001342305551763771</v>
+        <v>8.174979183273747e-06</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>3.26549024690673e-06</v>
+        <v>2.514723972000795e-07</v>
       </c>
       <c r="B72">
-        <v>0.002036788748426108</v>
+        <v>0.0001216587928473045</v>
       </c>
       <c r="C72">
-        <v>0.00154061368305443</v>
+        <v>0.0004394472347766799</v>
       </c>
       <c r="D72">
-        <v>0.9964153991304213</v>
+        <v>0.9994380766856142</v>
       </c>
       <c r="E72">
-        <v>3.932947851635373e-06</v>
+        <v>5.658143642851388e-07</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>8.033154358259136e-05</v>
+        <v>1.470688845049247e-05</v>
       </c>
       <c r="B73">
-        <v>0.0009614652643382851</v>
+        <v>0.0006323419104928449</v>
       </c>
       <c r="C73">
-        <v>0.998769786517135</v>
+        <v>0.9992214217722533</v>
       </c>
       <c r="D73">
-        <v>7.805590354572905e-05</v>
+        <v>0.0001050513794919996</v>
       </c>
       <c r="E73">
-        <v>0.0001103607713982996</v>
+        <v>2.647804931104873e-05</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>0.0001305582982987294</v>
+        <v>3.619964672036542e-06</v>
       </c>
       <c r="B74">
-        <v>0.8204248141537119</v>
+        <v>0.9783960201781027</v>
       </c>
       <c r="C74">
-        <v>0.1783090543667253</v>
+        <v>0.02154363683796305</v>
       </c>
       <c r="D74">
-        <v>0.0009745197214664101</v>
+        <v>4.857807758153547e-05</v>
       </c>
       <c r="E74">
-        <v>0.0001610534597977338</v>
+        <v>8.144941681266822e-06</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>0.000205894013023588</v>
+        <v>1.98571247180058e-05</v>
       </c>
       <c r="B75">
-        <v>0.00571242274346699</v>
+        <v>0.002318267831079045</v>
       </c>
       <c r="C75">
-        <v>0.9805573246241444</v>
+        <v>0.997368067331852</v>
       </c>
       <c r="D75">
-        <v>0.000471056602408268</v>
+        <v>0.0002481799062064186</v>
       </c>
       <c r="E75">
-        <v>0.01305330201695669</v>
+        <v>4.56278061446938e-05</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>8.537110197394957e-06</v>
+        <v>9.625775529712122e-07</v>
       </c>
       <c r="B76">
-        <v>3.412011989926804e-05</v>
+        <v>2.148889030494451e-05</v>
       </c>
       <c r="C76">
-        <v>0.9999165899813274</v>
+        <v>0.9999667103351397</v>
       </c>
       <c r="D76">
-        <v>1.306400880087695e-05</v>
+        <v>8.795099425685531e-06</v>
       </c>
       <c r="E76">
-        <v>2.768877977532575e-05</v>
+        <v>2.043097576848995e-06</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>8.535888029448623e-06</v>
+        <v>6.270625195979375e-07</v>
       </c>
       <c r="B77">
-        <v>0.0001906500729122102</v>
+        <v>0.00012211268759352</v>
       </c>
       <c r="C77">
-        <v>0.9997734424785989</v>
+        <v>0.9998701989653979</v>
       </c>
       <c r="D77">
-        <v>1.306213856464503e-05</v>
+        <v>5.729488693104492e-06</v>
       </c>
       <c r="E77">
-        <v>1.430942189502344e-05</v>
+        <v>1.331795796224107e-06</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>1.795837455782427e-05</v>
+        <v>1.356734499305287e-05</v>
       </c>
       <c r="B78">
-        <v>3.404712256344787e-05</v>
+        <v>0.0007423430850159098</v>
       </c>
       <c r="C78">
-        <v>0.04416561214651325</v>
+        <v>0.9990958451927306</v>
       </c>
       <c r="D78">
-        <v>1.94973494965974e-05</v>
+        <v>0.000126764798059177</v>
       </c>
       <c r="E78">
-        <v>0.9557628850068692</v>
+        <v>2.147957920151085e-05</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>8.35006595978335e-05</v>
+        <v>1.258779034678415e-05</v>
       </c>
       <c r="B79">
-        <v>0.002345508116633301</v>
+        <v>0.0005360904385232954</v>
       </c>
       <c r="C79">
-        <v>0.9971381739079148</v>
+        <v>0.9993467308001996</v>
       </c>
       <c r="D79">
-        <v>0.0002761713519375215</v>
+        <v>8.807368191235449e-05</v>
       </c>
       <c r="E79">
-        <v>0.0001566459639163444</v>
+        <v>1.651728901799314e-05</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>3.66254578303054e-05</v>
+        <v>8.166474116559407e-06</v>
       </c>
       <c r="B80">
-        <v>5.325485498731608e-05</v>
+        <v>0.0006023941435130233</v>
       </c>
       <c r="C80">
-        <v>0.9998421571820001</v>
+        <v>0.9992897986752824</v>
       </c>
       <c r="D80">
-        <v>4.158700960183832e-05</v>
+        <v>8.6059451172082e-05</v>
       </c>
       <c r="E80">
-        <v>2.637549558013907e-05</v>
+        <v>1.35812559161296e-05</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>3.143896079128266e-05</v>
+        <v>5.306621818703303e-06</v>
       </c>
       <c r="B81">
-        <v>0.000223152218860049</v>
+        <v>0.0004402169253131164</v>
       </c>
       <c r="C81">
-        <v>0.9996911668256064</v>
+        <v>0.9994897237909108</v>
       </c>
       <c r="D81">
-        <v>4.253983027549542e-05</v>
+        <v>5.592192600835761e-05</v>
       </c>
       <c r="E81">
-        <v>1.170216446670276e-05</v>
+        <v>8.830735948588637e-06</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>0.0001353872922271782</v>
+        <v>8.005325304342832e-06</v>
       </c>
       <c r="B82">
-        <v>0.0004471000906443104</v>
+        <v>0.0005460569684657078</v>
       </c>
       <c r="C82">
-        <v>0.9991969526977611</v>
+        <v>0.9993784280326682</v>
       </c>
       <c r="D82">
-        <v>0.0001121877102444294</v>
+        <v>5.455838797180998e-05</v>
       </c>
       <c r="E82">
-        <v>0.000108372209122986</v>
+        <v>1.295128559036544e-05</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>2.385734512063039e-05</v>
+        <v>4.98943588470493e-06</v>
       </c>
       <c r="B83">
-        <v>0.9901936383841309</v>
+        <v>0.9950752957013307</v>
       </c>
       <c r="C83">
-        <v>0.00970214846040025</v>
+        <v>0.004846104034470294</v>
       </c>
       <c r="D83">
-        <v>6.203572869799287e-05</v>
+        <v>6.235936710243746e-05</v>
       </c>
       <c r="E83">
-        <v>1.832008164980611e-05</v>
+        <v>1.125146121213151e-05</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>3.592682735692729e-05</v>
+        <v>8.395891375726779e-06</v>
       </c>
       <c r="B84">
-        <v>0.0004813124418748431</v>
+        <v>0.0003202632873671255</v>
       </c>
       <c r="C84">
-        <v>0.9993299096415976</v>
+        <v>0.9995578539016879</v>
       </c>
       <c r="D84">
-        <v>8.562020287249667e-05</v>
+        <v>9.56664070588726e-05</v>
       </c>
       <c r="E84">
-        <v>6.723088629772247e-05</v>
+        <v>1.782051251069201e-05</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>0.0001397880296552199</v>
+        <v>1.540139930651171e-05</v>
       </c>
       <c r="B85">
-        <v>0.6782737028080833</v>
+        <v>0.2009878465864486</v>
       </c>
       <c r="C85">
-        <v>0.3198408376680454</v>
+        <v>0.7987554198608442</v>
       </c>
       <c r="D85">
-        <v>0.001498090414940598</v>
+        <v>0.0002066789148953279</v>
       </c>
       <c r="E85">
-        <v>0.0002475810792755946</v>
+        <v>3.465323850546547e-05</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>4.216828412590209e-06</v>
+        <v>4.933547777527593e-07</v>
       </c>
       <c r="B86">
-        <v>2.453920302360617e-05</v>
+        <v>1.876730308689753e-05</v>
       </c>
       <c r="C86">
-        <v>0.003668559292432166</v>
+        <v>0.004708417370947478</v>
       </c>
       <c r="D86">
-        <v>0.9962990774384446</v>
+        <v>0.9952712741525119</v>
       </c>
       <c r="E86">
-        <v>3.607237686689587e-06</v>
+        <v>1.047818676006169e-06</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>8.618043007916086e-05</v>
+        <v>7.276241016262454e-06</v>
       </c>
       <c r="B87">
-        <v>0.003050007440397867</v>
+        <v>0.0006389416023823649</v>
       </c>
       <c r="C87">
-        <v>0.9964550698673447</v>
+        <v>0.9992404652786653</v>
       </c>
       <c r="D87">
-        <v>0.0003112614611474035</v>
+        <v>9.786312827795858e-05</v>
       </c>
       <c r="E87">
-        <v>9.748080103069587e-05</v>
+        <v>1.545374965798487e-05</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>6.133054682774751e-05</v>
+        <v>9.112076518220654e-06</v>
       </c>
       <c r="B88">
-        <v>0.002786945338175199</v>
+        <v>0.01485562752634345</v>
       </c>
       <c r="C88">
-        <v>0.9969280074628371</v>
+        <v>0.9850322266898711</v>
       </c>
       <c r="D88">
-        <v>0.0001119329578956668</v>
+        <v>8.32573112730814e-05</v>
       </c>
       <c r="E88">
-        <v>0.0001117836942646553</v>
+        <v>1.97763959942538e-05</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>8.866353012194127e-06</v>
+        <v>1.010699205071828e-06</v>
       </c>
       <c r="B89">
-        <v>0.01429037570274345</v>
+        <v>0.0008121392078131468</v>
       </c>
       <c r="C89">
-        <v>0.9856679314194438</v>
+        <v>0.9991753121828738</v>
       </c>
       <c r="D89">
-        <v>1.600328978122325e-05</v>
+        <v>9.214057570613473e-06</v>
       </c>
       <c r="E89">
-        <v>1.682323501931324e-05</v>
+        <v>2.323852537649856e-06</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>7.216230428394416e-05</v>
+        <v>2.623087292190766e-05</v>
       </c>
       <c r="B90">
-        <v>0.001387628246256391</v>
+        <v>0.001608589595962299</v>
       </c>
       <c r="C90">
-        <v>0.9981085269932582</v>
+        <v>0.9981472292482093</v>
       </c>
       <c r="D90">
-        <v>0.0001754603878467552</v>
+        <v>0.0001835309847369436</v>
       </c>
       <c r="E90">
-        <v>0.0002562220683547194</v>
+        <v>3.441929816984007e-05</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>8.066429605531825e-05</v>
+        <v>8.318462026812707e-06</v>
       </c>
       <c r="B91">
-        <v>5.325295732095407e-05</v>
+        <v>0.0002935495104895204</v>
       </c>
       <c r="C91">
-        <v>0.9998065291283803</v>
+        <v>0.9996224273400023</v>
       </c>
       <c r="D91">
-        <v>4.158552770372336e-05</v>
+        <v>6.538596569827682e-05</v>
       </c>
       <c r="E91">
-        <v>1.796809053961294e-05</v>
+        <v>1.031872178333909e-05</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>0.0001556587513504107</v>
+        <v>1.026038859092282e-05</v>
       </c>
       <c r="B92">
-        <v>0.0004877240080442162</v>
+        <v>0.0003215704309137471</v>
       </c>
       <c r="C92">
-        <v>0.9989715001917335</v>
+        <v>0.9995489924195951</v>
       </c>
       <c r="D92">
-        <v>0.000304179131588961</v>
+        <v>0.0001029326962369264</v>
       </c>
       <c r="E92">
-        <v>8.093791728289602e-05</v>
+        <v>1.624406466334086e-05</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>0.0009253536229768207</v>
+        <v>1.289776557383923e-05</v>
       </c>
       <c r="B93">
-        <v>0.0782090436495161</v>
+        <v>0.004946646467894603</v>
       </c>
       <c r="C93">
-        <v>0.9181358448519185</v>
+        <v>0.9948502358320844</v>
       </c>
       <c r="D93">
-        <v>0.002019177807179448</v>
+        <v>0.0001611998864813123</v>
       </c>
       <c r="E93">
-        <v>0.0007105800684091914</v>
+        <v>2.902004796595738e-05</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>0.4844924843377225</v>
+        <v>0.7644901335416704</v>
       </c>
       <c r="B94">
-        <v>0.02728739355927187</v>
+        <v>0.04690900400748179</v>
       </c>
       <c r="C94">
-        <v>0.4877233895780533</v>
+        <v>0.1885781630263881</v>
       </c>
       <c r="D94">
-        <v>0.0003827062202987178</v>
+        <v>1.923638895524887e-05</v>
       </c>
       <c r="E94">
-        <v>0.0001140263046536025</v>
+        <v>3.463035504295167e-06</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>1.536649025433307e-05</v>
+        <v>4.943284388181737e-08</v>
       </c>
       <c r="B95">
-        <v>4.171427718906733e-05</v>
+        <v>1.869056233852545e-06</v>
       </c>
       <c r="C95">
-        <v>0.02241337443790123</v>
+        <v>0.001515498003636602</v>
       </c>
       <c r="D95">
-        <v>1.546974794925245e-05</v>
+        <v>4.618696196918463e-07</v>
       </c>
       <c r="E95">
-        <v>0.9775140750467063</v>
+        <v>0.9984821216376663</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>5.205288019815478e-05</v>
+        <v>6.469514757992552e-06</v>
       </c>
       <c r="B96">
-        <v>7.214305730595769e-05</v>
+        <v>0.0001151105612092644</v>
       </c>
       <c r="C96">
-        <v>0.9998157759152629</v>
+        <v>0.9998213450472079</v>
       </c>
       <c r="D96">
-        <v>2.506287591040351e-05</v>
+        <v>4.631574940581877e-05</v>
       </c>
       <c r="E96">
-        <v>3.496527132243854e-05</v>
+        <v>1.075912741868724e-05</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>7.771286927346111e-05</v>
+        <v>7.002487892071669e-06</v>
       </c>
       <c r="B97">
-        <v>0.0001012301947421681</v>
+        <v>0.0003904803175053565</v>
       </c>
       <c r="C97">
-        <v>0.9971175006983208</v>
+        <v>0.9995257543252888</v>
       </c>
       <c r="D97">
-        <v>0.0001231353222804681</v>
+        <v>6.542687342326937e-05</v>
       </c>
       <c r="E97">
-        <v>0.002580420915383267</v>
+        <v>1.133599589056003e-05</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>0.0001238300154533857</v>
+        <v>1.565746008791093e-05</v>
       </c>
       <c r="B98">
-        <v>0.437507928016604</v>
+        <v>0.1877036201159333</v>
       </c>
       <c r="C98">
-        <v>0.56082185399296</v>
+        <v>0.8120353779273781</v>
       </c>
       <c r="D98">
-        <v>0.001327070420051065</v>
+        <v>0.0002101151198396708</v>
       </c>
       <c r="E98">
-        <v>0.0002193175549314143</v>
+        <v>3.522937676103102e-05</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>0.0001055311238091439</v>
+        <v>1.841402558410274e-06</v>
       </c>
       <c r="B99">
-        <v>0.002246357612715136</v>
+        <v>0.0001059472413413583</v>
       </c>
       <c r="C99">
-        <v>0.9974549518591569</v>
+        <v>0.9998766807561718</v>
       </c>
       <c r="D99">
-        <v>0.0001148890894147678</v>
+        <v>1.254964056732715e-05</v>
       </c>
       <c r="E99">
-        <v>7.827031490404915e-05</v>
+        <v>2.980959361406341e-06</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>5.20534714166738e-05</v>
+        <v>6.962964312690845e-06</v>
       </c>
       <c r="B100">
-        <v>7.214387670944395e-05</v>
+        <v>0.0001203930079597157</v>
       </c>
       <c r="C100">
-        <v>0.9998271318594523</v>
+        <v>0.9998112158765688</v>
       </c>
       <c r="D100">
-        <v>2.506316057546574e-05</v>
+        <v>4.984839238983619e-05</v>
       </c>
       <c r="E100">
-        <v>2.360763184653459e-05</v>
+        <v>1.157975876930509e-05</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>0.0001181227551634562</v>
+        <v>1.634703398686071e-05</v>
       </c>
       <c r="B101">
-        <v>0.4173434177001333</v>
+        <v>0.1519290833370135</v>
       </c>
       <c r="C101">
-        <v>0.5810633437782409</v>
+        <v>0.8477984198574594</v>
       </c>
       <c r="D101">
-        <v>0.001265906442298444</v>
+        <v>0.0002193688494741477</v>
       </c>
       <c r="E101">
-        <v>0.0002092093241639254</v>
+        <v>3.678092206622598e-05</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>0.0001037441662550243</v>
+        <v>9.901025256531145e-06</v>
       </c>
       <c r="B102">
-        <v>0.002966217152811214</v>
+        <v>0.00114937058351416</v>
       </c>
       <c r="C102">
-        <v>0.9966786190818746</v>
+        <v>0.9987287737411683</v>
       </c>
       <c r="D102">
-        <v>0.0001147996696713513</v>
+        <v>9.046595911012202e-05</v>
       </c>
       <c r="E102">
-        <v>0.0001366199293878185</v>
+        <v>2.148869095103956e-05</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>8.640171685714934e-05</v>
+        <v>7.804569428497271e-06</v>
       </c>
       <c r="B103">
-        <v>0.0004542286530014229</v>
+        <v>0.0006236603305849181</v>
       </c>
       <c r="C103">
-        <v>0.9990136824388829</v>
+        <v>0.9992470007072768</v>
       </c>
       <c r="D103">
-        <v>0.0003120606918519379</v>
+        <v>0.0001049689774470374</v>
       </c>
       <c r="E103">
-        <v>0.0001336264994067292</v>
+        <v>1.656541526289823e-05</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>2.756142217528603e-05</v>
+        <v>9.258735864310929e-06</v>
       </c>
       <c r="B104">
-        <v>0.9922782362000747</v>
+        <v>0.9908433366747437</v>
       </c>
       <c r="C104">
-        <v>0.007612897234097251</v>
+        <v>0.009010807340350724</v>
       </c>
       <c r="D104">
-        <v>6.014069714409609e-05</v>
+        <v>0.000115718273971009</v>
       </c>
       <c r="E104">
-        <v>2.116444650831604e-05</v>
+        <v>2.087897507010981e-05</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>0.0001056414845445015</v>
+        <v>2.822940866063665e-05</v>
       </c>
       <c r="B105">
-        <v>0.0005878914248050704</v>
+        <v>0.001628299635467782</v>
       </c>
       <c r="C105">
-        <v>0.9984980551447075</v>
+        <v>0.9977621889385452</v>
       </c>
       <c r="D105">
-        <v>0.0007300597786982409</v>
+        <v>0.0005355827650748155</v>
       </c>
       <c r="E105">
-        <v>7.835216724483441e-05</v>
+        <v>4.569925225179406e-05</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>0.0001013085465590674</v>
+        <v>5.945192116762141e-05</v>
       </c>
       <c r="B106">
-        <v>0.003628196409962703</v>
+        <v>0.003234162970479957</v>
       </c>
       <c r="C106">
-        <v>0.8191752848552354</v>
+        <v>0.9962155765364182</v>
       </c>
       <c r="D106">
-        <v>0.0002407643030496594</v>
+        <v>0.0004159705118804399</v>
       </c>
       <c r="E106">
-        <v>0.176854445885193</v>
+        <v>7.48380600539295e-05</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>0.07498605799642352</v>
+        <v>0.0001096042310202237</v>
       </c>
       <c r="B107">
-        <v>0.09245454969717488</v>
+        <v>0.02525373336515325</v>
       </c>
       <c r="C107">
-        <v>0.6982175062650351</v>
+        <v>0.9743121903613426</v>
       </c>
       <c r="D107">
-        <v>0.001297257380201461</v>
+        <v>0.0002740553183362674</v>
       </c>
       <c r="E107">
-        <v>0.1330446286611651</v>
+        <v>5.041672414731716e-05</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>1.882337770061208e-05</v>
+        <v>4.064890211342454e-06</v>
       </c>
       <c r="B108">
-        <v>0.0001299008252548501</v>
+        <v>0.0001986198869627216</v>
       </c>
       <c r="C108">
-        <v>0.9997411487556039</v>
+        <v>0.999734015899552</v>
       </c>
       <c r="D108">
-        <v>8.10153274536519e-05</v>
+        <v>5.467148096102538e-05</v>
       </c>
       <c r="E108">
-        <v>2.911171398714347e-05</v>
+        <v>8.627842312877368e-06</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>2.424445549889994e-05</v>
+        <v>3.893006773769489e-06</v>
       </c>
       <c r="B109">
-        <v>0.0004046381265410242</v>
+        <v>0.0002948878997550148</v>
       </c>
       <c r="C109">
-        <v>0.994137280355758</v>
+        <v>0.9996267393228218</v>
       </c>
       <c r="D109">
-        <v>5.98193665893331e-05</v>
+        <v>6.572599546983114e-05</v>
       </c>
       <c r="E109">
-        <v>0.005374017695612692</v>
+        <v>8.753775179597755e-06</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>2.475218982639113e-05</v>
+        <v>5.422373167079592e-06</v>
       </c>
       <c r="B110">
-        <v>0.9803438432683169</v>
+        <v>0.9945676880468471</v>
       </c>
       <c r="C110">
-        <v>0.01954322868384106</v>
+        <v>0.005346891482108324</v>
       </c>
       <c r="D110">
-        <v>6.80729070108305e-05</v>
+        <v>6.777033851239071e-05</v>
       </c>
       <c r="E110">
-        <v>2.010295100504594e-05</v>
+        <v>1.222775936536699e-05</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>0.0005805517139370485</v>
+        <v>1.289621354318523e-05</v>
       </c>
       <c r="B111">
-        <v>0.03151623632282465</v>
+        <v>0.005066384518505022</v>
       </c>
       <c r="C111">
-        <v>0.9660673046772748</v>
+        <v>0.9947305222232963</v>
       </c>
       <c r="D111">
-        <v>0.001174648011357691</v>
+        <v>0.0001611804887675139</v>
       </c>
       <c r="E111">
-        <v>0.0006612592746058658</v>
+        <v>2.901655588790977e-05</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>3.385822102929539e-05</v>
+        <v>7.07287366687176e-06</v>
       </c>
       <c r="B112">
-        <v>4.491656705661031e-05</v>
+        <v>0.001139830628064762</v>
       </c>
       <c r="C112">
-        <v>0.9998583976144325</v>
+        <v>0.9987667990186887</v>
       </c>
       <c r="D112">
-        <v>3.844490271139712e-05</v>
+        <v>7.453493604372071e-05</v>
       </c>
       <c r="E112">
-        <v>2.438269477059266e-05</v>
+        <v>1.176254353607252e-05</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>0.0001732917297389391</v>
+        <v>2.994264918916221e-05</v>
       </c>
       <c r="B113">
-        <v>0.003332273011712614</v>
+        <v>0.001631366589396792</v>
       </c>
       <c r="C113">
-        <v>0.9954577859958148</v>
+        <v>0.9980898996181996</v>
       </c>
       <c r="D113">
-        <v>0.0004213534256193996</v>
+        <v>0.0002095013729691818</v>
       </c>
       <c r="E113">
-        <v>0.0006152958371141858</v>
+        <v>3.928977024534884e-05</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>5.048199766073548e-05</v>
+        <v>5.718198510912785e-06</v>
       </c>
       <c r="B114">
-        <v>7.920879001303095e-05</v>
+        <v>0.0004684029097180607</v>
       </c>
       <c r="C114">
-        <v>0.9984369892407775</v>
+        <v>0.9994421057708767</v>
       </c>
       <c r="D114">
-        <v>8.770525773776772e-05</v>
+        <v>7.162844233229126e-05</v>
       </c>
       <c r="E114">
-        <v>0.001345614713810798</v>
+        <v>1.214467856202203e-05</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>0.0001129993400466886</v>
+        <v>5.148131892452039e-06</v>
       </c>
       <c r="B115">
-        <v>0.001181415788503139</v>
+        <v>0.001330335853394028</v>
       </c>
       <c r="C115">
-        <v>0.9986141103394902</v>
+        <v>0.9986189056445095</v>
       </c>
       <c r="D115">
-        <v>5.440791031670984e-05</v>
+        <v>3.685586872560111e-05</v>
       </c>
       <c r="E115">
-        <v>3.706662164336386e-05</v>
+        <v>8.754501478423081e-06</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>7.37865015127076e-05</v>
+        <v>8.300210268988073e-06</v>
       </c>
       <c r="B116">
-        <v>0.000308194391773839</v>
+        <v>0.0002410813984122819</v>
       </c>
       <c r="C116">
-        <v>0.9787078040690871</v>
+        <v>0.9995925524553677</v>
       </c>
       <c r="D116">
-        <v>0.0001764899150613354</v>
+        <v>0.000140448509245388</v>
       </c>
       <c r="E116">
-        <v>0.02073372512256492</v>
+        <v>1.761742670557979e-05</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>0.0001733002446707005</v>
+        <v>4.600963203046173e-06</v>
       </c>
       <c r="B117">
-        <v>0.003287637621704069</v>
+        <v>0.0002416529277386024</v>
       </c>
       <c r="C117">
-        <v>0.9955066992078403</v>
+        <v>0.9997155170636612</v>
       </c>
       <c r="D117">
-        <v>0.0004544309126716217</v>
+        <v>3.219181114968762e-05</v>
       </c>
       <c r="E117">
-        <v>0.0005779320131132864</v>
+        <v>6.037234247810611e-06</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>3.143896079128266e-05</v>
+        <v>5.307276032199063e-06</v>
       </c>
       <c r="B118">
-        <v>0.000223152218860049</v>
+        <v>0.0003028983640159065</v>
       </c>
       <c r="C118">
-        <v>0.9996911668256064</v>
+        <v>0.999612943362328</v>
       </c>
       <c r="D118">
-        <v>4.253983027549542e-05</v>
+        <v>7.001917300000275e-05</v>
       </c>
       <c r="E118">
-        <v>1.170216446670276e-05</v>
+        <v>8.831824623612491e-06</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>7.067836427560999e-05</v>
+        <v>7.654848120470108e-06</v>
       </c>
       <c r="B119">
-        <v>0.0004877540042543007</v>
+        <v>0.000104909128190346</v>
       </c>
       <c r="C119">
-        <v>0.9990329393632603</v>
+        <v>0.9997682331226029</v>
       </c>
       <c r="D119">
-        <v>0.0003041978393437242</v>
+        <v>0.0001029552734561089</v>
       </c>
       <c r="E119">
-        <v>0.0001044304288662046</v>
+        <v>1.624762763042252e-05</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>2.76631258175542e-05</v>
+        <v>1.132481288077478e-05</v>
       </c>
       <c r="B120">
-        <v>0.01207284559678585</v>
+        <v>0.002521728851874103</v>
       </c>
       <c r="C120">
-        <v>0.310504064182152</v>
+        <v>0.9972913924283913</v>
       </c>
       <c r="D120">
-        <v>0.0002405014302334112</v>
+        <v>0.0001519732065255625</v>
       </c>
       <c r="E120">
-        <v>0.6771549256650112</v>
+        <v>2.358070032834672e-05</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>0.0001118070275070883</v>
+        <v>9.045009132781444e-06</v>
       </c>
       <c r="B121">
-        <v>0.00292297541478235</v>
+        <v>0.0006098578848558052</v>
       </c>
       <c r="C121">
-        <v>0.996521887286654</v>
+        <v>0.999240234235535</v>
       </c>
       <c r="D121">
-        <v>0.0003476862268130152</v>
+        <v>0.0001216524970872088</v>
       </c>
       <c r="E121">
-        <v>9.564404424332977e-05</v>
+        <v>1.92103733891969e-05</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>0.0002488459980174228</v>
+        <v>6.909693163117677e-06</v>
       </c>
       <c r="B122">
-        <v>0.001181255279247864</v>
+        <v>0.0002089616597451692</v>
       </c>
       <c r="C122">
-        <v>0.9984784368461127</v>
+        <v>0.9997384671426524</v>
       </c>
       <c r="D122">
-        <v>5.440051836101483e-05</v>
+        <v>3.689718820330427e-05</v>
       </c>
       <c r="E122">
-        <v>3.706135826082039e-05</v>
+        <v>8.76431623632049e-06</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123">
-        <v>6.517472027165969e-05</v>
+        <v>8.028274304051624e-06</v>
       </c>
       <c r="B123">
-        <v>0.7227061135680114</v>
+        <v>0.9364796396069617</v>
       </c>
       <c r="C123">
-        <v>0.2769090774330642</v>
+        <v>0.06338653311259648</v>
       </c>
       <c r="D123">
-        <v>0.000244010090661148</v>
+        <v>0.0001077353420050533</v>
       </c>
       <c r="E123">
-        <v>7.562418799153947e-05</v>
+        <v>1.80636641326464e-05</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124">
-        <v>7.49395546244804e-05</v>
+        <v>1.088291397325455e-05</v>
       </c>
       <c r="B124">
-        <v>0.003285990022535509</v>
+        <v>0.02296205735378912</v>
       </c>
       <c r="C124">
-        <v>0.9964461059039605</v>
+        <v>0.9769040024938248</v>
       </c>
       <c r="D124">
-        <v>0.0001147728882841441</v>
+        <v>9.94375052072494e-05</v>
       </c>
       <c r="E124">
-        <v>7.819163059526421e-05</v>
+        <v>2.361973320528126e-05</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>8.025552284602679e-05</v>
+        <v>3.874817111206677e-08</v>
       </c>
       <c r="B125">
-        <v>0.005310347082595712</v>
+        <v>5.450983204633173e-06</v>
       </c>
       <c r="C125">
-        <v>0.2238964095553973</v>
+        <v>0.0002308454665134771</v>
       </c>
       <c r="D125">
-        <v>0.0002075457617519387</v>
+        <v>4.842854949459547e-07</v>
       </c>
       <c r="E125">
-        <v>0.770505442077409</v>
+        <v>0.9997631805166156</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>9.775884069560395e-05</v>
+        <v>9.88734031785617e-06</v>
       </c>
       <c r="B126">
-        <v>0.0005509749963284776</v>
+        <v>0.001144175476469261</v>
       </c>
       <c r="C126">
-        <v>0.9983851457312717</v>
+        <v>0.9985734443077506</v>
       </c>
       <c r="D126">
-        <v>0.0008824937483630868</v>
+        <v>0.000251493504809723</v>
       </c>
       <c r="E126">
-        <v>8.36266833412973e-05</v>
+        <v>2.099937065222943e-05</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>1.262049142847758e-05</v>
+        <v>1.753838647795389e-07</v>
       </c>
       <c r="B127">
-        <v>0.0001810935917362542</v>
+        <v>1.352860526308248e-05</v>
       </c>
       <c r="C127">
-        <v>0.9997757262169679</v>
+        <v>0.9999843128789537</v>
       </c>
       <c r="D127">
-        <v>1.395373894119654e-05</v>
+        <v>1.602487533223376e-06</v>
       </c>
       <c r="E127">
-        <v>1.660596092567039e-05</v>
+        <v>3.806443848388711e-07</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>3.185255717271506e-05</v>
+        <v>1.306194103240568e-06</v>
       </c>
       <c r="B128">
-        <v>3.770907845011666e-05</v>
+        <v>3.939760788691743e-05</v>
       </c>
       <c r="C128">
-        <v>0.00688391356584122</v>
+        <v>0.008630352632876743</v>
       </c>
       <c r="D128">
-        <v>0.9930390833529837</v>
+        <v>0.9913261711318896</v>
       </c>
       <c r="E128">
-        <v>7.441445552025357e-06</v>
+        <v>2.772433243417907e-06</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
-        <v>0.0001349094441320358</v>
+        <v>6.923430214283181e-06</v>
       </c>
       <c r="B129">
-        <v>0.7565321194358565</v>
+        <v>0.7026912620786803</v>
       </c>
       <c r="C129">
-        <v>0.2428330691263493</v>
+        <v>0.297222778201127</v>
       </c>
       <c r="D129">
-        <v>0.0002437076880783804</v>
+        <v>6.311757668395143e-05</v>
       </c>
       <c r="E129">
-        <v>0.0002561943055837545</v>
+        <v>1.591871329468418e-05</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
-        <v>1.874772466267313e-05</v>
+        <v>5.83377390611267e-06</v>
       </c>
       <c r="B130">
-        <v>0.0001297311309446483</v>
+        <v>0.0002143202589895309</v>
       </c>
       <c r="C130">
-        <v>0.9972663543421004</v>
+        <v>0.9978520684631936</v>
       </c>
       <c r="D130">
-        <v>0.002556127152465956</v>
+        <v>0.001915395156852442</v>
       </c>
       <c r="E130">
-        <v>2.903964982610281e-05</v>
+        <v>1.238234705834674e-05</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131">
-        <v>7.312267133615112e-06</v>
+        <v>9.327684982477503e-06</v>
       </c>
       <c r="B131">
-        <v>0.991913781743978</v>
+        <v>0.7583337836747663</v>
       </c>
       <c r="C131">
-        <v>0.0080400035835163</v>
+        <v>0.2415503751506222</v>
       </c>
       <c r="D131">
-        <v>1.896534799631247e-05</v>
+        <v>8.503600873316846e-05</v>
       </c>
       <c r="E131">
-        <v>1.993705737550159e-05</v>
+        <v>2.147748089573937e-05</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132">
-        <v>0.0001415719736659761</v>
+        <v>2.661418296208691e-05</v>
       </c>
       <c r="B132">
-        <v>0.01143627412659525</v>
+        <v>0.0008048526288231624</v>
       </c>
       <c r="C132">
-        <v>0.9878360332295028</v>
+        <v>0.9988660601288465</v>
       </c>
       <c r="D132">
-        <v>0.0002678368605906433</v>
+        <v>0.0002426286800038409</v>
       </c>
       <c r="E132">
-        <v>0.0003182838096453501</v>
+        <v>5.984437936469531e-05</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133">
-        <v>1.280277639941891e-07</v>
+        <v>2.19958917054708e-07</v>
       </c>
       <c r="B133">
-        <v>6.258675417931426e-06</v>
+        <v>9.643786271812369e-06</v>
       </c>
       <c r="C133">
-        <v>0.0001636573411716033</v>
+        <v>0.001234266714726625</v>
       </c>
       <c r="D133">
-        <v>0.999829736182126</v>
+        <v>0.9987553749427154</v>
       </c>
       <c r="E133">
-        <v>2.197735205623532e-07</v>
+        <v>4.945973692155496e-07</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134">
-        <v>0.0002289421357696497</v>
+        <v>5.532325342833858e-05</v>
       </c>
       <c r="B134">
-        <v>0.01971215761404482</v>
+        <v>0.01766936561113047</v>
       </c>
       <c r="C134">
-        <v>0.6660513443044348</v>
+        <v>0.8358600580353748</v>
       </c>
       <c r="D134">
-        <v>0.3130006566459655</v>
+        <v>0.1462908537987401</v>
       </c>
       <c r="E134">
-        <v>0.001006899299785349</v>
+        <v>0.000124399301326328</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135">
-        <v>5.205341400702685e-05</v>
+        <v>7.077655377565814e-06</v>
       </c>
       <c r="B135">
-        <v>7.214379714213791e-05</v>
+        <v>0.0004884537236395883</v>
       </c>
       <c r="C135">
-        <v>0.9998260291525418</v>
+        <v>0.999442028650754</v>
       </c>
       <c r="D135">
-        <v>2.506313293336693e-05</v>
+        <v>5.066947446763392e-05</v>
       </c>
       <c r="E135">
-        <v>2.471050337540559e-05</v>
+        <v>1.177049576070777e-05</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136">
-        <v>0.0002289421357696497</v>
+        <v>5.546384749807817e-05</v>
       </c>
       <c r="B136">
-        <v>0.01971215761404482</v>
+        <v>0.0151729494902402</v>
       </c>
       <c r="C136">
-        <v>0.6660513443044348</v>
+        <v>0.8379842456058724</v>
       </c>
       <c r="D136">
-        <v>0.3130006566459655</v>
+        <v>0.1466626256166772</v>
       </c>
       <c r="E136">
-        <v>0.001006899299785349</v>
+        <v>0.0001247154397123122</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137">
-        <v>0.0001238723508453512</v>
+        <v>5.142798894524504e-05</v>
       </c>
       <c r="B137">
-        <v>0.005360646430839484</v>
+        <v>0.008083421096555308</v>
       </c>
       <c r="C137">
-        <v>0.993591315898248</v>
+        <v>0.9912781352189065</v>
       </c>
       <c r="D137">
-        <v>0.0003828565550522173</v>
+        <v>0.00046884419073891</v>
       </c>
       <c r="E137">
-        <v>0.0005413087650148681</v>
+        <v>0.0001181715048542415</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138">
-        <v>7.93669919032103e-05</v>
+        <v>7.267780105829493e-06</v>
       </c>
       <c r="B138">
-        <v>0.002808873378845239</v>
+        <v>0.001801012015716961</v>
       </c>
       <c r="C138">
-        <v>0.9967354244934408</v>
+        <v>0.9980785350926236</v>
       </c>
       <c r="D138">
-        <v>0.0002866530817260442</v>
+        <v>9.7749331722677e-05</v>
       </c>
       <c r="E138">
-        <v>8.968205408470705e-05</v>
+        <v>1.543577983106223e-05</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139">
-        <v>1.311294485208217e-06</v>
+        <v>2.090031207602756e-07</v>
       </c>
       <c r="B139">
-        <v>3.583213521886991e-05</v>
+        <v>3.04840037661583e-05</v>
       </c>
       <c r="C139">
-        <v>0.0007130992875839438</v>
+        <v>0.001039069100978832</v>
       </c>
       <c r="D139">
-        <v>0.9992474517715968</v>
+        <v>0.9989297679298563</v>
       </c>
       <c r="E139">
-        <v>2.305511115544492e-06</v>
+        <v>4.69962277820096e-07</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140">
-        <v>0.0001010158900393287</v>
+        <v>1.671325518435494e-05</v>
       </c>
       <c r="B140">
-        <v>0.3424387976162111</v>
+        <v>0.8109836605781465</v>
       </c>
       <c r="C140">
-        <v>0.6559992114681451</v>
+        <v>0.188737737893811</v>
       </c>
       <c r="D140">
-        <v>0.001290062279313189</v>
+        <v>0.0002242833509556969</v>
       </c>
       <c r="E140">
-        <v>0.0001709127462910448</v>
+        <v>3.760492190221227e-05</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141">
-        <v>0.0002735512266314241</v>
+        <v>2.902183209205093e-05</v>
       </c>
       <c r="B141">
-        <v>0.01445450202892897</v>
+        <v>0.007377516862322285</v>
       </c>
       <c r="C141">
-        <v>0.9834106646609209</v>
+        <v>0.9922636250542204</v>
       </c>
       <c r="D141">
-        <v>0.0007094918871376361</v>
+        <v>0.0002645780568134811</v>
       </c>
       <c r="E141">
-        <v>0.001151790196381303</v>
+        <v>6.525819455172922e-05</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142">
-        <v>1.449312422413765e-05</v>
+        <v>3.874581568397244e-08</v>
       </c>
       <c r="B142">
-        <v>0.0004872942428593811</v>
+        <v>5.356473762219463e-06</v>
       </c>
       <c r="C142">
-        <v>0.9066968049426052</v>
+        <v>0.000291713722107768</v>
       </c>
       <c r="D142">
-        <v>4.466361751750726e-05</v>
+        <v>4.842560561459356e-07</v>
       </c>
       <c r="E142">
-        <v>0.09275674407279373</v>
+        <v>0.9997024068022574</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <v>2.421932987879886e-05</v>
+        <v>3.026448948229197e-06</v>
       </c>
       <c r="B143">
-        <v>0.02114211814343727</v>
+        <v>0.007531282869498186</v>
       </c>
       <c r="C143">
-        <v>0.9783854012167957</v>
+        <v>0.9924187755631891</v>
       </c>
       <c r="D143">
-        <v>0.0003093022681354076</v>
+        <v>4.061339961114136e-05</v>
       </c>
       <c r="E143">
-        <v>0.0001389590417527768</v>
+        <v>6.301718753197657e-06</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <v>0.0001099724414809154</v>
+        <v>4.141918213517924e-05</v>
       </c>
       <c r="B144">
-        <v>0.6918589629657909</v>
+        <v>0.486011966923407</v>
       </c>
       <c r="C144">
-        <v>0.3078305131839107</v>
+        <v>0.5133825319263918</v>
       </c>
       <c r="D144">
-        <v>0.0001235456114856823</v>
+        <v>0.000470888566046757</v>
       </c>
       <c r="E144">
-        <v>7.700579733178454e-05</v>
+        <v>9.319340201931083e-05</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
-        <v>4.270533875784855e-05</v>
+        <v>1.989288615655677e-05</v>
       </c>
       <c r="B145">
-        <v>0.001012638119758073</v>
+        <v>0.0007893972273911264</v>
       </c>
       <c r="C145">
-        <v>0.9988317095204623</v>
+        <v>0.9989464987195786</v>
       </c>
       <c r="D145">
-        <v>5.436745129855798e-05</v>
+        <v>0.0002091634291250391</v>
       </c>
       <c r="E145">
-        <v>5.857956972321335e-05</v>
+        <v>3.504773774865787e-05</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146">
-        <v>0.0004015716856785854</v>
+        <v>3.874843654486667e-08</v>
       </c>
       <c r="B146">
-        <v>0.002201573005307918</v>
+        <v>2.815441950910366e-05</v>
       </c>
       <c r="C146">
-        <v>0.4915592846216437</v>
+        <v>0.0002013099989158117</v>
       </c>
       <c r="D146">
-        <v>0.0002875603620282004</v>
+        <v>4.677367651669347e-07</v>
       </c>
       <c r="E146">
-        <v>0.5055500103253416</v>
+        <v>0.9997700290963728</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147">
-        <v>0.002796534851001823</v>
+        <v>1.109563151926763e-05</v>
       </c>
       <c r="B147">
-        <v>0.0004328278725085557</v>
+        <v>0.0006354106507599899</v>
       </c>
       <c r="C147">
-        <v>0.9966916974602246</v>
+        <v>0.9993001893003807</v>
       </c>
       <c r="D147">
-        <v>4.547497208883496e-05</v>
+        <v>4.488643958060376e-05</v>
       </c>
       <c r="E147">
-        <v>3.346484417583595e-05</v>
+        <v>8.417977759568596e-06</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148">
-        <v>2.532505499264635e-05</v>
+        <v>2.760108772573475e-06</v>
       </c>
       <c r="B148">
-        <v>0.0006441913194100295</v>
+        <v>0.0001111816988744881</v>
       </c>
       <c r="C148">
-        <v>0.989386944766899</v>
+        <v>0.9998453552275453</v>
       </c>
       <c r="D148">
-        <v>5.794017118541394e-05</v>
+        <v>3.449661247661194e-05</v>
       </c>
       <c r="E148">
-        <v>0.009885598687512926</v>
+        <v>6.206352331349512e-06</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149">
-        <v>7.348250712125255e-06</v>
+        <v>4.39784106882388e-08</v>
       </c>
       <c r="B149">
-        <v>0.0003093035936218252</v>
+        <v>1.570394472365341e-06</v>
       </c>
       <c r="C149">
-        <v>0.02125735157939553</v>
+        <v>0.0004732876298267113</v>
       </c>
       <c r="D149">
-        <v>2.473452795476689e-05</v>
+        <v>5.496544940273993e-07</v>
       </c>
       <c r="E149">
-        <v>0.9784012620483161</v>
+        <v>0.9995245483427964</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150">
-        <v>9.725882672340035e-05</v>
+        <v>2.335970084878476e-05</v>
       </c>
       <c r="B150">
-        <v>0.009158126756161331</v>
+        <v>0.002641147171803364</v>
       </c>
       <c r="C150">
-        <v>0.9895262989234181</v>
+        <v>0.9837116866263178</v>
       </c>
       <c r="D150">
-        <v>0.0007399806141074988</v>
+        <v>0.01357128011683006</v>
       </c>
       <c r="E150">
-        <v>0.0004783348795896673</v>
+        <v>5.252638420018031e-05</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151">
-        <v>0.0001988632489766499</v>
+        <v>1.663494047947118e-05</v>
       </c>
       <c r="B151">
-        <v>0.001832815172035679</v>
+        <v>0.001347840422683905</v>
       </c>
       <c r="C151">
-        <v>0.9796014016894999</v>
+        <v>0.9983973172297971</v>
       </c>
       <c r="D151">
-        <v>0.0001316588968351533</v>
+        <v>0.0002008022501657068</v>
       </c>
       <c r="E151">
-        <v>0.01823526099265281</v>
+        <v>3.740515687371446e-05</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152">
-        <v>3.649439906755958e-05</v>
+        <v>1.073389459851535e-05</v>
       </c>
       <c r="B152">
-        <v>0.9632235350530495</v>
+        <v>0.9692445158974666</v>
       </c>
       <c r="C152">
-        <v>0.03663231346328732</v>
+        <v>0.03058638944517618</v>
       </c>
       <c r="D152">
-        <v>7.963299527213551e-05</v>
+        <v>0.000134155220985924</v>
       </c>
       <c r="E152">
-        <v>2.802408932334014e-05</v>
+        <v>2.420554177287433e-05</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153">
-        <v>1.225316057396783e-05</v>
+        <v>3.874708244762771e-08</v>
       </c>
       <c r="B153">
-        <v>0.0004612382335243476</v>
+        <v>5.924552992183365e-06</v>
       </c>
       <c r="C153">
-        <v>0.6505036374649721</v>
+        <v>0.0002584611499808921</v>
       </c>
       <c r="D153">
-        <v>3.16874335249424e-05</v>
+        <v>4.842718885128877e-07</v>
       </c>
       <c r="E153">
-        <v>0.3489911837074044</v>
+        <v>0.999735091278056</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154">
-        <v>2.604003598629711e-05</v>
+        <v>1.638157909743798e-05</v>
       </c>
       <c r="B154">
-        <v>0.0003018075272194817</v>
+        <v>0.001011739720136269</v>
       </c>
       <c r="C154">
-        <v>0.9996179911199105</v>
+        <v>0.9988260035600297</v>
       </c>
       <c r="D154">
-        <v>2.123284957643712e-05</v>
+        <v>0.000117013703356507</v>
       </c>
       <c r="E154">
-        <v>3.292846730740329e-05</v>
+        <v>2.886143738004874e-05</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155">
-        <v>5.342594164621473e-06</v>
+        <v>3.494520963664431e-07</v>
       </c>
       <c r="B155">
-        <v>1.738143411978452e-05</v>
+        <v>1.656273216622995e-05</v>
       </c>
       <c r="C155">
-        <v>0.002650932547024499</v>
+        <v>0.002748714169570762</v>
       </c>
       <c r="D155">
-        <v>0.9973211967520677</v>
+        <v>0.9972336319243919</v>
       </c>
       <c r="E155">
-        <v>5.146672623488711e-06</v>
+        <v>7.417217751517981e-07</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156">
-        <v>1.941067459443735e-05</v>
+        <v>6.362517123701095e-06</v>
       </c>
       <c r="B156">
-        <v>0.01694443147573013</v>
+        <v>0.01227482157843467</v>
       </c>
       <c r="C156">
-        <v>0.9826986061081924</v>
+        <v>0.9876201860418332</v>
       </c>
       <c r="D156">
-        <v>0.0002478914861865516</v>
+        <v>8.538173116344704e-05</v>
       </c>
       <c r="E156">
-        <v>8.966025529643573e-05</v>
+        <v>1.324813144442045e-05</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157">
-        <v>7.051440233696893e-05</v>
+        <v>6.920398258815989e-06</v>
       </c>
       <c r="B157">
-        <v>0.002827155952530807</v>
+        <v>0.001817268676111954</v>
       </c>
       <c r="C157">
-        <v>0.9967153506756459</v>
+        <v>0.9980680357814292</v>
       </c>
       <c r="D157">
-        <v>0.0003034921514294606</v>
+        <v>9.307715632610402e-05</v>
       </c>
       <c r="E157">
-        <v>8.348681805688403e-05</v>
+        <v>1.469798787399584e-05</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158">
-        <v>0.0002799867939074804</v>
+        <v>5.425218606109625e-05</v>
       </c>
       <c r="B158">
-        <v>0.001863654657654938</v>
+        <v>0.01566173672415732</v>
       </c>
       <c r="C158">
-        <v>0.6464630131246083</v>
+        <v>0.983849102834142</v>
       </c>
       <c r="D158">
-        <v>0.0002434228648147157</v>
+        <v>0.0003666156205362067</v>
       </c>
       <c r="E158">
-        <v>0.3511499225590145</v>
+        <v>6.829263510341357e-05</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159">
-        <v>0.0002714163620014593</v>
+        <v>1.136899513464591e-05</v>
       </c>
       <c r="B159">
-        <v>0.0004393297053236715</v>
+        <v>0.0005766031972990179</v>
       </c>
       <c r="C159">
-        <v>0.7676210867119039</v>
+        <v>0.9992874098733718</v>
       </c>
       <c r="D159">
-        <v>0.0002732401895274469</v>
+        <v>0.0001062247899730649</v>
       </c>
       <c r="E159">
-        <v>0.2313949270312435</v>
+        <v>1.839314422168407e-05</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160">
-        <v>0.0001214928990306368</v>
+        <v>5.995111730501366e-05</v>
       </c>
       <c r="B160">
-        <v>0.6158261599401503</v>
+        <v>0.005360826211958161</v>
       </c>
       <c r="C160">
-        <v>0.3835720446778143</v>
+        <v>0.9936398189224108</v>
       </c>
       <c r="D160">
-        <v>0.0003775292068194444</v>
+        <v>0.0008045133838016876</v>
       </c>
       <c r="E160">
-        <v>0.0001027732761855986</v>
+        <v>0.0001348903645243069</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161">
-        <v>9.724815703349766e-05</v>
+        <v>8.56362140189304e-06</v>
       </c>
       <c r="B161">
-        <v>0.002881490008204083</v>
+        <v>0.0008610546608346714</v>
       </c>
       <c r="C161">
-        <v>0.9967649600650996</v>
+        <v>0.9990335496006376</v>
       </c>
       <c r="D161">
-        <v>0.0001282363870333752</v>
+        <v>7.824606073670857e-05</v>
       </c>
       <c r="E161">
-        <v>0.0001280653826293438</v>
+        <v>1.858605638901885e-05</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162">
-        <v>2.850498446317291e-05</v>
+        <v>3.185090121074329e-06</v>
       </c>
       <c r="B162">
-        <v>0.001295306134926791</v>
+        <v>0.00133397317324525</v>
       </c>
       <c r="C162">
-        <v>0.998572210683385</v>
+        <v>0.9986268267138783</v>
       </c>
       <c r="D162">
-        <v>5.2023785711453e-05</v>
+        <v>2.910226215866814e-05</v>
       </c>
       <c r="E162">
-        <v>5.195441151371675e-05</v>
+        <v>6.912760596972237e-06</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163">
-        <v>4.578524360155043e-05</v>
+        <v>3.617354202039327e-06</v>
       </c>
       <c r="B163">
-        <v>0.844033974740459</v>
+        <v>0.7810383416228351</v>
       </c>
       <c r="C163">
-        <v>0.1558099894831421</v>
+        <v>0.218916746137795</v>
       </c>
       <c r="D163">
-        <v>5.062718238809101e-05</v>
+        <v>3.297767496366253e-05</v>
       </c>
       <c r="E163">
-        <v>5.962335040948501e-05</v>
+        <v>8.317210204385236e-06</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164">
-        <v>7.514483896288824e-05</v>
+        <v>1.345811952287059e-05</v>
       </c>
       <c r="B164">
-        <v>0.0004551565423906897</v>
+        <v>0.001420929317031058</v>
       </c>
       <c r="C164">
-        <v>0.9991757028522563</v>
+        <v>0.9984134548817242</v>
       </c>
       <c r="D164">
-        <v>0.0001150872893578712</v>
+        <v>0.0001229672340904321</v>
       </c>
       <c r="E164">
-        <v>0.0001789084770320653</v>
+        <v>2.919044763172598e-05</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165">
-        <v>5.148089010868824e-06</v>
+        <v>4.639022666424833e-07</v>
       </c>
       <c r="B165">
-        <v>0.002715032251268568</v>
+        <v>0.0007612837401763917</v>
       </c>
       <c r="C165">
-        <v>0.004392669812472909</v>
+        <v>0.003321214498617624</v>
       </c>
       <c r="D165">
-        <v>0.9928839844865311</v>
+        <v>0.9959159940761263</v>
       </c>
       <c r="E165">
-        <v>3.165360716338128e-06</v>
+        <v>1.043782812798782e-06</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166">
-        <v>9.117799198907175e-06</v>
+        <v>6.668555736758432e-07</v>
       </c>
       <c r="B166">
-        <v>0.0002651520019832931</v>
+        <v>0.001174040083280849</v>
       </c>
       <c r="C166">
-        <v>0.9996951729611867</v>
+        <v>0.9988177526720993</v>
       </c>
       <c r="D166">
-        <v>1.395261466994994e-05</v>
+        <v>6.093078999139106e-06</v>
       </c>
       <c r="E166">
-        <v>1.660462296138213e-05</v>
+        <v>1.44731004723433e-06</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167">
-        <v>0.0001327090323177548</v>
+        <v>1.011984562145521e-05</v>
       </c>
       <c r="B167">
-        <v>0.0005543043600057569</v>
+        <v>0.0007423456442779511</v>
       </c>
       <c r="C167">
-        <v>0.9617048286613123</v>
+        <v>0.9990992896217606</v>
       </c>
       <c r="D167">
-        <v>0.0003174267021942879</v>
+        <v>0.0001267652350866681</v>
       </c>
       <c r="E167">
-        <v>0.0372907312441699</v>
+        <v>2.147965325335132e-05</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168">
-        <v>6.957436566330472e-05</v>
+        <v>7.565103442585441e-06</v>
       </c>
       <c r="B168">
-        <v>0.0004814430180014211</v>
+        <v>0.0003696483576444191</v>
       </c>
       <c r="C168">
-        <v>0.9849522178309742</v>
+        <v>0.9880470498112086</v>
       </c>
       <c r="D168">
-        <v>0.01438899622933164</v>
+        <v>0.01155967958564402</v>
       </c>
       <c r="E168">
-        <v>0.0001077685560295357</v>
+        <v>1.605714206034529e-05</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169">
-        <v>0.0005250923597654551</v>
+        <v>1.901767362047207e-05</v>
       </c>
       <c r="B169">
-        <v>0.6790718230158789</v>
+        <v>0.9782836450312514</v>
       </c>
       <c r="C169">
-        <v>0.3188611197182026</v>
+        <v>0.02152373123391366</v>
       </c>
       <c r="D169">
-        <v>0.00103134518358797</v>
+        <v>0.0001470702660239601</v>
       </c>
       <c r="E169">
-        <v>0.0005106197225653235</v>
+        <v>2.653579519029098e-05</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170">
-        <v>0.006052578229688887</v>
+        <v>0.0001273870140068483</v>
       </c>
       <c r="B170">
-        <v>0.009903505410522139</v>
+        <v>0.04225629150443219</v>
       </c>
       <c r="C170">
-        <v>0.9667590587615884</v>
+        <v>0.9572404603916409</v>
       </c>
       <c r="D170">
-        <v>0.0001129239436050098</v>
+        <v>0.0003185195347897817</v>
       </c>
       <c r="E170">
-        <v>0.01717193365459578</v>
+        <v>5.734155513047127e-05</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171">
-        <v>0.9976728649118102</v>
+        <v>0.9965883783929049</v>
       </c>
       <c r="B171">
-        <v>0.0002102697686302683</v>
+        <v>0.0002108340359962974</v>
       </c>
       <c r="C171">
-        <v>0.002114843821078613</v>
+        <v>0.00319926393036198</v>
       </c>
       <c r="D171">
-        <v>1.538757703068565e-06</v>
+        <v>1.291193347616119e-06</v>
       </c>
       <c r="E171">
-        <v>4.827407782694277e-07</v>
+        <v>2.324473900016597e-07</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172">
-        <v>3.884936839791887e-05</v>
+        <v>1.379841975738463e-05</v>
       </c>
       <c r="B172">
-        <v>0.7318413090681065</v>
+        <v>0.7679546239783945</v>
       </c>
       <c r="C172">
-        <v>0.2679713401081922</v>
+        <v>0.2318436588798526</v>
       </c>
       <c r="D172">
-        <v>9.597392664946923e-05</v>
+        <v>0.0001568721968497645</v>
       </c>
       <c r="E172">
-        <v>5.252752865370875e-05</v>
+        <v>3.104652514586837e-05</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173">
-        <v>0.0001348010664677068</v>
+        <v>5.966129772675214e-06</v>
       </c>
       <c r="B173">
-        <v>0.0251513067547806</v>
+        <v>0.001750146497955246</v>
       </c>
       <c r="C173">
-        <v>0.9741864981036119</v>
+        <v>0.9981764156567873</v>
       </c>
       <c r="D173">
-        <v>0.0002064531584129211</v>
+        <v>5.451270328842836e-05</v>
       </c>
       <c r="E173">
-        <v>0.0003209409167267804</v>
+        <v>1.295901219607404e-05</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174">
-        <v>0.0005040952773284719</v>
+        <v>9.129960699262257e-06</v>
       </c>
       <c r="B174">
-        <v>0.06971763461061209</v>
+        <v>0.007107547343482892</v>
       </c>
       <c r="C174">
-        <v>0.9287651865394621</v>
+        <v>0.9927486714249621</v>
       </c>
       <c r="D174">
-        <v>0.00074763423351712</v>
+        <v>0.0001141088058915486</v>
       </c>
       <c r="E174">
-        <v>0.0002654493390801923</v>
+        <v>2.054246496442013e-05</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175">
-        <v>7.98764829466606e-05</v>
+        <v>3.850495231611443e-06</v>
       </c>
       <c r="B175">
-        <v>0.0003831222408348867</v>
+        <v>0.0005001979556426003</v>
       </c>
       <c r="C175">
-        <v>0.9990655386019283</v>
+        <v>0.999435990829461</v>
       </c>
       <c r="D175">
-        <v>0.0002884932318213755</v>
+        <v>5.178793664787356e-05</v>
       </c>
       <c r="E175">
-        <v>0.0001829694424690819</v>
+        <v>8.172783016901744e-06</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176">
-        <v>2.233985379320045e-05</v>
+        <v>1.505312433158343e-06</v>
       </c>
       <c r="B176">
-        <v>6.318922816891555e-05</v>
+        <v>5.486281413359987e-05</v>
       </c>
       <c r="C176">
-        <v>0.9998592457682016</v>
+        <v>0.99992614732513</v>
       </c>
       <c r="D176">
-        <v>4.361878594612788e-05</v>
+        <v>1.510136444159964e-05</v>
       </c>
       <c r="E176">
-        <v>1.160636388974479e-05</v>
+        <v>2.383183861514535e-06</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177">
-        <v>4.145765843730531e-05</v>
+        <v>5.449676178796053e-06</v>
       </c>
       <c r="B177">
-        <v>0.0001298988663454757</v>
+        <v>0.0001986196119155711</v>
       </c>
       <c r="C177">
-        <v>0.999726072621141</v>
+        <v>0.9997326314762881</v>
       </c>
       <c r="D177">
-        <v>8.101410573943947e-05</v>
+        <v>5.467140525241793e-05</v>
       </c>
       <c r="E177">
-        <v>2.155674833718444e-05</v>
+        <v>8.627830365113831e-06</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178">
-        <v>3.741179773375665e-06</v>
+        <v>4.94762662461671e-08</v>
       </c>
       <c r="B178">
-        <v>5.403308534808158e-06</v>
+        <v>3.582571076318336e-06</v>
       </c>
       <c r="C178">
-        <v>0.003215394374976136</v>
+        <v>0.0006367061481646988</v>
       </c>
       <c r="D178">
-        <v>3.408506987169087e-06</v>
+        <v>4.622753311446666e-07</v>
       </c>
       <c r="E178">
-        <v>0.9967720526297288</v>
+        <v>0.9993591995291607</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179">
-        <v>8.252293297503167e-05</v>
+        <v>1.591615448560952e-05</v>
       </c>
       <c r="B179">
-        <v>0.001999376551510691</v>
+        <v>0.001007800271400594</v>
       </c>
       <c r="C179">
-        <v>0.8964433506940513</v>
+        <v>0.9987415701155927</v>
       </c>
       <c r="D179">
-        <v>0.0002995672374248204</v>
+        <v>0.0001989245564753715</v>
       </c>
       <c r="E179">
-        <v>0.101175182584038</v>
+        <v>3.57889020459798e-05</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180">
-        <v>3.121764706450391e-05</v>
+        <v>3.077984466376637e-06</v>
       </c>
       <c r="B180">
-        <v>0.0005836565053871876</v>
+        <v>0.0005278928797835422</v>
       </c>
       <c r="C180">
-        <v>0.9992885712893045</v>
+        <v>0.9994236341407741</v>
       </c>
       <c r="D180">
-        <v>8.117455962057521e-05</v>
+        <v>3.8469511926744e-05</v>
       </c>
       <c r="E180">
-        <v>1.537999862324373e-05</v>
+        <v>6.925483049087009e-06</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181">
-        <v>6.338886748745958e-05</v>
+        <v>6.8158277071684e-06</v>
       </c>
       <c r="B181">
-        <v>0.6688701509546462</v>
+        <v>0.9461019441761984</v>
       </c>
       <c r="C181">
-        <v>0.3308567254016092</v>
+        <v>0.05381376772741171</v>
       </c>
       <c r="D181">
-        <v>0.0001006359409386879</v>
+        <v>6.213661648301067e-05</v>
       </c>
       <c r="E181">
-        <v>0.0001090988353186704</v>
+        <v>1.533565219939494e-05</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182">
-        <v>0.000101015082090083</v>
+        <v>2.39351259876145e-05</v>
       </c>
       <c r="B182">
-        <v>0.3424360587088163</v>
+        <v>0.7829383544719405</v>
       </c>
       <c r="C182">
-        <v>0.6559939646295748</v>
+        <v>0.2166626590589083</v>
       </c>
       <c r="D182">
-        <v>0.001290051961086571</v>
+        <v>0.0003211971697215579</v>
       </c>
       <c r="E182">
-        <v>0.0001789096184319936</v>
+        <v>5.3854173442311e-05</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183">
-        <v>3.662550094623839e-05</v>
+        <v>6.469079519626225e-06</v>
       </c>
       <c r="B183">
-        <v>5.3254917679577e-05</v>
+        <v>0.000160518654292203</v>
       </c>
       <c r="C183">
-        <v>0.9998433342083082</v>
+        <v>0.9997540817940713</v>
       </c>
       <c r="D183">
-        <v>4.15870585585702e-05</v>
+        <v>6.817206852081963e-05</v>
       </c>
       <c r="E183">
-        <v>2.519831450773584e-05</v>
+        <v>1.075840359546155e-05</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184">
-        <v>0.2272994312537585</v>
+        <v>0.01323027193687802</v>
       </c>
       <c r="B184">
-        <v>0.09230832793665797</v>
+        <v>0.01239106830139924</v>
       </c>
       <c r="C184">
-        <v>0.6782804713518561</v>
+        <v>0.9738019461144308</v>
       </c>
       <c r="D184">
-        <v>0.001057786726024624</v>
+        <v>0.0004856374682659851</v>
       </c>
       <c r="E184">
-        <v>0.001053982731702671</v>
+        <v>9.107617902585434e-05</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185">
-        <v>0.0001902788377851671</v>
+        <v>1.046213003318225e-05</v>
       </c>
       <c r="B185">
-        <v>0.0004541809165788728</v>
+        <v>0.0007390741663438285</v>
       </c>
       <c r="C185">
-        <v>0.9989086927184789</v>
+        <v>0.9991289436697157</v>
       </c>
       <c r="D185">
-        <v>0.0003120278963403622</v>
+        <v>0.0001049565757820793</v>
       </c>
       <c r="E185">
-        <v>0.000134819630816579</v>
+        <v>1.656345812532312e-05</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186">
-        <v>0.0001258462011520026</v>
+        <v>1.448518132614781e-05</v>
       </c>
       <c r="B186">
-        <v>0.8639993229387956</v>
+        <v>0.2485828245261058</v>
       </c>
       <c r="C186">
-        <v>0.1353308153282536</v>
+        <v>0.7512380441325087</v>
       </c>
       <c r="D186">
-        <v>0.0003263990435865957</v>
+        <v>0.0001320544173678415</v>
       </c>
       <c r="E186">
-        <v>0.0002176164882119307</v>
+        <v>3.259174269169723e-05</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187">
-        <v>7.305351997858584e-05</v>
+        <v>6.547591187246024e-06</v>
       </c>
       <c r="B187">
-        <v>0.002446616837634885</v>
+        <v>0.002742249249204018</v>
       </c>
       <c r="C187">
-        <v>0.9972197937402268</v>
+        <v>0.997177167061213</v>
       </c>
       <c r="D187">
-        <v>0.0001333282841723136</v>
+        <v>5.982553334307131e-05</v>
       </c>
       <c r="E187">
-        <v>0.0001272076179874579</v>
+        <v>1.421056505271197e-05</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188">
-        <v>8.568761305686445e-05</v>
+        <v>7.489755540496859e-06</v>
       </c>
       <c r="B188">
-        <v>0.0004517014483981875</v>
+        <v>0.000760593943069288</v>
       </c>
       <c r="C188">
-        <v>0.9922924764486073</v>
+        <v>0.9877714731032697</v>
       </c>
       <c r="D188">
-        <v>0.006973549540528809</v>
+        <v>0.01144454598407402</v>
       </c>
       <c r="E188">
-        <v>0.0001965849494086366</v>
+        <v>1.589721404654251e-05</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189">
-        <v>0.0001367875154076832</v>
+        <v>8.002954364017525e-05</v>
       </c>
       <c r="B189">
-        <v>0.009011220016837006</v>
+        <v>0.02441227079172918</v>
       </c>
       <c r="C189">
-        <v>0.9900343908856668</v>
+        <v>0.9745981552709818</v>
       </c>
       <c r="D189">
-        <v>0.0002348858402602263</v>
+        <v>0.0007295907810653642</v>
       </c>
       <c r="E189">
-        <v>0.0005827157418282931</v>
+        <v>0.0001799536125835117</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190">
-        <v>0.0001023533109195376</v>
+        <v>2.585936174382725e-05</v>
       </c>
       <c r="B190">
-        <v>0.0004371168182088866</v>
+        <v>0.0007510907421880279</v>
       </c>
       <c r="C190">
-        <v>0.5369259932307647</v>
+        <v>0.7578024373152624</v>
       </c>
       <c r="D190">
-        <v>0.4624403375719495</v>
+        <v>0.2413657253676615</v>
       </c>
       <c r="E190">
-        <v>9.419906815713033e-05</v>
+        <v>5.488721314411862e-05</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191">
-        <v>0.0002036503146560957</v>
+        <v>9.166107845084857e-06</v>
       </c>
       <c r="B191">
-        <v>0.0002104824405612865</v>
+        <v>0.0004172328234114309</v>
       </c>
       <c r="C191">
-        <v>0.995690871010081</v>
+        <v>0.9994683945217732</v>
       </c>
       <c r="D191">
-        <v>5.358685970585089e-05</v>
+        <v>8.996285004276832e-05</v>
       </c>
       <c r="E191">
-        <v>0.003841409374995923</v>
+        <v>1.524369692747987e-05</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192">
-        <v>3.558762603233134e-06</v>
+        <v>4.94884851943682e-08</v>
       </c>
       <c r="B192">
-        <v>4.610722897486333e-06</v>
+        <v>3.93414498062108e-07</v>
       </c>
       <c r="C192">
-        <v>0.05181840667683814</v>
+        <v>0.0005953244407849582</v>
       </c>
       <c r="D192">
-        <v>3.242310697048181e-06</v>
+        <v>4.623894973652508e-07</v>
       </c>
       <c r="E192">
-        <v>0.9481701815269642</v>
+        <v>0.9994037702667344</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193">
-        <v>0.0001326144742853256</v>
+        <v>2.31602965046124e-05</v>
       </c>
       <c r="B193">
-        <v>0.316070311163858</v>
+        <v>0.8506529876567219</v>
       </c>
       <c r="C193">
-        <v>0.683181136045707</v>
+        <v>0.1490605999825109</v>
       </c>
       <c r="D193">
-        <v>0.0003752535897557404</v>
+        <v>0.0002111412616880515</v>
       </c>
       <c r="E193">
-        <v>0.000240684726394038</v>
+        <v>5.211080257443229e-05</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194">
-        <v>0.0001970378910867015</v>
+        <v>1.198428433284011e-05</v>
       </c>
       <c r="B194">
-        <v>0.0005704937480698158</v>
+        <v>0.001158855469680417</v>
       </c>
       <c r="C194">
-        <v>0.9989447730318302</v>
+        <v>0.998728095630568</v>
       </c>
       <c r="D194">
-        <v>0.0001370137623473206</v>
+        <v>8.167603555609032e-05</v>
       </c>
       <c r="E194">
-        <v>0.0001506815666661414</v>
+        <v>1.938857986277624e-05</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195">
-        <v>0.0001202385441440523</v>
+        <v>8.10999458576091e-06</v>
       </c>
       <c r="B195">
-        <v>0.5834164968058426</v>
+        <v>0.9447507857130121</v>
       </c>
       <c r="C195">
-        <v>0.4149617269322561</v>
+        <v>0.05511402477069766</v>
       </c>
       <c r="D195">
-        <v>0.00128858108189159</v>
+        <v>0.0001088319864600461</v>
       </c>
       <c r="E195">
-        <v>0.0002129566358659892</v>
+        <v>1.824753524438417e-05</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196">
-        <v>3.66254578303054e-05</v>
+        <v>7.076196506443199e-06</v>
       </c>
       <c r="B196">
-        <v>5.325485498731608e-05</v>
+        <v>0.0006705656229988508</v>
       </c>
       <c r="C196">
-        <v>0.9998421571820001</v>
+        <v>0.9992360201583163</v>
       </c>
       <c r="D196">
-        <v>4.158700960183832e-05</v>
+        <v>7.456995259379707e-05</v>
       </c>
       <c r="E196">
-        <v>2.637549558013907e-05</v>
+        <v>1.176806958488424e-05</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197">
-        <v>0.0001482520525886925</v>
+        <v>1.128914190802114e-05</v>
       </c>
       <c r="B197">
-        <v>0.003591870368311371</v>
+        <v>0.0007172048362335547</v>
       </c>
       <c r="C197">
-        <v>0.8352508473240891</v>
+        <v>0.9991050265155574</v>
       </c>
       <c r="D197">
-        <v>0.0005381711026920363</v>
+        <v>0.0001410948573709218</v>
       </c>
       <c r="E197">
-        <v>0.160470859152319</v>
+        <v>2.538464892977957e-05</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198">
-        <v>4.497949872845889e-05</v>
+        <v>8.403898244378064e-06</v>
       </c>
       <c r="B198">
-        <v>0.04416200907648475</v>
+        <v>0.03344434923729252</v>
       </c>
       <c r="C198">
-        <v>0.9556164218407295</v>
+        <v>0.9664440687097157</v>
       </c>
       <c r="D198">
-        <v>0.0001515446429247834</v>
+        <v>8.836265190371274e-05</v>
       </c>
       <c r="E198">
-        <v>2.504494113276884e-05</v>
+        <v>1.481550284384624e-05</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199">
-        <v>5.205279516971857e-05</v>
+        <v>8.412298902056106e-06</v>
       </c>
       <c r="B199">
-        <v>7.214293946019552e-05</v>
+        <v>0.0005926597584404373</v>
       </c>
       <c r="C199">
-        <v>0.9998141427151113</v>
+        <v>0.9993247135785815</v>
       </c>
       <c r="D199">
-        <v>2.50628349701686e-05</v>
+        <v>6.02242892163016e-05</v>
       </c>
       <c r="E199">
-        <v>3.659871528854596e-05</v>
+        <v>1.399007485986303e-05</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200">
-        <v>8.650344859234029e-06</v>
+        <v>1.381919853491092e-06</v>
       </c>
       <c r="B200">
-        <v>3.520858394676399e-05</v>
+        <v>4.274515887773347e-05</v>
       </c>
       <c r="C200">
-        <v>0.9998245011747581</v>
+        <v>0.9998552846273023</v>
       </c>
       <c r="D200">
-        <v>0.0001191416005658782</v>
+        <v>9.765513071638354e-05</v>
       </c>
       <c r="E200">
-        <v>1.249829587053695e-05</v>
+        <v>2.933163250433301e-06</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201">
-        <v>0.000175918536369567</v>
+        <v>5.162243647899491e-06</v>
       </c>
       <c r="B201">
-        <v>0.0003831036338440057</v>
+        <v>0.0005001972995061973</v>
       </c>
       <c r="C201">
-        <v>0.9990170172649107</v>
+        <v>0.9994346798158349</v>
       </c>
       <c r="D201">
-        <v>0.0002884792206511494</v>
+        <v>5.178786871486806e-05</v>
       </c>
       <c r="E201">
-        <v>0.0001354813442244771</v>
+        <v>8.172772296225278e-06</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202">
-        <v>0.0001732917297389391</v>
+        <v>2.994264918916221e-05</v>
       </c>
       <c r="B202">
-        <v>0.003332273011712614</v>
+        <v>0.001631366589396792</v>
       </c>
       <c r="C202">
-        <v>0.9954577859958148</v>
+        <v>0.9980898996181996</v>
       </c>
       <c r="D202">
-        <v>0.0004213534256193996</v>
+        <v>0.0002095013729691818</v>
       </c>
       <c r="E202">
-        <v>0.0006152958371141858</v>
+        <v>3.928977024534884e-05</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203">
-        <v>0.0001772103032696144</v>
+        <v>3.933803074549238e-05</v>
       </c>
       <c r="B203">
-        <v>0.007282734526838393</v>
+        <v>0.01194134516597375</v>
       </c>
       <c r="C203">
-        <v>0.9913060465774943</v>
+        <v>0.9875702997999928</v>
       </c>
       <c r="D203">
-        <v>0.0004596187486901522</v>
+        <v>0.0003586258682945826</v>
       </c>
       <c r="E203">
-        <v>0.0007743898437072809</v>
+        <v>9.039113499356562e-05</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204">
-        <v>5.03907045339921e-05</v>
+        <v>5.808072734996084e-06</v>
       </c>
       <c r="B204">
-        <v>7.906554651156654e-05</v>
+        <v>0.0004684423373747624</v>
       </c>
       <c r="C204">
-        <v>0.9966313864748853</v>
+        <v>0.9994406597878377</v>
       </c>
       <c r="D204">
-        <v>8.754664897460987e-05</v>
+        <v>7.275424282078853e-05</v>
       </c>
       <c r="E204">
-        <v>0.003151610625094692</v>
+        <v>1.233555923194277e-05</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205">
-        <v>6.517449001001666e-05</v>
+        <v>1.102513054906784e-05</v>
       </c>
       <c r="B205">
-        <v>0.7227035602544498</v>
+        <v>0.9576649185425056</v>
       </c>
       <c r="C205">
-        <v>0.2769080991160284</v>
+        <v>0.04215129809608697</v>
       </c>
       <c r="D205">
-        <v>0.0002440092285759076</v>
+        <v>0.0001479516226488102</v>
       </c>
       <c r="E205">
-        <v>7.915691093573288e-05</v>
+        <v>2.48066082092429e-05</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206">
-        <v>0.0001733002446707005</v>
+        <v>6.394091306224756e-05</v>
       </c>
       <c r="B206">
-        <v>0.003287637621704069</v>
+        <v>0.003811236835911126</v>
       </c>
       <c r="C206">
-        <v>0.9955066992078403</v>
+        <v>0.9955935421776291</v>
       </c>
       <c r="D206">
-        <v>0.0004544309126716217</v>
+        <v>0.0004473788872459738</v>
       </c>
       <c r="E206">
-        <v>0.0005779320131132864</v>
+        <v>8.390118615165283e-05</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207">
-        <v>7.936665174174766e-05</v>
+        <v>9.892429521780192e-07</v>
       </c>
       <c r="B207">
-        <v>0.002808861340207337</v>
+        <v>0.0002880475971897922</v>
       </c>
       <c r="C207">
-        <v>0.9967311525540393</v>
+        <v>0.9996955571387257</v>
       </c>
       <c r="D207">
-        <v>0.0002866518531506729</v>
+        <v>1.33050031892418e-05</v>
       </c>
       <c r="E207">
-        <v>9.396760086093039e-05</v>
+        <v>2.101017943154618e-06</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208">
-        <v>2.30936784455792e-05</v>
+        <v>6.070741565133235e-07</v>
       </c>
       <c r="B208">
-        <v>0.000246105516578354</v>
+        <v>0.0003233090393448428</v>
       </c>
       <c r="C208">
-        <v>0.9996852443093555</v>
+        <v>0.9996690319760079</v>
       </c>
       <c r="D208">
-        <v>3.783845726735604e-05</v>
+        <v>6.090196213519246e-06</v>
       </c>
       <c r="E208">
-        <v>7.718038353602781e-06</v>
+        <v>9.617142769482809e-07</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209">
-        <v>0.0001231673775504327</v>
+        <v>6.681605236914018e-06</v>
       </c>
       <c r="B209">
-        <v>0.006384643552081393</v>
+        <v>0.001327121969571274</v>
       </c>
       <c r="C209">
-        <v>0.9925326222042036</v>
+        <v>0.9985913796647693</v>
       </c>
       <c r="D209">
-        <v>0.0003194511543894191</v>
+        <v>6.091297490697338e-05</v>
       </c>
       <c r="E209">
-        <v>0.0006401157117750485</v>
+        <v>1.390378551597203e-05</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210">
-        <v>1.249888248092659e-06</v>
+        <v>4.398394985663134e-08</v>
       </c>
       <c r="B210">
-        <v>3.061887457521849e-05</v>
+        <v>2.427963343608717e-06</v>
       </c>
       <c r="C210">
-        <v>0.003929949392564427</v>
+        <v>0.000346537879145331</v>
       </c>
       <c r="D210">
-        <v>4.537230513657991e-06</v>
+        <v>5.497237241053519e-07</v>
       </c>
       <c r="E210">
-        <v>0.9960336446140984</v>
+        <v>0.9996504404498366</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211">
-        <v>0.0001552992901467096</v>
+        <v>9.277961000257213e-06</v>
       </c>
       <c r="B211">
-        <v>0.0028270119578084</v>
+        <v>0.001817264391757382</v>
       </c>
       <c r="C211">
-        <v>0.9966645852588638</v>
+        <v>0.9980656827571307</v>
       </c>
       <c r="D211">
-        <v>0.0003034766937508494</v>
+        <v>9.307693688934971e-05</v>
       </c>
       <c r="E211">
-        <v>4.962679943002197e-05</v>
+        <v>1.469795322232744e-05</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212">
-        <v>1.941068932537978e-05</v>
+        <v>6.283079685227018e-06</v>
       </c>
       <c r="B212">
-        <v>0.0169444443350176</v>
+        <v>0.02460678966035625</v>
       </c>
       <c r="C212">
-        <v>0.982699351887353</v>
+        <v>0.9752895288130763</v>
       </c>
       <c r="D212">
-        <v>0.0002478916743137182</v>
+        <v>8.431572129907417e-05</v>
       </c>
       <c r="E212">
-        <v>8.890141399034486e-05</v>
+        <v>1.308272558286412e-05</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213">
-        <v>7.424352848513302e-06</v>
+        <v>4.396767299416891e-08</v>
       </c>
       <c r="B213">
-        <v>0.0003125068953584256</v>
+        <v>1.759413859892951e-06</v>
       </c>
       <c r="C213">
-        <v>0.01112100628622104</v>
+        <v>0.0007171409717169662</v>
       </c>
       <c r="D213">
-        <v>2.499069101910027e-05</v>
+        <v>5.495202913195571e-07</v>
       </c>
       <c r="E213">
-        <v>0.9885340717745524</v>
+        <v>0.9992805061264586</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214">
-        <v>8.349142919066623e-05</v>
+        <v>1.934628248193513e-05</v>
       </c>
       <c r="B214">
-        <v>0.002249534713448963</v>
+        <v>0.0009233181774361288</v>
       </c>
       <c r="C214">
-        <v>0.9970279473373534</v>
+        <v>0.9988965887836668</v>
       </c>
       <c r="D214">
-        <v>0.000276140823148425</v>
+        <v>0.0001353611938679779</v>
       </c>
       <c r="E214">
-        <v>0.000362885696858537</v>
+        <v>2.538556254708323e-05</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215">
-        <v>6.957436566330472e-05</v>
+        <v>7.565103442585441e-06</v>
       </c>
       <c r="B215">
-        <v>0.0004814430180014211</v>
+        <v>0.0003696483576444191</v>
       </c>
       <c r="C215">
-        <v>0.9849522178309742</v>
+        <v>0.9880470498112086</v>
       </c>
       <c r="D215">
-        <v>0.01438899622933164</v>
+        <v>0.01155967958564402</v>
       </c>
       <c r="E215">
-        <v>0.0001077685560295357</v>
+        <v>1.605714206034529e-05</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216">
-        <v>9.93681345557249e-06</v>
+        <v>1.185273396026374e-06</v>
       </c>
       <c r="B216">
-        <v>6.403362412219743e-05</v>
+        <v>0.0002017246098542365</v>
       </c>
       <c r="C216">
-        <v>0.9999133293199597</v>
+        <v>0.999783393539564</v>
       </c>
       <c r="D216">
-        <v>9.39425725513073e-06</v>
+        <v>1.16070205462599e-05</v>
       </c>
       <c r="E216">
-        <v>3.305985208072907e-06</v>
+        <v>2.089556638945674e-06</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217">
-        <v>0.0003096479721736257</v>
+        <v>3.220118579999101e-05</v>
       </c>
       <c r="B217">
-        <v>0.0242388037239271</v>
+        <v>0.01315604083192514</v>
       </c>
       <c r="C217">
-        <v>0.9710563503574549</v>
+        <v>0.9863072272536845</v>
       </c>
       <c r="D217">
-        <v>0.003038145033007195</v>
+        <v>0.0004321234718374652</v>
       </c>
       <c r="E217">
-        <v>0.001357052913437145</v>
+        <v>7.24072567530209e-05</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218">
-        <v>0.0001214648970481703</v>
+        <v>1.530844502380367e-05</v>
       </c>
       <c r="B218">
-        <v>0.0005945223835011212</v>
+        <v>0.0008620333846710376</v>
       </c>
       <c r="C218">
-        <v>0.9983202296467749</v>
+        <v>0.9988079672085528</v>
       </c>
       <c r="D218">
-        <v>0.0009052628778966105</v>
+        <v>0.0002904396409223136</v>
       </c>
       <c r="E218">
-        <v>5.852019477947952e-05</v>
+        <v>2.425132083010479e-05</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219">
-        <v>5.829962458690224e-05</v>
+        <v>2.689487955270456e-07</v>
       </c>
       <c r="B219">
-        <v>0.0005366662363694434</v>
+        <v>1.389876610757493e-05</v>
       </c>
       <c r="C219">
-        <v>0.0145821932861693</v>
+        <v>0.001836457511487651</v>
       </c>
       <c r="D219">
-        <v>0.9848089476112958</v>
+        <v>0.9981487700181013</v>
       </c>
       <c r="E219">
-        <v>1.389324157856159e-05</v>
+        <v>6.047555084492557e-07</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220">
-        <v>0.0001224841470739506</v>
+        <v>1.704537218990066e-05</v>
       </c>
       <c r="B220">
-        <v>0.0003703776957794065</v>
+        <v>0.0007282172566378126</v>
       </c>
       <c r="C220">
-        <v>0.9991483360083605</v>
+        <v>0.9991144830375032</v>
       </c>
       <c r="D220">
-        <v>0.0001945496681486291</v>
+        <v>0.0001195306183452939</v>
       </c>
       <c r="E220">
-        <v>0.0001642524806375569</v>
+        <v>2.072371532362256e-05</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221">
-        <v>0.0001449446035013066</v>
+        <v>7.652788568637683e-06</v>
       </c>
       <c r="B221">
-        <v>0.001000268066152894</v>
+        <v>0.0003739328546220279</v>
       </c>
       <c r="C221">
-        <v>0.9980067822267831</v>
+        <v>0.9994992435274962</v>
       </c>
       <c r="D221">
-        <v>0.0006238377990426368</v>
+        <v>0.0001029275731387717</v>
       </c>
       <c r="E221">
-        <v>0.000224167304520099</v>
+        <v>1.624325617448607e-05</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222">
-        <v>7.051440233696893e-05</v>
+        <v>6.543626808921234e-06</v>
       </c>
       <c r="B222">
-        <v>0.002827155952530807</v>
+        <v>0.004987483824025598</v>
       </c>
       <c r="C222">
-        <v>0.9967153506756459</v>
+        <v>0.9949040650726664</v>
       </c>
       <c r="D222">
-        <v>0.0003034921514294606</v>
+        <v>8.800970011483881e-05</v>
       </c>
       <c r="E222">
-        <v>8.348681805688403e-05</v>
+        <v>1.389777638403335e-05</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223">
-        <v>6.453858137667882e-06</v>
+        <v>9.037925504810265e-07</v>
       </c>
       <c r="B223">
-        <v>0.0001891136090780996</v>
+        <v>2.827738556952531e-05</v>
       </c>
       <c r="C223">
-        <v>0.9997936631075975</v>
+        <v>0.9999617056781237</v>
       </c>
       <c r="D223">
-        <v>7.252332018242476e-06</v>
+        <v>7.681374358439933e-06</v>
       </c>
       <c r="E223">
-        <v>3.517093168288195e-06</v>
+        <v>1.43176939731584e-06</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224">
-        <v>0.0001397895768783092</v>
+        <v>2.780750732410278e-05</v>
       </c>
       <c r="B224">
-        <v>0.6782812101800408</v>
+        <v>0.4806793424469808</v>
       </c>
       <c r="C224">
-        <v>0.3198443777789559</v>
+        <v>0.518857120441542</v>
       </c>
       <c r="D224">
-        <v>0.001498106996332334</v>
+        <v>0.00037316255005865</v>
       </c>
       <c r="E224">
-        <v>0.0002365154677925727</v>
+        <v>6.256705409470106e-05</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225">
-        <v>0.0001213364752178567</v>
+        <v>5.484567516243825e-06</v>
       </c>
       <c r="B225">
-        <v>0.002241714132884296</v>
+        <v>0.0003917768565690644</v>
       </c>
       <c r="C225">
-        <v>0.9972647303688275</v>
+        <v>0.999539028601131</v>
       </c>
       <c r="D225">
-        <v>0.0003115143738158675</v>
+        <v>5.502143677480987e-05</v>
       </c>
       <c r="E225">
-        <v>6.070464925461924e-05</v>
+        <v>8.68853800918257e-06</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226">
-        <v>0.0002043998779129897</v>
+        <v>0.0001654937778502367</v>
       </c>
       <c r="B226">
-        <v>0.007287127203181656</v>
+        <v>0.01010434839256489</v>
       </c>
       <c r="C226">
-        <v>0.9909024927715482</v>
+        <v>0.9883550829013062</v>
       </c>
       <c r="D226">
-        <v>0.0006760352659604546</v>
+        <v>0.001157919376420126</v>
       </c>
       <c r="E226">
-        <v>0.0009299448813964667</v>
+        <v>0.0002171555518582533</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227">
-        <v>8.178303312645141e-05</v>
+        <v>1.8540303129536e-05</v>
       </c>
       <c r="B227">
-        <v>0.04923635239366195</v>
+        <v>0.0818472848414729</v>
       </c>
       <c r="C227">
-        <v>0.9505322963383318</v>
+        <v>0.9179683406854017</v>
       </c>
       <c r="D227">
-        <v>7.946627514797133e-05</v>
+        <v>0.0001324334801691093</v>
       </c>
       <c r="E227">
-        <v>7.010195973168418e-05</v>
+        <v>3.34006898266315e-05</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228">
-        <v>0.0001394161251108122</v>
+        <v>4.423774850802621e-05</v>
       </c>
       <c r="B228">
-        <v>0.007621025630553572</v>
+        <v>0.008591738537353275</v>
       </c>
       <c r="C228">
-        <v>0.9900633398784686</v>
+        <v>0.9906709031680636</v>
       </c>
       <c r="D228">
-        <v>0.001780467251869421</v>
+        <v>0.0005936479976326298</v>
       </c>
       <c r="E228">
-        <v>0.0003957511139974108</v>
+        <v>9.94725484425209e-05</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229">
-        <v>0.0002392474127645659</v>
+        <v>1.14192933622866e-05</v>
       </c>
       <c r="B229">
-        <v>0.003095684394007369</v>
+        <v>0.005839034876366714</v>
       </c>
       <c r="C229">
-        <v>0.854610790414697</v>
+        <v>0.9939860249408866</v>
       </c>
       <c r="D229">
-        <v>0.0001751080801438577</v>
+        <v>0.0001378435832264764</v>
       </c>
       <c r="E229">
-        <v>0.1418791696983875</v>
+        <v>2.567730615750754e-05</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230">
-        <v>9.918810911494412e-05</v>
+        <v>1.963008183998799e-05</v>
       </c>
       <c r="B230">
-        <v>0.002786163799461138</v>
+        <v>0.0004386171738195154</v>
       </c>
       <c r="C230">
-        <v>0.9877366874014919</v>
+        <v>0.9991492203897271</v>
       </c>
       <c r="D230">
-        <v>0.0003280562611401365</v>
+        <v>0.0001373468683747402</v>
       </c>
       <c r="E230">
-        <v>0.009049904428791963</v>
+        <v>0.0002551854862387611</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231">
-        <v>3.662580073824526e-05</v>
+        <v>6.662868469923375e-06</v>
       </c>
       <c r="B231">
-        <v>5.325535358893616e-05</v>
+        <v>9.159933529960586e-05</v>
       </c>
       <c r="C231">
-        <v>0.9998515182612768</v>
+        <v>0.9998204428681989</v>
       </c>
       <c r="D231">
-        <v>4.158739896258988e-05</v>
+        <v>7.021424369553432e-05</v>
       </c>
       <c r="E231">
-        <v>1.701318543290295e-05</v>
+        <v>1.108068433622421e-05</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232">
-        <v>3.815000934266243e-05</v>
+        <v>1.831613868805232e-05</v>
       </c>
       <c r="B232">
-        <v>0.2716876030784521</v>
+        <v>0.687752717138634</v>
       </c>
       <c r="C232">
-        <v>0.7280491559602517</v>
+        <v>0.3119419620743593</v>
       </c>
       <c r="D232">
-        <v>0.000154487560675548</v>
+        <v>0.0002457932291592782</v>
       </c>
       <c r="E232">
-        <v>7.060339127813617e-05</v>
+        <v>4.121141915903074e-05</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233">
-        <v>0.0002029604491142738</v>
+        <v>9.513285945015475e-06</v>
       </c>
       <c r="B233">
-        <v>0.000209769431189575</v>
+        <v>0.0004464742420687832</v>
       </c>
       <c r="C233">
-        <v>0.9923179676910933</v>
+        <v>0.9994348210920101</v>
       </c>
       <c r="D233">
-        <v>5.340533419204092e-05</v>
+        <v>9.33703084613314e-05</v>
       </c>
       <c r="E233">
-        <v>0.007215897094411198</v>
+        <v>1.582107151488872e-05</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234">
-        <v>9.500805335281384e-06</v>
+        <v>4.692063657083915e-07</v>
       </c>
       <c r="B234">
-        <v>0.001487899679088512</v>
+        <v>0.0004107662003110626</v>
       </c>
       <c r="C234">
-        <v>0.9984534521368504</v>
+        <v>0.9995830656370654</v>
       </c>
       <c r="D234">
-        <v>3.201005330728873e-05</v>
+        <v>4.933462728660773e-06</v>
       </c>
       <c r="E234">
-        <v>1.713732541818311e-05</v>
+        <v>7.654935290586863e-07</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235">
-        <v>0.000106475704020773</v>
+        <v>1.108708720483221e-05</v>
       </c>
       <c r="B235">
-        <v>0.0007783569944632332</v>
+        <v>0.0009574855448382998</v>
       </c>
       <c r="C235">
-        <v>0.9847109623777488</v>
+        <v>0.9988690134274505</v>
       </c>
       <c r="D235">
-        <v>0.0001981712078556961</v>
+        <v>0.0001388812901421359</v>
       </c>
       <c r="E235">
-        <v>0.01420603371591147</v>
+        <v>2.353265036420773e-05</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236">
-        <v>2.494835495019404e-07</v>
+        <v>2.949603745825324e-07</v>
       </c>
       <c r="B236">
-        <v>4.931619594525101e-06</v>
+        <v>1.628436118130083e-05</v>
       </c>
       <c r="C236">
-        <v>0.000120711092879602</v>
+        <v>0.001090059812290075</v>
       </c>
       <c r="D236">
-        <v>0.9998734305862715</v>
+        <v>0.9988926976212754</v>
       </c>
       <c r="E236">
-        <v>6.772177045676924e-07</v>
+        <v>6.632448788383007e-07</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237">
-        <v>2.761930240466289e-05</v>
+        <v>1.242779060377237e-06</v>
       </c>
       <c r="B237">
-        <v>0.02773729263858512</v>
+        <v>0.002517198813286198</v>
       </c>
       <c r="C237">
-        <v>0.9720615382756521</v>
+        <v>0.9974676408561292</v>
       </c>
       <c r="D237">
-        <v>8.536393230153586e-05</v>
+        <v>1.132981776616214e-05</v>
       </c>
       <c r="E237">
-        <v>8.8185851056671e-05</v>
+        <v>2.587733758219497e-06</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238">
-        <v>5.253645443909077e-05</v>
+        <v>3.874953283821025e-08</v>
       </c>
       <c r="B238">
-        <v>0.003366120651997991</v>
+        <v>6.649878149416302e-06</v>
       </c>
       <c r="C238">
-        <v>0.09834503555019977</v>
+        <v>0.0001945118972519075</v>
       </c>
       <c r="D238">
-        <v>0.0001090956547952858</v>
+        <v>4.84302514180681e-07</v>
       </c>
       <c r="E238">
-        <v>0.8981272116885677</v>
+        <v>0.9997983151725522</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239">
-        <v>7.25555179942921e-07</v>
+        <v>1.253100622647979e-07</v>
       </c>
       <c r="B239">
-        <v>3.12714473051968e-06</v>
+        <v>3.705031657423376e-06</v>
       </c>
       <c r="C239">
-        <v>0.003806124414879254</v>
+        <v>0.003672181531203435</v>
       </c>
       <c r="D239">
-        <v>0.9961893239373087</v>
+        <v>0.9963237209599182</v>
       </c>
       <c r="E239">
-        <v>6.989479017834451e-07</v>
+        <v>2.671671587937059e-07</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240">
-        <v>3.662571491008794e-05</v>
+        <v>6.96269948302521e-06</v>
       </c>
       <c r="B240">
-        <v>4.762792025325003e-05</v>
+        <v>0.0001256994388671252</v>
       </c>
       <c r="C240">
-        <v>0.9998491752295422</v>
+        <v>0.9997731890164403</v>
       </c>
       <c r="D240">
-        <v>4.955798972928627e-05</v>
+        <v>8.25695268652975e-05</v>
       </c>
       <c r="E240">
-        <v>1.701314556454984e-05</v>
+        <v>1.157931834429278e-05</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241">
-        <v>0.0003459635525662109</v>
+        <v>2.902179063951218e-05</v>
       </c>
       <c r="B241">
-        <v>0.01952589071819955</v>
+        <v>0.007377506324848198</v>
       </c>
       <c r="C241">
-        <v>0.9777190194614824</v>
+        <v>0.9922622077816566</v>
       </c>
       <c r="D241">
-        <v>0.0008973029907914322</v>
+        <v>0.0002645776789106624</v>
       </c>
       <c r="E241">
-        <v>0.001511823276960114</v>
+        <v>6.668642394489313e-05</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242">
-        <v>0.0007085175832449703</v>
+        <v>3.413312021392512e-05</v>
       </c>
       <c r="B242">
-        <v>0.200523735274252</v>
+        <v>0.9604315820199737</v>
       </c>
       <c r="C242">
-        <v>0.7965612796309582</v>
+        <v>0.03922269487906355</v>
       </c>
       <c r="D242">
-        <v>0.001500786714284481</v>
+        <v>0.0002639632570350719</v>
       </c>
       <c r="E242">
-        <v>0.0007056807972603341</v>
+        <v>4.762672371384481e-05</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243">
-        <v>0.0001204830941233964</v>
+        <v>6.643936034094868e-06</v>
       </c>
       <c r="B243">
-        <v>0.6518248493044383</v>
+        <v>0.9553963013512892</v>
       </c>
       <c r="C243">
-        <v>0.3468343624693954</v>
+        <v>0.04449294758849551</v>
       </c>
       <c r="D243">
-        <v>0.001071680192773935</v>
+        <v>8.915822925129407e-05</v>
       </c>
       <c r="E243">
-        <v>0.0001486249392689721</v>
+        <v>1.494889492977452e-05</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244">
-        <v>0.0004244067422076315</v>
+        <v>8.128784221723658e-06</v>
       </c>
       <c r="B244">
-        <v>0.04268580653164503</v>
+        <v>0.00390785197296727</v>
       </c>
       <c r="C244">
-        <v>0.9559162130073622</v>
+        <v>0.9959641336089048</v>
       </c>
       <c r="D244">
-        <v>0.0007500872187384913</v>
+        <v>0.0001015958218709418</v>
       </c>
       <c r="E244">
-        <v>0.0002234865000466654</v>
+        <v>1.82898120351802e-05</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245">
-        <v>7.025107174866385e-06</v>
+        <v>1.420069596513208e-06</v>
       </c>
       <c r="B245">
-        <v>3.829691320139852e-05</v>
+        <v>4.835801079351874e-05</v>
       </c>
       <c r="C245">
-        <v>0.9996981707686999</v>
+        <v>0.9996382737448659</v>
       </c>
       <c r="D245">
-        <v>0.0002458829193350254</v>
+        <v>0.0003089340376047955</v>
       </c>
       <c r="E245">
-        <v>1.062429158923726e-05</v>
+        <v>3.014137139015375e-06</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246">
-        <v>0.0001824321262226755</v>
+        <v>9.59229556343815e-06</v>
       </c>
       <c r="B246">
-        <v>0.6445569860838143</v>
+        <v>0.09520928520678555</v>
       </c>
       <c r="C246">
-        <v>0.3529823712510372</v>
+        <v>0.9046308160678058</v>
       </c>
       <c r="D246">
-        <v>0.001955101737577275</v>
+        <v>0.0001287237087326508</v>
       </c>
       <c r="E246">
-        <v>0.0003231088013483928</v>
+        <v>2.158272111250307e-05</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247">
-        <v>3.803015846700979e-05</v>
+        <v>7.172275847380059e-06</v>
       </c>
       <c r="B247">
-        <v>0.0008136010586278956</v>
+        <v>0.004562973078548815</v>
       </c>
       <c r="C247">
-        <v>0.9986650731414991</v>
+        <v>0.9952321883363209</v>
       </c>
       <c r="D247">
-        <v>0.0004405903502949323</v>
+        <v>0.0001824333675520577</v>
       </c>
       <c r="E247">
-        <v>4.270529111121537e-05</v>
+        <v>1.523294173127274e-05</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248">
-        <v>0.004559085940231356</v>
+        <v>1.162528304927073e-05</v>
       </c>
       <c r="B248">
-        <v>0.0009690535096197705</v>
+        <v>0.0007442757470667243</v>
       </c>
       <c r="C248">
-        <v>0.9943119805255086</v>
+        <v>0.9991882500586899</v>
       </c>
       <c r="D248">
-        <v>7.413614237932687e-05</v>
+        <v>4.702910008252972e-05</v>
       </c>
       <c r="E248">
-        <v>8.574388226113453e-05</v>
+        <v>8.819811111022743e-06</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249">
-        <v>1.715843647156773e-05</v>
+        <v>4.105681192901541e-06</v>
       </c>
       <c r="B249">
-        <v>0.0001692367326228225</v>
+        <v>0.001018560435282297</v>
       </c>
       <c r="C249">
-        <v>0.9997639504265641</v>
+        <v>0.9989167821233847</v>
       </c>
       <c r="D249">
-        <v>4.137113994204076e-05</v>
+        <v>5.131395344683576e-05</v>
       </c>
       <c r="E249">
-        <v>8.283264399167757e-06</v>
+        <v>9.2378066936338e-06</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250">
-        <v>3.662580073824526e-05</v>
+        <v>6.962131702134367e-06</v>
       </c>
       <c r="B250">
-        <v>5.325535358893616e-05</v>
+        <v>0.0001298867878721293</v>
       </c>
       <c r="C250">
-        <v>0.9998515182612768</v>
+        <v>0.9996916614259872</v>
       </c>
       <c r="D250">
-        <v>4.158739896258988e-05</v>
+        <v>0.0001599112803422789</v>
       </c>
       <c r="E250">
-        <v>1.701318543290295e-05</v>
+        <v>1.157837409620324e-05</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251">
-        <v>2.15844690350814e-05</v>
+        <v>1.582551404900982e-05</v>
       </c>
       <c r="B251">
-        <v>0.0003263220996924517</v>
+        <v>0.0005112814932476607</v>
       </c>
       <c r="C251">
-        <v>0.9995461707980648</v>
+        <v>0.9990147541837567</v>
       </c>
       <c r="D251">
-        <v>8.666031985360752e-05</v>
+        <v>0.0004302570595734005</v>
       </c>
       <c r="E251">
-        <v>1.926231335365913e-05</v>
+        <v>2.788174937323425e-05</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252">
-        <v>6.333681262348187e-05</v>
+        <v>4.691239548056738e-07</v>
       </c>
       <c r="B252">
-        <v>0.0166378484087507</v>
+        <v>0.0005879146224071847</v>
       </c>
       <c r="C252">
-        <v>0.9831898947862981</v>
+        <v>0.9994074999397491</v>
       </c>
       <c r="D252">
-        <v>5.164436085238336e-05</v>
+        <v>3.350954810800122e-06</v>
       </c>
       <c r="E252">
-        <v>5.727563147520514e-05</v>
+        <v>7.653590785964474e-07</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253">
-        <v>6.517449001001666e-05</v>
+        <v>4.497332717157321e-06</v>
       </c>
       <c r="B253">
-        <v>0.7227035602544498</v>
+        <v>0.976715115638971</v>
       </c>
       <c r="C253">
-        <v>0.2769080991160284</v>
+        <v>0.0232099160946261</v>
       </c>
       <c r="D253">
-        <v>0.0002440092285759076</v>
+        <v>6.035190877184369e-05</v>
       </c>
       <c r="E253">
-        <v>7.915691093573288e-05</v>
+        <v>1.011902491354753e-05</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254">
-        <v>1.203028186348574e-05</v>
+        <v>4.094841174943858e-06</v>
       </c>
       <c r="B254">
-        <v>0.03603388701545266</v>
+        <v>0.1673762117353836</v>
       </c>
       <c r="C254">
-        <v>0.9638138004995973</v>
+        <v>0.8325555293290686</v>
       </c>
       <c r="D254">
-        <v>0.0001179379130067703</v>
+        <v>5.495067778343241e-05</v>
       </c>
       <c r="E254">
-        <v>2.234429007988237e-05</v>
+        <v>9.213416589837708e-06</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255">
-        <v>0.0001747937059061219</v>
+        <v>1.296918126519427e-05</v>
       </c>
       <c r="B255">
-        <v>0.002808692989171293</v>
+        <v>0.01004047529142491</v>
       </c>
       <c r="C255">
-        <v>0.9966714127869721</v>
+        <v>0.989795902589056</v>
       </c>
       <c r="D255">
-        <v>0.0002866346724747275</v>
+        <v>0.0001301074305112464</v>
       </c>
       <c r="E255">
-        <v>5.846584547570545e-05</v>
+        <v>2.054550774274932e-05</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256">
-        <v>8.589171921024197e-05</v>
+        <v>7.712513242116402e-06</v>
       </c>
       <c r="B256">
-        <v>0.0004527773920710078</v>
+        <v>0.0007302746029293984</v>
       </c>
       <c r="C256">
-        <v>0.9946560969670001</v>
+        <v>0.9874607171742272</v>
       </c>
       <c r="D256">
-        <v>0.004608289821534566</v>
+        <v>0.01178492568614937</v>
       </c>
       <c r="E256">
-        <v>0.0001969441001840941</v>
+        <v>1.637002345187148e-05</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257">
-        <v>1.921544370536174e-05</v>
+        <v>1.511532435598941e-05</v>
       </c>
       <c r="B257">
-        <v>0.01153200380085707</v>
+        <v>0.01553594940819682</v>
       </c>
       <c r="C257">
-        <v>0.9883614109335689</v>
+        <v>0.9842633581423904</v>
       </c>
       <c r="D257">
-        <v>7.714882839736071e-05</v>
+        <v>0.0001589298329942895</v>
       </c>
       <c r="E257">
-        <v>1.02209934713767e-05</v>
+        <v>2.664729206254125e-05</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258">
-        <v>6.630032861643387e-05</v>
+        <v>2.758932274129203e-05</v>
       </c>
       <c r="B258">
-        <v>0.001207973803224893</v>
+        <v>0.008415741143610172</v>
       </c>
       <c r="C258">
-        <v>0.9986011399725049</v>
+        <v>0.9913109913658861</v>
       </c>
       <c r="D258">
-        <v>3.57918372790332e-05</v>
+        <v>0.0001970706735812408</v>
       </c>
       <c r="E258">
-        <v>8.879405837466764e-05</v>
+        <v>4.860749418108832e-05</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259">
-        <v>4.581693035729479e-05</v>
+        <v>1.478081118598099e-06</v>
       </c>
       <c r="B259">
-        <v>0.04869843443738536</v>
+        <v>0.002978844323030723</v>
       </c>
       <c r="C259">
-        <v>0.9505018586139914</v>
+        <v>0.9969967648185938</v>
       </c>
       <c r="D259">
-        <v>0.0004910141761033202</v>
+        <v>1.983509391837965e-05</v>
       </c>
       <c r="E259">
-        <v>0.0002628758421626132</v>
+        <v>3.077683338840718e-06</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260">
-        <v>3.66256278075683e-05</v>
+        <v>6.204710278921548e-06</v>
       </c>
       <c r="B260">
-        <v>4.921116995889089e-05</v>
+        <v>0.0002934824902392488</v>
       </c>
       <c r="C260">
-        <v>0.9998467974088597</v>
+        <v>0.9996246079468557</v>
       </c>
       <c r="D260">
-        <v>4.955787187149744e-05</v>
+        <v>6.53861083332168e-05</v>
       </c>
       <c r="E260">
-        <v>1.780792150176643e-05</v>
+        <v>1.031874429291353e-05</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261">
-        <v>1.200303995746702e-05</v>
+        <v>2.230644994763899e-05</v>
       </c>
       <c r="B261">
-        <v>6.653640918132045e-05</v>
+        <v>0.0009611804103032622</v>
       </c>
       <c r="C261">
-        <v>0.07380554643476954</v>
+        <v>0.9985620103079221</v>
       </c>
       <c r="D261">
-        <v>8.595223813590291e-06</v>
+        <v>0.0004043447768210015</v>
       </c>
       <c r="E261">
-        <v>0.9261073188922785</v>
+        <v>5.015805500577425e-05</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262">
-        <v>0.0001193700874970857</v>
+        <v>1.373488461056184e-06</v>
       </c>
       <c r="B262">
-        <v>0.002241625697436534</v>
+        <v>0.0001034305576023678</v>
       </c>
       <c r="C262">
-        <v>0.9972253883529676</v>
+        <v>0.9998738058674974</v>
       </c>
       <c r="D262">
-        <v>0.0003115020845981083</v>
+        <v>1.847298311754946e-05</v>
       </c>
       <c r="E262">
-        <v>0.00010211377750095</v>
+        <v>2.917103321324006e-06</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263">
-        <v>7.936665174174766e-05</v>
+        <v>9.673675458139689e-06</v>
       </c>
       <c r="B263">
-        <v>0.002808861340207337</v>
+        <v>0.01004050838029868</v>
       </c>
       <c r="C263">
-        <v>0.9967311525540393</v>
+        <v>0.989799164509505</v>
       </c>
       <c r="D263">
-        <v>0.0002866518531506729</v>
+        <v>0.0001301078592866002</v>
       </c>
       <c r="E263">
-        <v>9.396760086093039e-05</v>
+        <v>2.05455754514675e-05</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264">
-        <v>8.204072802782498e-05</v>
+        <v>5.998650173616284e-06</v>
       </c>
       <c r="B264">
-        <v>0.003676973605915203</v>
+        <v>0.000527219009227768</v>
       </c>
       <c r="C264">
-        <v>0.9944388283534837</v>
+        <v>0.9993738008971846</v>
       </c>
       <c r="D264">
-        <v>0.001047732674086062</v>
+        <v>8.049882248007806e-05</v>
       </c>
       <c r="E264">
-        <v>0.0007544246384871702</v>
+        <v>1.248262093344359e-05</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265">
-        <v>6.985782012678334e-05</v>
+        <v>1.24622616235934e-05</v>
       </c>
       <c r="B265">
-        <v>0.692782558370503</v>
+        <v>0.895844257575378</v>
       </c>
       <c r="C265">
-        <v>0.3067510676814656</v>
+        <v>0.103948002813583</v>
       </c>
       <c r="D265">
-        <v>0.0003116711334125761</v>
+        <v>0.000167237187884413</v>
       </c>
       <c r="E265">
-        <v>8.484499449232934e-05</v>
+        <v>2.804016153112148e-05</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266">
-        <v>0.2483964776577412</v>
+        <v>0.006441368615557969</v>
       </c>
       <c r="B266">
-        <v>0.05022107907084589</v>
+        <v>0.006194795987043362</v>
       </c>
       <c r="C266">
-        <v>0.696284467686886</v>
+        <v>0.9870820826491908</v>
       </c>
       <c r="D266">
-        <v>0.001155966362996722</v>
+        <v>0.0002364403363401847</v>
       </c>
       <c r="E266">
-        <v>0.003942009221530197</v>
+        <v>4.531241186775438e-05</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267">
-        <v>5.637492118955193e-05</v>
+        <v>6.298707113158917e-06</v>
       </c>
       <c r="B267">
-        <v>0.002000273236653873</v>
+        <v>0.0004480191358356771</v>
       </c>
       <c r="C267">
-        <v>0.997509213670119</v>
+        <v>0.9994751528689015</v>
       </c>
       <c r="D267">
-        <v>0.000174239916903798</v>
+        <v>5.742227724118404e-05</v>
       </c>
       <c r="E267">
-        <v>0.0002598982551335765</v>
+        <v>1.310701090891398e-05</v>
       </c>
     </row>
   </sheetData>

--- a/SSubmit.xlsx
+++ b/SSubmit.xlsx
@@ -391,4524 +391,4524 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>7.484363424752016e-06</v>
+        <v>1.019067872737431e-05</v>
       </c>
       <c r="B2">
-        <v>0.0005846086377812397</v>
+        <v>0.000975843560404212</v>
       </c>
       <c r="C2">
-        <v>0.999323636380821</v>
+        <v>0.9989071505734279</v>
       </c>
       <c r="D2">
-        <v>6.838484884202053e-05</v>
+        <v>7.996021833553765e-05</v>
       </c>
       <c r="E2">
-        <v>1.588576913119169e-05</v>
+        <v>2.685496910485925e-05</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>2.519792866844191e-07</v>
+        <v>2.703222211911839e-07</v>
       </c>
       <c r="B3">
-        <v>0.0001276360719429127</v>
+        <v>0.0001428569134457382</v>
       </c>
       <c r="C3">
-        <v>0.0004535719491525831</v>
+        <v>0.001000981455714586</v>
       </c>
       <c r="D3">
-        <v>0.9994179730447497</v>
+        <v>0.9988551814772904</v>
       </c>
       <c r="E3">
-        <v>5.66954868589141e-07</v>
+        <v>7.098313283425441e-07</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>6.757478193127483e-06</v>
+        <v>8.786863851800653e-06</v>
       </c>
       <c r="B4">
-        <v>0.0009565551037456319</v>
+        <v>0.0002207421783596074</v>
       </c>
       <c r="C4">
-        <v>0.9989314585497712</v>
+        <v>0.9996762998809418</v>
       </c>
       <c r="D4">
-        <v>9.088593324101198e-05</v>
+        <v>7.101550854941411e-05</v>
       </c>
       <c r="E4">
-        <v>1.434293504910101e-05</v>
+        <v>2.315556829741314e-05</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>1.012966398998064e-07</v>
+        <v>2.999548124220037e-06</v>
       </c>
       <c r="B5">
-        <v>5.234819150952734e-06</v>
+        <v>2.353066496972844e-05</v>
       </c>
       <c r="C5">
-        <v>0.0006916817562536809</v>
+        <v>0.00351528632253548</v>
       </c>
       <c r="D5">
-        <v>0.9993027543533679</v>
+        <v>0.9964564521570922</v>
       </c>
       <c r="E5">
-        <v>2.277745875260787e-07</v>
+        <v>1.731307278645221e-06</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>7.565103442585441e-06</v>
+        <v>7.790004475986796e-06</v>
       </c>
       <c r="B6">
-        <v>0.0003696483576444191</v>
+        <v>0.0004961859719055882</v>
       </c>
       <c r="C6">
-        <v>0.9880470498112086</v>
+        <v>0.9918224013147146</v>
       </c>
       <c r="D6">
-        <v>0.01155967958564402</v>
+        <v>0.007653094112612259</v>
       </c>
       <c r="E6">
-        <v>1.605714206034529e-05</v>
+        <v>2.052859629137208e-05</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>4.613365109681259e-06</v>
+        <v>1.856747379236073e-05</v>
       </c>
       <c r="B7">
-        <v>0.0001881364572359479</v>
+        <v>0.001394092162710421</v>
       </c>
       <c r="C7">
-        <v>0.9997392174828665</v>
+        <v>0.9983968131052013</v>
       </c>
       <c r="D7">
-        <v>5.765912922823415e-05</v>
+        <v>0.0001438064746292136</v>
       </c>
       <c r="E7">
-        <v>1.037356555957056e-05</v>
+        <v>4.672078366635893e-05</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>4.183309131996966e-05</v>
+        <v>5.222804761618824e-05</v>
       </c>
       <c r="B8">
-        <v>0.03636865584204235</v>
+        <v>0.01871161287046995</v>
       </c>
       <c r="C8">
-        <v>0.9629904736234879</v>
+        <v>0.9807741715320191</v>
       </c>
       <c r="D8">
-        <v>0.0005049719822444742</v>
+        <v>0.0003305676625540734</v>
       </c>
       <c r="E8">
-        <v>9.406546090543222e-05</v>
+        <v>0.0001314198873406341</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>9.606913936345441e-06</v>
+        <v>5.563948502167683e-06</v>
       </c>
       <c r="B9">
-        <v>0.01691356042167778</v>
+        <v>0.00153971869870748</v>
       </c>
       <c r="C9">
-        <v>0.9829682036426388</v>
+        <v>0.99839497116621</v>
       </c>
       <c r="D9">
-        <v>8.777865532325498e-05</v>
+        <v>4.365700744209846e-05</v>
       </c>
       <c r="E9">
-        <v>2.085036642394033e-05</v>
+        <v>1.608917913811128e-05</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>9.673675458139689e-06</v>
+        <v>5.765638735980862e-06</v>
       </c>
       <c r="B10">
-        <v>0.01004050838029868</v>
+        <v>0.00726049513765614</v>
       </c>
       <c r="C10">
-        <v>0.989799164509505</v>
+        <v>0.9926719375938026</v>
       </c>
       <c r="D10">
-        <v>0.0001301078592866002</v>
+        <v>4.659794141045853e-05</v>
       </c>
       <c r="E10">
-        <v>2.05455754514675e-05</v>
+        <v>1.520368839490292e-05</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>6.962623849332106e-06</v>
+        <v>8.302218630424709e-05</v>
       </c>
       <c r="B11">
-        <v>0.0001365607701907094</v>
+        <v>0.0002646356663824689</v>
       </c>
       <c r="C11">
-        <v>0.9997623287834607</v>
+        <v>0.9994079376469789</v>
       </c>
       <c r="D11">
-        <v>8.256862993756568e-05</v>
+        <v>0.0002310299147395338</v>
       </c>
       <c r="E11">
-        <v>1.157919256166894e-05</v>
+        <v>1.337458559518089e-05</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>1.102513054906784e-05</v>
+        <v>1.310535781962037e-05</v>
       </c>
       <c r="B12">
-        <v>0.9576649185425056</v>
+        <v>0.7247216845487188</v>
       </c>
       <c r="C12">
-        <v>0.04215129809608697</v>
+        <v>0.2751249422932114</v>
       </c>
       <c r="D12">
-        <v>0.0001479516226488102</v>
+        <v>0.0001058548189254805</v>
       </c>
       <c r="E12">
-        <v>2.48066082092429e-05</v>
+        <v>3.441298132470687e-05</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>1.866184234273634e-06</v>
+        <v>3.122140967609845e-06</v>
       </c>
       <c r="B13">
-        <v>0.01356302809095314</v>
+        <v>0.02995660047450803</v>
       </c>
       <c r="C13">
-        <v>0.9864142068248691</v>
+        <v>0.9700078116908579</v>
       </c>
       <c r="D13">
-        <v>1.701310230153632e-05</v>
+        <v>2.448306668200324e-05</v>
       </c>
       <c r="E13">
-        <v>3.885797641795654e-06</v>
+        <v>7.982626984308206e-06</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>3.567943563980145e-05</v>
+        <v>3.357818734908406e-05</v>
       </c>
       <c r="B14">
-        <v>0.001702832134165961</v>
+        <v>0.0008622332813165668</v>
       </c>
       <c r="C14">
-        <v>0.9979650307745606</v>
+        <v>0.9990023359785177</v>
       </c>
       <c r="D14">
-        <v>0.0002496402608226632</v>
+        <v>7.603431740574436e-05</v>
       </c>
       <c r="E14">
-        <v>4.681739481084082e-05</v>
+        <v>2.581823541080046e-05</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>4.515753875120131e-05</v>
+        <v>4.815566483592689e-05</v>
       </c>
       <c r="B15">
-        <v>0.01961027174604484</v>
+        <v>0.01719271663480366</v>
       </c>
       <c r="C15">
-        <v>0.9796763505706263</v>
+        <v>0.9822135705593779</v>
       </c>
       <c r="D15">
-        <v>0.0005643915668023949</v>
+        <v>0.0004125931871471762</v>
       </c>
       <c r="E15">
-        <v>0.0001038285777750691</v>
+        <v>0.0001329639538352936</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>3.493230693583818e-07</v>
+        <v>1.389249234393168e-06</v>
       </c>
       <c r="B16">
-        <v>3.684695859012395e-06</v>
+        <v>1.578714065793725e-05</v>
       </c>
       <c r="C16">
-        <v>0.002531549616248146</v>
+        <v>0.001898577013659135</v>
       </c>
       <c r="D16">
-        <v>0.9974636749169116</v>
+        <v>0.9980834410193112</v>
       </c>
       <c r="E16">
-        <v>7.414479117454631e-07</v>
+        <v>8.055771373411445e-07</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>6.204710278921548e-06</v>
+        <v>2.044807876339015e-05</v>
       </c>
       <c r="B17">
-        <v>0.0002934824902392488</v>
+        <v>0.0003215135088007366</v>
       </c>
       <c r="C17">
-        <v>0.9996246079468557</v>
+        <v>0.9995971555095753</v>
       </c>
       <c r="D17">
-        <v>6.53861083332168e-05</v>
+        <v>4.591250788871506e-05</v>
       </c>
       <c r="E17">
-        <v>1.031874429291353e-05</v>
+        <v>1.497039497200689e-05</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>3.414314866635142e-05</v>
+        <v>1.556552891670605e-05</v>
       </c>
       <c r="B18">
-        <v>0.9607137608061093</v>
+        <v>0.9278829032803356</v>
       </c>
       <c r="C18">
-        <v>0.0389404145180454</v>
+        <v>0.07193493196233064</v>
       </c>
       <c r="D18">
-        <v>0.0002640408105358616</v>
+        <v>0.0001257261547250893</v>
       </c>
       <c r="E18">
-        <v>4.764071664299958e-05</v>
+        <v>4.08730736918793e-05</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>6.76147383991239e-06</v>
+        <v>8.191907011161749e-06</v>
       </c>
       <c r="B19">
-        <v>8.589408120560228e-05</v>
+        <v>0.0004974067778590762</v>
       </c>
       <c r="C19">
-        <v>0.9998308991300831</v>
+        <v>0.9994064511371554</v>
       </c>
       <c r="D19">
-        <v>6.177978543405707e-05</v>
+        <v>6.427704088417343e-05</v>
       </c>
       <c r="E19">
-        <v>1.466552943758887e-05</v>
+        <v>2.367313709001329e-05</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>1.844975752266074e-05</v>
+        <v>5.751182357993916e-06</v>
       </c>
       <c r="B20">
-        <v>0.02470041419754724</v>
+        <v>0.009749623954434298</v>
       </c>
       <c r="C20">
-        <v>0.9749938078879232</v>
+        <v>0.9901829781906863</v>
       </c>
       <c r="D20">
-        <v>0.0002481433728077395</v>
+        <v>4.648110484034198e-05</v>
       </c>
       <c r="E20">
-        <v>3.918478419949002e-05</v>
+        <v>1.516556768073801e-05</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>4.108698402202797e-05</v>
+        <v>2.256002384976941e-05</v>
       </c>
       <c r="B21">
-        <v>0.01123994748640795</v>
+        <v>0.03685264944783757</v>
       </c>
       <c r="C21">
-        <v>0.9258445716637674</v>
+        <v>0.9476381628631232</v>
       </c>
       <c r="D21">
-        <v>0.06278200609412948</v>
+        <v>0.01542742612795075</v>
       </c>
       <c r="E21">
-        <v>9.23877716730257e-05</v>
+        <v>5.920153723864434e-05</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>1.170936055588199e-05</v>
+        <v>1.29868571668193e-05</v>
       </c>
       <c r="B22">
-        <v>0.0009444028128144479</v>
+        <v>0.001392868267590076</v>
       </c>
       <c r="C22">
-        <v>0.9988723425968564</v>
+        <v>0.9984606635729155</v>
       </c>
       <c r="D22">
-        <v>0.0001466761351017027</v>
+        <v>0.0001006438491158752</v>
       </c>
       <c r="E22">
-        <v>2.486909467144508e-05</v>
+        <v>3.283745321156958e-05</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>2.994264918916221e-05</v>
+        <v>2.596163371470133e-05</v>
       </c>
       <c r="B23">
-        <v>0.001631366589396792</v>
+        <v>0.0004930218327776797</v>
       </c>
       <c r="C23">
-        <v>0.9980898996181996</v>
+        <v>0.9994022672358865</v>
       </c>
       <c r="D23">
-        <v>0.0002095013729691818</v>
+        <v>5.878742285024272e-05</v>
       </c>
       <c r="E23">
-        <v>3.928977024534884e-05</v>
+        <v>1.996187477086719e-05</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>8.412296326171063e-06</v>
+        <v>2.044917767862622e-05</v>
       </c>
       <c r="B24">
-        <v>0.0005926595769652643</v>
+        <v>0.0002676812769776301</v>
       </c>
       <c r="C24">
-        <v>0.999324407580708</v>
+        <v>0.9996508755953012</v>
       </c>
       <c r="D24">
-        <v>6.022427077534429e-05</v>
+        <v>4.457649445252402e-05</v>
       </c>
       <c r="E24">
-        <v>1.429627522510371e-05</v>
+        <v>1.641745558991111e-05</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>9.06442010821951e-06</v>
+        <v>2.308009136984658e-05</v>
       </c>
       <c r="B25">
-        <v>0.0001384433577302581</v>
+        <v>0.000390870357160775</v>
       </c>
       <c r="C25">
-        <v>0.9997760511008741</v>
+        <v>0.9994028270113325</v>
       </c>
       <c r="D25">
-        <v>6.177639636148594e-05</v>
+        <v>0.0001595494888919566</v>
       </c>
       <c r="E25">
-        <v>1.466472492615833e-05</v>
+        <v>2.367305124463243e-05</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>0.0001419978710987061</v>
+        <v>0.0001316500875106568</v>
       </c>
       <c r="B26">
-        <v>0.1421004172307033</v>
+        <v>0.09925287732680384</v>
       </c>
       <c r="C26">
-        <v>0.8565852011739162</v>
+        <v>0.9002730710302748</v>
       </c>
       <c r="D26">
-        <v>0.0009935242792293551</v>
+        <v>0.000258397540869277</v>
       </c>
       <c r="E26">
-        <v>0.0001788594450525348</v>
+        <v>8.400401454131764e-05</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>4.160515150939271e-06</v>
+        <v>1.492893626805371e-05</v>
       </c>
       <c r="B27">
-        <v>0.000366379031793975</v>
+        <v>0.0004265508404928321</v>
       </c>
       <c r="C27">
-        <v>0.999506768544532</v>
+        <v>0.9994180775275803</v>
       </c>
       <c r="D27">
-        <v>0.0001133366167451121</v>
+        <v>0.0001321802036091619</v>
       </c>
       <c r="E27">
-        <v>9.35529177807413e-06</v>
+        <v>8.262492049162169e-06</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>6.962398233770483e-06</v>
+        <v>8.303006733754146e-05</v>
       </c>
       <c r="B28">
-        <v>0.0001195595485143399</v>
+        <v>0.0001697339534477445</v>
       </c>
       <c r="C28">
-        <v>0.9997299326718543</v>
+        <v>0.999502808278335</v>
       </c>
       <c r="D28">
-        <v>0.0001319665640459721</v>
+        <v>0.0002310518456778907</v>
       </c>
       <c r="E28">
-        <v>1.157881735167778e-05</v>
+        <v>1.337585520224701e-05</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>8.037198963389814e-06</v>
+        <v>9.107012202678093e-06</v>
       </c>
       <c r="B29">
-        <v>0.0003241040516343059</v>
+        <v>0.0005450918077803075</v>
       </c>
       <c r="C29">
-        <v>0.9995427018007643</v>
+        <v>0.9990072438952117</v>
       </c>
       <c r="D29">
-        <v>0.0001080977707296606</v>
+        <v>0.0004145580461007489</v>
       </c>
       <c r="E29">
-        <v>1.705917790838624e-05</v>
+        <v>2.399923870463443e-05</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>8.339724586864041e-06</v>
+        <v>3.560361754291001e-05</v>
       </c>
       <c r="B30">
-        <v>0.0003181207917538496</v>
+        <v>0.0003063811247694881</v>
       </c>
       <c r="C30">
-        <v>0.992871017159314</v>
+        <v>0.9974606052520175</v>
       </c>
       <c r="D30">
-        <v>0.00678482102740329</v>
+        <v>0.002176764710650761</v>
       </c>
       <c r="E30">
-        <v>1.77012969421691e-05</v>
+        <v>2.064529501917244e-05</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>6.204606222053907e-06</v>
+        <v>2.044862541351828e-05</v>
       </c>
       <c r="B31">
-        <v>0.0003102481930835574</v>
+        <v>0.0002947885348304402</v>
       </c>
       <c r="C31">
-        <v>0.9996078436176857</v>
+        <v>0.9996238783092777</v>
       </c>
       <c r="D31">
-        <v>6.538501176733144e-05</v>
+        <v>4.591373529392072e-05</v>
       </c>
       <c r="E31">
-        <v>1.03185712411253e-05</v>
+        <v>1.497079518409643e-05</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>3.24930651143569e-05</v>
+        <v>2.076934856638103e-05</v>
       </c>
       <c r="B32">
-        <v>0.004211049179220746</v>
+        <v>0.002041005074317326</v>
       </c>
       <c r="C32">
-        <v>0.9952473538388679</v>
+        <v>0.9977159645568214</v>
       </c>
       <c r="D32">
-        <v>0.0004360403432056421</v>
+        <v>0.000167758535246017</v>
       </c>
       <c r="E32">
-        <v>7.306357359139625e-05</v>
+        <v>5.450248504890472e-05</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>3.602328583148998e-06</v>
+        <v>3.109790816038537e-05</v>
       </c>
       <c r="B33">
-        <v>0.01576204149113092</v>
+        <v>0.09415557920739166</v>
       </c>
       <c r="C33">
-        <v>0.9842021350689873</v>
+        <v>0.9057206958984798</v>
       </c>
       <c r="D33">
-        <v>2.573145151111765e-05</v>
+        <v>6.77491243834113e-05</v>
       </c>
       <c r="E33">
-        <v>6.489659787044692e-06</v>
+        <v>2.487786158445382e-05</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34">
-        <v>1.47670470816963e-06</v>
+        <v>8.050853786702852e-06</v>
       </c>
       <c r="B34">
-        <v>0.003913639002692214</v>
+        <v>0.06662876759597049</v>
       </c>
       <c r="C34">
-        <v>0.9960683470700815</v>
+        <v>0.9332794644613914</v>
       </c>
       <c r="D34">
-        <v>1.346240516227964e-05</v>
+        <v>6.313282845066457e-05</v>
       </c>
       <c r="E34">
-        <v>3.074817355783488e-06</v>
+        <v>2.058426040053331e-05</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35">
-        <v>2.052422650283751e-06</v>
+        <v>2.952126638330105e-06</v>
       </c>
       <c r="B35">
-        <v>0.002695227688861967</v>
+        <v>0.001847997114789052</v>
       </c>
       <c r="C35">
-        <v>0.9972854806853855</v>
+        <v>0.9981380662355009</v>
       </c>
       <c r="D35">
-        <v>1.39877977445295e-05</v>
+        <v>8.221513229121951e-06</v>
       </c>
       <c r="E35">
-        <v>3.251405357866839e-06</v>
+        <v>2.763009842519758e-06</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36">
-        <v>6.565883715093028e-06</v>
+        <v>9.235983970371633e-06</v>
       </c>
       <c r="B36">
-        <v>0.0005970141112039202</v>
+        <v>0.0009528204288625661</v>
       </c>
       <c r="C36">
-        <v>0.9992941746862032</v>
+        <v>0.998938959174651</v>
       </c>
       <c r="D36">
-        <v>8.830904842654145e-05</v>
+        <v>7.464530117600142e-05</v>
       </c>
       <c r="E36">
-        <v>1.393627045090679e-05</v>
+        <v>2.433911134015436e-05</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37">
-        <v>1.011984562145521e-05</v>
+        <v>1.510169853507277e-05</v>
       </c>
       <c r="B37">
-        <v>0.0007423456442779511</v>
+        <v>0.0006494635868558776</v>
       </c>
       <c r="C37">
-        <v>0.9990992896217606</v>
+        <v>0.9991802412939649</v>
       </c>
       <c r="D37">
-        <v>0.0001267652350866681</v>
+        <v>0.0001170331704764213</v>
       </c>
       <c r="E37">
-        <v>2.147965325335132e-05</v>
+        <v>3.816025016766456e-05</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38">
-        <v>6.039443308414541e-06</v>
+        <v>1.499615261570175e-05</v>
       </c>
       <c r="B38">
-        <v>0.002886494573444794</v>
+        <v>0.0001680303336910766</v>
       </c>
       <c r="C38">
-        <v>0.9970337712591232</v>
+        <v>0.999772316306895</v>
       </c>
       <c r="D38">
-        <v>6.364450178726991e-05</v>
+        <v>3.367118169074537e-05</v>
       </c>
       <c r="E38">
-        <v>1.00502223363849e-05</v>
+        <v>1.09860251079537e-05</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39">
-        <v>9.748204397075656e-06</v>
+        <v>9.430620227293697e-06</v>
       </c>
       <c r="B39">
-        <v>0.000531608968455475</v>
+        <v>0.0007794757579492623</v>
       </c>
       <c r="C39">
-        <v>0.9977946342073615</v>
+        <v>0.9966248532067685</v>
       </c>
       <c r="D39">
-        <v>0.00164160914419215</v>
+        <v>0.002559102096384372</v>
       </c>
       <c r="E39">
-        <v>2.2399475594032e-05</v>
+        <v>2.713831867040915e-05</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40">
-        <v>6.663349829792487e-06</v>
+        <v>1.944150560596278e-05</v>
       </c>
       <c r="B40">
-        <v>4.163415561401697e-05</v>
+        <v>0.0002169921962827711</v>
       </c>
       <c r="C40">
-        <v>0.9998926750366242</v>
+        <v>0.9997055779408127</v>
       </c>
       <c r="D40">
-        <v>4.770342946334613e-05</v>
+        <v>4.237990301677183e-05</v>
       </c>
       <c r="E40">
-        <v>1.132402846907562e-05</v>
+        <v>1.560845428129433e-05</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41">
-        <v>6.565883715093028e-06</v>
+        <v>8.254555442778476e-06</v>
       </c>
       <c r="B41">
-        <v>0.0005970141112039202</v>
+        <v>0.000468432442737978</v>
       </c>
       <c r="C41">
-        <v>0.9992941746862032</v>
+        <v>0.9991258066252278</v>
       </c>
       <c r="D41">
-        <v>8.830904842654145e-05</v>
+        <v>0.0003757535731402934</v>
       </c>
       <c r="E41">
-        <v>1.393627045090679e-05</v>
+        <v>2.175280345112791e-05</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42">
-        <v>5.814173568750231e-06</v>
+        <v>1.086074495739768e-05</v>
       </c>
       <c r="B42">
-        <v>0.0004689343919605295</v>
+        <v>0.001164838175952092</v>
       </c>
       <c r="C42">
-        <v>0.9994400722535897</v>
+        <v>0.9987126723484026</v>
       </c>
       <c r="D42">
-        <v>7.283066430526549e-05</v>
+        <v>8.416718246282557e-05</v>
       </c>
       <c r="E42">
-        <v>1.2348516575897e-05</v>
+        <v>2.746154822527267e-05</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43">
-        <v>2.04291380892799e-07</v>
+        <v>4.459741467844317e-06</v>
       </c>
       <c r="B43">
-        <v>1.05573929612077e-05</v>
+        <v>3.498549714341949e-05</v>
       </c>
       <c r="C43">
-        <v>0.002606051894694253</v>
+        <v>0.008587532565370976</v>
       </c>
       <c r="D43">
-        <v>0.9973827270534558</v>
+        <v>0.9913704480806694</v>
       </c>
       <c r="E43">
-        <v>4.593675077871888e-07</v>
+        <v>2.574115348178483e-06</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44">
-        <v>1.268146417755012e-05</v>
+        <v>1.686939035715599e-05</v>
       </c>
       <c r="B44">
-        <v>0.3420958836735674</v>
+        <v>0.8461632896279251</v>
       </c>
       <c r="C44">
-        <v>0.65769272271946</v>
+        <v>0.1536498085953135</v>
       </c>
       <c r="D44">
-        <v>0.0001701787742359144</v>
+        <v>0.0001257355405408846</v>
       </c>
       <c r="E44">
-        <v>2.853336855939834e-05</v>
+        <v>4.429684586336732e-05</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45">
-        <v>1.841396402324417e-06</v>
+        <v>3.317153836656376e-05</v>
       </c>
       <c r="B45">
-        <v>0.0001034305092063222</v>
+        <v>0.0008720283088156691</v>
       </c>
       <c r="C45">
-        <v>0.9998733380179611</v>
+        <v>0.9989685987944397</v>
       </c>
       <c r="D45">
-        <v>1.847297447388209e-05</v>
+        <v>9.515482879882665e-05</v>
       </c>
       <c r="E45">
-        <v>2.917101956386322e-06</v>
+        <v>3.104652957915849e-05</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46">
-        <v>7.492534320170409e-06</v>
+        <v>7.770526090107896e-06</v>
       </c>
       <c r="B46">
-        <v>0.000737381438387601</v>
+        <v>0.001165379006284617</v>
       </c>
       <c r="C46">
-        <v>0.9991712289508691</v>
+        <v>0.998746061180587</v>
       </c>
       <c r="D46">
-        <v>6.830582455137195e-05</v>
+        <v>6.093456714223913e-05</v>
       </c>
       <c r="E46">
-        <v>1.559125187210597e-05</v>
+        <v>1.985471989602197e-05</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47">
-        <v>5.153423866409078e-06</v>
+        <v>5.744824014178291e-05</v>
       </c>
       <c r="B47">
-        <v>0.0002865366773915337</v>
+        <v>0.0002682420839964535</v>
       </c>
       <c r="C47">
-        <v>0.9996454265946471</v>
+        <v>0.9995051849568121</v>
       </c>
       <c r="D47">
-        <v>5.430750447135727e-05</v>
+        <v>0.0001598640389118904</v>
       </c>
       <c r="E47">
-        <v>8.57579962359811e-06</v>
+        <v>9.260680137944783e-06</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48">
-        <v>4.396818362573084e-08</v>
+        <v>6.088064391645437e-08</v>
       </c>
       <c r="B48">
-        <v>2.426533607381046e-06</v>
+        <v>2.165280916725506e-06</v>
       </c>
       <c r="C48">
-        <v>0.0007048684056498392</v>
+        <v>0.0001717918222966482</v>
       </c>
       <c r="D48">
-        <v>5.495266733358331e-07</v>
+        <v>4.715251451376164e-07</v>
       </c>
       <c r="E48">
-        <v>0.999292111565885</v>
+        <v>0.9998255104909981</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49">
-        <v>3.851698418747481e-06</v>
+        <v>1.234171694486067e-05</v>
       </c>
       <c r="B49">
-        <v>0.0001878783105195542</v>
+        <v>0.0005987501155719721</v>
       </c>
       <c r="C49">
-        <v>0.9997482905351146</v>
+        <v>0.9992566388169575</v>
       </c>
       <c r="D49">
-        <v>5.180411913231463e-05</v>
+        <v>9.974586154906629e-05</v>
       </c>
       <c r="E49">
-        <v>8.175336814997839e-06</v>
+        <v>3.252348897672964e-05</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50">
-        <v>2.996091865093677e-07</v>
+        <v>1.196605658286427e-06</v>
       </c>
       <c r="B50">
-        <v>1.343345777370383e-05</v>
+        <v>3.082675103798909e-05</v>
       </c>
       <c r="C50">
-        <v>0.002782713655315322</v>
+        <v>0.002196549107571858</v>
       </c>
       <c r="D50">
-        <v>0.9972028795795749</v>
+        <v>0.9977707368676713</v>
       </c>
       <c r="E50">
-        <v>6.736981497480622e-07</v>
+        <v>6.906680606759845e-07</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51">
-        <v>2.996091865093677e-07</v>
+        <v>1.196605658286427e-06</v>
       </c>
       <c r="B51">
-        <v>1.343345777370383e-05</v>
+        <v>3.082675103798909e-05</v>
       </c>
       <c r="C51">
-        <v>0.002782713655315322</v>
+        <v>0.002196549107571858</v>
       </c>
       <c r="D51">
-        <v>0.9972028795795749</v>
+        <v>0.9977707368676713</v>
       </c>
       <c r="E51">
-        <v>6.736981497480622e-07</v>
+        <v>6.906680606759845e-07</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52">
-        <v>1.98571247180058e-05</v>
+        <v>1.510088225794766e-05</v>
       </c>
       <c r="B52">
-        <v>0.002318267831079045</v>
+        <v>0.001359397407010284</v>
       </c>
       <c r="C52">
-        <v>0.997368067331852</v>
+        <v>0.9984544501815686</v>
       </c>
       <c r="D52">
-        <v>0.0002481799062064186</v>
+        <v>0.0001293829326366717</v>
       </c>
       <c r="E52">
-        <v>4.56278061446938e-05</v>
+        <v>4.16685965263788e-05</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53">
-        <v>3.350854324701967e-06</v>
+        <v>9.1428121273543e-06</v>
       </c>
       <c r="B53">
-        <v>0.0002714786931188885</v>
+        <v>0.0001428103597688625</v>
       </c>
       <c r="C53">
-        <v>0.9964798514644745</v>
+        <v>0.9994898321374085</v>
       </c>
       <c r="D53">
-        <v>0.003237784291349192</v>
+        <v>0.0003529375567644852</v>
       </c>
       <c r="E53">
-        <v>7.53469673252634e-06</v>
+        <v>5.277133930795083e-06</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54">
-        <v>7.244801751671757e-06</v>
+        <v>6.134288249532501e-06</v>
       </c>
       <c r="B54">
-        <v>0.00498823649522715</v>
+        <v>0.002345055011656073</v>
       </c>
       <c r="C54">
-        <v>0.9949229357593141</v>
+        <v>0.9975845027766422</v>
       </c>
       <c r="D54">
-        <v>6.619596678589847e-05</v>
+        <v>4.813212553234134e-05</v>
       </c>
       <c r="E54">
-        <v>1.538697692144001e-05</v>
+        <v>1.617579791955873e-05</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55">
-        <v>3.341495177366384e-06</v>
+        <v>5.745726942811112e-06</v>
       </c>
       <c r="B55">
-        <v>0.0002123581039565885</v>
+        <v>0.0003311357327596609</v>
       </c>
       <c r="C55">
-        <v>0.9997325059078124</v>
+        <v>0.9996020279661832</v>
       </c>
       <c r="D55">
-        <v>4.484115914675754e-05</v>
+        <v>4.640948331955909e-05</v>
       </c>
       <c r="E55">
-        <v>6.953333907259524e-06</v>
+        <v>1.468109079432449e-05</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56">
-        <v>4.600963203046173e-06</v>
+        <v>2.596601224565359e-05</v>
       </c>
       <c r="B56">
-        <v>0.0002416529277386024</v>
+        <v>0.0003300977597397288</v>
       </c>
       <c r="C56">
-        <v>0.9997155170636612</v>
+        <v>0.9995708203326957</v>
       </c>
       <c r="D56">
-        <v>3.219181114968762e-05</v>
+        <v>5.315065389974347e-05</v>
       </c>
       <c r="E56">
-        <v>6.037234247810611e-06</v>
+        <v>1.996524141903386e-05</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57">
-        <v>2.578412723923439e-07</v>
+        <v>2.007372414667744e-06</v>
       </c>
       <c r="B57">
-        <v>4.206928334708728e-05</v>
+        <v>0.0001285655254846548</v>
       </c>
       <c r="C57">
-        <v>0.001061376186784902</v>
+        <v>0.001911134641758696</v>
       </c>
       <c r="D57">
-        <v>0.9988957165442247</v>
+        <v>0.9979571330791283</v>
       </c>
       <c r="E57">
-        <v>5.801443707122668e-07</v>
+        <v>1.159381213521323e-06</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58">
-        <v>6.484227056384209e-06</v>
+        <v>1.862544774240531e-05</v>
       </c>
       <c r="B58">
-        <v>0.19264924606456</v>
+        <v>0.7111958901662097</v>
       </c>
       <c r="C58">
-        <v>0.8072862546249782</v>
+        <v>0.2887299859450828</v>
       </c>
       <c r="D58">
-        <v>4.631686705896644e-05</v>
+        <v>4.057693428410027e-05</v>
       </c>
       <c r="E58">
-        <v>1.169821634657041e-05</v>
+        <v>1.492150668147588e-05</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59">
-        <v>6.285655401627081e-07</v>
+        <v>4.126159739287088e-06</v>
       </c>
       <c r="B59">
-        <v>0.000112567158709896</v>
+        <v>0.0001289408448019504</v>
       </c>
       <c r="C59">
-        <v>0.9998636095569475</v>
+        <v>0.9998264008463811</v>
       </c>
       <c r="D59">
-        <v>2.185973079428789e-05</v>
+        <v>3.81379900757168e-05</v>
       </c>
       <c r="E59">
-        <v>1.334988008176247e-06</v>
+        <v>2.394159001667829e-06</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60">
-        <v>8.939041397391078e-06</v>
+        <v>8.988176747506323e-06</v>
       </c>
       <c r="B60">
-        <v>0.001158858998719142</v>
+        <v>0.0009498217169645587</v>
       </c>
       <c r="C60">
-        <v>0.9987311370366947</v>
+        <v>0.9989446909952108</v>
       </c>
       <c r="D60">
-        <v>8.167628428244133e-05</v>
+        <v>7.052489774193708e-05</v>
       </c>
       <c r="E60">
-        <v>1.93886389064197e-05</v>
+        <v>2.597421333556024e-05</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61">
-        <v>1.114659225879972e-05</v>
+        <v>1.531213190824957e-05</v>
       </c>
       <c r="B61">
-        <v>0.00112716907691892</v>
+        <v>0.001879219360461642</v>
       </c>
       <c r="C61">
-        <v>0.9986991614922962</v>
+        <v>0.9979367357297317</v>
       </c>
       <c r="D61">
-        <v>0.0001393132319303842</v>
+        <v>0.0001311928996841369</v>
       </c>
       <c r="E61">
-        <v>2.320960659608208e-05</v>
+        <v>3.753987821408958e-05</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62">
-        <v>1.761427266876559e-05</v>
+        <v>8.464645465693069e-05</v>
       </c>
       <c r="B62">
-        <v>0.02073723660275745</v>
+        <v>0.01999168488827441</v>
       </c>
       <c r="C62">
-        <v>0.9790288913715244</v>
+        <v>0.9796719722139093</v>
       </c>
       <c r="D62">
-        <v>0.0001852049845330321</v>
+        <v>0.0001899458134177544</v>
       </c>
       <c r="E62">
-        <v>3.105276851620097e-05</v>
+        <v>6.175062974178884e-05</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63">
-        <v>2.227642598102068e-05</v>
+        <v>0.0001319687811275229</v>
       </c>
       <c r="B63">
-        <v>0.008615617441761208</v>
+        <v>0.1493531592585012</v>
       </c>
       <c r="C63">
-        <v>0.9911775700850963</v>
+        <v>0.8501359884791297</v>
       </c>
       <c r="D63">
-        <v>0.0001558626893160606</v>
+        <v>0.0002865414662179931</v>
       </c>
       <c r="E63">
-        <v>2.867335784545845e-05</v>
+        <v>9.234201502342313e-05</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64">
-        <v>2.090057154309037e-07</v>
+        <v>1.138470726795639e-06</v>
       </c>
       <c r="B64">
-        <v>1.806987558181902e-05</v>
+        <v>1.969552709687828e-05</v>
       </c>
       <c r="C64">
-        <v>0.001039082000509072</v>
+        <v>0.001101141541696435</v>
       </c>
       <c r="D64">
-        <v>0.9989421691500814</v>
+        <v>0.9988773673472835</v>
       </c>
       <c r="E64">
-        <v>4.699681121699094e-07</v>
+        <v>6.571131964546578e-07</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65">
-        <v>2.729796061873301e-07</v>
+        <v>9.225587996563089e-07</v>
       </c>
       <c r="B65">
-        <v>2.911377250629976e-05</v>
+        <v>4.862351560713424e-05</v>
       </c>
       <c r="C65">
-        <v>0.004111791366668063</v>
+        <v>0.01228343988302229</v>
       </c>
       <c r="D65">
-        <v>0.9958582421095373</v>
+        <v>0.9876645813031716</v>
       </c>
       <c r="E65">
-        <v>5.797716824285764e-07</v>
+        <v>2.432739399438627e-06</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66">
-        <v>1.8540303129536e-05</v>
+        <v>7.934262060429036e-05</v>
       </c>
       <c r="B66">
-        <v>0.0818472848414729</v>
+        <v>0.004093979932546215</v>
       </c>
       <c r="C66">
-        <v>0.9179683406854017</v>
+        <v>0.9955903506891954</v>
       </c>
       <c r="D66">
-        <v>0.0001324334801691093</v>
+        <v>0.0001728538474196609</v>
       </c>
       <c r="E66">
-        <v>3.34006898266315e-05</v>
+        <v>6.347291023438768e-05</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67">
-        <v>7.482914984414866e-06</v>
+        <v>1.019268914928313e-05</v>
       </c>
       <c r="B67">
-        <v>0.0007457531481993616</v>
+        <v>0.0007763541956730829</v>
       </c>
       <c r="C67">
-        <v>0.9991302384145997</v>
+        <v>0.9991042154475249</v>
       </c>
       <c r="D67">
-        <v>0.0001006428274401784</v>
+        <v>8.237740058691173e-05</v>
       </c>
       <c r="E67">
-        <v>1.588269477636809e-05</v>
+        <v>2.686026706583839e-05</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68">
-        <v>4.875069587829827e-06</v>
+        <v>4.053203219664095e-06</v>
       </c>
       <c r="B68">
-        <v>0.0003188069344260925</v>
+        <v>0.0005208797662466021</v>
       </c>
       <c r="C68">
-        <v>0.9996217297794627</v>
+        <v>0.9994329263318805</v>
       </c>
       <c r="D68">
-        <v>4.444366001041676e-05</v>
+        <v>3.178422939010203e-05</v>
       </c>
       <c r="E68">
-        <v>1.014455651317856e-05</v>
+        <v>1.03564692628125e-05</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69">
-        <v>8.480101062376073e-06</v>
+        <v>1.43594904995432e-05</v>
       </c>
       <c r="B69">
-        <v>0.0005766050902216339</v>
+        <v>0.001104703797210608</v>
       </c>
       <c r="C69">
-        <v>0.9992906904201106</v>
+        <v>0.9987215481944132</v>
       </c>
       <c r="D69">
-        <v>0.0001062251386969505</v>
+        <v>0.0001231037417984744</v>
       </c>
       <c r="E69">
-        <v>1.799924990822356e-05</v>
+        <v>3.62847760780129e-05</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70">
-        <v>7.163864159976722e-06</v>
+        <v>2.156202077736688e-05</v>
       </c>
       <c r="B70">
-        <v>0.0001428385930558588</v>
+        <v>0.0002609457333233171</v>
       </c>
       <c r="C70">
-        <v>0.9997067455436445</v>
+        <v>0.9995907550834643</v>
       </c>
       <c r="D70">
-        <v>5.012380059621004e-05</v>
+        <v>4.882495635191842e-05</v>
       </c>
       <c r="E70">
-        <v>9.312819854311989e-05</v>
+        <v>7.791220608283704e-05</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71">
-        <v>3.851529925439204e-06</v>
+        <v>2.483787627168461e-06</v>
       </c>
       <c r="B71">
-        <v>0.0002482255999947362</v>
+        <v>0.0002356716380542399</v>
       </c>
       <c r="C71">
-        <v>0.9997045563486348</v>
+        <v>0.9997358103671717</v>
       </c>
       <c r="D71">
-        <v>3.519154226137883e-05</v>
+        <v>1.948880994884119e-05</v>
       </c>
       <c r="E71">
-        <v>8.174979183273747e-06</v>
+        <v>6.545397198271489e-06</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72">
-        <v>2.514723972000795e-07</v>
+        <v>2.448278706797619e-07</v>
       </c>
       <c r="B72">
-        <v>0.0001216587928473045</v>
+        <v>5.247886089695406e-05</v>
       </c>
       <c r="C72">
-        <v>0.0004394472347766799</v>
+        <v>0.0009065779250874373</v>
       </c>
       <c r="D72">
-        <v>0.9994380766856142</v>
+        <v>0.9990400554996965</v>
       </c>
       <c r="E72">
-        <v>5.658143642851388e-07</v>
+        <v>6.428864482323959e-07</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73">
-        <v>1.470688845049247e-05</v>
+        <v>4.394248567131249e-05</v>
       </c>
       <c r="B73">
-        <v>0.0006323419104928449</v>
+        <v>0.001104556674351294</v>
       </c>
       <c r="C73">
-        <v>0.9992214217722533</v>
+        <v>0.9987206381647304</v>
       </c>
       <c r="D73">
-        <v>0.0001050513794919996</v>
+        <v>9.57319994678744e-05</v>
       </c>
       <c r="E73">
-        <v>2.647804931104873e-05</v>
+        <v>3.513067577917249e-05</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74">
-        <v>3.619964672036542e-06</v>
+        <v>9.814742889820857e-06</v>
       </c>
       <c r="B74">
-        <v>0.9783960201781027</v>
+        <v>0.949194901841571</v>
       </c>
       <c r="C74">
-        <v>0.02154363683796305</v>
+        <v>0.05069635724688894</v>
       </c>
       <c r="D74">
-        <v>4.857807758153547e-05</v>
+        <v>7.315391821482986e-05</v>
       </c>
       <c r="E74">
-        <v>8.144941681266822e-06</v>
+        <v>2.577225043550837e-05</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75">
-        <v>1.98571247180058e-05</v>
+        <v>1.510088225794766e-05</v>
       </c>
       <c r="B75">
-        <v>0.002318267831079045</v>
+        <v>0.001359397407010284</v>
       </c>
       <c r="C75">
-        <v>0.997368067331852</v>
+        <v>0.9984544501815686</v>
       </c>
       <c r="D75">
-        <v>0.0002481799062064186</v>
+        <v>0.0001293829326366717</v>
       </c>
       <c r="E75">
-        <v>4.56278061446938e-05</v>
+        <v>4.16685965263788e-05</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76">
-        <v>9.625775529712122e-07</v>
+        <v>1.265190276335229e-06</v>
       </c>
       <c r="B76">
-        <v>2.148889030494451e-05</v>
+        <v>6.66435807027096e-05</v>
       </c>
       <c r="C76">
-        <v>0.9999667103351397</v>
+        <v>0.9998728436186087</v>
       </c>
       <c r="D76">
-        <v>8.795099425685531e-06</v>
+        <v>5.591351984871532e-05</v>
       </c>
       <c r="E76">
-        <v>2.043097576848995e-06</v>
+        <v>3.33409056371117e-06</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77">
-        <v>6.270625195979375e-07</v>
+        <v>8.769641875465161e-07</v>
       </c>
       <c r="B77">
-        <v>0.00012211268759352</v>
+        <v>0.0001097474415747954</v>
       </c>
       <c r="C77">
-        <v>0.9998701989653979</v>
+        <v>0.9998483067375525</v>
       </c>
       <c r="D77">
-        <v>5.729488693104492e-06</v>
+        <v>3.875634789814206e-05</v>
       </c>
       <c r="E77">
-        <v>1.331795796224107e-06</v>
+        <v>2.312508787229483e-06</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78">
-        <v>1.356734499305287e-05</v>
+        <v>4.160474398355821e-05</v>
       </c>
       <c r="B78">
-        <v>0.0007423430850159098</v>
+        <v>0.0003128523434949972</v>
       </c>
       <c r="C78">
-        <v>0.9990958451927306</v>
+        <v>0.9994937902644564</v>
       </c>
       <c r="D78">
-        <v>0.000126764798059177</v>
+        <v>0.0001144384437018885</v>
       </c>
       <c r="E78">
-        <v>2.147957920151085e-05</v>
+        <v>3.731420436347224e-05</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79">
-        <v>1.258779034678415e-05</v>
+        <v>3.357818734908406e-05</v>
       </c>
       <c r="B79">
-        <v>0.0005360904385232954</v>
+        <v>0.0008622332813165668</v>
       </c>
       <c r="C79">
-        <v>0.9993467308001996</v>
+        <v>0.9990023359785177</v>
       </c>
       <c r="D79">
-        <v>8.807368191235449e-05</v>
+        <v>7.603431740574436e-05</v>
       </c>
       <c r="E79">
-        <v>1.651728901799314e-05</v>
+        <v>2.581823541080046e-05</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80">
-        <v>8.166474116559407e-06</v>
+        <v>2.092062978973188e-05</v>
       </c>
       <c r="B80">
-        <v>0.0006023941435130233</v>
+        <v>0.0002069507957631622</v>
       </c>
       <c r="C80">
-        <v>0.9992897986752824</v>
+        <v>0.9997098386798307</v>
       </c>
       <c r="D80">
-        <v>8.6059451172082e-05</v>
+        <v>4.697353679885302e-05</v>
       </c>
       <c r="E80">
-        <v>1.35812559161296e-05</v>
+        <v>1.53163578172512e-05</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81">
-        <v>5.306621818703303e-06</v>
+        <v>1.424932603397679e-05</v>
       </c>
       <c r="B81">
-        <v>0.0004402169253131164</v>
+        <v>0.0006633829984424123</v>
       </c>
       <c r="C81">
-        <v>0.9994897237909108</v>
+        <v>0.999275632102679</v>
       </c>
       <c r="D81">
-        <v>5.592192600835761e-05</v>
+        <v>3.629666510671986e-05</v>
       </c>
       <c r="E81">
-        <v>8.830735948588637e-06</v>
+        <v>1.04389077380273e-05</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82">
-        <v>8.005325304342832e-06</v>
+        <v>2.308775606665175e-05</v>
       </c>
       <c r="B82">
-        <v>0.0005460569684657078</v>
+        <v>0.0001542132142606227</v>
       </c>
       <c r="C82">
-        <v>0.9993784280326682</v>
+        <v>0.9997347199632501</v>
       </c>
       <c r="D82">
-        <v>5.455838797180998e-05</v>
+        <v>6.429815356433662e-05</v>
       </c>
       <c r="E82">
-        <v>1.295128559036544e-05</v>
+        <v>2.36809128582342e-05</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83">
-        <v>4.98943588470493e-06</v>
+        <v>6.26552837685898e-06</v>
       </c>
       <c r="B83">
-        <v>0.9950752957013307</v>
+        <v>0.9967286657572085</v>
       </c>
       <c r="C83">
-        <v>0.004846104034470294</v>
+        <v>0.003201916299333613</v>
       </c>
       <c r="D83">
-        <v>6.235936710243746e-05</v>
+        <v>4.669994472588812e-05</v>
       </c>
       <c r="E83">
-        <v>1.125146121213151e-05</v>
+        <v>1.645247035525161e-05</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84">
-        <v>8.395891375726779e-06</v>
+        <v>7.849304751520577e-06</v>
       </c>
       <c r="B84">
-        <v>0.0003202632873671255</v>
+        <v>0.00030696838605988</v>
       </c>
       <c r="C84">
-        <v>0.9995578539016879</v>
+        <v>0.9993725050225932</v>
       </c>
       <c r="D84">
-        <v>9.56664070588726e-05</v>
+        <v>0.0002919924193515646</v>
       </c>
       <c r="E84">
-        <v>1.782051251069201e-05</v>
+        <v>2.068486724348163e-05</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85">
-        <v>1.540139930651171e-05</v>
+        <v>3.799826905923444e-05</v>
       </c>
       <c r="B85">
-        <v>0.2009878465864486</v>
+        <v>0.802413678691804</v>
       </c>
       <c r="C85">
-        <v>0.7987554198608442</v>
+        <v>0.1971416242150671</v>
       </c>
       <c r="D85">
-        <v>0.0002066789148953279</v>
+        <v>0.0003069202646817519</v>
       </c>
       <c r="E85">
-        <v>3.465323850546547e-05</v>
+        <v>9.977855938804887e-05</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86">
-        <v>4.933547777527593e-07</v>
+        <v>3.062248438615235e-06</v>
       </c>
       <c r="B86">
-        <v>1.876730308689753e-05</v>
+        <v>3.786376195058828e-05</v>
       </c>
       <c r="C86">
-        <v>0.004708417370947478</v>
+        <v>0.005928830911505474</v>
       </c>
       <c r="D86">
-        <v>0.9952712741525119</v>
+        <v>0.9940284662419843</v>
       </c>
       <c r="E86">
-        <v>1.047818676006169e-06</v>
+        <v>1.776836120726784e-06</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87">
-        <v>7.276241016262454e-06</v>
+        <v>6.1426961586546e-06</v>
       </c>
       <c r="B87">
-        <v>0.0006389416023823649</v>
+        <v>0.0009695047461611118</v>
       </c>
       <c r="C87">
-        <v>0.9992404652786653</v>
+        <v>0.9989518333453696</v>
       </c>
       <c r="D87">
-        <v>9.786312827795858e-05</v>
+        <v>5.63212431732155e-05</v>
       </c>
       <c r="E87">
-        <v>1.545374965798487e-05</v>
+        <v>1.619796913704197e-05</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88">
-        <v>9.112076518220654e-06</v>
+        <v>5.457941244919987e-06</v>
       </c>
       <c r="B88">
-        <v>0.01485562752634345</v>
+        <v>0.01148095790637392</v>
       </c>
       <c r="C88">
-        <v>0.9850322266898711</v>
+        <v>0.9884549762813996</v>
       </c>
       <c r="D88">
-        <v>8.32573112730814e-05</v>
+        <v>4.282523130024954e-05</v>
       </c>
       <c r="E88">
-        <v>1.97763959942538e-05</v>
+        <v>1.578263968126089e-05</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89">
-        <v>1.010699205071828e-06</v>
+        <v>1.85243802767737e-06</v>
       </c>
       <c r="B89">
-        <v>0.0008121392078131468</v>
+        <v>0.00302677180577086</v>
       </c>
       <c r="C89">
-        <v>0.9991753121828738</v>
+        <v>0.996951515225868</v>
       </c>
       <c r="D89">
-        <v>9.214057570613473e-06</v>
+        <v>1.452636643457643e-05</v>
       </c>
       <c r="E89">
-        <v>2.323852537649856e-06</v>
+        <v>5.334163899141636e-06</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90">
-        <v>2.623087292190766e-05</v>
+        <v>6.785744523258474e-05</v>
       </c>
       <c r="B90">
-        <v>0.001608589595962299</v>
+        <v>0.001793140300672003</v>
       </c>
       <c r="C90">
-        <v>0.9981472292482093</v>
+        <v>0.9979331705946107</v>
       </c>
       <c r="D90">
-        <v>0.0001835309847369436</v>
+        <v>0.0001536561362148098</v>
       </c>
       <c r="E90">
-        <v>3.441929816984007e-05</v>
+        <v>5.217552326981587e-05</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91">
-        <v>8.318462026812707e-06</v>
+        <v>5.760866000262811e-05</v>
       </c>
       <c r="B91">
-        <v>0.0002935495104895204</v>
+        <v>0.0003214995759613601</v>
       </c>
       <c r="C91">
-        <v>0.9996224273400023</v>
+        <v>0.9995538378068113</v>
       </c>
       <c r="D91">
-        <v>6.538596569827682e-05</v>
+        <v>5.208421099722405e-05</v>
       </c>
       <c r="E91">
-        <v>1.031872178333909e-05</v>
+        <v>1.49697462275441e-05</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92">
-        <v>1.026038859092282e-05</v>
+        <v>0.000100467931841444</v>
       </c>
       <c r="B92">
-        <v>0.0003215704309137471</v>
+        <v>0.0004997877086947518</v>
       </c>
       <c r="C92">
-        <v>0.9995489924195951</v>
+        <v>0.9990218858495408</v>
       </c>
       <c r="D92">
-        <v>0.0001029326962369264</v>
+        <v>0.000357180899744285</v>
       </c>
       <c r="E92">
-        <v>1.624406466334086e-05</v>
+        <v>2.067761017866227e-05</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93">
-        <v>1.289776557383923e-05</v>
+        <v>2.163409990543463e-05</v>
       </c>
       <c r="B93">
-        <v>0.004946646467894603</v>
+        <v>0.006876621453176562</v>
       </c>
       <c r="C93">
-        <v>0.9948502358320844</v>
+        <v>0.992870192768139</v>
       </c>
       <c r="D93">
-        <v>0.0001611998864813123</v>
+        <v>0.0001747433194595426</v>
       </c>
       <c r="E93">
-        <v>2.902004796595738e-05</v>
+        <v>5.680835931911477e-05</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94">
-        <v>0.7644901335416704</v>
+        <v>0.9976974341683271</v>
       </c>
       <c r="B94">
-        <v>0.04690900400748179</v>
+        <v>0.0004078993438049623</v>
       </c>
       <c r="C94">
-        <v>0.1885781630263881</v>
+        <v>0.001894251784985727</v>
       </c>
       <c r="D94">
-        <v>1.923638895524887e-05</v>
+        <v>3.12960626181373e-07</v>
       </c>
       <c r="E94">
-        <v>3.463035504295167e-06</v>
+        <v>1.017422569276696e-07</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95">
-        <v>4.943284388181737e-08</v>
+        <v>1.480542053150441e-07</v>
       </c>
       <c r="B95">
-        <v>1.869056233852545e-06</v>
+        <v>1.678664050927224e-06</v>
       </c>
       <c r="C95">
-        <v>0.001515498003636602</v>
+        <v>0.0005187387928654459</v>
       </c>
       <c r="D95">
-        <v>4.618696196918463e-07</v>
+        <v>4.505042431812434e-07</v>
       </c>
       <c r="E95">
-        <v>0.9984821216376663</v>
+        <v>0.9994789839846357</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96">
-        <v>6.469514757992552e-06</v>
+        <v>2.045001152041561e-05</v>
       </c>
       <c r="B96">
-        <v>0.0001151105612092644</v>
+        <v>0.0002223676598732064</v>
       </c>
       <c r="C96">
-        <v>0.9998213450472079</v>
+        <v>0.9996916376585955</v>
       </c>
       <c r="D96">
-        <v>4.631574940581877e-05</v>
+        <v>5.05728600341598e-05</v>
       </c>
       <c r="E96">
-        <v>1.075912741868724e-05</v>
+        <v>1.497180997712254e-05</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97">
-        <v>7.002487892071669e-06</v>
+        <v>3.062837469972331e-05</v>
       </c>
       <c r="B97">
-        <v>0.0003904803175053565</v>
+        <v>0.0001894909218922269</v>
       </c>
       <c r="C97">
-        <v>0.9995257543252888</v>
+        <v>0.9996565408051489</v>
       </c>
       <c r="D97">
-        <v>6.542687342326937e-05</v>
+        <v>9.319703371214086e-05</v>
       </c>
       <c r="E97">
-        <v>1.133599589056003e-05</v>
+        <v>3.014286454720512e-05</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98">
-        <v>1.565746008791093e-05</v>
+        <v>2.466542103855788e-05</v>
       </c>
       <c r="B98">
-        <v>0.1877036201159333</v>
+        <v>0.4512085940995886</v>
       </c>
       <c r="C98">
-        <v>0.8120353779273781</v>
+        <v>0.5485027443032326</v>
       </c>
       <c r="D98">
-        <v>0.0002101151198396708</v>
+        <v>0.0001992279580377695</v>
       </c>
       <c r="E98">
-        <v>3.522937676103102e-05</v>
+        <v>6.476821810200008e-05</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99">
-        <v>1.841402558410274e-06</v>
+        <v>3.298534753249819e-05</v>
       </c>
       <c r="B99">
-        <v>0.0001059472413413583</v>
+        <v>0.001489863916535524</v>
       </c>
       <c r="C99">
-        <v>0.9998766807561718</v>
+        <v>0.998351433718673</v>
       </c>
       <c r="D99">
-        <v>1.254964056732715e-05</v>
+        <v>9.186241117996876e-05</v>
       </c>
       <c r="E99">
-        <v>2.980959361406341e-06</v>
+        <v>3.385460607884285e-05</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100">
-        <v>6.962964312690845e-06</v>
+        <v>8.302822457170819e-05</v>
       </c>
       <c r="B100">
-        <v>0.0001203930079597157</v>
+        <v>0.0001986594547955808</v>
       </c>
       <c r="C100">
-        <v>0.9998112158765688</v>
+        <v>0.9994806253549136</v>
       </c>
       <c r="D100">
-        <v>4.984839238983619e-05</v>
+        <v>0.0002243114073803673</v>
       </c>
       <c r="E100">
-        <v>1.157975876930509e-05</v>
+        <v>1.337555833907744e-05</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101">
-        <v>1.634703398686071e-05</v>
+        <v>2.79032706877031e-05</v>
       </c>
       <c r="B101">
-        <v>0.1519290833370135</v>
+        <v>0.3791683050540122</v>
       </c>
       <c r="C101">
-        <v>0.8477984198574594</v>
+        <v>0.6205051405088823</v>
       </c>
       <c r="D101">
-        <v>0.0002193688494741477</v>
+        <v>0.0002253807722558647</v>
       </c>
       <c r="E101">
-        <v>3.678092206622598e-05</v>
+        <v>7.327039416173553e-05</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102">
-        <v>9.901025256531145e-06</v>
+        <v>8.450405255885043e-06</v>
       </c>
       <c r="B102">
-        <v>0.00114937058351416</v>
+        <v>0.0005579933329867794</v>
       </c>
       <c r="C102">
-        <v>0.9987287737411683</v>
+        <v>0.9993428150392425</v>
       </c>
       <c r="D102">
-        <v>9.046595911012202e-05</v>
+        <v>6.630532345890567e-05</v>
       </c>
       <c r="E102">
-        <v>2.148869095103956e-05</v>
+        <v>2.443589905596764e-05</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103">
-        <v>7.804569428497271e-06</v>
+        <v>9.450553338374479e-06</v>
       </c>
       <c r="B103">
-        <v>0.0006236603305849181</v>
+        <v>0.000718478505233421</v>
       </c>
       <c r="C103">
-        <v>0.9992470007072768</v>
+        <v>0.9991707869338822</v>
       </c>
       <c r="D103">
-        <v>0.0001049689774470374</v>
+        <v>7.637945263718795e-05</v>
       </c>
       <c r="E103">
-        <v>1.656541526289823e-05</v>
+        <v>2.490455490899988e-05</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104">
-        <v>9.258735864310929e-06</v>
+        <v>9.466479446386356e-06</v>
       </c>
       <c r="B104">
-        <v>0.9908433366747437</v>
+        <v>0.9963011529584732</v>
       </c>
       <c r="C104">
-        <v>0.009010807340350724</v>
+        <v>0.003588059997901171</v>
       </c>
       <c r="D104">
-        <v>0.000115718273971009</v>
+        <v>7.646280868110156e-05</v>
       </c>
       <c r="E104">
-        <v>2.087897507010981e-05</v>
+        <v>2.485775549840366e-05</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105">
-        <v>2.822940866063665e-05</v>
+        <v>3.444139809889633e-05</v>
       </c>
       <c r="B105">
-        <v>0.001628299635467782</v>
+        <v>0.0002200294289703214</v>
       </c>
       <c r="C105">
-        <v>0.9977621889385452</v>
+        <v>0.9995148770406758</v>
       </c>
       <c r="D105">
-        <v>0.0005355827650748155</v>
+        <v>0.0001953031044999881</v>
       </c>
       <c r="E105">
-        <v>4.569925225179406e-05</v>
+        <v>3.534902775524686e-05</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106">
-        <v>5.945192116762141e-05</v>
+        <v>8.888350455448163e-05</v>
       </c>
       <c r="B106">
-        <v>0.003234162970479957</v>
+        <v>0.0004341699020827638</v>
       </c>
       <c r="C106">
-        <v>0.9962155765364182</v>
+        <v>0.9992272766964055</v>
       </c>
       <c r="D106">
-        <v>0.0004159705118804399</v>
+        <v>0.000192991171851652</v>
       </c>
       <c r="E106">
-        <v>7.48380600539295e-05</v>
+        <v>5.667872510545277e-05</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107">
-        <v>0.0001096042310202237</v>
+        <v>0.0004355995462955085</v>
       </c>
       <c r="B107">
-        <v>0.02525373336515325</v>
+        <v>0.0548991896146024</v>
       </c>
       <c r="C107">
-        <v>0.9743121903613426</v>
+        <v>0.9443650056978817</v>
       </c>
       <c r="D107">
-        <v>0.0002740553183362674</v>
+        <v>0.0002270387219037691</v>
       </c>
       <c r="E107">
-        <v>5.041672414731716e-05</v>
+        <v>7.316641931673113e-05</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108">
-        <v>4.064890211342454e-06</v>
+        <v>6.57639302253357e-06</v>
       </c>
       <c r="B108">
-        <v>0.0001986198869627216</v>
+        <v>0.000418884735378229</v>
       </c>
       <c r="C108">
-        <v>0.999734015899552</v>
+        <v>0.9992578460854704</v>
       </c>
       <c r="D108">
-        <v>5.467148096102538e-05</v>
+        <v>0.0002993623573942719</v>
       </c>
       <c r="E108">
-        <v>8.627842312877368e-06</v>
+        <v>1.73304287345594e-05</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109">
-        <v>3.893006773769489e-06</v>
+        <v>1.4034374273953e-05</v>
       </c>
       <c r="B109">
-        <v>0.0002948878997550148</v>
+        <v>0.0002490003336481194</v>
       </c>
       <c r="C109">
-        <v>0.9996267393228218</v>
+        <v>0.9996049381121419</v>
       </c>
       <c r="D109">
-        <v>6.572599546983114e-05</v>
+        <v>0.0001242597875528432</v>
       </c>
       <c r="E109">
-        <v>8.753775179597755e-06</v>
+        <v>7.767392382914924e-06</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110">
-        <v>5.422373167079592e-06</v>
+        <v>5.12918603382347e-05</v>
       </c>
       <c r="B110">
-        <v>0.9945676880468471</v>
+        <v>0.9899456820180115</v>
       </c>
       <c r="C110">
-        <v>0.005346891482108324</v>
+        <v>0.009599930962048581</v>
       </c>
       <c r="D110">
-        <v>6.777033851239071e-05</v>
+        <v>0.0003734709509355265</v>
       </c>
       <c r="E110">
-        <v>1.222775936536699e-05</v>
+        <v>2.962420866610922e-05</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111">
-        <v>1.289621354318523e-05</v>
+        <v>2.140117973582591e-05</v>
       </c>
       <c r="B111">
-        <v>0.005066384518505022</v>
+        <v>0.01755056502348148</v>
       </c>
       <c r="C111">
-        <v>0.9947305222232963</v>
+        <v>0.9821806103630532</v>
       </c>
       <c r="D111">
-        <v>0.0001611804887675139</v>
+        <v>0.0001912266927692756</v>
       </c>
       <c r="E111">
-        <v>2.901655588790977e-05</v>
+        <v>5.619674095987455e-05</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112">
-        <v>7.07287366687176e-06</v>
+        <v>2.045233488378537e-05</v>
       </c>
       <c r="B112">
-        <v>0.001139830628064762</v>
+        <v>0.000116983852803153</v>
       </c>
       <c r="C112">
-        <v>0.9987667990186887</v>
+        <v>0.9998052144617036</v>
       </c>
       <c r="D112">
-        <v>7.453493604372071e-05</v>
+        <v>4.237583965755291e-05</v>
       </c>
       <c r="E112">
-        <v>1.176254353607252e-05</v>
+        <v>1.497351095195308e-05</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113">
-        <v>2.994264918916221e-05</v>
+        <v>2.596163371470133e-05</v>
       </c>
       <c r="B113">
-        <v>0.001631366589396792</v>
+        <v>0.0004930218327776797</v>
       </c>
       <c r="C113">
-        <v>0.9980898996181996</v>
+        <v>0.9994022672358865</v>
       </c>
       <c r="D113">
-        <v>0.0002095013729691818</v>
+        <v>5.878742285024272e-05</v>
       </c>
       <c r="E113">
-        <v>3.928977024534884e-05</v>
+        <v>1.996187477086719e-05</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114">
-        <v>5.718198510912785e-06</v>
+        <v>2.753814731302221e-05</v>
       </c>
       <c r="B114">
-        <v>0.0004684029097180607</v>
+        <v>0.001969937612605735</v>
       </c>
       <c r="C114">
-        <v>0.9994421057708767</v>
+        <v>0.9977194821060368</v>
       </c>
       <c r="D114">
-        <v>7.162844233229126e-05</v>
+        <v>0.0002134115365635725</v>
       </c>
       <c r="E114">
-        <v>1.214467856202203e-05</v>
+        <v>6.963059748089546e-05</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115">
-        <v>5.148131892452039e-06</v>
+        <v>1.499040503490009e-05</v>
       </c>
       <c r="B115">
-        <v>0.001330335853394028</v>
+        <v>0.0005511566029199846</v>
       </c>
       <c r="C115">
-        <v>0.9986189056445095</v>
+        <v>0.9993891332119706</v>
       </c>
       <c r="D115">
-        <v>3.685586872560111e-05</v>
+        <v>3.267709427639943e-05</v>
       </c>
       <c r="E115">
-        <v>8.754501478423081e-06</v>
+        <v>1.204268579845358e-05</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116">
-        <v>8.300210268988073e-06</v>
+        <v>7.499616248975475e-05</v>
       </c>
       <c r="B116">
-        <v>0.0002410813984122819</v>
+        <v>0.0008864422590656999</v>
       </c>
       <c r="C116">
-        <v>0.9995925524553677</v>
+        <v>0.9982765549638477</v>
       </c>
       <c r="D116">
-        <v>0.000140448509245388</v>
+        <v>0.0007203072077648518</v>
       </c>
       <c r="E116">
-        <v>1.761742670557979e-05</v>
+        <v>4.169940683195963e-05</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117">
-        <v>4.600963203046173e-06</v>
+        <v>2.596601224565359e-05</v>
       </c>
       <c r="B117">
-        <v>0.0002416529277386024</v>
+        <v>0.0003300977597397288</v>
       </c>
       <c r="C117">
-        <v>0.9997155170636612</v>
+        <v>0.9995708203326957</v>
       </c>
       <c r="D117">
-        <v>3.219181114968762e-05</v>
+        <v>5.315065389974347e-05</v>
       </c>
       <c r="E117">
-        <v>6.037234247810611e-06</v>
+        <v>1.996524141903386e-05</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118">
-        <v>5.307276032199063e-06</v>
+        <v>5.461535142441949e-05</v>
       </c>
       <c r="B118">
-        <v>0.0003028983640159065</v>
+        <v>0.0002616441808268035</v>
       </c>
       <c r="C118">
-        <v>0.999612943362328</v>
+        <v>0.9995229556300814</v>
       </c>
       <c r="D118">
-        <v>7.001917300000275e-05</v>
+        <v>0.0001519808203654574</v>
       </c>
       <c r="E118">
-        <v>8.831824623612491e-06</v>
+        <v>8.804017301743912e-06</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119">
-        <v>7.654848120470108e-06</v>
+        <v>8.782547368449621e-06</v>
       </c>
       <c r="B119">
-        <v>0.000104909128190346</v>
+        <v>0.0007118765118238199</v>
       </c>
       <c r="C119">
-        <v>0.9997682331226029</v>
+        <v>0.9991852161248217</v>
       </c>
       <c r="D119">
-        <v>0.0001029552734561089</v>
+        <v>7.09806226941774e-05</v>
       </c>
       <c r="E119">
-        <v>1.624762763042252e-05</v>
+        <v>2.31441932918679e-05</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120">
-        <v>1.132481288077478e-05</v>
+        <v>8.225418976270546e-06</v>
       </c>
       <c r="B120">
-        <v>0.002521728851874103</v>
+        <v>0.001497334666858522</v>
       </c>
       <c r="C120">
-        <v>0.9972913924283913</v>
+        <v>0.9984105676390201</v>
       </c>
       <c r="D120">
-        <v>0.0001519732065255625</v>
+        <v>6.370648579088747e-05</v>
       </c>
       <c r="E120">
-        <v>2.358070032834672e-05</v>
+        <v>2.016578935443331e-05</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121">
-        <v>9.045009132781444e-06</v>
+        <v>3.26114169620453e-05</v>
       </c>
       <c r="B121">
-        <v>0.0006098578848558052</v>
+        <v>0.0006517573791545669</v>
       </c>
       <c r="C121">
-        <v>0.999240234235535</v>
+        <v>0.9989700573902206</v>
       </c>
       <c r="D121">
-        <v>0.0001216524970872088</v>
+        <v>0.0003266513961098572</v>
       </c>
       <c r="E121">
-        <v>1.92103733891969e-05</v>
+        <v>1.892241755291655e-05</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122">
-        <v>6.909693163117677e-06</v>
+        <v>3.561779090912862e-05</v>
       </c>
       <c r="B122">
-        <v>0.0002089616597451692</v>
+        <v>0.000223061548630677</v>
       </c>
       <c r="C122">
-        <v>0.9997384671426524</v>
+        <v>0.9995759498719439</v>
       </c>
       <c r="D122">
-        <v>3.689718820330427e-05</v>
+        <v>0.000155214784048006</v>
       </c>
       <c r="E122">
-        <v>8.76431623632049e-06</v>
+        <v>1.015600446869758e-05</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123">
-        <v>8.028274304051624e-06</v>
+        <v>3.416018616965124e-05</v>
       </c>
       <c r="B123">
-        <v>0.9364796396069617</v>
+        <v>0.6182034721305103</v>
       </c>
       <c r="C123">
-        <v>0.06338653311259648</v>
+        <v>0.3813967481988232</v>
       </c>
       <c r="D123">
-        <v>0.0001077353420050533</v>
+        <v>0.0002759192363321428</v>
       </c>
       <c r="E123">
-        <v>1.80636641326464e-05</v>
+        <v>8.970024816451529e-05</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124">
-        <v>1.088291397325455e-05</v>
+        <v>6.139549223159981e-06</v>
       </c>
       <c r="B124">
-        <v>0.02296205735378912</v>
+        <v>0.00148786833504799</v>
       </c>
       <c r="C124">
-        <v>0.9769040024938248</v>
+        <v>0.9984400650760983</v>
       </c>
       <c r="D124">
-        <v>9.94375052072494e-05</v>
+        <v>4.817340527544439e-05</v>
       </c>
       <c r="E124">
-        <v>2.361973320528126e-05</v>
+        <v>1.775363435520455e-05</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125">
-        <v>3.874817111206677e-08</v>
+        <v>5.423759265884032e-08</v>
       </c>
       <c r="B125">
-        <v>5.450983204633173e-06</v>
+        <v>9.478666409480336e-06</v>
       </c>
       <c r="C125">
-        <v>0.0002308454665134771</v>
+        <v>0.0008491239445864872</v>
       </c>
       <c r="D125">
-        <v>4.842854949459547e-07</v>
+        <v>4.647025701866314e-07</v>
       </c>
       <c r="E125">
-        <v>0.9997631805166156</v>
+        <v>0.9991408784488408</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126">
-        <v>9.88734031785617e-06</v>
+        <v>1.162127911960263e-05</v>
       </c>
       <c r="B126">
-        <v>0.001144175476469261</v>
+        <v>0.0002820110219320105</v>
       </c>
       <c r="C126">
-        <v>0.9985734443077506</v>
+        <v>0.9995078861340377</v>
       </c>
       <c r="D126">
-        <v>0.000251493504809723</v>
+        <v>0.0001678368584739206</v>
       </c>
       <c r="E126">
-        <v>2.099937065222943e-05</v>
+        <v>3.064470643677468e-05</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127">
-        <v>1.753838647795389e-07</v>
+        <v>1.992880302200902e-06</v>
       </c>
       <c r="B127">
-        <v>1.352860526308248e-05</v>
+        <v>0.0002422568342948614</v>
       </c>
       <c r="C127">
-        <v>0.9999843128789537</v>
+        <v>0.99973435055492</v>
       </c>
       <c r="D127">
-        <v>1.602487533223376e-06</v>
+        <v>1.563695101608155e-05</v>
       </c>
       <c r="E127">
-        <v>3.806443848388711e-07</v>
+        <v>5.76277946685377e-06</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128">
-        <v>1.306194103240568e-06</v>
+        <v>4.886743523457536e-06</v>
       </c>
       <c r="B128">
-        <v>3.939760788691743e-05</v>
+        <v>3.698475720337865e-05</v>
       </c>
       <c r="C128">
-        <v>0.008630352632876743</v>
+        <v>0.007024854225988197</v>
       </c>
       <c r="D128">
-        <v>0.9913261711318896</v>
+        <v>0.992930440621295</v>
       </c>
       <c r="E128">
-        <v>2.772433243417907e-06</v>
+        <v>2.83365199065008e-06</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129">
-        <v>6.923430214283181e-06</v>
+        <v>6.762429677426179e-06</v>
       </c>
       <c r="B129">
-        <v>0.7026912620786803</v>
+        <v>0.9695866643317503</v>
       </c>
       <c r="C129">
-        <v>0.297222778201127</v>
+        <v>0.03033407125052678</v>
       </c>
       <c r="D129">
-        <v>6.311757668395143e-05</v>
+        <v>5.302932136710378e-05</v>
       </c>
       <c r="E129">
-        <v>1.591871329468418e-05</v>
+        <v>1.947266667864648e-05</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130">
-        <v>5.83377390611267e-06</v>
+        <v>2.970329342640966e-05</v>
       </c>
       <c r="B130">
-        <v>0.0002143202589895309</v>
+        <v>0.0004163099580801592</v>
       </c>
       <c r="C130">
-        <v>0.9978520684631936</v>
+        <v>0.9931156637624605</v>
       </c>
       <c r="D130">
-        <v>0.001915395156852442</v>
+        <v>0.006421099083009444</v>
       </c>
       <c r="E130">
-        <v>1.238234705834674e-05</v>
+        <v>1.722390302306199e-05</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131">
-        <v>9.327684982477503e-06</v>
+        <v>6.667289524584854e-06</v>
       </c>
       <c r="B131">
-        <v>0.7583337836747663</v>
+        <v>0.933392922596711</v>
       </c>
       <c r="C131">
-        <v>0.2415503751506222</v>
+        <v>0.06652890054257875</v>
       </c>
       <c r="D131">
-        <v>8.503600873316846e-05</v>
+        <v>5.228325553269238e-05</v>
       </c>
       <c r="E131">
-        <v>2.147748089573937e-05</v>
+        <v>1.922631565258665e-05</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132">
-        <v>2.661418296208691e-05</v>
+        <v>4.563556583230366e-05</v>
       </c>
       <c r="B132">
-        <v>0.0008048526288231624</v>
+        <v>0.003241745570983227</v>
       </c>
       <c r="C132">
-        <v>0.9988660601288465</v>
+        <v>0.9962350000191289</v>
       </c>
       <c r="D132">
-        <v>0.0002426286800038409</v>
+        <v>0.0003578629578018668</v>
       </c>
       <c r="E132">
-        <v>5.984437936469531e-05</v>
+        <v>0.0001197558862534334</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133">
-        <v>2.19958917054708e-07</v>
+        <v>4.744087195937832e-07</v>
       </c>
       <c r="B133">
-        <v>9.643786271812369e-06</v>
+        <v>2.70479246406873e-05</v>
       </c>
       <c r="C133">
-        <v>0.001234266714726625</v>
+        <v>0.00221955572083241</v>
       </c>
       <c r="D133">
-        <v>0.9987553749427154</v>
+        <v>0.9977516770124834</v>
       </c>
       <c r="E133">
-        <v>4.945973692155496e-07</v>
+        <v>1.244933323936003e-06</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134">
-        <v>5.532325342833858e-05</v>
+        <v>4.819824300170624e-05</v>
       </c>
       <c r="B134">
-        <v>0.01766936561113047</v>
+        <v>0.003093484562453454</v>
       </c>
       <c r="C134">
-        <v>0.8358600580353748</v>
+        <v>0.9353821503778013</v>
       </c>
       <c r="D134">
-        <v>0.1462908537987401</v>
+        <v>0.06134968600728607</v>
       </c>
       <c r="E134">
-        <v>0.000124399301326328</v>
+        <v>0.0001264808094576507</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135">
-        <v>7.077655377565814e-06</v>
+        <v>2.045288839994217e-05</v>
       </c>
       <c r="B135">
-        <v>0.0004884537236395883</v>
+        <v>8.771570726532626e-05</v>
       </c>
       <c r="C135">
-        <v>0.999442028650754</v>
+        <v>0.9998322729048115</v>
       </c>
       <c r="D135">
-        <v>5.066947446763392e-05</v>
+        <v>4.458458333271063e-05</v>
       </c>
       <c r="E135">
-        <v>1.177049576070777e-05</v>
+        <v>1.497391619078195e-05</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136">
-        <v>5.546384749807817e-05</v>
+        <v>4.869212048700351e-05</v>
       </c>
       <c r="B136">
-        <v>0.0151729494902402</v>
+        <v>0.01411899250957399</v>
       </c>
       <c r="C136">
-        <v>0.8379842456058724</v>
+        <v>0.9237262149128324</v>
       </c>
       <c r="D136">
-        <v>0.1466626256166772</v>
+        <v>0.06197832362480214</v>
       </c>
       <c r="E136">
-        <v>0.0001247154397123122</v>
+        <v>0.0001277768323046059</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137">
-        <v>5.142798894524504e-05</v>
+        <v>7.401573169859963e-05</v>
       </c>
       <c r="B137">
-        <v>0.008083421096555308</v>
+        <v>0.01166397731430007</v>
       </c>
       <c r="C137">
-        <v>0.9912781352189065</v>
+        <v>0.9874685999884812</v>
       </c>
       <c r="D137">
-        <v>0.00046884419073891</v>
+        <v>0.0005804132848240205</v>
       </c>
       <c r="E137">
-        <v>0.0001181715048542415</v>
+        <v>0.0002129936806962829</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138">
-        <v>7.267780105829493e-06</v>
+        <v>6.143639602078979e-06</v>
       </c>
       <c r="B138">
-        <v>0.001801012015716961</v>
+        <v>0.0007491459254783515</v>
       </c>
       <c r="C138">
-        <v>0.9980785350926236</v>
+        <v>0.9991052601980251</v>
       </c>
       <c r="D138">
-        <v>9.7749331722677e-05</v>
+        <v>0.0001232497799462483</v>
       </c>
       <c r="E138">
-        <v>1.543577983106223e-05</v>
+        <v>1.620045694810668e-05</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139">
-        <v>2.090031207602756e-07</v>
+        <v>2.50408016386984e-07</v>
       </c>
       <c r="B139">
-        <v>3.04840037661583e-05</v>
+        <v>1.720256748363687e-05</v>
       </c>
       <c r="C139">
-        <v>0.001039069100978832</v>
+        <v>0.001101145264758136</v>
       </c>
       <c r="D139">
-        <v>0.9989297679298563</v>
+        <v>0.9988807446443236</v>
       </c>
       <c r="E139">
-        <v>4.69962277820096e-07</v>
+        <v>6.571154182153322e-07</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140">
-        <v>1.671325518435494e-05</v>
+        <v>7.392707880027593e-05</v>
       </c>
       <c r="B140">
-        <v>0.8109836605781465</v>
+        <v>0.3826642939540398</v>
       </c>
       <c r="C140">
-        <v>0.188737737893811</v>
+        <v>0.6164705309245684</v>
       </c>
       <c r="D140">
-        <v>0.0002242833509556969</v>
+        <v>0.0005971250573850883</v>
       </c>
       <c r="E140">
-        <v>3.760492190221227e-05</v>
+        <v>0.000194122985206498</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141">
-        <v>2.902183209205093e-05</v>
+        <v>6.114734949083567e-05</v>
       </c>
       <c r="B141">
-        <v>0.007377516862322285</v>
+        <v>0.01576854838568936</v>
       </c>
       <c r="C141">
-        <v>0.9922636250542204</v>
+        <v>0.9835303401086135</v>
       </c>
       <c r="D141">
-        <v>0.0002645780568134811</v>
+        <v>0.000479502575490041</v>
       </c>
       <c r="E141">
-        <v>6.525819455172922e-05</v>
+        <v>0.0001604615807160642</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142">
-        <v>3.874581568397244e-08</v>
+        <v>5.424768750101822e-08</v>
       </c>
       <c r="B142">
-        <v>5.356473762219463e-06</v>
+        <v>5.645745022227573e-06</v>
       </c>
       <c r="C142">
-        <v>0.000291713722107768</v>
+        <v>0.000568334712551351</v>
       </c>
       <c r="D142">
-        <v>4.842560561459356e-07</v>
+        <v>4.647890618407734e-07</v>
       </c>
       <c r="E142">
-        <v>0.9997024068022574</v>
+        <v>0.9994255005056768</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143">
-        <v>3.026448948229197e-06</v>
+        <v>4.471305837896844e-06</v>
       </c>
       <c r="B143">
-        <v>0.007531282869498186</v>
+        <v>0.004688749769112868</v>
       </c>
       <c r="C143">
-        <v>0.9924187755631891</v>
+        <v>0.9952592310730567</v>
       </c>
       <c r="D143">
-        <v>4.061339961114136e-05</v>
+        <v>3.611570751028337e-05</v>
       </c>
       <c r="E143">
-        <v>6.301718753197657e-06</v>
+        <v>1.143214448257755e-05</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144">
-        <v>4.141918213517924e-05</v>
+        <v>6.076029049610951e-05</v>
       </c>
       <c r="B144">
-        <v>0.486011966923407</v>
+        <v>0.03574602205838519</v>
       </c>
       <c r="C144">
-        <v>0.5133825319263918</v>
+        <v>0.9636326060026414</v>
       </c>
       <c r="D144">
-        <v>0.000470888566046757</v>
+        <v>0.0004010629531340761</v>
       </c>
       <c r="E144">
-        <v>9.319340201931083e-05</v>
+        <v>0.0001595486953432112</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145">
-        <v>1.989288615655677e-05</v>
+        <v>3.519125839096475e-05</v>
       </c>
       <c r="B145">
-        <v>0.0007893972273911264</v>
+        <v>0.001246875068824515</v>
       </c>
       <c r="C145">
-        <v>0.9989464987195786</v>
+        <v>0.9979080199748689</v>
       </c>
       <c r="D145">
-        <v>0.0002091634291250391</v>
+        <v>0.0007842577875993524</v>
       </c>
       <c r="E145">
-        <v>3.504773774865787e-05</v>
+        <v>2.565591031639615e-05</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146">
-        <v>3.874843654486667e-08</v>
+        <v>5.424725945406891e-08</v>
       </c>
       <c r="B146">
-        <v>2.815441950910366e-05</v>
+        <v>5.080996495362817e-06</v>
       </c>
       <c r="C146">
-        <v>0.0002013099989158117</v>
+        <v>0.0005769069722344537</v>
       </c>
       <c r="D146">
-        <v>4.677367651669347e-07</v>
+        <v>3.433478863593922e-07</v>
       </c>
       <c r="E146">
-        <v>0.9997700290963728</v>
+        <v>0.9994176144361251</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147">
-        <v>1.109563151926763e-05</v>
+        <v>6.435918727681786e-06</v>
       </c>
       <c r="B147">
-        <v>0.0006354106507599899</v>
+        <v>0.001531995654117553</v>
       </c>
       <c r="C147">
-        <v>0.9993001893003807</v>
+        <v>0.9983909979899873</v>
       </c>
       <c r="D147">
-        <v>4.488643958060376e-05</v>
+        <v>5.13002660378408e-05</v>
       </c>
       <c r="E147">
-        <v>8.417977759568596e-06</v>
+        <v>1.927017112974971e-05</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148">
-        <v>2.760108772573475e-06</v>
+        <v>2.91225877482137e-06</v>
       </c>
       <c r="B148">
-        <v>0.0001111816988744881</v>
+        <v>0.0001634196899169782</v>
       </c>
       <c r="C148">
-        <v>0.9998453552275453</v>
+        <v>0.9997980327157967</v>
       </c>
       <c r="D148">
-        <v>3.449661247661194e-05</v>
+        <v>2.830730512219066e-05</v>
       </c>
       <c r="E148">
-        <v>6.206352331349512e-06</v>
+        <v>7.328030389081014e-06</v>
       </c>
     </row>
     <row r="149" spans="1:5">
       <c r="A149">
-        <v>4.39784106882388e-08</v>
+        <v>6.086883686491769e-08</v>
       </c>
       <c r="B149">
-        <v>1.570394472365341e-06</v>
+        <v>2.9276590781397e-06</v>
       </c>
       <c r="C149">
-        <v>0.0004732876298267113</v>
+        <v>0.0003648833140242008</v>
       </c>
       <c r="D149">
-        <v>5.496544940273993e-07</v>
+        <v>5.215184441042423e-07</v>
       </c>
       <c r="E149">
-        <v>0.9995245483427964</v>
+        <v>0.9996316066396174</v>
       </c>
     </row>
     <row r="150" spans="1:5">
       <c r="A150">
-        <v>2.335970084878476e-05</v>
+        <v>0.2077640646730309</v>
       </c>
       <c r="B150">
-        <v>0.002641147171803364</v>
+        <v>0.001040269223264639</v>
       </c>
       <c r="C150">
-        <v>0.9837116866263178</v>
+        <v>0.7890717573741733</v>
       </c>
       <c r="D150">
-        <v>0.01357128011683006</v>
+        <v>0.002085433942584155</v>
       </c>
       <c r="E150">
-        <v>5.252638420018031e-05</v>
+        <v>3.84747869468613e-05</v>
       </c>
     </row>
     <row r="151" spans="1:5">
       <c r="A151">
-        <v>1.663494047947118e-05</v>
+        <v>4.114085513453093e-05</v>
       </c>
       <c r="B151">
-        <v>0.001347840422683905</v>
+        <v>0.001348530484792717</v>
       </c>
       <c r="C151">
-        <v>0.9983973172297971</v>
+        <v>0.9970401789976213</v>
       </c>
       <c r="D151">
-        <v>0.0002008022501657068</v>
+        <v>0.001466628148750347</v>
       </c>
       <c r="E151">
-        <v>3.740515687371446e-05</v>
+        <v>0.0001035215137010324</v>
       </c>
     </row>
     <row r="152" spans="1:5">
       <c r="A152">
-        <v>1.073389459851535e-05</v>
+        <v>1.172474740921654e-05</v>
       </c>
       <c r="B152">
-        <v>0.9692445158974666</v>
+        <v>0.9838650759819456</v>
       </c>
       <c r="C152">
-        <v>0.03058638944517618</v>
+        <v>0.015997708265347</v>
       </c>
       <c r="D152">
-        <v>0.000134155220985924</v>
+        <v>9.470332905306094e-05</v>
       </c>
       <c r="E152">
-        <v>2.420554177287433e-05</v>
+        <v>3.078767624537564e-05</v>
       </c>
     </row>
     <row r="153" spans="1:5">
       <c r="A153">
-        <v>3.874708244762771e-08</v>
+        <v>5.424946526542676e-08</v>
       </c>
       <c r="B153">
-        <v>5.924552992183365e-06</v>
+        <v>7.03105919920432e-06</v>
       </c>
       <c r="C153">
-        <v>0.0002584611499808921</v>
+        <v>0.0005341969606508307</v>
       </c>
       <c r="D153">
-        <v>4.842718885128877e-07</v>
+        <v>4.64804293558284e-07</v>
       </c>
       <c r="E153">
-        <v>0.999735091278056</v>
+        <v>0.9994582529263906</v>
       </c>
     </row>
     <row r="154" spans="1:5">
       <c r="A154">
-        <v>1.638157909743798e-05</v>
+        <v>4.219271876239263e-05</v>
       </c>
       <c r="B154">
-        <v>0.001011739720136269</v>
+        <v>0.00103003902366049</v>
       </c>
       <c r="C154">
-        <v>0.9988260035600297</v>
+        <v>0.9988050879865363</v>
       </c>
       <c r="D154">
-        <v>0.000117013703356507</v>
+        <v>9.192000107418822e-05</v>
       </c>
       <c r="E154">
-        <v>2.886143738004874e-05</v>
+        <v>3.076026996666868e-05</v>
       </c>
     </row>
     <row r="155" spans="1:5">
       <c r="A155">
-        <v>3.494520963664431e-07</v>
+        <v>1.389249970643961e-06</v>
       </c>
       <c r="B155">
-        <v>1.656273216622995e-05</v>
+        <v>1.525718595290089e-05</v>
       </c>
       <c r="C155">
-        <v>0.002748714169570762</v>
+        <v>0.001898578019834841</v>
       </c>
       <c r="D155">
-        <v>0.9972336319243919</v>
+        <v>0.9980839699666775</v>
       </c>
       <c r="E155">
-        <v>7.417217751517981e-07</v>
+        <v>8.05577564267278e-07</v>
       </c>
     </row>
     <row r="156" spans="1:5">
       <c r="A156">
-        <v>6.362517123701095e-06</v>
+        <v>5.680797064338546e-06</v>
       </c>
       <c r="B156">
-        <v>0.01227482157843467</v>
+        <v>0.008285577989085136</v>
       </c>
       <c r="C156">
-        <v>0.9876201860418332</v>
+        <v>0.9916483316360203</v>
       </c>
       <c r="D156">
-        <v>8.538173116344704e-05</v>
+        <v>4.588503060158156e-05</v>
       </c>
       <c r="E156">
-        <v>1.324813144442045e-05</v>
+        <v>1.452454722852685e-05</v>
       </c>
     </row>
     <row r="157" spans="1:5">
       <c r="A157">
-        <v>6.920398258815989e-06</v>
+        <v>2.027939503984417e-05</v>
       </c>
       <c r="B157">
-        <v>0.001817268676111954</v>
+        <v>0.0008440093101844555</v>
       </c>
       <c r="C157">
-        <v>0.9980680357814292</v>
+        <v>0.9989208163734403</v>
       </c>
       <c r="D157">
-        <v>9.307715632610402e-05</v>
+        <v>0.0002031280244503967</v>
       </c>
       <c r="E157">
-        <v>1.469798787399584e-05</v>
+        <v>1.176689688494937e-05</v>
       </c>
     </row>
     <row r="158" spans="1:5">
       <c r="A158">
-        <v>5.425218606109625e-05</v>
+        <v>8.882836580257677e-05</v>
       </c>
       <c r="B158">
-        <v>0.01566173672415732</v>
+        <v>0.001085482447842552</v>
       </c>
       <c r="C158">
-        <v>0.983849102834142</v>
+        <v>0.9986074075184003</v>
       </c>
       <c r="D158">
-        <v>0.0003666156205362067</v>
+        <v>0.0001616381034132034</v>
       </c>
       <c r="E158">
-        <v>6.829263510341357e-05</v>
+        <v>5.664356454132395e-05</v>
       </c>
     </row>
     <row r="159" spans="1:5">
       <c r="A159">
-        <v>1.136899513464591e-05</v>
+        <v>4.045816408450312e-05</v>
       </c>
       <c r="B159">
-        <v>0.0005766031972990179</v>
+        <v>0.001045070509611267</v>
       </c>
       <c r="C159">
-        <v>0.9992874098733718</v>
+        <v>0.9987515727093846</v>
       </c>
       <c r="D159">
-        <v>0.0001062247899730649</v>
+        <v>0.0001231074426599863</v>
       </c>
       <c r="E159">
-        <v>1.839314422168407e-05</v>
+        <v>3.979117425972678e-05</v>
       </c>
     </row>
     <row r="160" spans="1:5">
       <c r="A160">
-        <v>5.995111730501366e-05</v>
+        <v>0.0002483459333543596</v>
       </c>
       <c r="B160">
-        <v>0.005360826211958161</v>
+        <v>0.02763102789470326</v>
       </c>
       <c r="C160">
-        <v>0.9936398189224108</v>
+        <v>0.9694921485974279</v>
       </c>
       <c r="D160">
-        <v>0.0008045133838016876</v>
+        <v>0.002485042501140866</v>
       </c>
       <c r="E160">
-        <v>0.0001348903645243069</v>
+        <v>0.0001434350733733283</v>
       </c>
     </row>
     <row r="161" spans="1:5">
       <c r="A161">
-        <v>8.56362140189304e-06</v>
+        <v>7.177290127784452e-06</v>
       </c>
       <c r="B161">
-        <v>0.0008610546608346714</v>
+        <v>0.0004883305477169024</v>
       </c>
       <c r="C161">
-        <v>0.9990335496006376</v>
+        <v>0.9991665462469081</v>
       </c>
       <c r="D161">
-        <v>7.824606073670857e-05</v>
+        <v>0.0003171914624433398</v>
       </c>
       <c r="E161">
-        <v>1.858605638901885e-05</v>
+        <v>2.075445280399928e-05</v>
       </c>
     </row>
     <row r="162" spans="1:5">
       <c r="A162">
-        <v>3.185090121074329e-06</v>
+        <v>4.423363776075075e-06</v>
       </c>
       <c r="B162">
-        <v>0.00133397317324525</v>
+        <v>0.001338544171431868</v>
       </c>
       <c r="C162">
-        <v>0.9986268267138783</v>
+        <v>0.9986095339810492</v>
       </c>
       <c r="D162">
-        <v>2.910226215866814e-05</v>
+        <v>3.470751485496018e-05</v>
       </c>
       <c r="E162">
-        <v>6.912760596972237e-06</v>
+        <v>1.27909688881156e-05</v>
       </c>
     </row>
     <row r="163" spans="1:5">
       <c r="A163">
-        <v>3.617354202039327e-06</v>
+        <v>2.659588325666195e-06</v>
       </c>
       <c r="B163">
-        <v>0.7810383416228351</v>
+        <v>0.9867352296660481</v>
       </c>
       <c r="C163">
-        <v>0.218916746137795</v>
+        <v>0.0132335965206817</v>
       </c>
       <c r="D163">
-        <v>3.297767496366253e-05</v>
+        <v>2.085584187244807e-05</v>
       </c>
       <c r="E163">
-        <v>8.317210204385236e-06</v>
+        <v>7.658383072136969e-06</v>
       </c>
     </row>
     <row r="164" spans="1:5">
       <c r="A164">
-        <v>1.345811952287059e-05</v>
+        <v>8.210067424682087e-06</v>
       </c>
       <c r="B164">
-        <v>0.001420929317031058</v>
+        <v>0.0008694286147068744</v>
       </c>
       <c r="C164">
-        <v>0.9984134548817242</v>
+        <v>0.9990342161655618</v>
       </c>
       <c r="D164">
-        <v>0.0001229672340904321</v>
+        <v>6.441953488962647e-05</v>
       </c>
       <c r="E164">
-        <v>2.919044763172598e-05</v>
+        <v>2.372561741703513e-05</v>
       </c>
     </row>
     <row r="165" spans="1:5">
       <c r="A165">
-        <v>4.639022666424833e-07</v>
+        <v>4.199822377935203e-06</v>
       </c>
       <c r="B165">
-        <v>0.0007612837401763917</v>
+        <v>0.0001818014289295389</v>
       </c>
       <c r="C165">
-        <v>0.003321214498617624</v>
+        <v>0.006549074379822121</v>
       </c>
       <c r="D165">
-        <v>0.9959159940761263</v>
+        <v>0.993262498712759</v>
       </c>
       <c r="E165">
-        <v>1.043782812798782e-06</v>
+        <v>2.425656111205685e-06</v>
       </c>
     </row>
     <row r="166" spans="1:5">
       <c r="A166">
-        <v>6.668555736758432e-07</v>
+        <v>1.069743047971461e-06</v>
       </c>
       <c r="B166">
-        <v>0.001174040083280849</v>
+        <v>7.310073475435929e-05</v>
       </c>
       <c r="C166">
-        <v>0.9988177526720993</v>
+        <v>0.9999143425237628</v>
       </c>
       <c r="D166">
-        <v>6.093078999139106e-06</v>
+        <v>8.393639910259503e-06</v>
       </c>
       <c r="E166">
-        <v>1.44731004723433e-06</v>
+        <v>3.093358524770066e-06</v>
       </c>
     </row>
     <row r="167" spans="1:5">
       <c r="A167">
-        <v>1.011984562145521e-05</v>
+        <v>1.476727711821046e-05</v>
       </c>
       <c r="B167">
-        <v>0.0007423456442779511</v>
+        <v>0.0003128607400087341</v>
       </c>
       <c r="C167">
-        <v>0.9990992896217606</v>
+        <v>0.999520615261982</v>
       </c>
       <c r="D167">
-        <v>0.0001267652350866681</v>
+        <v>0.0001144415150676128</v>
       </c>
       <c r="E167">
-        <v>2.147965325335132e-05</v>
+        <v>3.731520582386094e-05</v>
       </c>
     </row>
     <row r="168" spans="1:5">
       <c r="A168">
-        <v>7.565103442585441e-06</v>
+        <v>7.790004475986796e-06</v>
       </c>
       <c r="B168">
-        <v>0.0003696483576444191</v>
+        <v>0.0004961859719055882</v>
       </c>
       <c r="C168">
-        <v>0.9880470498112086</v>
+        <v>0.9918224013147146</v>
       </c>
       <c r="D168">
-        <v>0.01155967958564402</v>
+        <v>0.007653094112612259</v>
       </c>
       <c r="E168">
-        <v>1.605714206034529e-05</v>
+        <v>2.052859629137208e-05</v>
       </c>
     </row>
     <row r="169" spans="1:5">
       <c r="A169">
-        <v>1.901767362047207e-05</v>
+        <v>6.164528108784251e-06</v>
       </c>
       <c r="B169">
-        <v>0.9782836450312514</v>
+        <v>0.971505169303117</v>
       </c>
       <c r="C169">
-        <v>0.02152373123391366</v>
+        <v>0.02841739679340263</v>
       </c>
       <c r="D169">
-        <v>0.0001470702660239601</v>
+        <v>5.508211870921686e-05</v>
       </c>
       <c r="E169">
-        <v>2.653579519029098e-05</v>
+        <v>1.618725666273855e-05</v>
       </c>
     </row>
     <row r="170" spans="1:5">
       <c r="A170">
-        <v>0.0001273870140068483</v>
+        <v>0.0004933035631615023</v>
       </c>
       <c r="B170">
-        <v>0.04225629150443219</v>
+        <v>0.06178735798988085</v>
       </c>
       <c r="C170">
-        <v>0.9572404603916409</v>
+        <v>0.9374113566345269</v>
       </c>
       <c r="D170">
-        <v>0.0003185195347897817</v>
+        <v>0.0002324222589149734</v>
       </c>
       <c r="E170">
-        <v>5.734155513047127e-05</v>
+        <v>7.555955351563013e-05</v>
       </c>
     </row>
     <row r="171" spans="1:5">
       <c r="A171">
-        <v>0.9965883783929049</v>
+        <v>0.2108121971327957</v>
       </c>
       <c r="B171">
-        <v>0.0002108340359962974</v>
+        <v>0.01358320914723628</v>
       </c>
       <c r="C171">
-        <v>0.00319926393036198</v>
+        <v>0.7742323316267541</v>
       </c>
       <c r="D171">
-        <v>1.291193347616119e-06</v>
+        <v>0.001304213197709736</v>
       </c>
       <c r="E171">
-        <v>2.324473900016597e-07</v>
+        <v>6.804889550384012e-05</v>
       </c>
     </row>
     <row r="172" spans="1:5">
       <c r="A172">
-        <v>1.379841975738463e-05</v>
+        <v>5.294333848049924e-05</v>
       </c>
       <c r="B172">
-        <v>0.7679546239783945</v>
+        <v>0.2944255508999561</v>
       </c>
       <c r="C172">
-        <v>0.2318436588798526</v>
+        <v>0.7050330180993239</v>
       </c>
       <c r="D172">
-        <v>0.0001568721968497645</v>
+        <v>0.0003494652758634455</v>
       </c>
       <c r="E172">
-        <v>3.104652514586837e-05</v>
+        <v>0.0001390223863761571</v>
       </c>
     </row>
     <row r="173" spans="1:5">
       <c r="A173">
-        <v>5.966129772675214e-06</v>
+        <v>2.08494252376984e-05</v>
       </c>
       <c r="B173">
-        <v>0.001750146497955246</v>
+        <v>0.01106942743707268</v>
       </c>
       <c r="C173">
-        <v>0.9981764156567873</v>
+        <v>0.9886857923197986</v>
       </c>
       <c r="D173">
-        <v>5.451270328842836e-05</v>
+        <v>0.0001635930872492904</v>
       </c>
       <c r="E173">
-        <v>1.295901219607404e-05</v>
+        <v>6.033773064136719e-05</v>
       </c>
     </row>
     <row r="174" spans="1:5">
       <c r="A174">
-        <v>9.129960699262257e-06</v>
+        <v>1.554589640678128e-05</v>
       </c>
       <c r="B174">
-        <v>0.007107547343482892</v>
+        <v>0.01428048480155716</v>
       </c>
       <c r="C174">
-        <v>0.9927486714249621</v>
+        <v>0.9855375802021041</v>
       </c>
       <c r="D174">
-        <v>0.0001141088058915486</v>
+        <v>0.0001255675786822413</v>
       </c>
       <c r="E174">
-        <v>2.054246496442013e-05</v>
+        <v>4.082152124999277e-05</v>
       </c>
     </row>
     <row r="175" spans="1:5">
       <c r="A175">
-        <v>3.850495231611443e-06</v>
+        <v>1.286645339946856e-05</v>
       </c>
       <c r="B175">
-        <v>0.0005001979556426003</v>
+        <v>0.00142643913830289</v>
       </c>
       <c r="C175">
-        <v>0.999435990829461</v>
+        <v>0.9984308314600691</v>
       </c>
       <c r="D175">
-        <v>5.178793664787356e-05</v>
+        <v>9.595664838588449e-05</v>
       </c>
       <c r="E175">
-        <v>8.172783016901744e-06</v>
+        <v>3.390629984278455e-05</v>
       </c>
     </row>
     <row r="176" spans="1:5">
       <c r="A176">
-        <v>1.505312433158343e-06</v>
+        <v>3.737216833663499e-06</v>
       </c>
       <c r="B176">
-        <v>5.486281413359987e-05</v>
+        <v>8.44891588020111e-05</v>
       </c>
       <c r="C176">
-        <v>0.99992614732513</v>
+        <v>0.9998478966079947</v>
       </c>
       <c r="D176">
-        <v>1.510136444159964e-05</v>
+        <v>6.038146443887726e-05</v>
       </c>
       <c r="E176">
-        <v>2.383183861514535e-06</v>
+        <v>3.49555193062599e-06</v>
       </c>
     </row>
     <row r="177" spans="1:5">
       <c r="A177">
-        <v>5.449676178796053e-06</v>
+        <v>8.419818178195063e-05</v>
       </c>
       <c r="B177">
-        <v>0.0001986196119155711</v>
+        <v>0.0004188522205819546</v>
       </c>
       <c r="C177">
-        <v>0.9997326314762881</v>
+        <v>0.9991802813939293</v>
       </c>
       <c r="D177">
-        <v>5.467140525241793e-05</v>
+        <v>0.0002993391201997869</v>
       </c>
       <c r="E177">
-        <v>8.627830365113831e-06</v>
+        <v>1.732908350683431e-05</v>
       </c>
     </row>
     <row r="178" spans="1:5">
       <c r="A178">
-        <v>4.94762662461671e-08</v>
+        <v>1.48052044562124e-07</v>
       </c>
       <c r="B178">
-        <v>3.582571076318336e-06</v>
+        <v>4.388285663445594e-06</v>
       </c>
       <c r="C178">
-        <v>0.0006367061481646988</v>
+        <v>0.0005306591769584933</v>
       </c>
       <c r="D178">
-        <v>4.622753311446666e-07</v>
+        <v>4.072335013831058e-07</v>
       </c>
       <c r="E178">
-        <v>0.9993591995291607</v>
+        <v>0.9994643972518326</v>
       </c>
     </row>
     <row r="179" spans="1:5">
       <c r="A179">
-        <v>1.591615448560952e-05</v>
+        <v>1.28867135633183e-05</v>
       </c>
       <c r="B179">
-        <v>0.001007800271400594</v>
+        <v>0.0004502286607098247</v>
       </c>
       <c r="C179">
-        <v>0.9987415701155927</v>
+        <v>0.9994046496092075</v>
       </c>
       <c r="D179">
-        <v>0.0001989245564753715</v>
+        <v>9.980856134881113e-05</v>
       </c>
       <c r="E179">
-        <v>3.57889020459798e-05</v>
+        <v>3.24264551707536e-05</v>
       </c>
     </row>
     <row r="180" spans="1:5">
       <c r="A180">
-        <v>3.077984466376637e-06</v>
+        <v>4.872157247875236e-06</v>
       </c>
       <c r="B180">
-        <v>0.0005278928797835422</v>
+        <v>0.0006662866459915917</v>
       </c>
       <c r="C180">
-        <v>0.9994236341407741</v>
+        <v>0.9992766940681557</v>
       </c>
       <c r="D180">
-        <v>3.8469511926744e-05</v>
+        <v>3.935347133202047e-05</v>
       </c>
       <c r="E180">
-        <v>6.925483049087009e-06</v>
+        <v>1.279365727284071e-05</v>
       </c>
     </row>
     <row r="181" spans="1:5">
       <c r="A181">
-        <v>6.8158277071684e-06</v>
+        <v>4.004326641073819e-05</v>
       </c>
       <c r="B181">
-        <v>0.9461019441761984</v>
+        <v>0.5524597576796445</v>
       </c>
       <c r="C181">
-        <v>0.05381376772741171</v>
+        <v>0.4470810410829397</v>
       </c>
       <c r="D181">
-        <v>6.213661648301067e-05</v>
+        <v>0.0003140095120208031</v>
       </c>
       <c r="E181">
-        <v>1.533565219939494e-05</v>
+        <v>0.0001051484589844578</v>
       </c>
     </row>
     <row r="182" spans="1:5">
       <c r="A182">
-        <v>2.39351259876145e-05</v>
+        <v>4.971094355906902e-05</v>
       </c>
       <c r="B182">
-        <v>0.7829383544719405</v>
+        <v>0.5942013827848126</v>
       </c>
       <c r="C182">
-        <v>0.2166626590589083</v>
+        <v>0.4052168456596735</v>
       </c>
       <c r="D182">
-        <v>0.0003211971697215579</v>
+        <v>0.000401526078225956</v>
       </c>
       <c r="E182">
-        <v>5.3854173442311e-05</v>
+        <v>0.0001305345337286912</v>
       </c>
     </row>
     <row r="183" spans="1:5">
       <c r="A183">
-        <v>6.469079519626225e-06</v>
+        <v>1.827025507989759e-05</v>
       </c>
       <c r="B183">
-        <v>0.000160518654292203</v>
+        <v>0.0002257428159617304</v>
       </c>
       <c r="C183">
-        <v>0.9997540817940713</v>
+        <v>0.999511557088563</v>
       </c>
       <c r="D183">
-        <v>6.817206852081963e-05</v>
+        <v>0.0002310538681121787</v>
       </c>
       <c r="E183">
-        <v>1.075840359546155e-05</v>
+        <v>1.337597228327751e-05</v>
       </c>
     </row>
     <row r="184" spans="1:5">
       <c r="A184">
-        <v>0.01323027193687802</v>
+        <v>0.002454015540514295</v>
       </c>
       <c r="B184">
-        <v>0.01239106830139924</v>
+        <v>0.06818495988184743</v>
       </c>
       <c r="C184">
-        <v>0.9738019461144308</v>
+        <v>0.9285523758137434</v>
       </c>
       <c r="D184">
-        <v>0.0004856374682659851</v>
+        <v>0.0006036673120455692</v>
       </c>
       <c r="E184">
-        <v>9.107617902585434e-05</v>
+        <v>0.0002049814518492693</v>
       </c>
     </row>
     <row r="185" spans="1:5">
       <c r="A185">
-        <v>1.046213003318225e-05</v>
+        <v>2.604078719187425e-05</v>
       </c>
       <c r="B185">
-        <v>0.0007390741663438285</v>
+        <v>0.0002068702087920565</v>
       </c>
       <c r="C185">
-        <v>0.9991289436697157</v>
+        <v>0.9996680323479671</v>
       </c>
       <c r="D185">
-        <v>0.0001049565757820793</v>
+        <v>7.469978086778006e-05</v>
       </c>
       <c r="E185">
-        <v>1.656345812532312e-05</v>
+        <v>2.435687518145561e-05</v>
       </c>
     </row>
     <row r="186" spans="1:5">
       <c r="A186">
-        <v>1.448518132614781e-05</v>
+        <v>1.470283961734293e-05</v>
       </c>
       <c r="B186">
-        <v>0.2485828245261058</v>
+        <v>0.9276116430230483</v>
       </c>
       <c r="C186">
-        <v>0.7512380441325087</v>
+        <v>0.07221975029845096</v>
       </c>
       <c r="D186">
-        <v>0.0001320544173678415</v>
+        <v>0.0001152960761543647</v>
       </c>
       <c r="E186">
-        <v>3.259174269169723e-05</v>
+        <v>3.860776272848383e-05</v>
       </c>
     </row>
     <row r="187" spans="1:5">
       <c r="A187">
-        <v>6.547591187246024e-06</v>
+        <v>5.28555425684441e-06</v>
       </c>
       <c r="B187">
-        <v>0.002742249249204018</v>
+        <v>0.002284903220114956</v>
       </c>
       <c r="C187">
-        <v>0.997177167061213</v>
+        <v>0.9976530544618504</v>
       </c>
       <c r="D187">
-        <v>5.982553334307131e-05</v>
+        <v>4.147261273837673e-05</v>
       </c>
       <c r="E187">
-        <v>1.421056505271197e-05</v>
+        <v>1.528415103940038e-05</v>
       </c>
     </row>
     <row r="188" spans="1:5">
       <c r="A188">
-        <v>7.489755540496859e-06</v>
+        <v>9.185531925608999e-06</v>
       </c>
       <c r="B188">
-        <v>0.000760593943069288</v>
+        <v>0.000205590120023488</v>
       </c>
       <c r="C188">
-        <v>0.9877714731032697</v>
+        <v>0.9934822029432511</v>
       </c>
       <c r="D188">
-        <v>0.01144454598407402</v>
+        <v>0.006278815247126526</v>
       </c>
       <c r="E188">
-        <v>1.589721404654251e-05</v>
+        <v>2.42061576734139e-05</v>
       </c>
     </row>
     <row r="189" spans="1:5">
       <c r="A189">
-        <v>8.002954364017525e-05</v>
+        <v>2.201842770438905e-05</v>
       </c>
       <c r="B189">
-        <v>0.02441227079172918</v>
+        <v>0.007068607826115061</v>
       </c>
       <c r="C189">
-        <v>0.9745981552709818</v>
+        <v>0.9926789303234619</v>
       </c>
       <c r="D189">
-        <v>0.0007295907810653642</v>
+        <v>0.0001726631306247896</v>
       </c>
       <c r="E189">
-        <v>0.0001799536125835117</v>
+        <v>5.778029209357908e-05</v>
       </c>
     </row>
     <row r="190" spans="1:5">
       <c r="A190">
-        <v>2.585936174382725e-05</v>
+        <v>1.639720063338797e-05</v>
       </c>
       <c r="B190">
-        <v>0.0007510907421880279</v>
+        <v>0.000918569100399869</v>
       </c>
       <c r="C190">
-        <v>0.7578024373152624</v>
+        <v>0.8080541400920918</v>
       </c>
       <c r="D190">
-        <v>0.2413657253676615</v>
+        <v>0.1909676829112779</v>
       </c>
       <c r="E190">
-        <v>5.488721314411862e-05</v>
+        <v>4.321069559704099e-05</v>
       </c>
     </row>
     <row r="191" spans="1:5">
       <c r="A191">
-        <v>9.166107845084857e-06</v>
+        <v>3.381688815218607e-05</v>
       </c>
       <c r="B191">
-        <v>0.0004172328234114309</v>
+        <v>0.0004971060713329769</v>
       </c>
       <c r="C191">
-        <v>0.9994683945217732</v>
+        <v>0.9993647946819282</v>
       </c>
       <c r="D191">
-        <v>8.996285004276832e-05</v>
+        <v>8.054249275052267e-05</v>
       </c>
       <c r="E191">
-        <v>1.524369692747987e-05</v>
+        <v>2.373986583610007e-05</v>
       </c>
     </row>
     <row r="192" spans="1:5">
       <c r="A192">
-        <v>4.94884851943682e-08</v>
+        <v>0.0001015183373336179</v>
       </c>
       <c r="B192">
-        <v>3.93414498062108e-07</v>
+        <v>0.001722044424813564</v>
       </c>
       <c r="C192">
-        <v>0.0005953244407849582</v>
+        <v>0.5543590470177843</v>
       </c>
       <c r="D192">
-        <v>4.623894973652508e-07</v>
+        <v>0.001572764549373695</v>
       </c>
       <c r="E192">
-        <v>0.9994037702667344</v>
+        <v>0.4422446256706948</v>
       </c>
     </row>
     <row r="193" spans="1:5">
       <c r="A193">
-        <v>2.31602965046124e-05</v>
+        <v>3.621824163251747e-05</v>
       </c>
       <c r="B193">
-        <v>0.8506529876567219</v>
+        <v>0.4890739008116391</v>
       </c>
       <c r="C193">
-        <v>0.1490605999825109</v>
+        <v>0.5105107619078284</v>
       </c>
       <c r="D193">
-        <v>0.0002111412616880515</v>
+        <v>0.0002840146022210752</v>
       </c>
       <c r="E193">
-        <v>5.211080257443229e-05</v>
+        <v>9.510443667913901e-05</v>
       </c>
     </row>
     <row r="194" spans="1:5">
       <c r="A194">
-        <v>1.198428433284011e-05</v>
+        <v>2.532320393793563e-05</v>
       </c>
       <c r="B194">
-        <v>0.001158855469680417</v>
+        <v>0.0009496725746945908</v>
       </c>
       <c r="C194">
-        <v>0.998728095630568</v>
+        <v>0.9989285066737127</v>
       </c>
       <c r="D194">
-        <v>8.167603555609032e-05</v>
+        <v>7.052375513851876e-05</v>
       </c>
       <c r="E194">
-        <v>1.938857986277624e-05</v>
+        <v>2.597379251644672e-05</v>
       </c>
     </row>
     <row r="195" spans="1:5">
       <c r="A195">
-        <v>8.10999458576091e-06</v>
+        <v>7.729221594907624e-05</v>
       </c>
       <c r="B195">
-        <v>0.9447507857130121</v>
+        <v>0.45006836596602</v>
       </c>
       <c r="C195">
-        <v>0.05511402477069766</v>
+        <v>0.5490270764158296</v>
       </c>
       <c r="D195">
-        <v>0.0001088319864600461</v>
+        <v>0.0006243060003588364</v>
       </c>
       <c r="E195">
-        <v>1.824753524438417e-05</v>
+        <v>0.0002029594018424001</v>
       </c>
     </row>
     <row r="196" spans="1:5">
       <c r="A196">
-        <v>7.076196506443199e-06</v>
+        <v>2.044936073611704e-05</v>
       </c>
       <c r="B196">
-        <v>0.0006705656229988508</v>
+        <v>0.000252667314003049</v>
       </c>
       <c r="C196">
-        <v>0.9992360201583163</v>
+        <v>0.9996598242965076</v>
       </c>
       <c r="D196">
-        <v>7.456995259379707e-05</v>
+        <v>5.208769522664607e-05</v>
       </c>
       <c r="E196">
-        <v>1.176806958488424e-05</v>
+        <v>1.497133352659122e-05</v>
       </c>
     </row>
     <row r="197" spans="1:5">
       <c r="A197">
-        <v>1.128914190802114e-05</v>
+        <v>1.257445633803419e-05</v>
       </c>
       <c r="B197">
-        <v>0.0007172048362335547</v>
+        <v>0.001368784762197322</v>
       </c>
       <c r="C197">
-        <v>0.9991050265155574</v>
+        <v>0.9984896099441287</v>
       </c>
       <c r="D197">
-        <v>0.0001410948573709218</v>
+        <v>9.739010576094941e-05</v>
       </c>
       <c r="E197">
-        <v>2.538464892977957e-05</v>
+        <v>3.164073157507746e-05</v>
       </c>
     </row>
     <row r="198" spans="1:5">
       <c r="A198">
-        <v>8.403898244378064e-06</v>
+        <v>7.345526616810345e-05</v>
       </c>
       <c r="B198">
-        <v>0.03344434923729252</v>
+        <v>0.09871021333914061</v>
       </c>
       <c r="C198">
-        <v>0.9664440687097157</v>
+        <v>0.900997911978299</v>
       </c>
       <c r="D198">
-        <v>8.836265190371274e-05</v>
+        <v>0.0001648328962939697</v>
       </c>
       <c r="E198">
-        <v>1.481550284384624e-05</v>
+        <v>5.358652009839026e-05</v>
       </c>
     </row>
     <row r="199" spans="1:5">
       <c r="A199">
-        <v>8.412298902056106e-06</v>
+        <v>2.433225165361121e-05</v>
       </c>
       <c r="B199">
-        <v>0.0005926597584404373</v>
+        <v>0.0008237759327837909</v>
       </c>
       <c r="C199">
-        <v>0.9993247135785815</v>
+        <v>0.9990810366693272</v>
       </c>
       <c r="D199">
-        <v>6.02242892163016e-05</v>
+        <v>5.30410805706044e-05</v>
       </c>
       <c r="E199">
-        <v>1.399007485986303e-05</v>
+        <v>1.781406566493658e-05</v>
       </c>
     </row>
     <row r="200" spans="1:5">
       <c r="A200">
-        <v>1.381919853491092e-06</v>
+        <v>5.125268722592078e-06</v>
       </c>
       <c r="B200">
-        <v>4.274515887773347e-05</v>
+        <v>5.940521032340978e-05</v>
       </c>
       <c r="C200">
-        <v>0.9998552846273023</v>
+        <v>0.9997346481645102</v>
       </c>
       <c r="D200">
-        <v>9.765513071638354e-05</v>
+        <v>0.0001978493920159477</v>
       </c>
       <c r="E200">
-        <v>2.933163250433301e-06</v>
+        <v>2.971964427573224e-06</v>
       </c>
     </row>
     <row r="201" spans="1:5">
       <c r="A201">
-        <v>5.162243647899491e-06</v>
+        <v>3.624956345121204e-05</v>
       </c>
       <c r="B201">
-        <v>0.0005001972995061973</v>
+        <v>0.001426405783290375</v>
       </c>
       <c r="C201">
-        <v>0.9994346798158349</v>
+        <v>0.9984074847416683</v>
       </c>
       <c r="D201">
-        <v>5.178786871486806e-05</v>
+        <v>9.59544045921454e-05</v>
       </c>
       <c r="E201">
-        <v>8.172772296225278e-06</v>
+        <v>3.390550699784277e-05</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="A202">
-        <v>2.994264918916221e-05</v>
+        <v>2.596163371470133e-05</v>
       </c>
       <c r="B202">
-        <v>0.001631366589396792</v>
+        <v>0.0004930218327776797</v>
       </c>
       <c r="C202">
-        <v>0.9980898996181996</v>
+        <v>0.9994022672358865</v>
       </c>
       <c r="D202">
-        <v>0.0002095013729691818</v>
+        <v>5.878742285024272e-05</v>
       </c>
       <c r="E202">
-        <v>3.928977024534884e-05</v>
+        <v>1.996187477086719e-05</v>
       </c>
     </row>
     <row r="203" spans="1:5">
       <c r="A203">
-        <v>3.933803074549238e-05</v>
+        <v>8.534083628268234e-05</v>
       </c>
       <c r="B203">
-        <v>0.01194134516597375</v>
+        <v>0.02914804192883912</v>
       </c>
       <c r="C203">
-        <v>0.9875702997999928</v>
+        <v>0.9698518115253876</v>
       </c>
       <c r="D203">
-        <v>0.0003586258682945826</v>
+        <v>0.0006692219880790263</v>
       </c>
       <c r="E203">
-        <v>9.039113499356562e-05</v>
+        <v>0.0002455837214116375</v>
       </c>
     </row>
     <row r="204" spans="1:5">
       <c r="A204">
-        <v>5.808072734996084e-06</v>
+        <v>1.08706603094123e-05</v>
       </c>
       <c r="B204">
-        <v>0.0004684423373747624</v>
+        <v>0.0002529484047701975</v>
       </c>
       <c r="C204">
-        <v>0.9994406597878377</v>
+        <v>0.9996244502924237</v>
       </c>
       <c r="D204">
-        <v>7.275424282078853e-05</v>
+        <v>8.424402316256316e-05</v>
       </c>
       <c r="E204">
-        <v>1.233555923194277e-05</v>
+        <v>2.748661933398467e-05</v>
       </c>
     </row>
     <row r="205" spans="1:5">
       <c r="A205">
-        <v>1.102513054906784e-05</v>
+        <v>1.310535781962037e-05</v>
       </c>
       <c r="B205">
-        <v>0.9576649185425056</v>
+        <v>0.7247216845487188</v>
       </c>
       <c r="C205">
-        <v>0.04215129809608697</v>
+        <v>0.2751249422932114</v>
       </c>
       <c r="D205">
-        <v>0.0001479516226488102</v>
+        <v>0.0001058548189254805</v>
       </c>
       <c r="E205">
-        <v>2.48066082092429e-05</v>
+        <v>3.441298132470687e-05</v>
       </c>
     </row>
     <row r="206" spans="1:5">
       <c r="A206">
-        <v>6.394091306224756e-05</v>
+        <v>4.828349396454539e-05</v>
       </c>
       <c r="B206">
-        <v>0.003811236835911126</v>
+        <v>0.0006256321675768827</v>
       </c>
       <c r="C206">
-        <v>0.9955935421776291</v>
+        <v>0.9991901261922118</v>
       </c>
       <c r="D206">
-        <v>0.0004473788872459738</v>
+        <v>9.883301496206732e-05</v>
       </c>
       <c r="E206">
-        <v>8.390118615165283e-05</v>
+        <v>3.712513128456889e-05</v>
       </c>
     </row>
     <row r="207" spans="1:5">
       <c r="A207">
-        <v>9.892429521780192e-07</v>
+        <v>8.135174068627833e-06</v>
       </c>
       <c r="B207">
-        <v>0.0002880475971897922</v>
+        <v>0.007048485958376568</v>
       </c>
       <c r="C207">
-        <v>0.9996955571387257</v>
+        <v>0.9928561782920049</v>
       </c>
       <c r="D207">
-        <v>1.33050031892418e-05</v>
+        <v>6.57485461668127e-05</v>
       </c>
       <c r="E207">
-        <v>2.101017943154618e-06</v>
+        <v>2.145202938329272e-05</v>
       </c>
     </row>
     <row r="208" spans="1:5">
       <c r="A208">
-        <v>6.070741565133235e-07</v>
+        <v>3.013074505473788e-06</v>
       </c>
       <c r="B208">
-        <v>0.0003233090393448428</v>
+        <v>0.0003559155941774802</v>
       </c>
       <c r="C208">
-        <v>0.9996690319760079</v>
+        <v>0.9996296080675003</v>
       </c>
       <c r="D208">
-        <v>6.090196213519246e-06</v>
+        <v>8.643210500465181e-06</v>
       </c>
       <c r="E208">
-        <v>9.617142769482809e-07</v>
+        <v>2.820053315727203e-06</v>
       </c>
     </row>
     <row r="209" spans="1:5">
       <c r="A209">
-        <v>6.681605236914018e-06</v>
+        <v>8.22381652450008e-06</v>
       </c>
       <c r="B209">
-        <v>0.001327121969571274</v>
+        <v>0.0002242619704197592</v>
       </c>
       <c r="C209">
-        <v>0.9985913796647693</v>
+        <v>0.999682012116281</v>
       </c>
       <c r="D209">
-        <v>6.091297490697338e-05</v>
+        <v>6.448915998307235e-05</v>
       </c>
       <c r="E209">
-        <v>1.390378551597203e-05</v>
+        <v>2.10129367917686e-05</v>
       </c>
     </row>
     <row r="210" spans="1:5">
       <c r="A210">
-        <v>4.398394985663134e-08</v>
+        <v>6.087943244106827e-08</v>
       </c>
       <c r="B210">
-        <v>2.427963343608717e-06</v>
+        <v>3.622842765060763e-06</v>
       </c>
       <c r="C210">
-        <v>0.000346537879145331</v>
+        <v>0.0001902299869592974</v>
       </c>
       <c r="D210">
-        <v>5.497237241053519e-07</v>
+        <v>4.715157621700513e-07</v>
       </c>
       <c r="E210">
-        <v>0.9996504404498366</v>
+        <v>0.9998056147750805</v>
       </c>
     </row>
     <row r="211" spans="1:5">
       <c r="A211">
-        <v>9.277961000257213e-06</v>
+        <v>1.490049958861467e-05</v>
       </c>
       <c r="B211">
-        <v>0.001817264391757382</v>
+        <v>0.001680874406380225</v>
       </c>
       <c r="C211">
-        <v>0.9980656827571307</v>
+        <v>0.9982417882720802</v>
       </c>
       <c r="D211">
-        <v>9.307693688934971e-05</v>
+        <v>4.849086635172934e-05</v>
       </c>
       <c r="E211">
-        <v>1.469795322232744e-05</v>
+        <v>1.394595559934789e-05</v>
       </c>
     </row>
     <row r="212" spans="1:5">
       <c r="A212">
-        <v>6.283079685227018e-06</v>
+        <v>5.76323815915836e-06</v>
       </c>
       <c r="B212">
-        <v>0.02460678966035625</v>
+        <v>0.01372002552679771</v>
       </c>
       <c r="C212">
-        <v>0.9752895288130763</v>
+        <v>0.9862129249788741</v>
       </c>
       <c r="D212">
-        <v>8.431572129907417e-05</v>
+        <v>4.655092521386798e-05</v>
       </c>
       <c r="E212">
-        <v>1.308272558286412e-05</v>
+        <v>1.473533095512727e-05</v>
       </c>
     </row>
     <row r="213" spans="1:5">
       <c r="A213">
-        <v>4.396767299416891e-08</v>
+        <v>6.08620125379206e-08</v>
       </c>
       <c r="B213">
-        <v>1.759413859892951e-06</v>
+        <v>2.927330842807561e-06</v>
       </c>
       <c r="C213">
-        <v>0.0007171409717169662</v>
+        <v>0.0004769576900988022</v>
       </c>
       <c r="D213">
-        <v>5.495202913195571e-07</v>
+        <v>5.214599739152114e-07</v>
       </c>
       <c r="E213">
-        <v>0.9992805061264586</v>
+        <v>0.9995195326570723</v>
       </c>
     </row>
     <row r="214" spans="1:5">
       <c r="A214">
-        <v>1.934628248193513e-05</v>
+        <v>3.357818734908406e-05</v>
       </c>
       <c r="B214">
-        <v>0.0009233181774361288</v>
+        <v>0.0008622332813165668</v>
       </c>
       <c r="C214">
-        <v>0.9988965887836668</v>
+        <v>0.9990023359785177</v>
       </c>
       <c r="D214">
-        <v>0.0001353611938679779</v>
+        <v>7.603431740574436e-05</v>
       </c>
       <c r="E214">
-        <v>2.538556254708323e-05</v>
+        <v>2.581823541080046e-05</v>
       </c>
     </row>
     <row r="215" spans="1:5">
       <c r="A215">
-        <v>7.565103442585441e-06</v>
+        <v>7.790004475986796e-06</v>
       </c>
       <c r="B215">
-        <v>0.0003696483576444191</v>
+        <v>0.0004961859719055882</v>
       </c>
       <c r="C215">
-        <v>0.9880470498112086</v>
+        <v>0.9918224013147146</v>
       </c>
       <c r="D215">
-        <v>0.01155967958564402</v>
+        <v>0.007653094112612259</v>
       </c>
       <c r="E215">
-        <v>1.605714206034529e-05</v>
+        <v>2.052859629137208e-05</v>
       </c>
     </row>
     <row r="216" spans="1:5">
       <c r="A216">
-        <v>1.185273396026374e-06</v>
+        <v>7.615458633571569e-06</v>
       </c>
       <c r="B216">
-        <v>0.0002017246098542365</v>
+        <v>0.0003026526756814829</v>
       </c>
       <c r="C216">
-        <v>0.999783393539564</v>
+        <v>0.9996670872805238</v>
       </c>
       <c r="D216">
-        <v>1.16070205462599e-05</v>
+        <v>1.708901442553889e-05</v>
       </c>
       <c r="E216">
-        <v>2.089556638945674e-06</v>
+        <v>5.55557073596919e-06</v>
       </c>
     </row>
     <row r="217" spans="1:5">
       <c r="A217">
-        <v>3.220118579999101e-05</v>
+        <v>7.016103503248082e-05</v>
       </c>
       <c r="B217">
-        <v>0.01315604083192514</v>
+        <v>0.02230680906505282</v>
       </c>
       <c r="C217">
-        <v>0.9863072272536845</v>
+        <v>0.9769159714369022</v>
       </c>
       <c r="D217">
-        <v>0.0004321234718374652</v>
+        <v>0.0005229433594187199</v>
       </c>
       <c r="E217">
-        <v>7.24072567530209e-05</v>
+        <v>0.0001841151035937268</v>
       </c>
     </row>
     <row r="218" spans="1:5">
       <c r="A218">
-        <v>1.530844502380367e-05</v>
+        <v>3.440780606271346e-05</v>
       </c>
       <c r="B218">
-        <v>0.0008620333846710376</v>
+        <v>0.001217002610530789</v>
       </c>
       <c r="C218">
-        <v>0.9988079672085528</v>
+        <v>0.9985400112754004</v>
       </c>
       <c r="D218">
-        <v>0.0002904396409223136</v>
+        <v>0.0001763747075317453</v>
       </c>
       <c r="E218">
-        <v>2.425132083010479e-05</v>
+        <v>3.220360047445828e-05</v>
       </c>
     </row>
     <row r="219" spans="1:5">
       <c r="A219">
-        <v>2.689487955270456e-07</v>
+        <v>2.999548124220037e-06</v>
       </c>
       <c r="B219">
-        <v>1.389876610757493e-05</v>
+        <v>2.353066496972844e-05</v>
       </c>
       <c r="C219">
-        <v>0.001836457511487651</v>
+        <v>0.00351528632253548</v>
       </c>
       <c r="D219">
-        <v>0.9981487700181013</v>
+        <v>0.9964564521570922</v>
       </c>
       <c r="E219">
-        <v>6.047555084492557e-07</v>
+        <v>1.731307278645221e-06</v>
       </c>
     </row>
     <row r="220" spans="1:5">
       <c r="A220">
-        <v>1.704537218990066e-05</v>
+        <v>3.844441099477333e-05</v>
       </c>
       <c r="B220">
-        <v>0.0007282172566378126</v>
+        <v>0.0006472268345324868</v>
       </c>
       <c r="C220">
-        <v>0.9991144830375032</v>
+        <v>0.9991979620407602</v>
       </c>
       <c r="D220">
-        <v>0.0001195306183452939</v>
+        <v>8.710501676661929e-05</v>
       </c>
       <c r="E220">
-        <v>2.072371532362256e-05</v>
+        <v>2.926169694581414e-05</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="A221">
-        <v>7.652788568637683e-06</v>
+        <v>7.84727773245595e-06</v>
       </c>
       <c r="B221">
-        <v>0.0003739328546220279</v>
+        <v>0.0004998340040104412</v>
       </c>
       <c r="C221">
-        <v>0.9994992435274962</v>
+        <v>0.9991144252073149</v>
       </c>
       <c r="D221">
-        <v>0.0001029275731387717</v>
+        <v>0.0003572139853969015</v>
       </c>
       <c r="E221">
-        <v>1.624325617448607e-05</v>
+        <v>2.067952554487534e-05</v>
       </c>
     </row>
     <row r="222" spans="1:5">
       <c r="A222">
-        <v>6.543626808921234e-06</v>
+        <v>5.294857947109692e-06</v>
       </c>
       <c r="B222">
-        <v>0.004987483824025598</v>
+        <v>0.0005288155388228275</v>
       </c>
       <c r="C222">
-        <v>0.9949040650726664</v>
+        <v>0.9994091342521404</v>
       </c>
       <c r="D222">
-        <v>8.800970011483881e-05</v>
+        <v>4.279308706186975e-05</v>
       </c>
       <c r="E222">
-        <v>1.389777638403335e-05</v>
+        <v>1.396226402822582e-05</v>
       </c>
     </row>
     <row r="223" spans="1:5">
       <c r="A223">
-        <v>9.037925504810265e-07</v>
+        <v>1.414441584312123e-05</v>
       </c>
       <c r="B223">
-        <v>2.827738556952531e-05</v>
+        <v>4.547726057489922e-05</v>
       </c>
       <c r="C223">
-        <v>0.9999617056781237</v>
+        <v>0.9998963715000533</v>
       </c>
       <c r="D223">
-        <v>7.681374358439933e-06</v>
+        <v>4.109384097441526e-05</v>
       </c>
       <c r="E223">
-        <v>1.43176939731584e-06</v>
+        <v>2.912982553930431e-06</v>
       </c>
     </row>
     <row r="224" spans="1:5">
       <c r="A224">
-        <v>2.780750732410278e-05</v>
+        <v>3.811892127914679e-05</v>
       </c>
       <c r="B224">
-        <v>0.4806793424469808</v>
+        <v>0.7075026302771255</v>
       </c>
       <c r="C224">
-        <v>0.518857120441542</v>
+        <v>0.2920512606261779</v>
       </c>
       <c r="D224">
-        <v>0.00037316255005865</v>
+        <v>0.0003078947988430899</v>
       </c>
       <c r="E224">
-        <v>6.256705409470106e-05</v>
+        <v>0.000100095376574407</v>
       </c>
     </row>
     <row r="225" spans="1:5">
       <c r="A225">
-        <v>5.484567516243825e-06</v>
+        <v>2.62779216183181e-05</v>
       </c>
       <c r="B225">
-        <v>0.0003917768565690644</v>
+        <v>0.0002418247198145885</v>
       </c>
       <c r="C225">
-        <v>0.999539028601131</v>
+        <v>0.9996319228151215</v>
       </c>
       <c r="D225">
-        <v>5.502143677480987e-05</v>
+        <v>7.538001720476336e-05</v>
       </c>
       <c r="E225">
-        <v>8.68853800918257e-06</v>
+        <v>2.459452624073261e-05</v>
       </c>
     </row>
     <row r="226" spans="1:5">
       <c r="A226">
-        <v>0.0001654937778502367</v>
+        <v>5.744276556262664e-05</v>
       </c>
       <c r="B226">
-        <v>0.01010434839256489</v>
+        <v>0.001090861147981902</v>
       </c>
       <c r="C226">
-        <v>0.9883550829013062</v>
+        <v>0.9986774552242977</v>
       </c>
       <c r="D226">
-        <v>0.001157919376420126</v>
+        <v>0.0001300731758997603</v>
       </c>
       <c r="E226">
-        <v>0.0002171555518582533</v>
+        <v>4.416768625789954e-05</v>
       </c>
     </row>
     <row r="227" spans="1:5">
       <c r="A227">
-        <v>1.8540303129536e-05</v>
+        <v>7.934262060429036e-05</v>
       </c>
       <c r="B227">
-        <v>0.0818472848414729</v>
+        <v>0.004093979932546215</v>
       </c>
       <c r="C227">
-        <v>0.9179683406854017</v>
+        <v>0.9955903506891954</v>
       </c>
       <c r="D227">
-        <v>0.0001324334801691093</v>
+        <v>0.0001728538474196609</v>
       </c>
       <c r="E227">
-        <v>3.34006898266315e-05</v>
+        <v>6.347291023438768e-05</v>
       </c>
     </row>
     <row r="228" spans="1:5">
       <c r="A228">
-        <v>4.423774850802621e-05</v>
+        <v>5.731577524882429e-05</v>
       </c>
       <c r="B228">
-        <v>0.008591738537353275</v>
+        <v>0.009958399493379773</v>
       </c>
       <c r="C228">
-        <v>0.9906709031680636</v>
+        <v>0.9893709259327033</v>
       </c>
       <c r="D228">
-        <v>0.0005936479976326298</v>
+        <v>0.0004629519540057536</v>
       </c>
       <c r="E228">
-        <v>9.94725484425209e-05</v>
+        <v>0.0001504068446625212</v>
       </c>
     </row>
     <row r="229" spans="1:5">
       <c r="A229">
-        <v>1.14192933622866e-05</v>
+        <v>1.3674819663515e-05</v>
       </c>
       <c r="B229">
-        <v>0.005839034876366714</v>
+        <v>0.00657704781222017</v>
       </c>
       <c r="C229">
-        <v>0.9939860249408866</v>
+        <v>0.9932883156105944</v>
       </c>
       <c r="D229">
-        <v>0.0001378435832264764</v>
+        <v>8.65522143434576e-05</v>
       </c>
       <c r="E229">
-        <v>2.567730615750754e-05</v>
+        <v>3.440954317858896e-05</v>
       </c>
     </row>
     <row r="230" spans="1:5">
       <c r="A230">
-        <v>1.963008183998799e-05</v>
+        <v>2.156202077736688e-05</v>
       </c>
       <c r="B230">
-        <v>0.0004386171738195154</v>
+        <v>0.0002609457333233171</v>
       </c>
       <c r="C230">
-        <v>0.9991492203897271</v>
+        <v>0.9995907550834643</v>
       </c>
       <c r="D230">
-        <v>0.0001373468683747402</v>
+        <v>4.882495635191842e-05</v>
       </c>
       <c r="E230">
-        <v>0.0002551854862387611</v>
+        <v>7.791220608283704e-05</v>
       </c>
     </row>
     <row r="231" spans="1:5">
       <c r="A231">
-        <v>6.662868469923375e-06</v>
+        <v>1.827127840627205e-05</v>
       </c>
       <c r="B231">
-        <v>9.159933529960586e-05</v>
+        <v>0.0001697449461257333</v>
       </c>
       <c r="C231">
-        <v>0.9998204428681989</v>
+        <v>0.9995675402444321</v>
       </c>
       <c r="D231">
-        <v>7.021424369553432e-05</v>
+        <v>0.0002310668095580489</v>
       </c>
       <c r="E231">
-        <v>1.108068433622421e-05</v>
+        <v>1.337672147835778e-05</v>
       </c>
     </row>
     <row r="232" spans="1:5">
       <c r="A232">
-        <v>1.831613868805232e-05</v>
+        <v>1.688777198958001e-05</v>
       </c>
       <c r="B232">
-        <v>0.687752717138634</v>
+        <v>0.3695294976167169</v>
       </c>
       <c r="C232">
-        <v>0.3119419620743593</v>
+        <v>0.6302728632986849</v>
       </c>
       <c r="D232">
-        <v>0.0002457932291592782</v>
+        <v>0.0001364061989467735</v>
       </c>
       <c r="E232">
-        <v>4.121141915903074e-05</v>
+        <v>4.434511366208232e-05</v>
       </c>
     </row>
     <row r="233" spans="1:5">
       <c r="A233">
-        <v>9.513285945015475e-06</v>
+        <v>5.251993772786026e-05</v>
       </c>
       <c r="B233">
-        <v>0.0004464742420687832</v>
+        <v>0.001270183477389006</v>
       </c>
       <c r="C233">
-        <v>0.9994348210920101</v>
+        <v>0.9985153389572493</v>
       </c>
       <c r="D233">
-        <v>9.33703084613314e-05</v>
+        <v>0.0001250879940421315</v>
       </c>
       <c r="E233">
-        <v>1.582107151488872e-05</v>
+        <v>3.686963359161511e-05</v>
       </c>
     </row>
     <row r="234" spans="1:5">
       <c r="A234">
-        <v>4.692063657083915e-07</v>
+        <v>3.460521174761569e-06</v>
       </c>
       <c r="B234">
-        <v>0.0004107662003110626</v>
+        <v>0.0006615828026741108</v>
       </c>
       <c r="C234">
-        <v>0.9995830656370654</v>
+        <v>0.9993247332317616</v>
       </c>
       <c r="D234">
-        <v>4.933462728660773e-06</v>
+        <v>7.765375550027595e-06</v>
       </c>
       <c r="E234">
-        <v>7.654935290586863e-07</v>
+        <v>2.458068839551688e-06</v>
       </c>
     </row>
     <row r="235" spans="1:5">
       <c r="A235">
-        <v>1.108708720483221e-05</v>
+        <v>2.01622016152056e-05</v>
       </c>
       <c r="B235">
-        <v>0.0009574855448382998</v>
+        <v>0.001608930227443862</v>
       </c>
       <c r="C235">
-        <v>0.9988690134274505</v>
+        <v>0.9981471096978425</v>
       </c>
       <c r="D235">
-        <v>0.0001388812901421359</v>
+        <v>0.0001728503153928764</v>
       </c>
       <c r="E235">
-        <v>2.353265036420773e-05</v>
+        <v>5.094755770552989e-05</v>
       </c>
     </row>
     <row r="236" spans="1:5">
       <c r="A236">
-        <v>2.949603745825324e-07</v>
+        <v>9.636370906366122e-07</v>
       </c>
       <c r="B236">
-        <v>1.628436118130083e-05</v>
+        <v>1.364177822613831e-05</v>
       </c>
       <c r="C236">
-        <v>0.001090059812290075</v>
+        <v>0.001195621812831269</v>
       </c>
       <c r="D236">
-        <v>0.9988926976212754</v>
+        <v>0.9987892165707715</v>
       </c>
       <c r="E236">
-        <v>6.632448788383007e-07</v>
+        <v>5.562010809296444e-07</v>
       </c>
     </row>
     <row r="237" spans="1:5">
       <c r="A237">
-        <v>1.242779060377237e-06</v>
+        <v>3.021909952368465e-06</v>
       </c>
       <c r="B237">
-        <v>0.002517198813286198</v>
+        <v>0.007909390683052351</v>
       </c>
       <c r="C237">
-        <v>0.9974676408561292</v>
+        <v>0.9920561639690981</v>
       </c>
       <c r="D237">
-        <v>1.132981776616214e-05</v>
+        <v>2.369707954842477e-05</v>
       </c>
       <c r="E237">
-        <v>2.587733758219497e-06</v>
+        <v>7.726358348384644e-06</v>
       </c>
     </row>
     <row r="238" spans="1:5">
       <c r="A238">
-        <v>3.874953283821025e-08</v>
+        <v>5.425675456092753e-08</v>
       </c>
       <c r="B238">
-        <v>6.649878149416302e-06</v>
+        <v>1.155286156277589e-05</v>
       </c>
       <c r="C238">
-        <v>0.0001945118972519075</v>
+        <v>0.0004940575038411006</v>
       </c>
       <c r="D238">
-        <v>4.84302514180681e-07</v>
+        <v>4.648667475535297e-07</v>
       </c>
       <c r="E238">
-        <v>0.9997983151725522</v>
+        <v>0.9994938705110934</v>
       </c>
     </row>
     <row r="239" spans="1:5">
       <c r="A239">
-        <v>1.253100622647979e-07</v>
+        <v>3.272461176064965e-07</v>
       </c>
       <c r="B239">
-        <v>3.705031657423376e-06</v>
+        <v>4.135410156972953e-06</v>
       </c>
       <c r="C239">
-        <v>0.003672181531203435</v>
+        <v>0.002754619287496877</v>
       </c>
       <c r="D239">
-        <v>0.9963237209599182</v>
+        <v>0.9972407243782344</v>
       </c>
       <c r="E239">
-        <v>2.671671587937059e-07</v>
+        <v>1.936779941696398e-07</v>
       </c>
     </row>
     <row r="240" spans="1:5">
       <c r="A240">
-        <v>6.96269948302521e-06</v>
+        <v>8.302697564266673e-05</v>
       </c>
       <c r="B240">
-        <v>0.0001256994388671252</v>
+        <v>0.000206963480150099</v>
       </c>
       <c r="C240">
-        <v>0.9997731890164403</v>
+        <v>0.9994655909447997</v>
       </c>
       <c r="D240">
-        <v>8.25695268652975e-05</v>
+        <v>0.0002310432422667411</v>
       </c>
       <c r="E240">
-        <v>1.157931834429278e-05</v>
+        <v>1.337535714095066e-05</v>
       </c>
     </row>
     <row r="241" spans="1:5">
       <c r="A241">
-        <v>2.902179063951218e-05</v>
+        <v>6.113089665783708e-05</v>
       </c>
       <c r="B241">
-        <v>0.007377506324848198</v>
+        <v>0.01601787735760643</v>
       </c>
       <c r="C241">
-        <v>0.9922622077816566</v>
+        <v>0.9832657029563965</v>
       </c>
       <c r="D241">
-        <v>0.0002645776789106624</v>
+        <v>0.0004793735563933402</v>
       </c>
       <c r="E241">
-        <v>6.668642394489313e-05</v>
+        <v>0.0001759152329458521</v>
       </c>
     </row>
     <row r="242" spans="1:5">
       <c r="A242">
-        <v>3.413312021392512e-05</v>
+        <v>1.556552891670605e-05</v>
       </c>
       <c r="B242">
-        <v>0.9604315820199737</v>
+        <v>0.9278829032803356</v>
       </c>
       <c r="C242">
-        <v>0.03922269487906355</v>
+        <v>0.07193493196233064</v>
       </c>
       <c r="D242">
-        <v>0.0002639632570350719</v>
+        <v>0.0001257261547250893</v>
       </c>
       <c r="E242">
-        <v>4.762672371384481e-05</v>
+        <v>4.08730736918793e-05</v>
       </c>
     </row>
     <row r="243" spans="1:5">
       <c r="A243">
-        <v>6.643936034094868e-06</v>
+        <v>2.754216893684749e-05</v>
       </c>
       <c r="B243">
-        <v>0.9553963013512892</v>
+        <v>0.8246197622072424</v>
       </c>
       <c r="C243">
-        <v>0.04449294758849551</v>
+        <v>0.1750579093612811</v>
       </c>
       <c r="D243">
-        <v>8.915822925129407e-05</v>
+        <v>0.0002224640750563985</v>
       </c>
       <c r="E243">
-        <v>1.494889492977452e-05</v>
+        <v>7.232218748324952e-05</v>
       </c>
     </row>
     <row r="244" spans="1:5">
       <c r="A244">
-        <v>8.128784221723658e-06</v>
+        <v>1.404691217435329e-05</v>
       </c>
       <c r="B244">
-        <v>0.00390785197296727</v>
+        <v>0.003226143582140374</v>
       </c>
       <c r="C244">
-        <v>0.9959641336089048</v>
+        <v>0.9966094641661587</v>
       </c>
       <c r="D244">
-        <v>0.0001015958218709418</v>
+        <v>0.0001134599577626312</v>
       </c>
       <c r="E244">
-        <v>1.82898120351802e-05</v>
+        <v>3.688538176364116e-05</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245">
-        <v>1.420069596513208e-06</v>
+        <v>5.051067445489537e-06</v>
       </c>
       <c r="B245">
-        <v>4.835801079351874e-05</v>
+        <v>5.605975475250522e-05</v>
       </c>
       <c r="C245">
-        <v>0.9996382737448659</v>
+        <v>0.9997409752203505</v>
       </c>
       <c r="D245">
-        <v>0.0003089340376047955</v>
+        <v>0.0001949850197544832</v>
       </c>
       <c r="E245">
-        <v>3.014137139015375e-06</v>
+        <v>2.928937697080593e-06</v>
       </c>
     </row>
     <row r="246" spans="1:5">
       <c r="A246">
-        <v>9.59229556343815e-06</v>
+        <v>2.13001142577625e-05</v>
       </c>
       <c r="B246">
-        <v>0.09520928520678555</v>
+        <v>0.8397742456757765</v>
       </c>
       <c r="C246">
-        <v>0.9046308160678058</v>
+        <v>0.1599764772090215</v>
       </c>
       <c r="D246">
-        <v>0.0001287237087326508</v>
+        <v>0.0001720456449095874</v>
       </c>
       <c r="E246">
-        <v>2.158272111250307e-05</v>
+        <v>5.593135603433198e-05</v>
       </c>
     </row>
     <row r="247" spans="1:5">
       <c r="A247">
-        <v>7.172275847380059e-06</v>
+        <v>6.82668405271809e-06</v>
       </c>
       <c r="B247">
-        <v>0.004562973078548815</v>
+        <v>0.000345069729428318</v>
       </c>
       <c r="C247">
-        <v>0.9952321883363209</v>
+        <v>0.9995210352545221</v>
       </c>
       <c r="D247">
-        <v>0.0001824333675520577</v>
+        <v>0.0001090667224858162</v>
       </c>
       <c r="E247">
-        <v>1.523294173127274e-05</v>
+        <v>1.800160951123514e-05</v>
       </c>
     </row>
     <row r="248" spans="1:5">
       <c r="A248">
-        <v>1.162528304927073e-05</v>
+        <v>7.149106039361588e-06</v>
       </c>
       <c r="B248">
-        <v>0.0007442757470667243</v>
+        <v>0.001701761604915816</v>
       </c>
       <c r="C248">
-        <v>0.9991882500586899</v>
+        <v>0.9982126986878114</v>
       </c>
       <c r="D248">
-        <v>4.702910008252972e-05</v>
+        <v>5.698503310405962e-05</v>
       </c>
       <c r="E248">
-        <v>8.819811111022743e-06</v>
+        <v>2.140556812979639e-05</v>
       </c>
     </row>
     <row r="249" spans="1:5">
       <c r="A249">
-        <v>4.105681192901541e-06</v>
+        <v>5.100581708328886e-06</v>
       </c>
       <c r="B249">
-        <v>0.001018560435282297</v>
+        <v>0.001188355010985359</v>
       </c>
       <c r="C249">
-        <v>0.9989167821233847</v>
+        <v>0.9987475755347549</v>
       </c>
       <c r="D249">
-        <v>5.131395344683576e-05</v>
+        <v>4.557540207236408e-05</v>
       </c>
       <c r="E249">
-        <v>9.2378066936338e-06</v>
+        <v>1.339347047900355e-05</v>
       </c>
     </row>
     <row r="250" spans="1:5">
       <c r="A250">
-        <v>6.962131702134367e-06</v>
+        <v>8.302541734241011e-05</v>
       </c>
       <c r="B250">
-        <v>0.0001298867878721293</v>
+        <v>0.0002257281976819733</v>
       </c>
       <c r="C250">
-        <v>0.9996916614259872</v>
+        <v>0.9994468323729637</v>
       </c>
       <c r="D250">
-        <v>0.0001599112803422789</v>
+        <v>0.0002310389059080943</v>
       </c>
       <c r="E250">
-        <v>1.157837409620324e-05</v>
+        <v>1.337510610419657e-05</v>
       </c>
     </row>
     <row r="251" spans="1:5">
       <c r="A251">
-        <v>1.582551404900982e-05</v>
+        <v>0.07332161804893629</v>
       </c>
       <c r="B251">
-        <v>0.0005112814932476607</v>
+        <v>0.0006254116269061869</v>
       </c>
       <c r="C251">
-        <v>0.9990147541837567</v>
+        <v>0.9256637201422354</v>
       </c>
       <c r="D251">
-        <v>0.0004302570595734005</v>
+        <v>0.0003627178291650787</v>
       </c>
       <c r="E251">
-        <v>2.788174937323425e-05</v>
+        <v>2.653235275711537e-05</v>
       </c>
     </row>
     <row r="252" spans="1:5">
       <c r="A252">
-        <v>4.691239548056738e-07</v>
+        <v>1.437284287707526e-05</v>
       </c>
       <c r="B252">
-        <v>0.0005879146224071847</v>
+        <v>0.01333062795615041</v>
       </c>
       <c r="C252">
-        <v>0.9994074999397491</v>
+        <v>0.9866134776030179</v>
       </c>
       <c r="D252">
-        <v>3.350954810800122e-06</v>
+        <v>3.131231576092396e-05</v>
       </c>
       <c r="E252">
-        <v>7.653590785964474e-07</v>
+        <v>1.020928219413235e-05</v>
       </c>
     </row>
     <row r="253" spans="1:5">
       <c r="A253">
-        <v>4.497332717157321e-06</v>
+        <v>8.435005954845227e-06</v>
       </c>
       <c r="B253">
-        <v>0.976715115638971</v>
+        <v>0.9096559884998042</v>
       </c>
       <c r="C253">
-        <v>0.0232099160946261</v>
+        <v>0.09024529588178704</v>
       </c>
       <c r="D253">
-        <v>6.035190877184369e-05</v>
+        <v>6.813137346381546e-05</v>
       </c>
       <c r="E253">
-        <v>1.011902491354753e-05</v>
+        <v>2.214923899012538e-05</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254">
-        <v>4.094841174943858e-06</v>
+        <v>2.597288008181818e-06</v>
       </c>
       <c r="B254">
-        <v>0.1673762117353836</v>
+        <v>0.05683251369224695</v>
       </c>
       <c r="C254">
-        <v>0.8325555293290686</v>
+        <v>0.943137090017189</v>
       </c>
       <c r="D254">
-        <v>5.495067778343241e-05</v>
+        <v>2.097885884441822e-05</v>
       </c>
       <c r="E254">
-        <v>9.213416589837708e-06</v>
+        <v>6.820143711500364e-06</v>
       </c>
     </row>
     <row r="255" spans="1:5">
       <c r="A255">
-        <v>1.296918126519427e-05</v>
+        <v>1.62441488657937e-05</v>
       </c>
       <c r="B255">
-        <v>0.01004047529142491</v>
+        <v>0.007260419058045642</v>
       </c>
       <c r="C255">
-        <v>0.989795902589056</v>
+        <v>0.9926615358108756</v>
       </c>
       <c r="D255">
-        <v>0.0001301074305112464</v>
+        <v>4.659745313064209e-05</v>
       </c>
       <c r="E255">
-        <v>2.054550774274932e-05</v>
+        <v>1.520352908198149e-05</v>
       </c>
     </row>
     <row r="256" spans="1:5">
       <c r="A256">
-        <v>7.712513242116402e-06</v>
+        <v>9.185531925608999e-06</v>
       </c>
       <c r="B256">
-        <v>0.0007302746029293984</v>
+        <v>0.000205590120023488</v>
       </c>
       <c r="C256">
-        <v>0.9874607171742272</v>
+        <v>0.9934822029432511</v>
       </c>
       <c r="D256">
-        <v>0.01178492568614937</v>
+        <v>0.006278815247126526</v>
       </c>
       <c r="E256">
-        <v>1.637002345187148e-05</v>
+        <v>2.42061576734139e-05</v>
       </c>
     </row>
     <row r="257" spans="1:5">
       <c r="A257">
-        <v>1.511532435598941e-05</v>
+        <v>6.654202957810682e-05</v>
       </c>
       <c r="B257">
-        <v>0.01553594940819682</v>
+        <v>0.008860431272494978</v>
       </c>
       <c r="C257">
-        <v>0.9842633581423904</v>
+        <v>0.990265910121949</v>
       </c>
       <c r="D257">
-        <v>0.0001589298329942895</v>
+        <v>0.0007585733469981414</v>
       </c>
       <c r="E257">
-        <v>2.664729206254125e-05</v>
+        <v>4.854322897986133e-05</v>
       </c>
     </row>
     <row r="258" spans="1:5">
       <c r="A258">
-        <v>2.758932274129203e-05</v>
+        <v>3.106003245301981e-05</v>
       </c>
       <c r="B258">
-        <v>0.008415741143610172</v>
+        <v>0.0003819824791347743</v>
       </c>
       <c r="C258">
-        <v>0.9913109913658861</v>
+        <v>0.9994966468065782</v>
       </c>
       <c r="D258">
-        <v>0.0001970706735812408</v>
+        <v>6.766660931531794e-05</v>
       </c>
       <c r="E258">
-        <v>4.860749418108832e-05</v>
+        <v>2.264407251897604e-05</v>
       </c>
     </row>
     <row r="259" spans="1:5">
       <c r="A259">
-        <v>1.478081118598099e-06</v>
+        <v>3.214947098274029e-06</v>
       </c>
       <c r="B259">
-        <v>0.002978844323030723</v>
+        <v>0.007962830687851891</v>
       </c>
       <c r="C259">
-        <v>0.9969967648185938</v>
+        <v>0.9919997666278793</v>
       </c>
       <c r="D259">
-        <v>1.983509391837965e-05</v>
+        <v>2.596782534493625e-05</v>
       </c>
       <c r="E259">
-        <v>3.077683338840718e-06</v>
+        <v>8.219911825266664e-06</v>
       </c>
     </row>
     <row r="260" spans="1:5">
       <c r="A260">
-        <v>6.204710278921548e-06</v>
+        <v>2.044833203830395e-05</v>
       </c>
       <c r="B260">
-        <v>0.0002934824902392488</v>
+        <v>0.0003091312461242012</v>
       </c>
       <c r="C260">
-        <v>0.9996246079468557</v>
+        <v>0.999609536764866</v>
       </c>
       <c r="D260">
-        <v>6.53861083332168e-05</v>
+        <v>4.591307657228736e-05</v>
       </c>
       <c r="E260">
-        <v>1.031874429291353e-05</v>
+        <v>1.497058039898706e-05</v>
       </c>
     </row>
     <row r="261" spans="1:5">
       <c r="A261">
-        <v>2.230644994763899e-05</v>
+        <v>7.930496625418792e-05</v>
       </c>
       <c r="B261">
-        <v>0.0009611804103032622</v>
+        <v>0.0006335013229692212</v>
       </c>
       <c r="C261">
-        <v>0.9985620103079221</v>
+        <v>0.998621471553703</v>
       </c>
       <c r="D261">
-        <v>0.0004043447768210015</v>
+        <v>0.0006218304395814054</v>
       </c>
       <c r="E261">
-        <v>5.015805500577425e-05</v>
+        <v>4.389171749205471e-05</v>
       </c>
     </row>
     <row r="262" spans="1:5">
       <c r="A262">
-        <v>1.373488461056184e-06</v>
+        <v>1.177430852438447e-05</v>
       </c>
       <c r="B262">
-        <v>0.0001034305576023678</v>
+        <v>0.0008384801147907416</v>
       </c>
       <c r="C262">
-        <v>0.9998738058674974</v>
+        <v>0.9990235372778371</v>
       </c>
       <c r="D262">
-        <v>1.847298311754946e-05</v>
+        <v>9.516006185819254e-05</v>
       </c>
       <c r="E262">
-        <v>2.917103321324006e-06</v>
+        <v>3.104823698943333e-05</v>
       </c>
     </row>
     <row r="263" spans="1:5">
       <c r="A263">
-        <v>9.673675458139689e-06</v>
+        <v>5.765638735980862e-06</v>
       </c>
       <c r="B263">
-        <v>0.01004050838029868</v>
+        <v>0.00726049513765614</v>
       </c>
       <c r="C263">
-        <v>0.989799164509505</v>
+        <v>0.9926719375938026</v>
       </c>
       <c r="D263">
-        <v>0.0001301078592866002</v>
+        <v>4.659794141045853e-05</v>
       </c>
       <c r="E263">
-        <v>2.05455754514675e-05</v>
+        <v>1.520368839490292e-05</v>
       </c>
     </row>
     <row r="264" spans="1:5">
       <c r="A264">
-        <v>5.998650173616284e-06</v>
+        <v>7.835655172674025e-06</v>
       </c>
       <c r="B264">
-        <v>0.000527219009227768</v>
+        <v>0.0006791432160605095</v>
       </c>
       <c r="C264">
-        <v>0.9993738008971846</v>
+        <v>0.9992297097083287</v>
       </c>
       <c r="D264">
-        <v>8.049882248007806e-05</v>
+        <v>6.329028713921365e-05</v>
       </c>
       <c r="E264">
-        <v>1.248262093344359e-05</v>
+        <v>2.002113329923821e-05</v>
       </c>
     </row>
     <row r="265" spans="1:5">
       <c r="A265">
-        <v>1.24622616235934e-05</v>
+        <v>1.734854190571264e-05</v>
       </c>
       <c r="B265">
-        <v>0.895844257575378</v>
+        <v>0.7818991260808662</v>
       </c>
       <c r="C265">
-        <v>0.103948002813583</v>
+        <v>0.2178978424035805</v>
       </c>
       <c r="D265">
-        <v>0.000167237187884413</v>
+        <v>0.0001401279375448228</v>
       </c>
       <c r="E265">
-        <v>2.804016153112148e-05</v>
+        <v>4.555503610274396e-05</v>
       </c>
     </row>
     <row r="266" spans="1:5">
       <c r="A266">
-        <v>0.006441368615557969</v>
+        <v>0.001048625085884155</v>
       </c>
       <c r="B266">
-        <v>0.006194795987043362</v>
+        <v>0.02616364436316691</v>
       </c>
       <c r="C266">
-        <v>0.9870820826491908</v>
+        <v>0.9724337254692962</v>
       </c>
       <c r="D266">
-        <v>0.0002364403363401847</v>
+        <v>0.0002579530066083356</v>
       </c>
       <c r="E266">
-        <v>4.531241186775438e-05</v>
+        <v>9.605207504425578e-05</v>
       </c>
     </row>
     <row r="267" spans="1:5">
       <c r="A267">
-        <v>6.298707113158917e-06</v>
+        <v>1.057567420623388e-05</v>
       </c>
       <c r="B267">
-        <v>0.0004480191358356771</v>
+        <v>0.0008689934911077869</v>
       </c>
       <c r="C267">
-        <v>0.9994751528689015</v>
+        <v>0.9990104767377356</v>
       </c>
       <c r="D267">
-        <v>5.742227724118404e-05</v>
+        <v>8.293185332902687e-05</v>
       </c>
       <c r="E267">
-        <v>1.310701090891398e-05</v>
+        <v>2.702224362178836e-05</v>
       </c>
     </row>
   </sheetData>
